--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A239E1D-4518-45B6-B701-53B45A164CE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25FBB791-636B-4837-9FA6-6166AC3FCB07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="560">
   <si>
     <t>rowid</t>
   </si>
@@ -431,9 +431,6 @@
     <t>RemittanceInstruction_RTGSDescriptionAUDPrefix2</t>
   </si>
   <si>
-    <t>RemittanceInstruction_DDADescriptionAUD</t>
-  </si>
-  <si>
     <t>RemittanceInstruction_DDADescriptionAUD2</t>
   </si>
   <si>
@@ -525,18 +522,6 @@
   </si>
   <si>
     <t>RemittanceInstruction_MethodType</t>
-  </si>
-  <si>
-    <t>RemittanceInstruction_DDAMethod</t>
-  </si>
-  <si>
-    <t>RemittanceInstruction_DDAAccountName</t>
-  </si>
-  <si>
-    <t>RemittanceInstruction_DDAAccountNumber</t>
-  </si>
-  <si>
-    <t>RemittanceInstruction_DDACurrencyAUD</t>
   </si>
   <si>
     <t>RemittanceInstruction_DDACurrencyUSD</t>
@@ -724,9 +709,6 @@
     <t>RI_SendersCorrespondent_Checkbox</t>
   </si>
   <si>
-    <t>Remittance_Instruction</t>
-  </si>
-  <si>
     <t>NoticesSummary</t>
   </si>
   <si>
@@ -1711,6 +1693,21 @@
   </si>
   <si>
     <t>1 Months</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_Method</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_AccountName</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_AccountNumber</t>
+  </si>
+  <si>
+    <t>RemittanceInstruction_Currency</t>
+  </si>
+  <si>
+    <t>Remittance_Description</t>
   </si>
 </sst>
 </file>
@@ -1896,7 +1893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1959,7 +1956,6 @@
     <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1980,6 +1976,8 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2660,16 +2658,16 @@
       <c r="A2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="45" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="15" t="s">
@@ -2746,10 +2744,10 @@
       <c r="AG2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="AH2" s="46" t="s">
+      <c r="AH2" s="45" t="s">
         <v>101</v>
       </c>
-      <c r="AI2" s="46" t="s">
+      <c r="AI2" s="45" t="s">
         <v>90</v>
       </c>
       <c r="AJ2" s="11"/>
@@ -2800,29 +2798,29 @@
       <c r="CC2" s="10"/>
       <c r="CD2" s="10"/>
       <c r="CE2" s="10"/>
-      <c r="CF2" s="46"/>
-      <c r="CG2" s="46"/>
-      <c r="CH2" s="46"/>
-      <c r="CI2" s="46"/>
-      <c r="CJ2" s="46"/>
-      <c r="CK2" s="46"/>
-      <c r="CL2" s="46"/>
-      <c r="CM2" s="46"/>
-      <c r="CN2" s="46"/>
-      <c r="CO2" s="46"/>
-      <c r="CP2" s="46"/>
-      <c r="CQ2" s="46"/>
-      <c r="CR2" s="46"/>
-      <c r="CS2" s="46"/>
-      <c r="CT2" s="46"/>
-      <c r="CU2" s="46"/>
-      <c r="CV2" s="46"/>
-      <c r="CW2" s="46"/>
-      <c r="CX2" s="46"/>
-      <c r="CY2" s="46"/>
-      <c r="CZ2" s="46"/>
-      <c r="DA2" s="46"/>
-      <c r="DB2" s="46"/>
+      <c r="CF2" s="45"/>
+      <c r="CG2" s="45"/>
+      <c r="CH2" s="45"/>
+      <c r="CI2" s="45"/>
+      <c r="CJ2" s="45"/>
+      <c r="CK2" s="45"/>
+      <c r="CL2" s="45"/>
+      <c r="CM2" s="45"/>
+      <c r="CN2" s="45"/>
+      <c r="CO2" s="45"/>
+      <c r="CP2" s="45"/>
+      <c r="CQ2" s="45"/>
+      <c r="CR2" s="45"/>
+      <c r="CS2" s="45"/>
+      <c r="CT2" s="45"/>
+      <c r="CU2" s="45"/>
+      <c r="CV2" s="45"/>
+      <c r="CW2" s="45"/>
+      <c r="CX2" s="45"/>
+      <c r="CY2" s="45"/>
+      <c r="CZ2" s="45"/>
+      <c r="DA2" s="45"/>
+      <c r="DB2" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2835,10 +2833,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:EF2"/>
+  <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BD13" sqref="BD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2897,8 +2895,7 @@
     <col min="53" max="53" width="24.140625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="54.140625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="54.140625" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="19" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="21" bestFit="1" customWidth="1"/>
@@ -2908,94 +2905,89 @@
     <col min="64" max="64" width="28" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="25" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="40.28515625" bestFit="1" customWidth="1"/>
     <col min="71" max="71" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="40" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="42.28515625" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="45.140625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="49.7109375" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="24" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="24" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="103" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="19" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="19" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="21" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="21" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="19" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="19" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="20" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:136" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:135" s="5" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="44" t="s">
         <v>102</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="F1" s="44" t="s">
         <v>105</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -3032,7 +3024,7 @@
         <v>116</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>117</v>
@@ -3172,625 +3164,619 @@
       <c r="BL1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BM1" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="BN1" s="6" t="s">
+      <c r="BN1" s="2" t="s">
         <v>164</v>
       </c>
       <c r="BO1" s="2" t="s">
         <v>165</v>
       </c>
       <c r="BP1" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="BU1" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BV1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BW1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BX1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="BT1" s="2" t="s">
+      <c r="BY1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="BU1" s="2" t="s">
+      <c r="BZ1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="BV1" s="2" t="s">
+      <c r="CA1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="BW1" s="2" t="s">
+      <c r="CB1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="BX1" s="2" t="s">
+      <c r="CC1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="BY1" s="2" t="s">
+      <c r="CD1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="BZ1" s="2" t="s">
+      <c r="CE1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="CA1" s="2" t="s">
+      <c r="CF1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="CB1" s="2" t="s">
+      <c r="CG1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="CC1" s="2" t="s">
+      <c r="CH1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="CD1" s="2" t="s">
+      <c r="CI1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="CE1" s="2" t="s">
+      <c r="CJ1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="CF1" s="2" t="s">
+      <c r="CK1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="CG1" s="2" t="s">
+      <c r="CL1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="CH1" s="2" t="s">
+      <c r="CM1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="CI1" s="2" t="s">
+      <c r="CN1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="CJ1" s="2" t="s">
+      <c r="CO1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="CK1" s="2" t="s">
+      <c r="CP1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="CL1" s="2" t="s">
+      <c r="CQ1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="CM1" s="2" t="s">
+      <c r="CR1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="CN1" s="2" t="s">
+      <c r="CS1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="CO1" s="2" t="s">
+      <c r="CT1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="CP1" s="2" t="s">
+      <c r="CU1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="CQ1" s="2" t="s">
+      <c r="CV1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="CR1" s="2" t="s">
+      <c r="CW1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="CS1" s="2" t="s">
+      <c r="CX1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="CT1" s="2" t="s">
+      <c r="CY1" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="CU1" s="2" t="s">
+      <c r="CZ1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="CV1" s="2" t="s">
+      <c r="DA1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="CW1" s="2" t="s">
+      <c r="DB1" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="CX1" s="2" t="s">
+      <c r="DC1" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="CY1" s="2" t="s">
+      <c r="DD1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="CZ1" s="2" t="s">
+      <c r="DE1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="DA1" s="2" t="s">
+      <c r="DF1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="DB1" s="2" t="s">
+      <c r="DG1" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="DC1" s="2" t="s">
+      <c r="DH1" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="DD1" s="2" t="s">
+      <c r="DI1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="DE1" s="2" t="s">
+      <c r="DJ1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="DF1" s="2" t="s">
+      <c r="DK1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DL1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="DH1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="DI1" s="5" t="s">
+      <c r="DN1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="DJ1" s="2" t="s">
+      <c r="DO1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="DK1" s="2" t="s">
+      <c r="DP1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="DL1" s="2" t="s">
+      <c r="DQ1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="DM1" s="2" t="s">
+      <c r="DR1" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="DN1" s="2" t="s">
+      <c r="DS1" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="DO1" s="2" t="s">
+      <c r="DT1" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="DP1" s="2" t="s">
+      <c r="DU1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="DQ1" s="2" t="s">
+      <c r="DV1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="DR1" s="2" t="s">
+      <c r="DW1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="DS1" s="2" t="s">
+      <c r="DX1" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="DT1" s="2" t="s">
+      <c r="DY1" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="DU1" s="2" t="s">
+      <c r="DZ1" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="DV1" s="2" t="s">
+      <c r="EA1" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="DW1" s="2" t="s">
+      <c r="EB1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="DX1" s="2" t="s">
+      <c r="EC1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="DY1" s="2" t="s">
+      <c r="ED1" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="DZ1" s="2" t="s">
+      <c r="EE1" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="EA1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:135" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="EB1" s="2" t="s">
+      <c r="C2" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="EC1" s="2" t="s">
+      <c r="D2" s="38" t="s">
         <v>231</v>
-      </c>
-      <c r="ED1" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="EE1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="EF1" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:136" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>237</v>
       </c>
       <c r="E2" s="38" t="s">
         <v>84</v>
       </c>
       <c r="F2" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="K2" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="L2" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="M2" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="37" t="s">
+      <c r="O2" s="39" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="P2" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="Q2" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="R2" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="S2" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="T2" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="U2" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="V2" s="37" t="s">
         <v>247</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="W2" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="X2" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y2" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="R2" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="S2" s="41" t="s">
+      <c r="Z2" s="42" t="s">
         <v>250</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="AA2" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="AB2" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="AC2" s="42" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD2" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="AE2" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="AF2" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="AG2" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="X2" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="Y2" s="42" t="s">
+      <c r="AH2" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="AI2" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="AA2" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="AB2" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="AC2" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="AD2" s="37" t="s">
+      <c r="AJ2" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AE2" s="44" t="s">
-        <v>258</v>
-      </c>
-      <c r="AF2" s="46" t="s">
+      <c r="AK2" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AG2" s="46" t="s">
+      <c r="AL2" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AH2" s="46" t="s">
+      <c r="AM2" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="AI2" s="46" t="s">
+      <c r="AN2" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="AJ2" s="46" t="s">
+      <c r="AO2" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="AK2" s="46" t="s">
+      <c r="AP2" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="AL2" s="46" t="s">
+      <c r="AQ2" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="AM2" s="46" t="s">
+      <c r="AR2" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="AN2" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="AO2" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AP2" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="AQ2" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="AR2" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="AS2" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="AT2" s="37" t="s">
+      <c r="AS2" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="AU2" s="16"/>
+      <c r="AT2" s="16"/>
+      <c r="AU2" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="AV2" s="16" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AW2" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="AX2" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="AY2" s="7" t="s">
+      <c r="AX2" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY2" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="AZ2" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="BA2" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="BB2" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="BC2" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="BD2" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="AZ2" s="16" t="s">
+      <c r="BE2" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="BA2" s="37" t="s">
+      <c r="BF2" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="BB2" s="16" t="s">
+      <c r="BG2" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="BC2" s="16" t="s">
+      <c r="BH2" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="BI2" s="16" t="s">
         <v>277</v>
       </c>
-      <c r="BD2" s="43" t="s">
+      <c r="BJ2" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="BE2" s="43" t="s">
+      <c r="BK2" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="BL2" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="BM2" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="BF2" s="16" t="s">
+      <c r="BN2" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="BG2" s="16" t="s">
+      <c r="BO2" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="BH2" s="16" t="s">
+      <c r="BP2" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="BQ2" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="BI2" s="16" t="s">
+      <c r="BR2" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="BS2" s="42" t="s">
+        <v>284</v>
+      </c>
+      <c r="BT2" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="BU2" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="BV2" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="BW2" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="BX2" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="BY2" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="BZ2" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="CA2" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="CB2" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="CC2" s="51" t="s">
+        <v>292</v>
+      </c>
+      <c r="CD2" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="CE2" s="51" t="s">
+        <v>294</v>
+      </c>
+      <c r="CF2" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="CG2" s="51" t="s">
+        <v>285</v>
+      </c>
+      <c r="CH2" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="CI2" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="CJ2" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="CK2" s="43" t="s">
         <v>280</v>
       </c>
-      <c r="BJ2" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="BK2" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="BL2" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="BM2" s="37" t="s">
+      <c r="CL2" s="43" t="s">
+        <v>287</v>
+      </c>
+      <c r="CM2" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="CN2" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="CO2" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="CP2" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="CQ2" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="CR2" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="CS2" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="CT2" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="CU2" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="CV2" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="CW2" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="CX2" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="CY2" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="CZ2" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="DA2" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="DB2" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="DC2" s="51" t="s">
+        <v>293</v>
+      </c>
+      <c r="DD2" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="DE2" s="51" t="s">
+        <v>313</v>
+      </c>
+      <c r="DF2" s="51"/>
+      <c r="DG2" s="51"/>
+      <c r="DH2" s="51" t="s">
+        <v>314</v>
+      </c>
+      <c r="DI2" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="DJ2" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="DK2" s="51" t="s">
+        <v>316</v>
+      </c>
+      <c r="DL2" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="DM2" s="51" t="s">
+        <v>318</v>
+      </c>
+      <c r="DN2" s="51" t="s">
+        <v>317</v>
+      </c>
+      <c r="DO2" s="51" t="s">
+        <v>319</v>
+      </c>
+      <c r="DP2" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="DQ2" s="54" t="s">
+        <v>321</v>
+      </c>
+      <c r="DR2" s="51" t="s">
+        <v>320</v>
+      </c>
+      <c r="DS2" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="BN2" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="BO2" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="BP2" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="BQ2" s="37" t="s">
-        <v>288</v>
-      </c>
-      <c r="BR2" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="BS2" s="42" t="s">
-        <v>290</v>
-      </c>
-      <c r="BT2" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="BU2" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="BV2" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="BW2" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="BX2" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="BY2" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="BZ2" s="53" t="s">
-        <v>296</v>
-      </c>
-      <c r="CA2" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="CB2" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="CC2" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="CD2" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="CE2" s="52" t="s">
-        <v>300</v>
-      </c>
-      <c r="CF2" s="52" t="s">
-        <v>270</v>
-      </c>
-      <c r="CG2" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="CH2" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="CI2" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="CJ2" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="CK2" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="CL2" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="CM2" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="CN2" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="CO2" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="CP2" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="CQ2" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="CR2" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="CS2" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="CT2" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="CU2" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="CV2" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="CW2" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="CX2" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="CY2" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="CZ2" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="DA2" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="DB2" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="DC2" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="DD2" s="52" t="s">
-        <v>317</v>
-      </c>
-      <c r="DE2" s="52" t="s">
-        <v>319</v>
-      </c>
-      <c r="DF2" s="52"/>
-      <c r="DG2" s="52"/>
-      <c r="DH2" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="DI2" s="52" t="s">
-        <v>318</v>
-      </c>
-      <c r="DJ2" s="52" t="s">
-        <v>321</v>
-      </c>
-      <c r="DK2" s="52" t="s">
+      <c r="DT2" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="DU2" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="DV2" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="DW2" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="DX2" s="51" t="s">
         <v>322</v>
       </c>
-      <c r="DL2" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="DM2" s="52" t="s">
+      <c r="DY2" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="DZ2" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="EA2" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="EB2" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="EC2" s="51" t="s">
+        <v>250</v>
+      </c>
+      <c r="ED2" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="DN2" s="52" t="s">
-        <v>323</v>
-      </c>
-      <c r="DO2" s="52" t="s">
+      <c r="EE2" s="55" t="s">
         <v>325</v>
-      </c>
-      <c r="DP2" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="DQ2" s="55" t="s">
-        <v>327</v>
-      </c>
-      <c r="DR2" s="52" t="s">
-        <v>326</v>
-      </c>
-      <c r="DS2" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="DT2" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="DU2" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="DV2" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="DW2" s="52" t="s">
-        <v>255</v>
-      </c>
-      <c r="DX2" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="DY2" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="DZ2" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="EA2" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="EB2" s="52" t="s">
-        <v>328</v>
-      </c>
-      <c r="EC2" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="ED2" s="52" t="s">
-        <v>329</v>
-      </c>
-      <c r="EE2" s="56" t="s">
-        <v>330</v>
-      </c>
-      <c r="EF2" s="56" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3912,536 +3898,536 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="J1" s="22" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="K1" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="L1" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="M1" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="P1" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="CA1" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="BY1" s="3" t="s">
+      <c r="CE1" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="BZ1" s="3" t="s">
+      <c r="CF1" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="CD1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="CE1" s="3" t="s">
+      <c r="CK1" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CL1" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="CG1" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="CH1" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="CK1" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="CL1" s="3" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:90" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="50" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>414</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45" t="s">
+        <v>264</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="L2" s="45" t="s">
+        <v>322</v>
+      </c>
+      <c r="M2" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>419</v>
+      </c>
+      <c r="O2" s="50" t="s">
+        <v>420</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="S2" s="46" t="s">
+        <v>423</v>
+      </c>
+      <c r="T2" s="47" t="s">
+        <v>276</v>
+      </c>
+      <c r="U2" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="V2" s="47" t="s">
+        <v>424</v>
+      </c>
+      <c r="W2" s="46" t="s">
+        <v>425</v>
+      </c>
+      <c r="X2" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y2" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z2" s="45" t="s">
+        <v>427</v>
+      </c>
+      <c r="AA2" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="AB2" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="AC2" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="AD2" s="32"/>
+      <c r="AE2" s="45" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="46" t="s">
-        <v>420</v>
-      </c>
-      <c r="D2" s="46" t="s">
-        <v>421</v>
-      </c>
-      <c r="E2" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>423</v>
-      </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46" t="s">
-        <v>270</v>
-      </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="46" t="s">
-        <v>238</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>245</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="M2" s="46" t="s">
-        <v>424</v>
-      </c>
-      <c r="N2" s="51" t="s">
-        <v>425</v>
-      </c>
-      <c r="O2" s="51" t="s">
-        <v>426</v>
-      </c>
-      <c r="P2" s="46" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="S2" s="47" t="s">
-        <v>429</v>
-      </c>
-      <c r="T2" s="48" t="s">
-        <v>282</v>
-      </c>
-      <c r="U2" s="48" t="s">
+      <c r="AF2" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="AG2" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="AH2" s="45" t="s">
         <v>430</v>
       </c>
-      <c r="V2" s="48" t="s">
-        <v>430</v>
-      </c>
-      <c r="W2" s="47" t="s">
+      <c r="AI2" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="X2" s="47" t="s">
-        <v>427</v>
-      </c>
-      <c r="Y2" s="46" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="Z2" s="46" t="s">
+      <c r="AK2" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="AL2" s="50" t="s">
         <v>433</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AM2" s="50" t="s">
         <v>434</v>
       </c>
-      <c r="AB2" s="31" t="s">
+      <c r="AN2" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="AC2" s="31" t="s">
+      <c r="AO2" s="50" t="s">
         <v>435</v>
       </c>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="46" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF2" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG2" s="46" t="s">
-        <v>240</v>
-      </c>
-      <c r="AH2" s="46" t="s">
+      <c r="AP2" s="50" t="s">
         <v>436</v>
       </c>
-      <c r="AI2" s="46" t="s">
+      <c r="AQ2" s="50" t="s">
         <v>437</v>
       </c>
-      <c r="AJ2" s="46" t="s">
+      <c r="AR2" s="50" t="s">
         <v>438</v>
       </c>
-      <c r="AK2" s="46" t="s">
-        <v>438</v>
-      </c>
-      <c r="AL2" s="51" t="s">
+      <c r="AS2" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="AT2" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="AU2" s="50" t="s">
         <v>439</v>
       </c>
-      <c r="AM2" s="51" t="s">
+      <c r="AV2" s="50" t="s">
         <v>440</v>
       </c>
-      <c r="AN2" s="51" t="s">
+      <c r="AW2" s="50" t="s">
         <v>441</v>
       </c>
-      <c r="AO2" s="51" t="s">
-        <v>441</v>
-      </c>
-      <c r="AP2" s="51" t="s">
+      <c r="AX2" s="49" t="s">
         <v>442</v>
       </c>
-      <c r="AQ2" s="51" t="s">
+      <c r="AY2" s="49" t="s">
         <v>443</v>
       </c>
-      <c r="AR2" s="51" t="s">
+      <c r="AZ2" s="50" t="s">
         <v>444</v>
       </c>
-      <c r="AS2" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="AT2" s="51" t="s">
-        <v>256</v>
-      </c>
-      <c r="AU2" s="51" t="s">
+      <c r="BA2" s="50" t="s">
+        <v>437</v>
+      </c>
+      <c r="BB2" s="50" t="s">
+        <v>435</v>
+      </c>
+      <c r="BC2" s="10" t="s">
         <v>445</v>
       </c>
-      <c r="AV2" s="51" t="s">
+      <c r="BD2" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="AW2" s="51" t="s">
+      <c r="BE2" s="33" t="s">
         <v>447</v>
       </c>
-      <c r="AX2" s="50" t="s">
+      <c r="BF2" s="31" t="s">
         <v>448</v>
       </c>
-      <c r="AY2" s="50" t="s">
-        <v>449</v>
-      </c>
-      <c r="AZ2" s="51" t="s">
-        <v>450</v>
-      </c>
-      <c r="BA2" s="51" t="s">
-        <v>443</v>
-      </c>
-      <c r="BB2" s="51" t="s">
-        <v>441</v>
-      </c>
-      <c r="BC2" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="BD2" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="BE2" s="33" t="s">
-        <v>453</v>
-      </c>
-      <c r="BF2" s="31" t="s">
-        <v>454</v>
-      </c>
       <c r="BG2" s="31" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="BH2" s="31" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="BI2" s="31" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="BJ2" s="31" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="BK2" s="31" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="BL2" s="31" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="BM2" s="31" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="BN2" s="31" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="BO2" s="31"/>
       <c r="BP2" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="BQ2" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="BR2" s="31" t="s">
+        <v>425</v>
+      </c>
+      <c r="BS2" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="BT2" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="BU2" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="BV2" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="BW2" s="31" t="s">
+        <v>452</v>
+      </c>
+      <c r="BX2" s="31" t="s">
+        <v>453</v>
+      </c>
+      <c r="BY2" s="31" t="s">
+        <v>454</v>
+      </c>
+      <c r="BZ2" s="31" t="s">
+        <v>455</v>
+      </c>
+      <c r="CA2" s="31" t="s">
+        <v>456</v>
+      </c>
+      <c r="CB2" s="31" t="s">
+        <v>457</v>
+      </c>
+      <c r="CC2" s="31" t="s">
+        <v>423</v>
+      </c>
+      <c r="CD2" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="CE2" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="CF2" s="31" t="s">
+        <v>301</v>
+      </c>
+      <c r="CG2" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="CH2" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="CI2" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="CJ2" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="CK2" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="CL2" s="31" t="s">
         <v>429</v>
-      </c>
-      <c r="BQ2" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="BR2" s="31" t="s">
-        <v>431</v>
-      </c>
-      <c r="BS2" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="BT2" s="31" t="s">
-        <v>455</v>
-      </c>
-      <c r="BU2" s="31" t="s">
-        <v>456</v>
-      </c>
-      <c r="BV2" s="31" t="s">
-        <v>457</v>
-      </c>
-      <c r="BW2" s="31" t="s">
-        <v>458</v>
-      </c>
-      <c r="BX2" s="31" t="s">
-        <v>459</v>
-      </c>
-      <c r="BY2" s="31" t="s">
-        <v>460</v>
-      </c>
-      <c r="BZ2" s="31" t="s">
-        <v>461</v>
-      </c>
-      <c r="CA2" s="31" t="s">
-        <v>462</v>
-      </c>
-      <c r="CB2" s="31" t="s">
-        <v>463</v>
-      </c>
-      <c r="CC2" s="31" t="s">
-        <v>429</v>
-      </c>
-      <c r="CD2" s="31" t="s">
-        <v>282</v>
-      </c>
-      <c r="CE2" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="CF2" s="31" t="s">
-        <v>307</v>
-      </c>
-      <c r="CG2" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="CH2" s="10" t="s">
-        <v>466</v>
-      </c>
-      <c r="CI2" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="CJ2" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="CK2" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="CL2" s="31" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="AN7" s="49"/>
+      <c r="AN7" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4502,127 +4488,127 @@
         <v>1</v>
       </c>
       <c r="C1" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>465</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>466</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>469</v>
+      </c>
+      <c r="L1" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="G1" s="25" t="s">
+      <c r="M1" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="N1" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="O1" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="P1" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="T1" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="U1" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="V1" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="W1" s="26" t="s">
         <v>481</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="X1" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="Y1" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="Z1" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="AA1" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="AB1" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="AC1" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="AD1" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="Y1" s="25" t="s">
+      <c r="AE1" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="Z1" s="25" t="s">
+      <c r="AF1" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="AA1" s="25" t="s">
+      <c r="AG1" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AH1" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AI1" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AK1" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="AF1" s="25" t="s">
+      <c r="AL1" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="AG1" s="25" t="s">
+      <c r="AM1" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="AH1" s="25" t="s">
+      <c r="AN1" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="AI1" s="25" t="s">
+      <c r="AO1" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="AJ1" s="25" t="s">
+      <c r="AP1" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="AK1" s="25" t="s">
+      <c r="AQ1" s="25" t="s">
         <v>501</v>
-      </c>
-      <c r="AL1" s="25" t="s">
-        <v>502</v>
-      </c>
-      <c r="AM1" s="25" t="s">
-        <v>503</v>
-      </c>
-      <c r="AN1" s="25" t="s">
-        <v>504</v>
-      </c>
-      <c r="AO1" s="25" t="s">
-        <v>505</v>
-      </c>
-      <c r="AP1" s="25" t="s">
-        <v>506</v>
-      </c>
-      <c r="AQ1" s="25" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:51" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -4630,128 +4616,128 @@
         <v>81</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>503</v>
+      </c>
+      <c r="D2" s="45" t="s">
+        <v>416</v>
+      </c>
+      <c r="E2" s="45"/>
+      <c r="F2" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>505</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>507</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>508</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="M2" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="N2" s="28" t="s">
+        <v>449</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q2" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>422</v>
-      </c>
-      <c r="E2" s="46"/>
-      <c r="F2" s="29" t="s">
-        <v>270</v>
-      </c>
-      <c r="G2" s="27" t="s">
+      <c r="R2" s="29" t="s">
         <v>510</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="S2" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="I2" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="30" t="s">
+      <c r="T2" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="U2" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>276</v>
+      </c>
+      <c r="W2" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="X2" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="Y2" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="L2" s="30" t="s">
+      <c r="Z2" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="AA2" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB2" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="AC2" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="AD2" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="M2" s="30" t="s">
-        <v>514</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>455</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q2" s="28" t="s">
+      <c r="AE2" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF2" s="27" t="s">
         <v>515</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="AG2" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH2" s="30" t="s">
         <v>516</v>
       </c>
-      <c r="S2" s="27" t="s">
-        <v>517</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>516</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="V2" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="W2" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="X2" s="28" t="s">
-        <v>518</v>
-      </c>
-      <c r="Y2" s="27" t="s">
-        <v>519</v>
-      </c>
-      <c r="Z2" s="27" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA2" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB2" s="27" t="s">
-        <v>516</v>
-      </c>
-      <c r="AC2" s="27" t="s">
-        <v>516</v>
-      </c>
-      <c r="AD2" s="27" t="s">
-        <v>520</v>
-      </c>
-      <c r="AE2" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="AF2" s="27" t="s">
-        <v>521</v>
-      </c>
-      <c r="AG2" s="27" t="s">
-        <v>327</v>
-      </c>
-      <c r="AH2" s="30" t="s">
-        <v>522</v>
-      </c>
       <c r="AI2" s="30" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AJ2" s="27" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AK2" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AL2" s="27" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="AM2" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AN2" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AO2" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AP2" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AQ2" s="27" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="AR2" s="28"/>
       <c r="AS2" s="28"/>
@@ -4814,82 +4800,82 @@
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="D1" s="22" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E1" s="22" t="s">
+        <v>517</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>520</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>521</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>522</v>
+      </c>
+      <c r="L1" s="22" t="s">
         <v>523</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>347</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>525</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>526</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>527</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>528</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>529</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="S1" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="T1" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="U1" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="V1" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="W1" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="X1" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4897,83 +4883,83 @@
         <v>81</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>544</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>545</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="F2" s="46" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>550</v>
-      </c>
-      <c r="J2" s="34" t="s">
-        <v>551</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>552</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>553</v>
-      </c>
       <c r="M2" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="P2" s="35">
         <v>33.68</v>
       </c>
       <c r="Q2" s="10" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="R2" s="10" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="U2" s="36" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="V2" s="31" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="W2" s="31" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="Z2" s="10" t="s">
         <v>81</v>
       </c>
       <c r="AA2" s="10"/>
       <c r="AB2" s="10" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187E7BDE-D624-445B-85D1-1381C5BBC6B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31B210-7FA4-4A29-97CA-0143D77BD163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="737" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="SERV29_CommitmentFeePayment" sheetId="6" r:id="rId6"/>
     <sheet name="SYND02_PrimaryAllocation" sheetId="7" r:id="rId7"/>
     <sheet name="SERV01_LoanDrawdown" sheetId="8" r:id="rId8"/>
+    <sheet name="Correspondence" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="753">
   <si>
     <t>rowid</t>
   </si>
@@ -1296,13 +1297,13 @@
     <t>PIM BILAT_</t>
   </si>
   <si>
-    <t>PIM BILAT AUD30.0M 02APR07_32155</t>
-  </si>
-  <si>
-    <t>PIM BILAT_32156</t>
-  </si>
-  <si>
-    <t>CASH ADVANCE FACILITY58122</t>
+    <t>PIM BILAT AUD30.0M 02APR07_12112</t>
+  </si>
+  <si>
+    <t>PIM BILAT_12113</t>
+  </si>
+  <si>
+    <t>CASH ADVANCE FACILITY20108</t>
   </si>
   <si>
     <t>CROCE</t>
@@ -1557,7 +1558,7 @@
     <t>5,000,000.00</t>
   </si>
   <si>
-    <t>30-Jun-2021</t>
+    <t>30-Dec-2022</t>
   </si>
   <si>
     <t>FLOAT</t>
@@ -1581,9 +1582,15 @@
     <t>14-Apr-2013</t>
   </si>
   <si>
+    <t>Update to 30-Jun-2021</t>
+  </si>
+  <si>
     <t>OngoingFee_Category</t>
   </si>
   <si>
+    <t>Pricing_Type</t>
+  </si>
+  <si>
     <t>OngoingFee_Type1</t>
   </si>
   <si>
@@ -1689,6 +1696,9 @@
     <t>Facility Ongoing Fee</t>
   </si>
   <si>
+    <t>Ongoing Fee</t>
+  </si>
+  <si>
     <t>Matrix</t>
   </si>
   <si>
@@ -1920,10 +1930,13 @@
     <t>CloseDate</t>
   </si>
   <si>
+    <t>Lender_Hostbank</t>
+  </si>
+  <si>
     <t>Origination</t>
   </si>
   <si>
-    <t>30-Jul-2022</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Update expiry date to 30-Jun-2021</t>
@@ -1935,7 +1948,43 @@
     <t>Borrower_Name</t>
   </si>
   <si>
-    <t>Borrower_RemittanceInstruction</t>
+    <t>Outstanding_Type</t>
+  </si>
+  <si>
+    <t>Pricing_Option</t>
+  </si>
+  <si>
+    <t>Loan_RequestedAmount</t>
+  </si>
+  <si>
+    <t>Loan_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Loan_MaturityDate</t>
+  </si>
+  <si>
+    <t>Loan_RepricingFrequency</t>
+  </si>
+  <si>
+    <t>Loan_IntCycleFrequency</t>
+  </si>
+  <si>
+    <t>Loan_Accrue</t>
+  </si>
+  <si>
+    <t>Loan_RepricingDate</t>
+  </si>
+  <si>
+    <t>Loan_AccrualEndDate</t>
+  </si>
+  <si>
+    <t>IntentNoticeStatus1</t>
+  </si>
+  <si>
+    <t>AcceptRate_FromPricing</t>
+  </si>
+  <si>
+    <t>RateSetting_NoticeStatus</t>
   </si>
   <si>
     <t>Lender</t>
@@ -1944,9 +1993,6 @@
     <t>Lender2</t>
   </si>
   <si>
-    <t>Pricing_Option</t>
-  </si>
-  <si>
     <t>HostBank_LenderShare</t>
   </si>
   <si>
@@ -1956,24 +2002,9 @@
     <t>Lender2_Share</t>
   </si>
   <si>
-    <t>Outstanding_Type</t>
-  </si>
-  <si>
     <t>Outstanding_Currency</t>
   </si>
   <si>
-    <t>Loan_RequestedAmount</t>
-  </si>
-  <si>
-    <t>Loan_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Loan_MaturityDate</t>
-  </si>
-  <si>
-    <t>Loan_IntCycleFrequency</t>
-  </si>
-  <si>
     <t>Loan_BorrowerBaseRate</t>
   </si>
   <si>
@@ -1983,63 +2014,296 @@
     <t>Loan_OverrideSpread</t>
   </si>
   <si>
-    <t>Loan_RepricingFrequency</t>
-  </si>
-  <si>
-    <t>Establish Outstanding - Deal 1 - Facility A - Outstanding A1</t>
-  </si>
-  <si>
-    <t>UAT1_07102020102617</t>
-  </si>
-  <si>
-    <t>60000022</t>
-  </si>
-  <si>
-    <t>RTGSAUD1-5940</t>
-  </si>
-  <si>
-    <t>RTGSAUD1-1655</t>
-  </si>
-  <si>
-    <t>28.9866666666667</t>
-  </si>
-  <si>
-    <t>37.3333333333333</t>
-  </si>
-  <si>
-    <t>80,000,000.00</t>
-  </si>
-  <si>
-    <t>12-Dec-2018</t>
-  </si>
-  <si>
-    <t>2.14</t>
-  </si>
-  <si>
-    <t>1 Months</t>
-  </si>
-  <si>
-    <t>Pricing_Type</t>
-  </si>
-  <si>
-    <t>Ongoing Fee</t>
-  </si>
-  <si>
-    <t>Lender_Hostbank</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>3,828,950.55</t>
+  </si>
+  <si>
+    <t>30-Sep-2019</t>
+  </si>
+  <si>
+    <t>3 Months</t>
+  </si>
+  <si>
+    <t>to the adjusted due date</t>
+  </si>
+  <si>
+    <t>Sent</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Awaiting release</t>
+  </si>
+  <si>
+    <t>SubAdd_Days</t>
+  </si>
+  <si>
+    <t>Notice_Type</t>
+  </si>
+  <si>
+    <t>Notice_Customer_LegalName</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>NoticeGroup_UserID</t>
+  </si>
+  <si>
+    <t>Notice_Identifier</t>
+  </si>
+  <si>
+    <t>Correlation_ID</t>
+  </si>
+  <si>
+    <t>Thru_Date</t>
+  </si>
+  <si>
+    <t>From_Date</t>
+  </si>
+  <si>
+    <t>Search_By</t>
+  </si>
+  <si>
+    <t>Notice_Method</t>
+  </si>
+  <si>
+    <t>BEO_StartDate</t>
+  </si>
+  <si>
+    <t>BEO_EndDate</t>
+  </si>
+  <si>
+    <t>Customer_IdentifiedBy</t>
+  </si>
+  <si>
+    <t>Zero_TempPath</t>
+  </si>
+  <si>
+    <t>InputFilePath</t>
+  </si>
+  <si>
+    <t>XML_File</t>
+  </si>
+  <si>
+    <t>Temp_File</t>
+  </si>
+  <si>
+    <t>InputJson</t>
+  </si>
+  <si>
+    <t>ExpectedJson</t>
+  </si>
+  <si>
+    <t>OutputFilePath</t>
+  </si>
+  <si>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>OutputAPIResponse</t>
+  </si>
+  <si>
+    <t>messageId</t>
+  </si>
+  <si>
+    <t>CallBack_Status</t>
+  </si>
+  <si>
+    <t>CallBack_Status2</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>errorMessage_2</t>
+  </si>
+  <si>
+    <t>Notice_Status</t>
+  </si>
+  <si>
+    <t>WIP_ExceptionQueueDescription</t>
+  </si>
+  <si>
+    <t>XML_NoticeType</t>
+  </si>
+  <si>
+    <t>Loan_PricingOption</t>
+  </si>
+  <si>
+    <t>Loan_BaseRate</t>
+  </si>
+  <si>
+    <t>Loan_Spread</t>
+  </si>
+  <si>
+    <t>Notice_AllInRate</t>
+  </si>
+  <si>
+    <t>Notice_Amount</t>
+  </si>
+  <si>
+    <t>Loan_GlobalOriginal</t>
+  </si>
+  <si>
+    <t>Loan_RateSetting_DueDate</t>
+  </si>
+  <si>
+    <t>EffectiveDate_PrincipalPayment</t>
+  </si>
+  <si>
+    <t>Outstanding_PrincipalPayment</t>
+  </si>
+  <si>
+    <t>EffectiveDate_InterestPayment</t>
+  </si>
+  <si>
+    <t>ProjectedCycleDue_InterestPayment</t>
+  </si>
+  <si>
+    <t>StartDate_Principal</t>
+  </si>
+  <si>
+    <t>EndDate_Principal</t>
+  </si>
+  <si>
+    <t>Days_Principal</t>
+  </si>
+  <si>
+    <t>Principal_Amount</t>
+  </si>
+  <si>
+    <t>StartDate_Interest</t>
+  </si>
+  <si>
+    <t>EndDate_Interest</t>
+  </si>
+  <si>
+    <t>Days_Interest</t>
+  </si>
+  <si>
+    <t>Interest_Amount</t>
+  </si>
+  <si>
+    <t>Fee_Type</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>API_COR_TC03_SENT_Drawdown Intent Notice</t>
+  </si>
+  <si>
+    <t>Drawdown Intent Notice</t>
+  </si>
+  <si>
+    <t>Jimmy Croce</t>
+  </si>
+  <si>
+    <t>LOANIQ01</t>
+  </si>
+  <si>
+    <t>E;EJUUL5</t>
+  </si>
+  <si>
+    <t>LIQ-E;EJUUL5-E.EJUT1W-2</t>
+  </si>
+  <si>
+    <t>2023-01-18 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2018-09-01 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Notice Identifier</t>
+  </si>
+  <si>
+    <t>2020-11-18 17:14:48.087</t>
+  </si>
+  <si>
+    <t>Legal Name</t>
+  </si>
+  <si>
+    <t>C:\Users\u723281\AppData\Local\Temp\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\API\Input\Correspondence</t>
+  </si>
+  <si>
+    <t>API_COR_TC03</t>
+  </si>
+  <si>
+    <t>TEMP_API_COR_TC03</t>
+  </si>
+  <si>
+    <t>INPUT_API_COR_TC03</t>
+  </si>
+  <si>
+    <t>EXP_API_COR_TC03</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\API\Output\Correspondence</t>
+  </si>
+  <si>
+    <t>correlationId</t>
+  </si>
+  <si>
+    <t>API_COR_RESPONSE_TC1</t>
+  </si>
+  <si>
+    <t>SENT</t>
+  </si>
+  <si>
+    <t>DRAWDOWN INTENT NOTICE</t>
+  </si>
+  <si>
+    <t>10,000.00</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>API_COR_TC01_SENT_Rate Setting Notice</t>
+  </si>
+  <si>
+    <t>Rate Setting Notice</t>
+  </si>
+  <si>
+    <t>LIQ-7?EKUCP0-7HEKUB3O-5</t>
+  </si>
+  <si>
+    <t>2020-12-09 16:47:03.328</t>
+  </si>
+  <si>
+    <t>API_COR_TC01</t>
+  </si>
+  <si>
+    <t>TEMP_API_COR_TC01</t>
+  </si>
+  <si>
+    <t>INPUT_API_COR_TC01</t>
+  </si>
+  <si>
+    <t>EXP_API_COR_TC01</t>
+  </si>
+  <si>
+    <t>DRAWDOWN RATE SET NOTICE</t>
+  </si>
+  <si>
+    <t>0.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="0.0000000000000"/>
+    <numFmt numFmtId="166" formatCode="00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2114,8 +2378,43 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2182,8 +2481,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2206,128 +2523,271 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2648,529 +3108,529 @@
   </sheetPr>
   <dimension ref="A1:DB2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" style="72" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="72" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="16.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="40" max="44" width="5.5703125" style="72" customWidth="1"/>
-    <col min="45" max="45" width="14.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19" style="72" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="23" style="72" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="24.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="22" style="72" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="71" max="74" width="23.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="18.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="22.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="21.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21" style="72" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="24" style="72" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="20" style="72" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="17.140625" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="44" width="5.5703125" style="2" customWidth="1"/>
+    <col min="45" max="45" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="74" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="17.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:106" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="71" t="s">
+      <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="71" t="s">
+      <c r="F1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="71" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="I1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="J1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="71" t="s">
+      <c r="U1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="71" t="s">
+      <c r="V1" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="71" t="s">
+      <c r="W1" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="71" t="s">
+      <c r="X1" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="71" t="s">
+      <c r="Y1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="71" t="s">
+      <c r="Z1" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="71" t="s">
+      <c r="AA1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="71" t="s">
+      <c r="AB1" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="71" t="s">
+      <c r="AC1" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="71" t="s">
+      <c r="AD1" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="71" t="s">
+      <c r="AE1" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="71" t="s">
+      <c r="AF1" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="71" t="s">
+      <c r="AG1" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="71" t="s">
+      <c r="AH1" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="71" t="s">
+      <c r="AI1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="71" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="71" t="s">
+      <c r="AK1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="71" t="s">
+      <c r="AL1" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="71" t="s">
+      <c r="AM1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="71" t="s">
+      <c r="AN1" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="71" t="s">
+      <c r="AO1" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="71" t="s">
+      <c r="AP1" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="71" t="s">
+      <c r="AQ1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="71" t="s">
+      <c r="AR1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="71" t="s">
+      <c r="AS1" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="70" t="s">
+      <c r="AT1" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="70" t="s">
+      <c r="AU1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="70" t="s">
+      <c r="AV1" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="70" t="s">
+      <c r="AW1" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="71" t="s">
+      <c r="AX1" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="71" t="s">
+      <c r="AY1" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="71" t="s">
+      <c r="AZ1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="BA1" s="71" t="s">
+      <c r="BA1" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="71" t="s">
+      <c r="BB1" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="71" t="s">
+      <c r="BC1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="71" t="s">
+      <c r="BD1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="71" t="s">
+      <c r="BE1" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="71" t="s">
+      <c r="BF1" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="71" t="s">
+      <c r="BG1" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="71" t="s">
+      <c r="BH1" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="71" t="s">
+      <c r="BI1" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="71" t="s">
+      <c r="BJ1" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="71" t="s">
+      <c r="BK1" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="71" t="s">
+      <c r="BL1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="71" t="s">
+      <c r="BM1" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="71" t="s">
+      <c r="BN1" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="71" t="s">
+      <c r="BO1" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="71" t="s">
+      <c r="BP1" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="71" t="s">
+      <c r="BQ1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="71" t="s">
+      <c r="BR1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="71" t="s">
+      <c r="BS1" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="71" t="s">
+      <c r="BT1" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="71" t="s">
+      <c r="BU1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="71" t="s">
+      <c r="BV1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="71" t="s">
+      <c r="BW1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="71" t="s">
+      <c r="BX1" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" s="71" t="s">
+      <c r="BY1" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" s="71" t="s">
+      <c r="BZ1" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" s="71" t="s">
+      <c r="CA1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" s="71" t="s">
+      <c r="CB1" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" s="71" t="s">
+      <c r="CC1" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" s="71" t="s">
+      <c r="CD1" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" s="71" t="s">
+      <c r="CE1" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" s="71"/>
-      <c r="CG1" s="71"/>
-      <c r="CH1" s="71"/>
-      <c r="CI1" s="71"/>
-      <c r="CJ1" s="71"/>
-      <c r="CK1" s="71"/>
-      <c r="CL1" s="71"/>
-      <c r="CM1" s="71"/>
-      <c r="CN1" s="71"/>
-      <c r="CO1" s="71"/>
-      <c r="CP1" s="71"/>
-      <c r="CQ1" s="71"/>
-      <c r="CR1" s="71"/>
-      <c r="CS1" s="71"/>
-      <c r="CT1" s="71"/>
-      <c r="CU1" s="71"/>
-      <c r="CV1" s="71"/>
-      <c r="CW1" s="71"/>
-      <c r="CX1" s="71"/>
-      <c r="CY1" s="71"/>
-      <c r="CZ1" s="71"/>
-      <c r="DA1" s="71"/>
-      <c r="DB1" s="71"/>
+      <c r="CF1" s="29"/>
+      <c r="CG1" s="29"/>
+      <c r="CH1" s="29"/>
+      <c r="CI1" s="29"/>
+      <c r="CJ1" s="29"/>
+      <c r="CK1" s="29"/>
+      <c r="CL1" s="29"/>
+      <c r="CM1" s="29"/>
+      <c r="CN1" s="29"/>
+      <c r="CO1" s="29"/>
+      <c r="CP1" s="29"/>
+      <c r="CQ1" s="29"/>
+      <c r="CR1" s="29"/>
+      <c r="CS1" s="29"/>
+      <c r="CT1" s="29"/>
+      <c r="CU1" s="29"/>
+      <c r="CV1" s="29"/>
+      <c r="CW1" s="29"/>
+      <c r="CX1" s="29"/>
+      <c r="CY1" s="29"/>
+      <c r="CZ1" s="29"/>
+      <c r="DA1" s="29"/>
+      <c r="DB1" s="29"/>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="80">
         <v>1</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="80" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="79">
         <v>100012345</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="81"/>
+      <c r="N2" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="80" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="12">
+      <c r="T2" s="79">
         <v>1000012345</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="14">
+      <c r="W2" s="80">
         <v>3000</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="X2" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
-      <c r="AB2" s="5" t="s">
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AC2" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="11" t="s">
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="80" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="11" t="s">
+      <c r="AF2" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="11" t="s">
+      <c r="AG2" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="AH2" s="53" t="s">
+      <c r="AH2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="AI2" s="53" t="s">
+      <c r="AI2" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="62"/>
-      <c r="AX2" s="62"/>
-      <c r="AY2" s="62"/>
-      <c r="AZ2" s="62"/>
-      <c r="BA2" s="62"/>
-      <c r="BB2" s="62"/>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="62"/>
-      <c r="BE2" s="62"/>
-      <c r="BF2" s="62"/>
-      <c r="BG2" s="62"/>
-      <c r="BH2" s="62"/>
-      <c r="BI2" s="62"/>
-      <c r="BJ2" s="62"/>
-      <c r="BK2" s="62"/>
-      <c r="BL2" s="62"/>
-      <c r="BM2" s="62"/>
-      <c r="BN2" s="62"/>
-      <c r="BO2" s="62"/>
-      <c r="BP2" s="62"/>
-      <c r="BQ2" s="62"/>
-      <c r="BR2" s="62"/>
-      <c r="BS2" s="62"/>
-      <c r="BT2" s="62"/>
-      <c r="BU2" s="62"/>
-      <c r="BV2" s="62"/>
-      <c r="BW2" s="62"/>
-      <c r="BX2" s="62"/>
-      <c r="BY2" s="62"/>
-      <c r="BZ2" s="62"/>
-      <c r="CA2" s="62"/>
-      <c r="CB2" s="62"/>
-      <c r="CC2" s="62"/>
-      <c r="CD2" s="62"/>
-      <c r="CE2" s="62"/>
-      <c r="CF2" s="53"/>
-      <c r="CG2" s="53"/>
-      <c r="CH2" s="53"/>
-      <c r="CI2" s="53"/>
-      <c r="CJ2" s="53"/>
-      <c r="CK2" s="53"/>
-      <c r="CL2" s="53"/>
-      <c r="CM2" s="53"/>
-      <c r="CN2" s="53"/>
-      <c r="CO2" s="53"/>
-      <c r="CP2" s="53"/>
-      <c r="CQ2" s="53"/>
-      <c r="CR2" s="53"/>
-      <c r="CS2" s="53"/>
-      <c r="CT2" s="53"/>
-      <c r="CU2" s="53"/>
-      <c r="CV2" s="53"/>
-      <c r="CW2" s="53"/>
-      <c r="CX2" s="53"/>
-      <c r="CY2" s="53"/>
-      <c r="CZ2" s="53"/>
-      <c r="DA2" s="53"/>
-      <c r="DB2" s="53"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="82"/>
+      <c r="AO2" s="82"/>
+      <c r="AP2" s="82"/>
+      <c r="AQ2" s="82"/>
+      <c r="AR2" s="82"/>
+      <c r="AS2" s="82"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
+      <c r="BJ2" s="37"/>
+      <c r="BK2" s="37"/>
+      <c r="BL2" s="37"/>
+      <c r="BM2" s="37"/>
+      <c r="BN2" s="37"/>
+      <c r="BO2" s="37"/>
+      <c r="BP2" s="37"/>
+      <c r="BQ2" s="37"/>
+      <c r="BR2" s="37"/>
+      <c r="BS2" s="37"/>
+      <c r="BT2" s="37"/>
+      <c r="BU2" s="37"/>
+      <c r="BV2" s="37"/>
+      <c r="BW2" s="37"/>
+      <c r="BX2" s="37"/>
+      <c r="BY2" s="37"/>
+      <c r="BZ2" s="37"/>
+      <c r="CA2" s="37"/>
+      <c r="CB2" s="37"/>
+      <c r="CC2" s="37"/>
+      <c r="CD2" s="37"/>
+      <c r="CE2" s="37"/>
+      <c r="CF2" s="32"/>
+      <c r="CG2" s="32"/>
+      <c r="CH2" s="32"/>
+      <c r="CI2" s="32"/>
+      <c r="CJ2" s="32"/>
+      <c r="CK2" s="32"/>
+      <c r="CL2" s="32"/>
+      <c r="CM2" s="32"/>
+      <c r="CN2" s="32"/>
+      <c r="CO2" s="32"/>
+      <c r="CP2" s="32"/>
+      <c r="CQ2" s="32"/>
+      <c r="CR2" s="32"/>
+      <c r="CS2" s="32"/>
+      <c r="CT2" s="32"/>
+      <c r="CU2" s="32"/>
+      <c r="CV2" s="32"/>
+      <c r="CW2" s="32"/>
+      <c r="CX2" s="32"/>
+      <c r="CY2" s="32"/>
+      <c r="CZ2" s="32"/>
+      <c r="DA2" s="32"/>
+      <c r="DB2" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3185,947 +3645,952 @@
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="72" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.85546875" style="72" customWidth="1"/>
-    <col min="19" max="19" width="24.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29" style="72" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24" style="72" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="32.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="47.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="48.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="47" style="72" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="48" style="72" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="48.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="49.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="41.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="43" style="72" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="41.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="35.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="43.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="44.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="41" style="72" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="42.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="42.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="13.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="18" style="72" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="14.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23" style="72" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="16" style="72" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="24.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="26.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="29.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="54.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="36.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="19" style="72" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="21" style="72" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="36.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="20.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="28" style="72" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="22.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="25" style="72" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="35.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="34.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="40.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="42.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="39.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="33.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="41.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="42.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="39.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="19.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="19.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="35.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="40.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="40.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="34.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="39.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="45.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="49.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="36.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="12.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="24" style="72" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="19.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="20.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="25.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="20.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="26.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="20.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="25.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="20.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="22.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="98" max="99" width="22.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="29.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="21.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="19" style="72" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="16.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="21.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="12.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="16.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="21" style="72" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="21.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="19" style="72" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="20.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="19" style="72" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="29.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="20" style="72" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="29.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="20.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="31.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="29.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="28.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="26.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="26.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="23.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="21.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="24.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="22.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="35.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="35.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="32.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="22.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="37.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="23.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="18.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="18.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="47.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="48.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="47" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="48" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="48.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="49.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="43" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="41.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="35.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="43.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="44.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="42.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="42.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="54.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="35.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="36.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="38.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="39.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="40.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="40" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="41.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="42.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="39.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="40.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="40.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="39.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="45.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="49.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="36.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="32.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:135" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="39" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="39" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="N1" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="43" t="s">
+      <c r="O1" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="43" t="s">
+      <c r="V1" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="43" t="s">
+      <c r="Y1" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" s="43" t="s">
+      <c r="Z1" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="43" t="s">
+      <c r="AA1" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="43" t="s">
+      <c r="AB1" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="43" t="s">
+      <c r="AC1" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" s="43" t="s">
+      <c r="AD1" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" s="43" t="s">
+      <c r="AE1" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" s="43" t="s">
+      <c r="AF1" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" s="43" t="s">
+      <c r="AG1" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="AH1" s="43" t="s">
+      <c r="AH1" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="AI1" s="43" t="s">
+      <c r="AI1" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="AJ1" s="43" t="s">
+      <c r="AJ1" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="AK1" s="43" t="s">
+      <c r="AK1" s="39" t="s">
         <v>136</v>
       </c>
-      <c r="AL1" s="43" t="s">
+      <c r="AL1" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="AM1" s="43" t="s">
+      <c r="AM1" s="39" t="s">
         <v>138</v>
       </c>
-      <c r="AN1" s="43" t="s">
+      <c r="AN1" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="AO1" s="43" t="s">
+      <c r="AO1" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" s="43" t="s">
+      <c r="AP1" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="43" t="s">
+      <c r="AQ1" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="AR1" s="43" t="s">
+      <c r="AR1" s="39" t="s">
         <v>143</v>
       </c>
-      <c r="AS1" s="43" t="s">
+      <c r="AS1" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="AT1" s="43" t="s">
+      <c r="AT1" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="43" t="s">
+      <c r="AU1" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="AV1" s="43" t="s">
+      <c r="AV1" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="AW1" s="43" t="s">
+      <c r="AW1" s="39" t="s">
         <v>148</v>
       </c>
-      <c r="AX1" s="43" t="s">
+      <c r="AX1" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="AY1" s="43" t="s">
+      <c r="AY1" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="AZ1" s="43" t="s">
+      <c r="AZ1" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="BA1" s="43" t="s">
+      <c r="BA1" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="BB1" s="43" t="s">
+      <c r="BB1" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="BC1" s="43" t="s">
+      <c r="BC1" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="BD1" s="43" t="s">
+      <c r="BD1" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="BE1" s="43" t="s">
+      <c r="BE1" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="BF1" s="43" t="s">
+      <c r="BF1" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="BG1" s="43" t="s">
+      <c r="BG1" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="BH1" s="43" t="s">
+      <c r="BH1" s="39" t="s">
         <v>159</v>
       </c>
-      <c r="BI1" s="43" t="s">
+      <c r="BI1" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="BJ1" s="43" t="s">
+      <c r="BJ1" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="BK1" s="43" t="s">
+      <c r="BK1" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="BL1" s="43" t="s">
+      <c r="BL1" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BM1" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="BN1" s="43" t="s">
+      <c r="BN1" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="BO1" s="43" t="s">
+      <c r="BO1" s="39" t="s">
         <v>166</v>
       </c>
-      <c r="BP1" s="43" t="s">
+      <c r="BP1" s="39" t="s">
         <v>167</v>
       </c>
-      <c r="BQ1" s="43" t="s">
+      <c r="BQ1" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="BR1" s="43" t="s">
+      <c r="BR1" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="BS1" s="43" t="s">
+      <c r="BS1" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="BT1" s="43" t="s">
+      <c r="BT1" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="BU1" s="43" t="s">
+      <c r="BU1" s="39" t="s">
         <v>172</v>
       </c>
-      <c r="BV1" s="43" t="s">
+      <c r="BV1" s="39" t="s">
         <v>173</v>
       </c>
-      <c r="BW1" s="43" t="s">
+      <c r="BW1" s="39" t="s">
         <v>174</v>
       </c>
-      <c r="BX1" s="43" t="s">
+      <c r="BX1" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="BY1" s="43" t="s">
+      <c r="BY1" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="BZ1" s="43" t="s">
+      <c r="BZ1" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="CA1" s="43" t="s">
+      <c r="CA1" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="CB1" s="43" t="s">
+      <c r="CB1" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="CC1" s="43" t="s">
+      <c r="CC1" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="CD1" s="43" t="s">
+      <c r="CD1" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="CE1" s="43" t="s">
+      <c r="CE1" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="CF1" s="43" t="s">
+      <c r="CF1" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="CG1" s="43" t="s">
+      <c r="CG1" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="CH1" s="43" t="s">
+      <c r="CH1" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="CI1" s="43" t="s">
+      <c r="CI1" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="CJ1" s="43" t="s">
+      <c r="CJ1" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="CK1" s="43" t="s">
+      <c r="CK1" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="CL1" s="43" t="s">
+      <c r="CL1" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="CM1" s="43" t="s">
+      <c r="CM1" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="CN1" s="43" t="s">
+      <c r="CN1" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="CO1" s="43" t="s">
+      <c r="CO1" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="CP1" s="43" t="s">
+      <c r="CP1" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="CQ1" s="43" t="s">
+      <c r="CQ1" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="CR1" s="43" t="s">
+      <c r="CR1" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="CS1" s="43" t="s">
+      <c r="CS1" s="39" t="s">
         <v>196</v>
       </c>
-      <c r="CT1" s="43" t="s">
+      <c r="CT1" s="39" t="s">
         <v>197</v>
       </c>
-      <c r="CU1" s="43" t="s">
+      <c r="CU1" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="CV1" s="43" t="s">
+      <c r="CV1" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="CW1" s="43" t="s">
+      <c r="CW1" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="CX1" s="43" t="s">
+      <c r="CX1" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="CY1" s="43" t="s">
+      <c r="CY1" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="CZ1" s="43" t="s">
+      <c r="CZ1" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="DA1" s="43" t="s">
+      <c r="DA1" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="DB1" s="43" t="s">
+      <c r="DB1" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="DC1" s="43" t="s">
+      <c r="DC1" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="DD1" s="43" t="s">
+      <c r="DD1" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="DE1" s="43" t="s">
+      <c r="DE1" s="39" t="s">
         <v>208</v>
       </c>
-      <c r="DF1" s="43" t="s">
+      <c r="DF1" s="39" t="s">
         <v>209</v>
       </c>
-      <c r="DG1" s="43" t="s">
+      <c r="DG1" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="DH1" s="43" t="s">
+      <c r="DH1" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="DI1" s="2" t="s">
+      <c r="DI1" s="64" t="s">
         <v>212</v>
       </c>
-      <c r="DJ1" s="43" t="s">
+      <c r="DJ1" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="DK1" s="43" t="s">
+      <c r="DK1" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="DL1" s="43" t="s">
+      <c r="DL1" s="39" t="s">
         <v>215</v>
       </c>
-      <c r="DM1" s="43" t="s">
+      <c r="DM1" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="DN1" s="43" t="s">
+      <c r="DN1" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="DO1" s="43" t="s">
+      <c r="DO1" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="DP1" s="43" t="s">
+      <c r="DP1" s="39" t="s">
         <v>219</v>
       </c>
-      <c r="DQ1" s="43" t="s">
+      <c r="DQ1" s="39" t="s">
         <v>220</v>
       </c>
-      <c r="DR1" s="43" t="s">
+      <c r="DR1" s="39" t="s">
         <v>221</v>
       </c>
-      <c r="DS1" s="43" t="s">
+      <c r="DS1" s="39" t="s">
         <v>222</v>
       </c>
-      <c r="DT1" s="43" t="s">
+      <c r="DT1" s="39" t="s">
         <v>223</v>
       </c>
-      <c r="DU1" s="43" t="s">
+      <c r="DU1" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="DV1" s="43" t="s">
+      <c r="DV1" s="39" t="s">
         <v>225</v>
       </c>
-      <c r="DW1" s="43" t="s">
+      <c r="DW1" s="39" t="s">
         <v>226</v>
       </c>
-      <c r="DX1" s="43" t="s">
+      <c r="DX1" s="39" t="s">
         <v>227</v>
       </c>
-      <c r="DY1" s="43" t="s">
+      <c r="DY1" s="39" t="s">
         <v>228</v>
       </c>
-      <c r="DZ1" s="43" t="s">
+      <c r="DZ1" s="39" t="s">
         <v>229</v>
       </c>
-      <c r="EA1" s="43" t="s">
+      <c r="EA1" s="39" t="s">
         <v>230</v>
       </c>
-      <c r="EB1" s="43" t="s">
+      <c r="EB1" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="EC1" s="43" t="s">
+      <c r="EC1" s="39" t="s">
         <v>232</v>
       </c>
-      <c r="ED1" s="71" t="s">
+      <c r="ED1" s="29" t="s">
         <v>233</v>
       </c>
-      <c r="EE1" s="71" t="s">
+      <c r="EE1" s="29" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:135" s="15" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+    <row r="2" spans="1:135" s="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="65" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="66" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="66" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="66" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="66" t="s">
         <v>243</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="66" t="s">
         <v>244</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="66" t="s">
         <v>245</v>
       </c>
-      <c r="N2" s="44" t="s">
+      <c r="N2" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="O2" s="44" t="s">
+      <c r="O2" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="Q2" s="24" t="s">
+      <c r="Q2" s="66" t="s">
         <v>249</v>
       </c>
-      <c r="R2" s="53" t="s">
+      <c r="R2" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="67" t="s">
         <v>251</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="66" t="s">
         <v>253</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="68" t="s">
         <v>255</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="Z2" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="AB2" s="28" t="s">
+      <c r="AB2" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="AC2" s="28" t="s">
+      <c r="AC2" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="66" t="s">
         <v>258</v>
       </c>
-      <c r="AE2" s="39" t="s">
+      <c r="AE2" s="70" t="s">
         <v>259</v>
       </c>
-      <c r="AF2" s="62" t="s">
+      <c r="AF2" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="AG2" s="62" t="s">
+      <c r="AG2" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="AH2" s="62" t="s">
+      <c r="AH2" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="AI2" s="62" t="s">
+      <c r="AI2" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="AJ2" s="62" t="s">
+      <c r="AJ2" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="AK2" s="62" t="s">
+      <c r="AK2" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="AL2" s="62" t="s">
+      <c r="AL2" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="AM2" s="40" t="s">
+      <c r="AM2" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="AN2" s="62" t="s">
+      <c r="AN2" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="AO2" s="62" t="s">
+      <c r="AO2" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="AP2" s="62" t="s">
+      <c r="AP2" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="AQ2" s="62" t="s">
+      <c r="AQ2" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="AR2" s="62" t="s">
+      <c r="AR2" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="AS2" s="24" t="s">
+      <c r="AS2" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="AT2" s="55"/>
-      <c r="AU2" s="55" t="s">
+      <c r="AT2" s="49"/>
+      <c r="AU2" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="AV2" s="55" t="s">
+      <c r="AV2" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="AW2" s="55" t="s">
+      <c r="AW2" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="AX2" s="4" t="s">
+      <c r="AX2" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="AY2" s="55" t="s">
+      <c r="AY2" s="49" t="s">
         <v>274</v>
       </c>
-      <c r="AZ2" s="24" t="s">
+      <c r="AZ2" s="66" t="s">
         <v>275</v>
       </c>
-      <c r="BA2" s="55" t="s">
+      <c r="BA2" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="BB2" s="55" t="s">
+      <c r="BB2" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="BC2" s="29" t="s">
+      <c r="BC2" s="72" t="s">
         <v>278</v>
       </c>
-      <c r="BD2" s="29" t="s">
+      <c r="BD2" s="72" t="s">
         <v>279</v>
       </c>
-      <c r="BE2" s="55" t="s">
+      <c r="BE2" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="BF2" s="55" t="s">
+      <c r="BF2" s="49" t="s">
         <v>281</v>
       </c>
-      <c r="BG2" s="55" t="s">
+      <c r="BG2" s="49" t="s">
         <v>282</v>
       </c>
-      <c r="BH2" s="55" t="s">
+      <c r="BH2" s="49" t="s">
         <v>280</v>
       </c>
-      <c r="BI2" s="55" t="s">
+      <c r="BI2" s="49" t="s">
         <v>283</v>
       </c>
-      <c r="BJ2" s="55" t="s">
+      <c r="BJ2" s="49" t="s">
         <v>284</v>
       </c>
-      <c r="BK2" s="24" t="s">
+      <c r="BK2" s="66" t="s">
         <v>283</v>
       </c>
-      <c r="BL2" s="24" t="s">
+      <c r="BL2" s="66" t="s">
         <v>251</v>
       </c>
-      <c r="BM2" s="55" t="s">
+      <c r="BM2" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="BN2" s="55" t="s">
+      <c r="BN2" s="49" t="s">
         <v>286</v>
       </c>
-      <c r="BO2" s="40" t="s">
+      <c r="BO2" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="BP2" s="25" t="s">
+      <c r="BP2" s="65" t="s">
         <v>288</v>
       </c>
-      <c r="BQ2" s="24" t="s">
+      <c r="BQ2" s="66" t="s">
         <v>289</v>
       </c>
-      <c r="BR2" s="27" t="s">
+      <c r="BR2" s="67" t="s">
         <v>290</v>
       </c>
-      <c r="BS2" s="28" t="s">
+      <c r="BS2" s="69" t="s">
         <v>291</v>
       </c>
-      <c r="BT2" s="28" t="s">
+      <c r="BT2" s="69" t="s">
         <v>270</v>
       </c>
-      <c r="BU2" s="34" t="s">
+      <c r="BU2" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="BV2" s="29" t="s">
+      <c r="BV2" s="72" t="s">
         <v>293</v>
       </c>
-      <c r="BW2" s="29" t="s">
+      <c r="BW2" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="BX2" s="29" t="s">
+      <c r="BX2" s="72" t="s">
         <v>295</v>
       </c>
-      <c r="BY2" s="29" t="s">
+      <c r="BY2" s="72" t="s">
         <v>296</v>
       </c>
-      <c r="BZ2" s="35" t="s">
+      <c r="BZ2" s="34" t="s">
         <v>297</v>
       </c>
-      <c r="CA2" s="35" t="s">
+      <c r="CA2" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="CB2" s="34" t="s">
+      <c r="CB2" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="CC2" s="34" t="s">
+      <c r="CC2" s="73" t="s">
         <v>299</v>
       </c>
-      <c r="CD2" s="34" t="s">
+      <c r="CD2" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="CE2" s="34" t="s">
+      <c r="CE2" s="73" t="s">
         <v>301</v>
       </c>
-      <c r="CF2" s="34" t="s">
+      <c r="CF2" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="CG2" s="34" t="s">
+      <c r="CG2" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="CH2" s="29" t="s">
+      <c r="CH2" s="72" t="s">
         <v>302</v>
       </c>
-      <c r="CI2" s="29" t="s">
+      <c r="CI2" s="72" t="s">
         <v>303</v>
       </c>
-      <c r="CJ2" s="29" t="s">
+      <c r="CJ2" s="72" t="s">
         <v>304</v>
       </c>
-      <c r="CK2" s="29" t="s">
+      <c r="CK2" s="72" t="s">
         <v>286</v>
       </c>
-      <c r="CL2" s="29" t="s">
+      <c r="CL2" s="72" t="s">
         <v>294</v>
       </c>
-      <c r="CM2" s="29" t="s">
+      <c r="CM2" s="72" t="s">
         <v>305</v>
       </c>
-      <c r="CN2" s="29" t="s">
+      <c r="CN2" s="72" t="s">
         <v>306</v>
       </c>
-      <c r="CO2" s="29" t="s">
+      <c r="CO2" s="72" t="s">
         <v>307</v>
       </c>
-      <c r="CP2" s="29" t="s">
+      <c r="CP2" s="72" t="s">
         <v>308</v>
       </c>
-      <c r="CQ2" s="29" t="s">
+      <c r="CQ2" s="72" t="s">
         <v>309</v>
       </c>
-      <c r="CR2" s="29" t="s">
+      <c r="CR2" s="72" t="s">
         <v>310</v>
       </c>
-      <c r="CS2" s="29" t="s">
+      <c r="CS2" s="72" t="s">
         <v>311</v>
       </c>
-      <c r="CT2" s="29" t="s">
+      <c r="CT2" s="72" t="s">
         <v>312</v>
       </c>
-      <c r="CU2" s="29" t="s">
+      <c r="CU2" s="72" t="s">
         <v>313</v>
       </c>
-      <c r="CV2" s="29" t="s">
+      <c r="CV2" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="CW2" s="29" t="s">
+      <c r="CW2" s="72" t="s">
         <v>258</v>
       </c>
-      <c r="CX2" s="29" t="s">
+      <c r="CX2" s="72" t="s">
         <v>315</v>
       </c>
-      <c r="CY2" s="29" t="s">
+      <c r="CY2" s="72" t="s">
         <v>316</v>
       </c>
-      <c r="CZ2" s="36" t="s">
+      <c r="CZ2" s="74" t="s">
         <v>317</v>
       </c>
-      <c r="DA2" s="29" t="s">
+      <c r="DA2" s="72" t="s">
         <v>318</v>
       </c>
-      <c r="DB2" s="34" t="s">
+      <c r="DB2" s="73" t="s">
         <v>319</v>
       </c>
-      <c r="DC2" s="34" t="s">
+      <c r="DC2" s="73" t="s">
         <v>300</v>
       </c>
-      <c r="DD2" s="34" t="s">
+      <c r="DD2" s="73" t="s">
         <v>318</v>
       </c>
-      <c r="DE2" s="34" t="s">
+      <c r="DE2" s="73" t="s">
         <v>320</v>
       </c>
-      <c r="DF2" s="34"/>
-      <c r="DG2" s="34"/>
-      <c r="DH2" s="34" t="s">
+      <c r="DF2" s="73"/>
+      <c r="DG2" s="73"/>
+      <c r="DH2" s="73" t="s">
         <v>321</v>
       </c>
-      <c r="DI2" s="34" t="s">
+      <c r="DI2" s="73" t="s">
         <v>319</v>
       </c>
-      <c r="DJ2" s="34" t="s">
+      <c r="DJ2" s="73" t="s">
         <v>322</v>
       </c>
-      <c r="DK2" s="34" t="s">
+      <c r="DK2" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="DL2" s="34" t="s">
+      <c r="DL2" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="DM2" s="34" t="s">
+      <c r="DM2" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="DN2" s="34" t="s">
+      <c r="DN2" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="DO2" s="34" t="s">
+      <c r="DO2" s="73" t="s">
         <v>326</v>
       </c>
-      <c r="DP2" s="34" t="s">
+      <c r="DP2" s="73" t="s">
         <v>327</v>
       </c>
-      <c r="DQ2" s="37" t="s">
+      <c r="DQ2" s="75" t="s">
         <v>328</v>
       </c>
-      <c r="DR2" s="34" t="s">
+      <c r="DR2" s="73" t="s">
         <v>327</v>
       </c>
-      <c r="DS2" s="34" t="s">
+      <c r="DS2" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="DT2" s="34" t="s">
+      <c r="DT2" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="DU2" s="34" t="s">
+      <c r="DU2" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="DV2" s="34" t="s">
+      <c r="DV2" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="DW2" s="34" t="s">
+      <c r="DW2" s="73" t="s">
         <v>256</v>
       </c>
-      <c r="DX2" s="34" t="s">
+      <c r="DX2" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="DY2" s="34" t="s">
+      <c r="DY2" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="DZ2" s="34" t="s">
+      <c r="DZ2" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="EA2" s="34" t="s">
+      <c r="EA2" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="EB2" s="34" t="s">
+      <c r="EB2" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="EC2" s="34" t="s">
+      <c r="EC2" s="73" t="s">
         <v>257</v>
       </c>
-      <c r="ED2" s="38" t="s">
+      <c r="ED2" s="76" t="s">
         <v>330</v>
       </c>
-      <c r="EE2" s="38" t="s">
+      <c r="EE2" s="76" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4145,635 +4610,635 @@
   </sheetPr>
   <dimension ref="A1:CL7"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22" style="72" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23" style="72" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21" style="72" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25" style="72" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="41.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="42.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21" style="72" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="44.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="35.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="47.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="40.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="40.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26" style="72" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="34.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="15.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16" style="72" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="36.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="27.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19" style="72" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="26.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24" style="72" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="28.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="26.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="24" style="72" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="24" style="72" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="21.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="36.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="29.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="24.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="24.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="21.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="26" style="72" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="22" style="72" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="20.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="30.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="31.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17" style="72" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="28.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="32.85546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="42.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="44.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="36.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="35.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="47.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="40.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="40.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="29.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:90" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="71" t="s">
+      <c r="C1" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="71" t="s">
+      <c r="D1" s="29" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="71" t="s">
+      <c r="H1" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="K1" s="29" t="s">
         <v>340</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="L1" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="M1" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="N1" s="29" t="s">
         <v>342</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="O1" s="29" t="s">
         <v>343</v>
       </c>
-      <c r="P1" s="71" t="s">
+      <c r="P1" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="Q1" s="71" t="s">
+      <c r="Q1" s="29" t="s">
         <v>345</v>
       </c>
-      <c r="R1" s="71" t="s">
+      <c r="R1" s="29" t="s">
         <v>346</v>
       </c>
-      <c r="S1" s="71" t="s">
+      <c r="S1" s="29" t="s">
         <v>347</v>
       </c>
-      <c r="T1" s="71" t="s">
+      <c r="T1" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="U1" s="71" t="s">
+      <c r="U1" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="V1" s="71" t="s">
+      <c r="V1" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="W1" s="71" t="s">
+      <c r="W1" s="29" t="s">
         <v>351</v>
       </c>
-      <c r="X1" s="71" t="s">
+      <c r="X1" s="29" t="s">
         <v>352</v>
       </c>
-      <c r="Y1" s="71" t="s">
+      <c r="Y1" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="Z1" s="71" t="s">
+      <c r="Z1" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="AA1" s="71" t="s">
+      <c r="AA1" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="AB1" s="71" t="s">
+      <c r="AB1" s="29" t="s">
         <v>356</v>
       </c>
-      <c r="AC1" s="71" t="s">
+      <c r="AC1" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="AD1" s="71" t="s">
+      <c r="AD1" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="AE1" s="71" t="s">
+      <c r="AE1" s="29" t="s">
         <v>359</v>
       </c>
-      <c r="AF1" s="71" t="s">
+      <c r="AF1" s="29" t="s">
         <v>360</v>
       </c>
-      <c r="AG1" s="71" t="s">
+      <c r="AG1" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="AH1" s="71" t="s">
+      <c r="AH1" s="29" t="s">
         <v>362</v>
       </c>
-      <c r="AI1" s="71" t="s">
+      <c r="AI1" s="29" t="s">
         <v>363</v>
       </c>
-      <c r="AJ1" s="71" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="AK1" s="71" t="s">
+      <c r="AK1" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="AL1" s="71" t="s">
+      <c r="AL1" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="AM1" s="71" t="s">
+      <c r="AM1" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="AN1" s="71" t="s">
+      <c r="AN1" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="AO1" s="71" t="s">
+      <c r="AO1" s="29" t="s">
         <v>369</v>
       </c>
-      <c r="AP1" s="71" t="s">
+      <c r="AP1" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="AQ1" s="71" t="s">
+      <c r="AQ1" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="AR1" s="71" t="s">
+      <c r="AR1" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="AS1" s="71" t="s">
+      <c r="AS1" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="AT1" s="71" t="s">
+      <c r="AT1" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="AU1" s="71" t="s">
+      <c r="AU1" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="AV1" s="71" t="s">
+      <c r="AV1" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="AW1" s="71" t="s">
+      <c r="AW1" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="AX1" s="71" t="s">
+      <c r="AX1" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="AY1" s="71" t="s">
+      <c r="AY1" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="AZ1" s="71" t="s">
+      <c r="AZ1" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="BA1" s="71" t="s">
+      <c r="BA1" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="BB1" s="71" t="s">
+      <c r="BB1" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="BC1" s="71" t="s">
+      <c r="BC1" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="BD1" s="71" t="s">
+      <c r="BD1" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="BE1" s="71" t="s">
+      <c r="BE1" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="BF1" s="71" t="s">
+      <c r="BF1" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="BG1" s="71" t="s">
+      <c r="BG1" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="BH1" s="71" t="s">
+      <c r="BH1" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="BI1" s="71" t="s">
+      <c r="BI1" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="BJ1" s="71" t="s">
+      <c r="BJ1" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="71" t="s">
+      <c r="BK1" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="BL1" s="71" t="s">
+      <c r="BL1" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="BM1" s="71" t="s">
+      <c r="BM1" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="BN1" s="71" t="s">
+      <c r="BN1" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="BO1" s="71" t="s">
+      <c r="BO1" s="29" t="s">
         <v>395</v>
       </c>
-      <c r="BP1" s="71" t="s">
+      <c r="BP1" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="BQ1" s="71" t="s">
+      <c r="BQ1" s="29" t="s">
         <v>397</v>
       </c>
-      <c r="BR1" s="71" t="s">
+      <c r="BR1" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="BS1" s="71" t="s">
+      <c r="BS1" s="29" t="s">
         <v>399</v>
       </c>
-      <c r="BT1" s="71" t="s">
+      <c r="BT1" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="BU1" s="71" t="s">
+      <c r="BU1" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="BV1" s="71" t="s">
+      <c r="BV1" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="BW1" s="71" t="s">
+      <c r="BW1" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="BX1" s="71" t="s">
+      <c r="BX1" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="BY1" s="71" t="s">
+      <c r="BY1" s="29" t="s">
         <v>405</v>
       </c>
-      <c r="BZ1" s="71" t="s">
+      <c r="BZ1" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="CA1" s="71" t="s">
+      <c r="CA1" s="29" t="s">
         <v>407</v>
       </c>
-      <c r="CB1" s="71" t="s">
+      <c r="CB1" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="CC1" s="71" t="s">
+      <c r="CC1" s="29" t="s">
         <v>409</v>
       </c>
-      <c r="CD1" s="71" t="s">
+      <c r="CD1" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="CE1" s="71" t="s">
+      <c r="CE1" s="29" t="s">
         <v>411</v>
       </c>
-      <c r="CF1" s="71" t="s">
+      <c r="CF1" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="CG1" s="71" t="s">
+      <c r="CG1" s="29" t="s">
         <v>413</v>
       </c>
-      <c r="CH1" s="71" t="s">
+      <c r="CH1" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="CI1" s="71" t="s">
+      <c r="CI1" s="29" t="s">
         <v>415</v>
       </c>
-      <c r="CJ1" s="71" t="s">
+      <c r="CJ1" s="29" t="s">
         <v>416</v>
       </c>
-      <c r="CK1" s="71" t="s">
+      <c r="CK1" s="29" t="s">
         <v>417</v>
       </c>
-      <c r="CL1" s="71" t="s">
+      <c r="CL1" s="29" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:90" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:90" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="32" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="32" t="s">
         <v>420</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="53" t="s">
+      <c r="I2" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="N2" s="59" t="s">
+      <c r="N2" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="O2" s="53" t="s">
+      <c r="O2" s="32" t="s">
         <v>426</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="59" t="s">
         <v>427</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="42" t="s">
         <v>282</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="59" t="s">
         <v>429</v>
       </c>
-      <c r="U2" s="31" t="s">
+      <c r="U2" s="59" t="s">
         <v>426</v>
       </c>
-      <c r="V2" s="53" t="s">
+      <c r="V2" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="W2" s="53" t="s">
+      <c r="W2" s="32" t="s">
         <v>431</v>
       </c>
-      <c r="X2" s="44" t="s">
+      <c r="X2" s="54" t="s">
         <v>432</v>
       </c>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="53" t="s">
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="60"/>
+      <c r="AB2" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="AC2" s="53" t="s">
+      <c r="AC2" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="AD2" s="53" t="s">
+      <c r="AD2" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="AE2" s="53" t="s">
+      <c r="AE2" s="32" t="s">
         <v>433</v>
       </c>
-      <c r="AF2" s="53" t="s">
+      <c r="AF2" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="AG2" s="53" t="s">
+      <c r="AG2" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="AH2" s="53" t="s">
+      <c r="AH2" s="32" t="s">
         <v>435</v>
       </c>
-      <c r="AI2" s="59" t="s">
+      <c r="AI2" s="17" t="s">
         <v>436</v>
       </c>
-      <c r="AJ2" s="59" t="s">
+      <c r="AJ2" s="17" t="s">
         <v>437</v>
       </c>
-      <c r="AK2" s="59" t="s">
+      <c r="AK2" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="AL2" s="59" t="s">
+      <c r="AL2" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="AM2" s="59" t="s">
+      <c r="AM2" s="17" t="s">
         <v>439</v>
       </c>
-      <c r="AN2" s="59" t="s">
+      <c r="AN2" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="AO2" s="59" t="s">
+      <c r="AO2" s="17" t="s">
         <v>441</v>
       </c>
-      <c r="AP2" s="59" t="s">
+      <c r="AP2" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="AQ2" s="59" t="s">
+      <c r="AQ2" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="AR2" s="59" t="s">
+      <c r="AR2" s="17" t="s">
         <v>442</v>
       </c>
-      <c r="AS2" s="59" t="s">
+      <c r="AS2" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="AT2" s="59" t="s">
+      <c r="AT2" s="17" t="s">
         <v>444</v>
       </c>
-      <c r="AU2" s="48"/>
-      <c r="AV2" s="48"/>
-      <c r="AW2" s="59" t="s">
+      <c r="AU2" s="46"/>
+      <c r="AV2" s="46"/>
+      <c r="AW2" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="AX2" s="59" t="s">
+      <c r="AX2" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="AY2" s="59" t="s">
+      <c r="AY2" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="AZ2" s="62" t="s">
+      <c r="AZ2" s="37" t="s">
         <v>446</v>
       </c>
-      <c r="BA2" s="62" t="s">
+      <c r="BA2" s="37" t="s">
         <v>447</v>
       </c>
-      <c r="BB2" s="21" t="s">
+      <c r="BB2" s="61" t="s">
         <v>448</v>
       </c>
-      <c r="BC2" s="61" t="s">
+      <c r="BC2" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="BD2" s="61" t="s">
+      <c r="BD2" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="BE2" s="61" t="s">
+      <c r="BE2" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="BF2" s="61" t="s">
+      <c r="BF2" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="BG2" s="61" t="s">
+      <c r="BG2" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="BH2" s="61" t="s">
+      <c r="BH2" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="BI2" s="61" t="s">
+      <c r="BI2" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="BJ2" s="61" t="s">
+      <c r="BJ2" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="BK2" s="61" t="s">
+      <c r="BK2" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="BL2" s="61"/>
-      <c r="BM2" s="61" t="s">
+      <c r="BL2" s="46"/>
+      <c r="BM2" s="46" t="s">
         <v>427</v>
       </c>
-      <c r="BN2" s="61" t="s">
+      <c r="BN2" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="BO2" s="61" t="s">
+      <c r="BO2" s="46" t="s">
         <v>429</v>
       </c>
-      <c r="BP2" s="61" t="s">
+      <c r="BP2" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="BQ2" s="61" t="s">
+      <c r="BQ2" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="BR2" s="61" t="s">
+      <c r="BR2" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="BS2" s="61" t="s">
+      <c r="BS2" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="BT2" s="61" t="s">
+      <c r="BT2" s="46" t="s">
         <v>454</v>
       </c>
-      <c r="BU2" s="61" t="s">
+      <c r="BU2" s="46" t="s">
         <v>455</v>
       </c>
-      <c r="BV2" s="61" t="s">
+      <c r="BV2" s="46" t="s">
         <v>456</v>
       </c>
-      <c r="BW2" s="61" t="s">
+      <c r="BW2" s="46" t="s">
         <v>457</v>
       </c>
-      <c r="BX2" s="61" t="s">
+      <c r="BX2" s="46" t="s">
         <v>458</v>
       </c>
-      <c r="BY2" s="61" t="s">
+      <c r="BY2" s="46" t="s">
         <v>459</v>
       </c>
-      <c r="BZ2" s="61" t="s">
+      <c r="BZ2" s="46" t="s">
         <v>427</v>
       </c>
-      <c r="CA2" s="61" t="s">
+      <c r="CA2" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="CB2" s="62" t="s">
+      <c r="CB2" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="CC2" s="61" t="s">
+      <c r="CC2" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="CD2" s="62" t="s">
+      <c r="CD2" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="CE2" s="62" t="s">
+      <c r="CE2" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="CF2" s="62" t="s">
+      <c r="CF2" s="37" t="s">
         <v>463</v>
       </c>
-      <c r="CG2" s="62" t="s">
+      <c r="CG2" s="37" t="s">
         <v>464</v>
       </c>
-      <c r="CH2" s="62" t="s">
+      <c r="CH2" s="37" t="s">
         <v>465</v>
       </c>
-      <c r="CI2" s="61" t="s">
+      <c r="CI2" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="CJ2" s="62"/>
-      <c r="CK2" s="62" t="s">
+      <c r="CJ2" s="37"/>
+      <c r="CK2" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="CL2" s="62" t="s">
+      <c r="CL2" s="37" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="AK7" s="33"/>
+      <c r="AK7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4786,314 +5251,322 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AX2"/>
+  <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26" style="72" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="32.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="72" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25" style="72" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28" style="72" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="21" style="72" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="26.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="27.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="15.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="20.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="33.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="16.85546875" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="57" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:50" s="44" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="39" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="44" t="s">
         <v>469</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="44" t="s">
         <v>470</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="44" t="s">
         <v>471</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="44" t="s">
         <v>472</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="44" t="s">
         <v>473</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="44" t="s">
         <v>475</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="M1" s="44" t="s">
         <v>476</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="N1" s="44" t="s">
         <v>477</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="44" t="s">
         <v>478</v>
       </c>
-      <c r="P1" s="57" t="s">
+      <c r="P1" s="44" t="s">
         <v>479</v>
       </c>
-      <c r="Q1" s="57" t="s">
+      <c r="Q1" s="44" t="s">
         <v>480</v>
       </c>
-      <c r="R1" s="57" t="s">
+      <c r="R1" s="44" t="s">
         <v>481</v>
       </c>
-      <c r="S1" s="57" t="s">
+      <c r="S1" s="44" t="s">
         <v>482</v>
       </c>
-      <c r="T1" s="57" t="s">
+      <c r="T1" s="44" t="s">
         <v>483</v>
       </c>
-      <c r="U1" s="60" t="s">
+      <c r="U1" s="45" t="s">
         <v>484</v>
       </c>
-      <c r="V1" s="57" t="s">
+      <c r="V1" s="44" t="s">
         <v>485</v>
       </c>
-      <c r="W1" s="57" t="s">
+      <c r="W1" s="44" t="s">
         <v>486</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="X1" s="44" t="s">
         <v>487</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="Y1" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="Z1" s="57" t="s">
+      <c r="Z1" s="44" t="s">
         <v>488</v>
       </c>
-      <c r="AA1" s="57" t="s">
+      <c r="AA1" s="44" t="s">
         <v>489</v>
       </c>
-      <c r="AB1" s="57" t="s">
+      <c r="AB1" s="44" t="s">
         <v>490</v>
       </c>
-      <c r="AC1" s="57" t="s">
+      <c r="AC1" s="44" t="s">
         <v>491</v>
       </c>
-      <c r="AD1" s="57" t="s">
+      <c r="AD1" s="44" t="s">
         <v>492</v>
       </c>
-      <c r="AE1" s="57" t="s">
+      <c r="AE1" s="44" t="s">
         <v>493</v>
       </c>
-      <c r="AF1" s="57" t="s">
+      <c r="AF1" s="44" t="s">
         <v>494</v>
       </c>
-      <c r="AG1" s="57" t="s">
+      <c r="AG1" s="44" t="s">
         <v>495</v>
       </c>
-      <c r="AH1" s="57" t="s">
+      <c r="AH1" s="44" t="s">
         <v>496</v>
       </c>
-      <c r="AI1" s="57" t="s">
+      <c r="AI1" s="44" t="s">
         <v>497</v>
       </c>
-      <c r="AJ1" s="57" t="s">
+      <c r="AJ1" s="44" t="s">
         <v>498</v>
       </c>
-      <c r="AK1" s="57" t="s">
+      <c r="AK1" s="44" t="s">
         <v>499</v>
       </c>
-      <c r="AL1" s="57" t="s">
+      <c r="AL1" s="44" t="s">
         <v>500</v>
       </c>
-      <c r="AM1" s="57" t="s">
+      <c r="AM1" s="44" t="s">
         <v>501</v>
       </c>
-      <c r="AN1" s="57" t="s">
+      <c r="AN1" s="44" t="s">
         <v>502</v>
       </c>
-      <c r="AO1" s="57" t="s">
+      <c r="AO1" s="44" t="s">
         <v>503</v>
       </c>
-      <c r="AP1" s="57" t="s">
+      <c r="AP1" s="44" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:50" s="57" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="17" t="s">
         <v>505</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="17" t="s">
         <v>506</v>
       </c>
-      <c r="G2" s="56" t="s">
+      <c r="G2" s="49" t="s">
         <v>507</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="44" t="s">
+      <c r="I2" s="54" t="s">
         <v>432</v>
       </c>
-      <c r="J2" s="44" t="s">
+      <c r="J2" s="54" t="s">
         <v>432</v>
       </c>
-      <c r="K2" s="44" t="s">
+      <c r="K2" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="M2" s="53" t="s">
+      <c r="M2" s="32" t="s">
         <v>428</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="54" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="56" t="s">
+      <c r="O2" s="49" t="s">
         <v>285</v>
       </c>
-      <c r="P2" s="56" t="s">
+      <c r="P2" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="S2" s="17" t="s">
         <v>511</v>
       </c>
-      <c r="T2" s="59" t="s">
+      <c r="T2" s="17" t="s">
         <v>282</v>
       </c>
-      <c r="U2" s="53" t="s">
+      <c r="U2" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="V2" s="59" t="s">
+      <c r="V2" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="W2" s="59" t="s">
+      <c r="W2" s="17" t="s">
         <v>512</v>
       </c>
-      <c r="X2" s="59" t="s">
+      <c r="X2" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="Y2" s="18" t="s">
+      <c r="Y2" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="Z2" s="17" t="s">
+      <c r="Z2" s="56" t="s">
         <v>513</v>
       </c>
-      <c r="AA2" s="16" t="s">
+      <c r="AA2" s="57" t="s">
         <v>514</v>
       </c>
-      <c r="AB2" s="16" t="s">
+      <c r="AB2" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="AC2" s="16" t="s">
+      <c r="AC2" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="AD2" s="16" t="s">
+      <c r="AD2" s="57" t="s">
         <v>509</v>
       </c>
-      <c r="AE2" s="16" t="s">
+      <c r="AE2" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="AF2" s="16" t="s">
+      <c r="AF2" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="AG2" s="19" t="s">
+      <c r="AG2" s="58" t="s">
         <v>515</v>
       </c>
-      <c r="AH2" s="19" t="s">
+      <c r="AH2" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="AI2" s="16" t="s">
+      <c r="AI2" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="AJ2" s="16" t="s">
+      <c r="AJ2" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="AK2" s="16" t="s">
+      <c r="AK2" s="57" t="s">
         <v>509</v>
       </c>
-      <c r="AL2" s="16" t="s">
+      <c r="AL2" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="AM2" s="16" t="s">
+      <c r="AM2" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="AN2" s="16" t="s">
+      <c r="AN2" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="AO2" s="16" t="s">
+      <c r="AO2" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="AP2" s="16" t="s">
+      <c r="AP2" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="AQ2" s="17"/>
-      <c r="AR2" s="17"/>
-      <c r="AS2" s="17"/>
-      <c r="AT2" s="17"/>
-      <c r="AU2" s="17"/>
-      <c r="AV2" s="17"/>
-      <c r="AW2" s="17"/>
-      <c r="AX2" s="17"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+    </row>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+      <c r="K3" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>516</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5108,291 +5581,290 @@
   </sheetPr>
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE29:AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20" style="72" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="34" max="35" width="25.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21" style="72" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22" style="72" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="26.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="6" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:40" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="46" t="s">
-        <v>516</v>
-      </c>
-      <c r="E1" s="46" t="s">
-        <v>662</v>
-      </c>
-      <c r="F1" s="46" t="s">
+      <c r="D1" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="E1" s="29" t="s">
         <v>518</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="F1" s="29" t="s">
         <v>519</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="G1" s="29" t="s">
         <v>520</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="H1" s="29" t="s">
         <v>521</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="I1" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="J1" s="29" t="s">
         <v>523</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="K1" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="L1" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="M1" s="29" t="s">
         <v>526</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="N1" s="29" t="s">
         <v>527</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="O1" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="P1" s="29" t="s">
         <v>529</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="Q1" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="R1" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="S1" s="29" t="s">
         <v>532</v>
       </c>
-      <c r="V1" s="46" t="s">
+      <c r="T1" s="29" t="s">
         <v>533</v>
       </c>
-      <c r="W1" s="46" t="s">
+      <c r="U1" s="29" t="s">
         <v>534</v>
       </c>
-      <c r="X1" s="46" t="s">
+      <c r="V1" s="29" t="s">
         <v>535</v>
       </c>
-      <c r="Y1" s="46" t="s">
+      <c r="W1" s="29" t="s">
         <v>536</v>
       </c>
-      <c r="Z1" s="46" t="s">
+      <c r="X1" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="AA1" s="46" t="s">
+      <c r="Y1" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="AB1" s="46" t="s">
+      <c r="Z1" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="AC1" s="46" t="s">
+      <c r="AA1" s="29" t="s">
         <v>540</v>
       </c>
-      <c r="AD1" s="46" t="s">
+      <c r="AB1" s="29" t="s">
         <v>541</v>
       </c>
-      <c r="AE1" s="46" t="s">
+      <c r="AC1" s="29" t="s">
         <v>542</v>
       </c>
-      <c r="AF1" s="46" t="s">
+      <c r="AD1" s="29" t="s">
         <v>543</v>
       </c>
-      <c r="AG1" s="46" t="s">
+      <c r="AE1" s="29" t="s">
         <v>544</v>
       </c>
-      <c r="AH1" s="46" t="s">
+      <c r="AF1" s="29" t="s">
         <v>545</v>
       </c>
-      <c r="AI1" s="46" t="s">
+      <c r="AG1" s="29" t="s">
         <v>546</v>
       </c>
-      <c r="AJ1" s="46" t="s">
+      <c r="AH1" s="29" t="s">
         <v>547</v>
       </c>
-      <c r="AK1" s="46" t="s">
+      <c r="AI1" s="29" t="s">
         <v>548</v>
       </c>
-      <c r="AL1" s="46" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>549</v>
       </c>
-      <c r="AM1" s="46" t="s">
+      <c r="AK1" s="29" t="s">
         <v>550</v>
       </c>
-      <c r="AN1" s="46" t="s">
+      <c r="AL1" s="29" t="s">
+        <v>551</v>
+      </c>
+      <c r="AM1" s="29" t="s">
+        <v>552</v>
+      </c>
+      <c r="AN1" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="53" t="s">
-        <v>551</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>663</v>
-      </c>
-      <c r="F2" s="53" t="s">
+      <c r="D2" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G2" s="32" t="s">
         <v>463</v>
       </c>
-      <c r="H2" s="53" t="s">
-        <v>552</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>553</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>554</v>
-      </c>
-      <c r="K2" s="53" t="s">
+      <c r="H2" s="32" t="s">
         <v>555</v>
       </c>
-      <c r="L2" s="54" t="s">
+      <c r="I2" s="32" t="s">
         <v>556</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="J2" s="32" t="s">
         <v>557</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="K2" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="M2" s="17" t="s">
+        <v>560</v>
+      </c>
+      <c r="N2" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="O2" s="54" t="s">
-        <v>558</v>
-      </c>
-      <c r="P2" s="54" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q2" s="54" t="s">
-        <v>560</v>
-      </c>
-      <c r="R2" s="54" t="s">
+      <c r="O2" s="17" t="s">
         <v>561</v>
       </c>
-      <c r="S2" s="54" t="s">
+      <c r="P2" s="17" t="s">
         <v>562</v>
       </c>
-      <c r="T2" s="54" t="s">
+      <c r="Q2" s="17" t="s">
         <v>563</v>
       </c>
-      <c r="U2" s="55" t="s">
+      <c r="R2" s="17" t="s">
         <v>564</v>
       </c>
-      <c r="V2" s="54" t="s">
+      <c r="S2" s="17" t="s">
         <v>565</v>
       </c>
-      <c r="W2" s="54" t="s">
+      <c r="T2" s="17" t="s">
         <v>566</v>
       </c>
-      <c r="X2" s="54" t="s">
+      <c r="U2" s="49" t="s">
         <v>567</v>
       </c>
-      <c r="Y2" s="54" t="s">
+      <c r="V2" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="W2" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="X2" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y2" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="Z2" s="54">
+      <c r="Z2" s="17">
         <v>50</v>
       </c>
-      <c r="AA2" t="s">
-        <v>568</v>
-      </c>
-      <c r="AB2" s="56" t="s">
+      <c r="AA2" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="AB2" s="49" t="s">
         <v>434</v>
       </c>
-      <c r="AC2" s="56" t="s">
+      <c r="AC2" s="49" t="s">
         <v>463</v>
       </c>
-      <c r="AD2" s="56">
+      <c r="AD2" s="49">
         <v>1.65</v>
       </c>
-      <c r="AE2" s="56" t="s">
-        <v>564</v>
-      </c>
-      <c r="AF2" s="56" t="s">
-        <v>569</v>
-      </c>
-      <c r="AG2" s="23" t="s">
-        <v>570</v>
-      </c>
-      <c r="AH2" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="7" t="s">
+      <c r="AE2" s="49" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF2" s="49" t="s">
         <v>572</v>
       </c>
-      <c r="AK2" s="51" t="s">
-        <v>572</v>
-      </c>
-      <c r="AL2" s="52" t="s">
+      <c r="AG2" s="50" t="s">
         <v>573</v>
       </c>
-      <c r="AM2" s="52" t="s">
+      <c r="AH2" s="50" t="s">
         <v>574</v>
       </c>
-      <c r="AN2" s="72"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="51" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK2" s="52" t="s">
+        <v>575</v>
+      </c>
+      <c r="AL2" s="53" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM2" s="53" t="s">
+        <v>577</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5408,244 +5880,244 @@
   <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="72" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="19.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="72" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" style="72" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="16.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="57" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:34" s="44" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="57" t="s">
-        <v>575</v>
-      </c>
-      <c r="E1" s="60" t="s">
+      <c r="D1" s="44" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="45" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="57" t="s">
-        <v>576</v>
-      </c>
-      <c r="G1" s="57" t="s">
-        <v>577</v>
-      </c>
-      <c r="H1" s="57" t="s">
-        <v>578</v>
-      </c>
-      <c r="I1" s="57" t="s">
+      <c r="F1" s="44" t="s">
         <v>579</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="G1" s="44" t="s">
         <v>580</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="H1" s="44" t="s">
         <v>581</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="I1" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="M1" s="57" t="s">
+      <c r="J1" s="44" t="s">
         <v>583</v>
       </c>
-      <c r="N1" s="57" t="s">
+      <c r="K1" s="44" t="s">
+        <v>584</v>
+      </c>
+      <c r="L1" s="44" t="s">
+        <v>585</v>
+      </c>
+      <c r="M1" s="44" t="s">
+        <v>586</v>
+      </c>
+      <c r="N1" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="O1" s="57" t="s">
-        <v>584</v>
-      </c>
-      <c r="P1" s="57" t="s">
+      <c r="O1" s="44" t="s">
+        <v>587</v>
+      </c>
+      <c r="P1" s="44" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="57" t="s">
-        <v>585</v>
-      </c>
-      <c r="R1" s="57" t="s">
-        <v>586</v>
-      </c>
-      <c r="S1" s="57" t="s">
-        <v>587</v>
-      </c>
-      <c r="T1" s="58" t="s">
+      <c r="Q1" s="44" t="s">
         <v>588</v>
       </c>
-      <c r="U1" s="58" t="s">
+      <c r="R1" s="44" t="s">
         <v>589</v>
       </c>
-      <c r="V1" s="58" t="s">
+      <c r="S1" s="44" t="s">
         <v>590</v>
       </c>
-      <c r="W1" s="58" t="s">
+      <c r="T1" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="X1" s="57" t="s">
+      <c r="U1" s="30" t="s">
         <v>592</v>
       </c>
-      <c r="Y1" s="57" t="s">
+      <c r="V1" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="Z1" s="57" t="s">
+      <c r="W1" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="AA1" s="57" t="s">
+      <c r="X1" s="44" t="s">
         <v>595</v>
       </c>
-      <c r="AB1" s="57" t="s">
+      <c r="Y1" s="44" t="s">
         <v>596</v>
       </c>
-      <c r="AC1" s="57" t="s">
+      <c r="Z1" s="44" t="s">
         <v>597</v>
       </c>
-      <c r="AD1" s="57" t="s">
+      <c r="AA1" s="44" t="s">
         <v>598</v>
       </c>
-      <c r="AE1" s="57" t="s">
+      <c r="AB1" s="44" t="s">
         <v>599</v>
       </c>
-      <c r="AF1" s="57" t="s">
+      <c r="AC1" s="44" t="s">
         <v>600</v>
       </c>
-      <c r="AG1" s="57" t="s">
+      <c r="AD1" s="44" t="s">
         <v>601</v>
       </c>
-      <c r="AH1" s="57" t="s">
+      <c r="AE1" s="44" t="s">
         <v>602</v>
       </c>
+      <c r="AF1" s="44" t="s">
+        <v>603</v>
+      </c>
+      <c r="AG1" s="44" t="s">
+        <v>604</v>
+      </c>
+      <c r="AH1" s="44" t="s">
+        <v>605</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" s="59" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:34" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="17" t="s">
         <v>445</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="59" t="s">
-        <v>603</v>
-      </c>
-      <c r="G2" s="59" t="s">
-        <v>604</v>
-      </c>
-      <c r="H2" s="59" t="s">
-        <v>605</v>
-      </c>
-      <c r="I2" s="59" t="s">
+      <c r="F2" s="17" t="s">
         <v>606</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="G2" s="17" t="s">
         <v>607</v>
       </c>
-      <c r="K2" s="61" t="s">
+      <c r="H2" s="17" t="s">
         <v>608</v>
       </c>
-      <c r="L2" s="61" t="s">
+      <c r="I2" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>611</v>
+      </c>
+      <c r="L2" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="61" t="s">
-        <v>609</v>
-      </c>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62" t="s">
+      <c r="M2" s="46" t="s">
+        <v>612</v>
+      </c>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="P2" s="61" t="s">
+      <c r="P2" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="Q2" s="62" t="s">
-        <v>610</v>
-      </c>
-      <c r="R2" s="63" t="s">
-        <v>611</v>
-      </c>
-      <c r="S2" s="63" t="s">
-        <v>612</v>
-      </c>
-      <c r="T2" s="62" t="s">
+      <c r="Q2" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="R2" s="47" t="s">
+        <v>614</v>
+      </c>
+      <c r="S2" s="47" t="s">
+        <v>615</v>
+      </c>
+      <c r="T2" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="U2" s="62" t="s">
+      <c r="U2" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="V2" s="62" t="s">
+      <c r="V2" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="W2" s="62" t="s">
+      <c r="W2" s="37" t="s">
         <v>451</v>
       </c>
-      <c r="X2" s="62">
+      <c r="X2" s="37">
         <v>217212.38</v>
       </c>
-      <c r="Y2" s="62">
+      <c r="Y2" s="37">
         <v>1.4</v>
       </c>
-      <c r="Z2" s="64">
+      <c r="Z2" s="37">
         <v>95000000</v>
       </c>
-      <c r="AA2" s="62">
+      <c r="AA2" s="37">
         <v>28767.119999999999</v>
       </c>
-      <c r="AB2" s="65">
+      <c r="AB2" s="37">
         <v>365</v>
       </c>
-      <c r="AC2" s="61" t="s">
+      <c r="AC2" s="46" t="s">
         <v>466</v>
       </c>
-      <c r="AD2" s="61" t="s">
-        <v>613</v>
-      </c>
-      <c r="AE2" s="66">
+      <c r="AD2" s="46" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE2" s="48">
         <v>33.68000067669842</v>
       </c>
-      <c r="AF2" s="66">
+      <c r="AF2" s="48">
         <v>28.986666144465609</v>
       </c>
-      <c r="AG2" s="66">
+      <c r="AG2" s="48">
         <v>37.333333178835993</v>
       </c>
-      <c r="AH2" s="61" t="s">
-        <v>614</v>
+      <c r="AH2" s="46" t="s">
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -5661,177 +6133,177 @@
   </sheetPr>
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="72" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="72" customWidth="1"/>
-    <col min="20" max="20" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:28" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="40" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="40" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="71" t="s">
-        <v>615</v>
-      </c>
-      <c r="F1" s="71" t="s">
-        <v>616</v>
-      </c>
-      <c r="G1" s="71" t="s">
-        <v>617</v>
-      </c>
-      <c r="H1" s="71" t="s">
+      <c r="E1" s="29" t="s">
         <v>618</v>
       </c>
-      <c r="I1" s="71" t="s">
+      <c r="F1" s="29" t="s">
         <v>619</v>
       </c>
-      <c r="J1" s="71" t="s">
+      <c r="G1" s="29" t="s">
         <v>620</v>
       </c>
-      <c r="K1" s="71" t="s">
+      <c r="H1" s="29" t="s">
         <v>621</v>
       </c>
-      <c r="L1" s="71" t="s">
+      <c r="I1" s="29" t="s">
         <v>622</v>
       </c>
-      <c r="M1" s="71" t="s">
+      <c r="J1" s="29" t="s">
         <v>623</v>
       </c>
-      <c r="N1" s="71" t="s">
+      <c r="K1" s="29" t="s">
         <v>624</v>
       </c>
-      <c r="O1" s="71" t="s">
+      <c r="L1" s="29" t="s">
+        <v>625</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>626</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>627</v>
+      </c>
+      <c r="O1" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="71" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q1" s="71" t="s">
-        <v>626</v>
-      </c>
-      <c r="R1" s="71" t="s">
-        <v>627</v>
-      </c>
-      <c r="S1" s="71" t="s">
+      <c r="P1" s="29" t="s">
         <v>628</v>
       </c>
-      <c r="T1" s="71" t="s">
-        <v>664</v>
-      </c>
-      <c r="U1" s="71"/>
-      <c r="V1" s="71"/>
-      <c r="W1" s="71"/>
-      <c r="X1" s="71"/>
-      <c r="Y1" s="71"/>
-      <c r="Z1" s="71"/>
-      <c r="AA1" s="71"/>
-      <c r="AB1" s="71"/>
+      <c r="Q1" s="29" t="s">
+        <v>629</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>630</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>631</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>632</v>
+      </c>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+      <c r="AA1" s="29"/>
+      <c r="AB1" s="29"/>
     </row>
-    <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:28" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="32" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>629</v>
-      </c>
-      <c r="I2" s="49" t="s">
+      <c r="H2" s="41" t="s">
+        <v>633</v>
+      </c>
+      <c r="I2" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="42" t="s">
         <v>428</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="M2" s="50" t="s">
+      <c r="M2" s="43" t="s">
         <v>432</v>
       </c>
-      <c r="N2" s="73" t="s">
-        <v>630</v>
-      </c>
-      <c r="O2" s="53" t="s">
+      <c r="N2" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="O2" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="P2" s="53" t="s">
+      <c r="P2" s="32" t="s">
         <v>452</v>
       </c>
-      <c r="Q2" s="53" t="s">
+      <c r="Q2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="44" t="s">
+      <c r="R2" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="S2" s="44" t="s">
+      <c r="S2" s="17" t="s">
         <v>432</v>
       </c>
-      <c r="T2" s="53" t="s">
-        <v>665</v>
-      </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
-      <c r="AB2" s="53"/>
+      <c r="T2" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="U2" s="32"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="32"/>
+      <c r="Y2" s="32"/>
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="32"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N3" t="s">
-        <v>631</v>
+      <c r="N3" s="3" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -5842,214 +6314,804 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AB2"/>
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AH3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="72" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="72" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28" style="72" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="28.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="16.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.5703125" style="72" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.7109375" style="72" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.28515625" style="72" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.85546875" style="72" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24" style="72" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20" style="72" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="21.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.28515625" style="72" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="40.42578125" style="2" customWidth="1"/>
+    <col min="22" max="22" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="71" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:34" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="58" t="s">
-        <v>632</v>
-      </c>
-      <c r="F1" s="58" t="s">
-        <v>633</v>
-      </c>
-      <c r="G1" s="58" t="s">
-        <v>418</v>
-      </c>
-      <c r="H1" s="58" t="s">
-        <v>634</v>
-      </c>
-      <c r="I1" s="58" t="s">
-        <v>635</v>
-      </c>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="30" t="s">
         <v>636</v>
       </c>
-      <c r="K1" s="58" t="s">
-        <v>588</v>
-      </c>
-      <c r="L1" s="58" t="s">
-        <v>589</v>
-      </c>
-      <c r="M1" s="58" t="s">
-        <v>590</v>
-      </c>
-      <c r="N1" s="58" t="s">
+      <c r="F1" s="30" t="s">
+        <v>637</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="J1" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>642</v>
+      </c>
+      <c r="L1" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="M1" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="N1" s="29" t="s">
+        <v>645</v>
+      </c>
+      <c r="O1" s="29" t="s">
+        <v>646</v>
+      </c>
+      <c r="P1" s="29" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q1" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" s="31" t="s">
+        <v>587</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>650</v>
+      </c>
+      <c r="V1" s="30" t="s">
+        <v>651</v>
+      </c>
+      <c r="W1" s="30" t="s">
+        <v>652</v>
+      </c>
+      <c r="X1" s="30" t="s">
         <v>591</v>
       </c>
-      <c r="O1" s="58" t="s">
-        <v>637</v>
-      </c>
-      <c r="P1" s="58" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q1" s="58" t="s">
-        <v>639</v>
-      </c>
-      <c r="R1" s="58" t="s">
-        <v>640</v>
-      </c>
-      <c r="S1" s="71" t="s">
-        <v>641</v>
-      </c>
-      <c r="T1" s="71" t="s">
-        <v>642</v>
-      </c>
-      <c r="U1" s="71" t="s">
-        <v>643</v>
-      </c>
-      <c r="V1" s="71" t="s">
-        <v>644</v>
-      </c>
-      <c r="W1" s="70" t="s">
-        <v>645</v>
-      </c>
-      <c r="X1" s="71" t="s">
-        <v>646</v>
-      </c>
-      <c r="Y1" s="71" t="s">
-        <v>647</v>
-      </c>
-      <c r="Z1" s="71" t="s">
-        <v>648</v>
-      </c>
-      <c r="AA1" s="71" t="s">
-        <v>649</v>
-      </c>
-      <c r="AB1" s="71" t="s">
-        <v>650</v>
+      <c r="Y1" s="30" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z1" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA1" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="AB1" s="30" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC1" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD1" s="30" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE1" s="29" t="s">
+        <v>656</v>
+      </c>
+      <c r="AF1" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="AG1" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="AH1" s="29" t="s">
+        <v>659</v>
       </c>
     </row>
-    <row r="2" spans="1:28" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+    <row r="2" spans="1:34" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="62" t="s">
-        <v>651</v>
-      </c>
-      <c r="C2" s="62" t="s">
-        <v>652</v>
-      </c>
-      <c r="D2" s="62" t="s">
+      <c r="B2" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="62" t="s">
-        <v>653</v>
-      </c>
-      <c r="F2" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="G2" s="62" t="s">
-        <v>467</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>451</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="K2" s="62" t="s">
-        <v>654</v>
-      </c>
-      <c r="L2" s="62" t="s">
-        <v>655</v>
-      </c>
-      <c r="M2" s="62" t="s">
-        <v>451</v>
-      </c>
-      <c r="N2" s="62" t="s">
-        <v>451</v>
-      </c>
-      <c r="O2" s="62" t="s">
+      <c r="E2" s="32">
+        <v>60001816</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>434</v>
       </c>
-      <c r="P2" s="64">
-        <v>33.68</v>
-      </c>
-      <c r="Q2" s="62" t="s">
-        <v>656</v>
-      </c>
-      <c r="R2" s="62" t="s">
-        <v>657</v>
-      </c>
-      <c r="S2" s="62" t="s">
-        <v>285</v>
-      </c>
-      <c r="T2" s="62" t="s">
-        <v>270</v>
-      </c>
-      <c r="U2" s="23" t="s">
-        <v>658</v>
-      </c>
-      <c r="V2" s="61" t="s">
-        <v>659</v>
-      </c>
-      <c r="W2" s="41" t="s">
+      <c r="I2" s="33" t="s">
+        <v>660</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>508</v>
       </c>
-      <c r="X2" s="62" t="s">
-        <v>614</v>
-      </c>
-      <c r="Y2" s="62" t="s">
-        <v>660</v>
-      </c>
-      <c r="Z2" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62" t="s">
-        <v>661</v>
+      <c r="L2" s="32" t="s">
+        <v>662</v>
+      </c>
+      <c r="M2" s="34"/>
+      <c r="N2" s="32" t="s">
+        <v>663</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q2" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="S2" s="35" t="s">
+        <v>664</v>
+      </c>
+      <c r="T2" s="32" t="s">
+        <v>665</v>
+      </c>
+      <c r="U2" s="32" t="s">
+        <v>666</v>
+      </c>
+      <c r="V2" s="36"/>
+      <c r="W2" s="36"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="K3" s="15" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:BK4"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="37.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="63.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="29.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="58" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:63" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>696</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>697</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>698</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>599</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>706</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="BK1" s="5" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:63" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>719</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="28">
+        <v>60001816</v>
+      </c>
+      <c r="F2" s="11">
+        <v>800</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="L2" s="11" t="s">
+        <v>724</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="N2" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>728</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="AI2" s="11"/>
+      <c r="AJ2" s="11" t="s">
+        <v>740</v>
+      </c>
+      <c r="AK2" s="11"/>
+      <c r="AL2" s="11"/>
+      <c r="AM2" s="11"/>
+      <c r="AN2" s="11"/>
+      <c r="AO2" s="16"/>
+      <c r="AP2" s="11"/>
+      <c r="AQ2" s="11"/>
+      <c r="AR2" s="11"/>
+      <c r="AS2" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="AT2" s="18" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU2" s="11" t="s">
+        <v>741</v>
+      </c>
+      <c r="AV2" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="AW2" s="11"/>
+      <c r="AX2" s="11"/>
+      <c r="AY2" s="11"/>
+      <c r="AZ2" s="11"/>
+      <c r="BA2" s="11"/>
+      <c r="BB2" s="11"/>
+      <c r="BC2" s="11"/>
+      <c r="BD2" s="11"/>
+      <c r="BE2" s="11"/>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>742</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="28">
+        <v>60001816</v>
+      </c>
+      <c r="F3" s="11">
+        <v>800</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>744</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>721</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>723</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>745</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>725</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>726</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="R3" s="11" t="s">
+        <v>746</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="AK3" s="11"/>
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="27">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="AP3" s="27">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="AQ3" s="27">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="AR3" s="22" t="s">
+        <v>752</v>
+      </c>
+      <c r="AS3" s="23" t="s">
+        <v>661</v>
+      </c>
+      <c r="AT3" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="AU3" s="21" t="s">
+        <v>741</v>
+      </c>
+      <c r="AV3" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="11"/>
+      <c r="BE3" s="11"/>
+      <c r="BF3" s="11"/>
+      <c r="BG3" s="11"/>
+      <c r="BH3" s="11"/>
+      <c r="BI3" s="11"/>
+      <c r="BJ3" s="11"/>
+      <c r="BK3" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="19"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="20"/>
+      <c r="AT4" s="19" t="s">
+        <v>635</v>
+      </c>
+      <c r="AU4" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F31B210-7FA4-4A29-97CA-0143D77BD163}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FAA88F-04A6-49E2-B4BC-42C5E059912F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="757">
   <si>
     <t>rowid</t>
   </si>
@@ -1753,21 +1753,6 @@
     <t>BBSY</t>
   </si>
   <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>6.000000</t>
-  </si>
-  <si>
-    <t>Basis Points</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Fixed Rate Option</t>
-  </si>
-  <si>
     <t>OngoingFee_Type</t>
   </si>
   <si>
@@ -1786,21 +1771,33 @@
     <t>Commitment_AccrualEndDate</t>
   </si>
   <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Balance_Amount</t>
+  </si>
+  <si>
+    <t>Rate_Basis</t>
+  </si>
+  <si>
+    <t>Computed_CycleDue</t>
+  </si>
+  <si>
+    <t>Remittance_Instruction</t>
+  </si>
+  <si>
+    <t>Host_Bank</t>
+  </si>
+  <si>
+    <t>Cycle_Number</t>
+  </si>
+  <si>
     <t>Payment_Type</t>
   </si>
   <si>
-    <t>Cycle_Number</t>
-  </si>
-  <si>
     <t>Prorate_With</t>
   </si>
   <si>
-    <t>Remittance_Instruction</t>
-  </si>
-  <si>
-    <t>Host_Bank</t>
-  </si>
-  <si>
     <t>Lender1_ShortName</t>
   </si>
   <si>
@@ -1819,21 +1816,9 @@
     <t>Lender2_RemittanceInstruction</t>
   </si>
   <si>
-    <t>Computed_CycleDue</t>
-  </si>
-  <si>
-    <t>Rate</t>
-  </si>
-  <si>
-    <t>Balance_Amount</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Rate_Basis</t>
-  </si>
-  <si>
     <t>Due_Date</t>
   </si>
   <si>
@@ -1867,25 +1852,10 @@
     <t>31-Dec-2019</t>
   </si>
   <si>
-    <t>Fee Payment</t>
-  </si>
-  <si>
-    <t>Projected Due</t>
-  </si>
-  <si>
-    <t>CB001/Hold for Investment - Australia/BP_CML</t>
-  </si>
-  <si>
-    <t>BIG W BANK</t>
-  </si>
-  <si>
-    <t>BAN BANK</t>
-  </si>
-  <si>
-    <t>31-Oct-2018</t>
-  </si>
-  <si>
-    <t>Monthly</t>
+    <t>CB001/Hold for Investment - Australia/NB_FUF</t>
+  </si>
+  <si>
+    <t>Correct value when base rate is correct:</t>
   </si>
   <si>
     <t>Primary_Lender</t>
@@ -1978,9 +1948,6 @@
     <t>Loan_AccrualEndDate</t>
   </si>
   <si>
-    <t>IntentNoticeStatus1</t>
-  </si>
-  <si>
     <t>AcceptRate_FromPricing</t>
   </si>
   <si>
@@ -2131,6 +2098,9 @@
     <t>Loan_PricingOption</t>
   </si>
   <si>
+    <t>Amount</t>
+  </si>
+  <si>
     <t>Loan_BaseRate</t>
   </si>
   <si>
@@ -2291,6 +2261,48 @@
   </si>
   <si>
     <t>0.00</t>
+  </si>
+  <si>
+    <t>API_COR_TC05_SENT_Fee Payment Notice_BILATERAL</t>
+  </si>
+  <si>
+    <t>Fee Payment Notice</t>
+  </si>
+  <si>
+    <t>T6EJV5MP</t>
+  </si>
+  <si>
+    <t>LIQ-T6EJV5MP-T(EJV4UJ-2</t>
+  </si>
+  <si>
+    <t>2023-01-19 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2018-09-02 00:00:00.000</t>
+  </si>
+  <si>
+    <t>API_COR_TC05</t>
+  </si>
+  <si>
+    <t>TEMP_API_COR_TC05</t>
+  </si>
+  <si>
+    <t>INPUT_API_COR_TC05</t>
+  </si>
+  <si>
+    <t>EXP_API_COR_TC05</t>
+  </si>
+  <si>
+    <t>API_COR_RESPONSE_TC5</t>
+  </si>
+  <si>
+    <t>FEE INVOICE</t>
+  </si>
+  <si>
+    <t>Update to 885.30</t>
+  </si>
+  <si>
+    <t>Need to update data once DBU is created in IEE/Sandbox</t>
   </si>
 </sst>
 </file>
@@ -2303,7 +2315,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2380,14 +2392,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -2414,7 +2418,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2477,12 +2481,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2524,15 +2522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -2545,247 +2534,269 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3108,7 +3119,7 @@
   </sheetPr>
   <dimension ref="A1:DB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -3190,447 +3201,447 @@
     <col min="83" max="83" width="17.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="64" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:106" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AE1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AF1" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AH1" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AI1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AK1" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="29" t="s">
+      <c r="AL1" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AM1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="AN1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="AO1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="AP1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="29" t="s">
+      <c r="AR1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="29" t="s">
+      <c r="AS1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="40" t="s">
+      <c r="AT1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="40" t="s">
+      <c r="AU1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="40" t="s">
+      <c r="AV1" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="40" t="s">
+      <c r="AW1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="29" t="s">
+      <c r="AX1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="29" t="s">
+      <c r="AY1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="29" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="BA1" s="29" t="s">
+      <c r="BA1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="29" t="s">
+      <c r="BB1" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="29" t="s">
+      <c r="BC1" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="29" t="s">
+      <c r="BD1" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="29" t="s">
+      <c r="BE1" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="29" t="s">
+      <c r="BF1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="29" t="s">
+      <c r="BG1" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="29" t="s">
+      <c r="BH1" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="29" t="s">
+      <c r="BI1" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="29" t="s">
+      <c r="BJ1" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="29" t="s">
+      <c r="BK1" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="29" t="s">
+      <c r="BL1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="29" t="s">
+      <c r="BM1" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="29" t="s">
+      <c r="BN1" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="29" t="s">
+      <c r="BO1" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="29" t="s">
+      <c r="BP1" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="29" t="s">
+      <c r="BQ1" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="29" t="s">
+      <c r="BR1" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="29" t="s">
+      <c r="BS1" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="29" t="s">
+      <c r="BT1" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="29" t="s">
+      <c r="BU1" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="29" t="s">
+      <c r="BV1" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="29" t="s">
+      <c r="BW1" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="29" t="s">
+      <c r="BX1" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" s="29" t="s">
+      <c r="BY1" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" s="29" t="s">
+      <c r="BZ1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" s="29" t="s">
+      <c r="CA1" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" s="29" t="s">
+      <c r="CB1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" s="29" t="s">
+      <c r="CC1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" s="29" t="s">
+      <c r="CD1" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" s="29" t="s">
+      <c r="CE1" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" s="29"/>
-      <c r="CG1" s="29"/>
-      <c r="CH1" s="29"/>
-      <c r="CI1" s="29"/>
-      <c r="CJ1" s="29"/>
-      <c r="CK1" s="29"/>
-      <c r="CL1" s="29"/>
-      <c r="CM1" s="29"/>
-      <c r="CN1" s="29"/>
-      <c r="CO1" s="29"/>
-      <c r="CP1" s="29"/>
-      <c r="CQ1" s="29"/>
-      <c r="CR1" s="29"/>
-      <c r="CS1" s="29"/>
-      <c r="CT1" s="29"/>
-      <c r="CU1" s="29"/>
-      <c r="CV1" s="29"/>
-      <c r="CW1" s="29"/>
-      <c r="CX1" s="29"/>
-      <c r="CY1" s="29"/>
-      <c r="CZ1" s="29"/>
-      <c r="DA1" s="29"/>
-      <c r="DB1" s="29"/>
+      <c r="CF1" s="17"/>
+      <c r="CG1" s="17"/>
+      <c r="CH1" s="17"/>
+      <c r="CI1" s="17"/>
+      <c r="CJ1" s="17"/>
+      <c r="CK1" s="17"/>
+      <c r="CL1" s="17"/>
+      <c r="CM1" s="17"/>
+      <c r="CN1" s="17"/>
+      <c r="CO1" s="17"/>
+      <c r="CP1" s="17"/>
+      <c r="CQ1" s="17"/>
+      <c r="CR1" s="17"/>
+      <c r="CS1" s="17"/>
+      <c r="CT1" s="17"/>
+      <c r="CU1" s="17"/>
+      <c r="CV1" s="17"/>
+      <c r="CW1" s="17"/>
+      <c r="CX1" s="17"/>
+      <c r="CY1" s="17"/>
+      <c r="CZ1" s="17"/>
+      <c r="DA1" s="17"/>
+      <c r="DB1" s="17"/>
     </row>
-    <row r="2" spans="1:106" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79" t="s">
+    <row r="2" spans="1:106" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="70" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="80">
+      <c r="G2" s="62">
         <v>1</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="62" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="79">
+      <c r="K2" s="61">
         <v>100012345</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81" t="s">
+      <c r="M2" s="65"/>
+      <c r="N2" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="81" t="s">
+      <c r="O2" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="80" t="s">
+      <c r="S2" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="79">
+      <c r="T2" s="61">
         <v>1000012345</v>
       </c>
-      <c r="U2" s="80" t="s">
+      <c r="U2" s="62" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="80" t="s">
+      <c r="V2" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="80">
+      <c r="W2" s="62">
         <v>3000</v>
       </c>
-      <c r="X2" s="80" t="s">
+      <c r="X2" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="51"/>
-      <c r="AA2" s="51"/>
-      <c r="AB2" s="78" t="s">
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="35"/>
+      <c r="AA2" s="35"/>
+      <c r="AB2" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" s="78" t="s">
+      <c r="AC2" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="51"/>
-      <c r="AE2" s="80" t="s">
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="80" t="s">
+      <c r="AF2" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="80" t="s">
+      <c r="AG2" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="70" t="s">
         <v>101</v>
       </c>
-      <c r="AI2" s="32" t="s">
+      <c r="AI2" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="82"/>
-      <c r="AO2" s="82"/>
-      <c r="AP2" s="82"/>
-      <c r="AQ2" s="82"/>
-      <c r="AR2" s="82"/>
-      <c r="AS2" s="82"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="37"/>
-      <c r="AX2" s="37"/>
-      <c r="AY2" s="37"/>
-      <c r="AZ2" s="37"/>
-      <c r="BA2" s="37"/>
-      <c r="BB2" s="37"/>
-      <c r="BC2" s="37"/>
-      <c r="BD2" s="37"/>
-      <c r="BE2" s="37"/>
-      <c r="BF2" s="37"/>
-      <c r="BG2" s="37"/>
-      <c r="BH2" s="37"/>
-      <c r="BI2" s="37"/>
-      <c r="BJ2" s="37"/>
-      <c r="BK2" s="37"/>
-      <c r="BL2" s="37"/>
-      <c r="BM2" s="37"/>
-      <c r="BN2" s="37"/>
-      <c r="BO2" s="37"/>
-      <c r="BP2" s="37"/>
-      <c r="BQ2" s="37"/>
-      <c r="BR2" s="37"/>
-      <c r="BS2" s="37"/>
-      <c r="BT2" s="37"/>
-      <c r="BU2" s="37"/>
-      <c r="BV2" s="37"/>
-      <c r="BW2" s="37"/>
-      <c r="BX2" s="37"/>
-      <c r="BY2" s="37"/>
-      <c r="BZ2" s="37"/>
-      <c r="CA2" s="37"/>
-      <c r="CB2" s="37"/>
-      <c r="CC2" s="37"/>
-      <c r="CD2" s="37"/>
-      <c r="CE2" s="37"/>
-      <c r="CF2" s="32"/>
-      <c r="CG2" s="32"/>
-      <c r="CH2" s="32"/>
-      <c r="CI2" s="32"/>
-      <c r="CJ2" s="32"/>
-      <c r="CK2" s="32"/>
-      <c r="CL2" s="32"/>
-      <c r="CM2" s="32"/>
-      <c r="CN2" s="32"/>
-      <c r="CO2" s="32"/>
-      <c r="CP2" s="32"/>
-      <c r="CQ2" s="32"/>
-      <c r="CR2" s="32"/>
-      <c r="CS2" s="32"/>
-      <c r="CT2" s="32"/>
-      <c r="CU2" s="32"/>
-      <c r="CV2" s="32"/>
-      <c r="CW2" s="32"/>
-      <c r="CX2" s="32"/>
-      <c r="CY2" s="32"/>
-      <c r="CZ2" s="32"/>
-      <c r="DA2" s="32"/>
-      <c r="DB2" s="32"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="35"/>
+      <c r="AM2" s="35"/>
+      <c r="AN2" s="63"/>
+      <c r="AO2" s="63"/>
+      <c r="AP2" s="63"/>
+      <c r="AQ2" s="63"/>
+      <c r="AR2" s="63"/>
+      <c r="AS2" s="63"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="22"/>
+      <c r="AX2" s="22"/>
+      <c r="AY2" s="22"/>
+      <c r="AZ2" s="22"/>
+      <c r="BA2" s="22"/>
+      <c r="BB2" s="22"/>
+      <c r="BC2" s="22"/>
+      <c r="BD2" s="22"/>
+      <c r="BE2" s="22"/>
+      <c r="BF2" s="22"/>
+      <c r="BG2" s="22"/>
+      <c r="BH2" s="22"/>
+      <c r="BI2" s="22"/>
+      <c r="BJ2" s="22"/>
+      <c r="BK2" s="22"/>
+      <c r="BL2" s="22"/>
+      <c r="BM2" s="22"/>
+      <c r="BN2" s="22"/>
+      <c r="BO2" s="22"/>
+      <c r="BP2" s="22"/>
+      <c r="BQ2" s="22"/>
+      <c r="BR2" s="22"/>
+      <c r="BS2" s="22"/>
+      <c r="BT2" s="22"/>
+      <c r="BU2" s="22"/>
+      <c r="BV2" s="22"/>
+      <c r="BW2" s="22"/>
+      <c r="BX2" s="22"/>
+      <c r="BY2" s="22"/>
+      <c r="BZ2" s="22"/>
+      <c r="CA2" s="22"/>
+      <c r="CB2" s="22"/>
+      <c r="CC2" s="22"/>
+      <c r="CD2" s="22"/>
+      <c r="CE2" s="22"/>
+      <c r="CF2" s="70"/>
+      <c r="CG2" s="70"/>
+      <c r="CH2" s="70"/>
+      <c r="CI2" s="70"/>
+      <c r="CJ2" s="70"/>
+      <c r="CK2" s="70"/>
+      <c r="CL2" s="70"/>
+      <c r="CM2" s="70"/>
+      <c r="CN2" s="70"/>
+      <c r="CO2" s="70"/>
+      <c r="CP2" s="70"/>
+      <c r="CQ2" s="70"/>
+      <c r="CR2" s="70"/>
+      <c r="CS2" s="70"/>
+      <c r="CT2" s="70"/>
+      <c r="CU2" s="70"/>
+      <c r="CV2" s="70"/>
+      <c r="CW2" s="70"/>
+      <c r="CX2" s="70"/>
+      <c r="CY2" s="70"/>
+      <c r="CZ2" s="70"/>
+      <c r="DA2" s="70"/>
+      <c r="DB2" s="70"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3646,7 +3657,7 @@
   <dimension ref="A1:EE2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3781,816 +3792,816 @@
     <col min="130" max="130" width="35.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="32.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="132" max="132" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="37.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="64" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:135" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="44" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="44" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="H1" s="24" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="39" t="s">
+      <c r="M1" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="39" t="s">
+      <c r="N1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="39" t="s">
+      <c r="O1" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="39" t="s">
+      <c r="P1" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="24" t="s">
         <v>119</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="39" t="s">
+      <c r="W1" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="39" t="s">
+      <c r="X1" s="24" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="39" t="s">
+      <c r="Y1" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" s="39" t="s">
+      <c r="Z1" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="39" t="s">
+      <c r="AA1" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="39" t="s">
+      <c r="AB1" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="39" t="s">
+      <c r="AC1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" s="39" t="s">
+      <c r="AD1" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" s="39" t="s">
+      <c r="AE1" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" s="39" t="s">
+      <c r="AF1" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" s="39" t="s">
+      <c r="AG1" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="AH1" s="39" t="s">
+      <c r="AH1" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="AI1" s="39" t="s">
+      <c r="AI1" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="AJ1" s="39" t="s">
+      <c r="AJ1" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="AK1" s="39" t="s">
+      <c r="AK1" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="AL1" s="39" t="s">
+      <c r="AL1" s="24" t="s">
         <v>137</v>
       </c>
-      <c r="AM1" s="39" t="s">
+      <c r="AM1" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="AN1" s="39" t="s">
+      <c r="AN1" s="24" t="s">
         <v>139</v>
       </c>
-      <c r="AO1" s="39" t="s">
+      <c r="AO1" s="24" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" s="39" t="s">
+      <c r="AP1" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="39" t="s">
+      <c r="AQ1" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="AR1" s="39" t="s">
+      <c r="AR1" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="AS1" s="39" t="s">
+      <c r="AS1" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="AT1" s="39" t="s">
+      <c r="AT1" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="39" t="s">
+      <c r="AU1" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="AV1" s="39" t="s">
+      <c r="AV1" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="AW1" s="39" t="s">
+      <c r="AW1" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="AX1" s="39" t="s">
+      <c r="AX1" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="AY1" s="39" t="s">
+      <c r="AY1" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="AZ1" s="39" t="s">
+      <c r="AZ1" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="BA1" s="39" t="s">
+      <c r="BA1" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="BB1" s="39" t="s">
+      <c r="BB1" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="BC1" s="39" t="s">
+      <c r="BC1" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="BD1" s="39" t="s">
+      <c r="BD1" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="BE1" s="39" t="s">
+      <c r="BE1" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="BF1" s="39" t="s">
+      <c r="BF1" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="BG1" s="39" t="s">
+      <c r="BG1" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="BH1" s="39" t="s">
+      <c r="BH1" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="BI1" s="39" t="s">
+      <c r="BI1" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="BJ1" s="39" t="s">
+      <c r="BJ1" s="24" t="s">
         <v>161</v>
       </c>
-      <c r="BK1" s="39" t="s">
+      <c r="BK1" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="BL1" s="39" t="s">
+      <c r="BL1" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="BM1" s="63" t="s">
+      <c r="BM1" s="45" t="s">
         <v>164</v>
       </c>
-      <c r="BN1" s="39" t="s">
+      <c r="BN1" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="BO1" s="39" t="s">
+      <c r="BO1" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="BP1" s="39" t="s">
+      <c r="BP1" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="BQ1" s="39" t="s">
+      <c r="BQ1" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="BR1" s="39" t="s">
+      <c r="BR1" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="BS1" s="39" t="s">
+      <c r="BS1" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="BT1" s="39" t="s">
+      <c r="BT1" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="BU1" s="39" t="s">
+      <c r="BU1" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="BV1" s="39" t="s">
+      <c r="BV1" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="BW1" s="39" t="s">
+      <c r="BW1" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="BX1" s="39" t="s">
+      <c r="BX1" s="24" t="s">
         <v>175</v>
       </c>
-      <c r="BY1" s="39" t="s">
+      <c r="BY1" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="BZ1" s="39" t="s">
+      <c r="BZ1" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="CA1" s="39" t="s">
+      <c r="CA1" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="CB1" s="39" t="s">
+      <c r="CB1" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="CC1" s="39" t="s">
+      <c r="CC1" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="CD1" s="39" t="s">
+      <c r="CD1" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="CE1" s="39" t="s">
+      <c r="CE1" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="CF1" s="39" t="s">
+      <c r="CF1" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="CG1" s="39" t="s">
+      <c r="CG1" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="CH1" s="39" t="s">
+      <c r="CH1" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="CI1" s="39" t="s">
+      <c r="CI1" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="CJ1" s="39" t="s">
+      <c r="CJ1" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="CK1" s="39" t="s">
+      <c r="CK1" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="CL1" s="39" t="s">
+      <c r="CL1" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="CM1" s="39" t="s">
+      <c r="CM1" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="CN1" s="39" t="s">
+      <c r="CN1" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="CO1" s="39" t="s">
+      <c r="CO1" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="CP1" s="39" t="s">
+      <c r="CP1" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="CQ1" s="39" t="s">
+      <c r="CQ1" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="CR1" s="39" t="s">
+      <c r="CR1" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="CS1" s="39" t="s">
+      <c r="CS1" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="CT1" s="39" t="s">
+      <c r="CT1" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="CU1" s="39" t="s">
+      <c r="CU1" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="CV1" s="39" t="s">
+      <c r="CV1" s="24" t="s">
         <v>199</v>
       </c>
-      <c r="CW1" s="39" t="s">
+      <c r="CW1" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="CX1" s="39" t="s">
+      <c r="CX1" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="CY1" s="39" t="s">
+      <c r="CY1" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="CZ1" s="39" t="s">
+      <c r="CZ1" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="DA1" s="39" t="s">
+      <c r="DA1" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="DB1" s="39" t="s">
+      <c r="DB1" s="24" t="s">
         <v>205</v>
       </c>
-      <c r="DC1" s="39" t="s">
+      <c r="DC1" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="DD1" s="39" t="s">
+      <c r="DD1" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="DE1" s="39" t="s">
+      <c r="DE1" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="DF1" s="39" t="s">
+      <c r="DF1" s="24" t="s">
         <v>209</v>
       </c>
-      <c r="DG1" s="39" t="s">
+      <c r="DG1" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="DH1" s="39" t="s">
+      <c r="DH1" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="DI1" s="64" t="s">
+      <c r="DI1" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="DJ1" s="39" t="s">
+      <c r="DJ1" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="DK1" s="39" t="s">
+      <c r="DK1" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="DL1" s="39" t="s">
+      <c r="DL1" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="DM1" s="39" t="s">
+      <c r="DM1" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="DN1" s="39" t="s">
+      <c r="DN1" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="DO1" s="39" t="s">
+      <c r="DO1" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="DP1" s="39" t="s">
+      <c r="DP1" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="DQ1" s="39" t="s">
+      <c r="DQ1" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="DR1" s="39" t="s">
+      <c r="DR1" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="DS1" s="39" t="s">
+      <c r="DS1" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="DT1" s="39" t="s">
+      <c r="DT1" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="DU1" s="39" t="s">
+      <c r="DU1" s="24" t="s">
         <v>224</v>
       </c>
-      <c r="DV1" s="39" t="s">
+      <c r="DV1" s="24" t="s">
         <v>225</v>
       </c>
-      <c r="DW1" s="39" t="s">
+      <c r="DW1" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="DX1" s="39" t="s">
+      <c r="DX1" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="DY1" s="39" t="s">
+      <c r="DY1" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="DZ1" s="39" t="s">
+      <c r="DZ1" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="EA1" s="39" t="s">
+      <c r="EA1" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="EB1" s="39" t="s">
+      <c r="EB1" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="EC1" s="39" t="s">
+      <c r="EC1" s="24" t="s">
         <v>232</v>
       </c>
-      <c r="ED1" s="29" t="s">
+      <c r="ED1" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="EE1" s="29" t="s">
+      <c r="EE1" s="17" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:135" s="77" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+    <row r="2" spans="1:135" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="47" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="47" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="47" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="47" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="48" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="48" t="s">
         <v>243</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="48" t="s">
         <v>245</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="O2" s="54" t="s">
+      <c r="O2" s="36" t="s">
         <v>247</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="48" t="s">
         <v>248</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="48" t="s">
         <v>249</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="S2" s="67" t="s">
+      <c r="S2" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="T2" s="66" t="s">
+      <c r="T2" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="U2" s="66" t="s">
+      <c r="U2" s="48" t="s">
         <v>253</v>
       </c>
-      <c r="V2" s="66" t="s">
+      <c r="V2" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="W2" s="68" t="s">
+      <c r="W2" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="X2" s="67" t="s">
+      <c r="X2" s="49" t="s">
         <v>248</v>
       </c>
-      <c r="Y2" s="69" t="s">
+      <c r="Y2" s="51" t="s">
         <v>256</v>
       </c>
-      <c r="Z2" s="69" t="s">
+      <c r="Z2" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="AA2" s="69" t="s">
+      <c r="AA2" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="AB2" s="69" t="s">
+      <c r="AB2" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="AC2" s="69" t="s">
+      <c r="AC2" s="51" t="s">
         <v>257</v>
       </c>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="AE2" s="70" t="s">
+      <c r="AE2" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="22" t="s">
         <v>260</v>
       </c>
-      <c r="AG2" s="37" t="s">
+      <c r="AG2" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="AH2" s="37" t="s">
+      <c r="AH2" s="22" t="s">
         <v>262</v>
       </c>
-      <c r="AI2" s="37" t="s">
+      <c r="AI2" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="AJ2" s="37" t="s">
+      <c r="AJ2" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="AK2" s="37" t="s">
+      <c r="AK2" s="22" t="s">
         <v>265</v>
       </c>
-      <c r="AL2" s="37" t="s">
+      <c r="AL2" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="AM2" s="50" t="s">
+      <c r="AM2" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="AN2" s="37" t="s">
+      <c r="AN2" s="22" t="s">
         <v>268</v>
       </c>
-      <c r="AO2" s="37" t="s">
+      <c r="AO2" s="22" t="s">
         <v>269</v>
       </c>
-      <c r="AP2" s="37" t="s">
+      <c r="AP2" s="22" t="s">
         <v>270</v>
       </c>
-      <c r="AQ2" s="37" t="s">
+      <c r="AQ2" s="22" t="s">
         <v>271</v>
       </c>
-      <c r="AR2" s="37" t="s">
+      <c r="AR2" s="22" t="s">
         <v>272</v>
       </c>
-      <c r="AS2" s="66" t="s">
+      <c r="AS2" s="48" t="s">
         <v>95</v>
       </c>
-      <c r="AT2" s="49"/>
-      <c r="AU2" s="49" t="s">
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="AV2" s="49" t="s">
+      <c r="AV2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AW2" s="49" t="s">
+      <c r="AW2" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="AX2" s="71" t="s">
+      <c r="AX2" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="AY2" s="49" t="s">
+      <c r="AY2" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="AZ2" s="66" t="s">
+      <c r="AZ2" s="48" t="s">
         <v>275</v>
       </c>
-      <c r="BA2" s="49" t="s">
+      <c r="BA2" s="33" t="s">
         <v>276</v>
       </c>
-      <c r="BB2" s="49" t="s">
+      <c r="BB2" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="BC2" s="72" t="s">
+      <c r="BC2" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="BD2" s="72" t="s">
+      <c r="BD2" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="BE2" s="49" t="s">
+      <c r="BE2" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="BF2" s="49" t="s">
+      <c r="BF2" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="BG2" s="49" t="s">
+      <c r="BG2" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="BH2" s="49" t="s">
+      <c r="BH2" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="BI2" s="49" t="s">
+      <c r="BI2" s="33" t="s">
         <v>283</v>
       </c>
-      <c r="BJ2" s="49" t="s">
+      <c r="BJ2" s="33" t="s">
         <v>284</v>
       </c>
-      <c r="BK2" s="66" t="s">
+      <c r="BK2" s="48" t="s">
         <v>283</v>
       </c>
-      <c r="BL2" s="66" t="s">
+      <c r="BL2" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="BM2" s="49" t="s">
+      <c r="BM2" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="BN2" s="49" t="s">
+      <c r="BN2" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="BO2" s="50" t="s">
+      <c r="BO2" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="BP2" s="65" t="s">
+      <c r="BP2" s="47" t="s">
         <v>288</v>
       </c>
-      <c r="BQ2" s="66" t="s">
+      <c r="BQ2" s="48" t="s">
         <v>289</v>
       </c>
-      <c r="BR2" s="67" t="s">
+      <c r="BR2" s="49" t="s">
         <v>290</v>
       </c>
-      <c r="BS2" s="69" t="s">
+      <c r="BS2" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="BT2" s="69" t="s">
+      <c r="BT2" s="51" t="s">
         <v>270</v>
       </c>
-      <c r="BU2" s="73" t="s">
+      <c r="BU2" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="BV2" s="72" t="s">
+      <c r="BV2" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="BW2" s="72" t="s">
+      <c r="BW2" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="BX2" s="72" t="s">
+      <c r="BX2" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="BY2" s="72" t="s">
+      <c r="BY2" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="BZ2" s="34" t="s">
+      <c r="BZ2" s="20" t="s">
         <v>297</v>
       </c>
-      <c r="CA2" s="34" t="s">
+      <c r="CA2" s="20" t="s">
         <v>298</v>
       </c>
-      <c r="CB2" s="73" t="s">
+      <c r="CB2" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="CC2" s="73" t="s">
+      <c r="CC2" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="CD2" s="73" t="s">
+      <c r="CD2" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="CE2" s="73" t="s">
+      <c r="CE2" s="55" t="s">
         <v>301</v>
       </c>
-      <c r="CF2" s="73" t="s">
+      <c r="CF2" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="CG2" s="73" t="s">
+      <c r="CG2" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="CH2" s="72" t="s">
+      <c r="CH2" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="CI2" s="72" t="s">
+      <c r="CI2" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="CJ2" s="72" t="s">
+      <c r="CJ2" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="CK2" s="72" t="s">
+      <c r="CK2" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="CL2" s="72" t="s">
+      <c r="CL2" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="CM2" s="72" t="s">
+      <c r="CM2" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="CN2" s="72" t="s">
+      <c r="CN2" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="CO2" s="72" t="s">
+      <c r="CO2" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="CP2" s="72" t="s">
+      <c r="CP2" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="CQ2" s="72" t="s">
+      <c r="CQ2" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="CR2" s="72" t="s">
+      <c r="CR2" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="CS2" s="72" t="s">
+      <c r="CS2" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="CT2" s="72" t="s">
+      <c r="CT2" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="CU2" s="72" t="s">
+      <c r="CU2" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="CV2" s="72" t="s">
+      <c r="CV2" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="CW2" s="72" t="s">
+      <c r="CW2" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="CX2" s="72" t="s">
+      <c r="CX2" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="CY2" s="72" t="s">
+      <c r="CY2" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="CZ2" s="74" t="s">
+      <c r="CZ2" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="DA2" s="72" t="s">
+      <c r="DA2" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="DB2" s="73" t="s">
+      <c r="DB2" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="DC2" s="73" t="s">
+      <c r="DC2" s="55" t="s">
         <v>300</v>
       </c>
-      <c r="DD2" s="73" t="s">
+      <c r="DD2" s="55" t="s">
         <v>318</v>
       </c>
-      <c r="DE2" s="73" t="s">
+      <c r="DE2" s="55" t="s">
         <v>320</v>
       </c>
-      <c r="DF2" s="73"/>
-      <c r="DG2" s="73"/>
-      <c r="DH2" s="73" t="s">
+      <c r="DF2" s="55"/>
+      <c r="DG2" s="55"/>
+      <c r="DH2" s="55" t="s">
         <v>321</v>
       </c>
-      <c r="DI2" s="73" t="s">
+      <c r="DI2" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="DJ2" s="73" t="s">
+      <c r="DJ2" s="55" t="s">
         <v>322</v>
       </c>
-      <c r="DK2" s="73" t="s">
+      <c r="DK2" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="DL2" s="73" t="s">
+      <c r="DL2" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="DM2" s="73" t="s">
+      <c r="DM2" s="55" t="s">
         <v>325</v>
       </c>
-      <c r="DN2" s="73" t="s">
+      <c r="DN2" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="DO2" s="73" t="s">
+      <c r="DO2" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="DP2" s="73" t="s">
+      <c r="DP2" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="DQ2" s="75" t="s">
+      <c r="DQ2" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="DR2" s="73" t="s">
+      <c r="DR2" s="55" t="s">
         <v>327</v>
       </c>
-      <c r="DS2" s="73" t="s">
+      <c r="DS2" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="DT2" s="73" t="s">
+      <c r="DT2" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="DU2" s="73" t="s">
+      <c r="DU2" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="DV2" s="73" t="s">
+      <c r="DV2" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="DW2" s="73" t="s">
+      <c r="DW2" s="55" t="s">
         <v>256</v>
       </c>
-      <c r="DX2" s="73" t="s">
+      <c r="DX2" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="DY2" s="73" t="s">
+      <c r="DY2" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="DZ2" s="73" t="s">
+      <c r="DZ2" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="EA2" s="73" t="s">
+      <c r="EA2" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="EB2" s="73" t="s">
+      <c r="EB2" s="55" t="s">
         <v>329</v>
       </c>
-      <c r="EC2" s="73" t="s">
+      <c r="EC2" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="ED2" s="76" t="s">
+      <c r="ED2" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="EE2" s="76" t="s">
+      <c r="EE2" s="58" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4610,8 +4621,8 @@
   </sheetPr>
   <dimension ref="A1:CL7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4707,533 +4718,533 @@
     <col min="90" max="90" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:90" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="17" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="17" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="18" t="s">
         <v>338</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="17" t="s">
         <v>341</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="17" t="s">
         <v>342</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="17" t="s">
         <v>349</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="17" t="s">
         <v>356</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="17" t="s">
         <v>357</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="17" t="s">
         <v>358</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AE1" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AF1" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="17" t="s">
         <v>361</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AH1" s="17" t="s">
         <v>362</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AI1" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AK1" s="17" t="s">
         <v>365</v>
       </c>
-      <c r="AL1" s="29" t="s">
+      <c r="AL1" s="17" t="s">
         <v>366</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AM1" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="AN1" s="17" t="s">
         <v>368</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="AO1" s="17" t="s">
         <v>369</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="AP1" s="17" t="s">
         <v>370</v>
       </c>
-      <c r="AQ1" s="29" t="s">
+      <c r="AQ1" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="AR1" s="29" t="s">
+      <c r="AR1" s="17" t="s">
         <v>372</v>
       </c>
-      <c r="AS1" s="29" t="s">
+      <c r="AS1" s="17" t="s">
         <v>373</v>
       </c>
-      <c r="AT1" s="29" t="s">
+      <c r="AT1" s="17" t="s">
         <v>374</v>
       </c>
-      <c r="AU1" s="29" t="s">
+      <c r="AU1" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="AV1" s="29" t="s">
+      <c r="AV1" s="17" t="s">
         <v>376</v>
       </c>
-      <c r="AW1" s="29" t="s">
+      <c r="AW1" s="17" t="s">
         <v>377</v>
       </c>
-      <c r="AX1" s="29" t="s">
+      <c r="AX1" s="17" t="s">
         <v>378</v>
       </c>
-      <c r="AY1" s="29" t="s">
+      <c r="AY1" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="AZ1" s="29" t="s">
+      <c r="AZ1" s="17" t="s">
         <v>380</v>
       </c>
-      <c r="BA1" s="29" t="s">
+      <c r="BA1" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="BB1" s="29" t="s">
+      <c r="BB1" s="17" t="s">
         <v>382</v>
       </c>
-      <c r="BC1" s="29" t="s">
+      <c r="BC1" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="BD1" s="29" t="s">
+      <c r="BD1" s="17" t="s">
         <v>384</v>
       </c>
-      <c r="BE1" s="29" t="s">
+      <c r="BE1" s="17" t="s">
         <v>385</v>
       </c>
-      <c r="BF1" s="29" t="s">
+      <c r="BF1" s="17" t="s">
         <v>386</v>
       </c>
-      <c r="BG1" s="29" t="s">
+      <c r="BG1" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="BH1" s="29" t="s">
+      <c r="BH1" s="17" t="s">
         <v>388</v>
       </c>
-      <c r="BI1" s="29" t="s">
+      <c r="BI1" s="17" t="s">
         <v>389</v>
       </c>
-      <c r="BJ1" s="29" t="s">
+      <c r="BJ1" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="29" t="s">
+      <c r="BK1" s="17" t="s">
         <v>391</v>
       </c>
-      <c r="BL1" s="29" t="s">
+      <c r="BL1" s="17" t="s">
         <v>392</v>
       </c>
-      <c r="BM1" s="29" t="s">
+      <c r="BM1" s="17" t="s">
         <v>393</v>
       </c>
-      <c r="BN1" s="29" t="s">
+      <c r="BN1" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="BO1" s="29" t="s">
+      <c r="BO1" s="17" t="s">
         <v>395</v>
       </c>
-      <c r="BP1" s="29" t="s">
+      <c r="BP1" s="17" t="s">
         <v>396</v>
       </c>
-      <c r="BQ1" s="29" t="s">
+      <c r="BQ1" s="17" t="s">
         <v>397</v>
       </c>
-      <c r="BR1" s="29" t="s">
+      <c r="BR1" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="BS1" s="29" t="s">
+      <c r="BS1" s="17" t="s">
         <v>399</v>
       </c>
-      <c r="BT1" s="29" t="s">
+      <c r="BT1" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="BU1" s="29" t="s">
+      <c r="BU1" s="17" t="s">
         <v>401</v>
       </c>
-      <c r="BV1" s="29" t="s">
+      <c r="BV1" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="BW1" s="29" t="s">
+      <c r="BW1" s="17" t="s">
         <v>403</v>
       </c>
-      <c r="BX1" s="29" t="s">
+      <c r="BX1" s="17" t="s">
         <v>404</v>
       </c>
-      <c r="BY1" s="29" t="s">
+      <c r="BY1" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="BZ1" s="29" t="s">
+      <c r="BZ1" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="CA1" s="29" t="s">
+      <c r="CA1" s="17" t="s">
         <v>407</v>
       </c>
-      <c r="CB1" s="29" t="s">
+      <c r="CB1" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="CC1" s="29" t="s">
+      <c r="CC1" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="CD1" s="29" t="s">
+      <c r="CD1" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="CE1" s="29" t="s">
+      <c r="CE1" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="CF1" s="29" t="s">
+      <c r="CF1" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="CG1" s="29" t="s">
+      <c r="CG1" s="17" t="s">
         <v>413</v>
       </c>
-      <c r="CH1" s="29" t="s">
+      <c r="CH1" s="17" t="s">
         <v>414</v>
       </c>
-      <c r="CI1" s="29" t="s">
+      <c r="CI1" s="17" t="s">
         <v>415</v>
       </c>
-      <c r="CJ1" s="29" t="s">
+      <c r="CJ1" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="CK1" s="29" t="s">
+      <c r="CK1" s="17" t="s">
         <v>417</v>
       </c>
-      <c r="CL1" s="29" t="s">
+      <c r="CL1" s="17" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:90" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:90" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="70" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="70" t="s">
         <v>420</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="70" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="70" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="70" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="70" t="s">
         <v>329</v>
       </c>
-      <c r="L2" s="32" t="s">
+      <c r="L2" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="72" t="s">
         <v>424</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="72" t="s">
         <v>425</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="70" t="s">
         <v>426</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="41" t="s">
         <v>427</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="27" t="s">
         <v>428</v>
       </c>
-      <c r="T2" s="59" t="s">
+      <c r="T2" s="41" t="s">
         <v>429</v>
       </c>
-      <c r="U2" s="59" t="s">
+      <c r="U2" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="V2" s="32" t="s">
+      <c r="V2" s="70" t="s">
         <v>430</v>
       </c>
-      <c r="W2" s="32" t="s">
+      <c r="W2" s="70" t="s">
         <v>431</v>
       </c>
-      <c r="X2" s="54" t="s">
+      <c r="X2" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="60"/>
-      <c r="AB2" s="32" t="s">
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="70" t="s">
         <v>241</v>
       </c>
-      <c r="AC2" s="32" t="s">
+      <c r="AC2" s="70" t="s">
         <v>277</v>
       </c>
-      <c r="AD2" s="32" t="s">
+      <c r="AD2" s="70" t="s">
         <v>240</v>
       </c>
-      <c r="AE2" s="32" t="s">
+      <c r="AE2" s="70" t="s">
         <v>433</v>
       </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AF2" s="70" t="s">
         <v>434</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AG2" s="70" t="s">
         <v>435</v>
       </c>
-      <c r="AH2" s="32" t="s">
+      <c r="AH2" s="70" t="s">
         <v>435</v>
       </c>
-      <c r="AI2" s="17" t="s">
+      <c r="AI2" s="72" t="s">
         <v>436</v>
       </c>
-      <c r="AJ2" s="17" t="s">
+      <c r="AJ2" s="72" t="s">
         <v>437</v>
       </c>
-      <c r="AK2" s="17" t="s">
+      <c r="AK2" s="72" t="s">
         <v>438</v>
       </c>
-      <c r="AL2" s="17" t="s">
+      <c r="AL2" s="72" t="s">
         <v>438</v>
       </c>
-      <c r="AM2" s="17" t="s">
+      <c r="AM2" s="72" t="s">
         <v>439</v>
       </c>
-      <c r="AN2" s="17" t="s">
+      <c r="AN2" s="72" t="s">
         <v>440</v>
       </c>
-      <c r="AO2" s="17" t="s">
+      <c r="AO2" s="72" t="s">
         <v>441</v>
       </c>
-      <c r="AP2" s="17" t="s">
+      <c r="AP2" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="AQ2" s="17" t="s">
+      <c r="AQ2" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="AR2" s="17" t="s">
+      <c r="AR2" s="72" t="s">
         <v>442</v>
       </c>
-      <c r="AS2" s="17" t="s">
+      <c r="AS2" s="72" t="s">
         <v>443</v>
       </c>
-      <c r="AT2" s="17" t="s">
+      <c r="AT2" s="72" t="s">
         <v>444</v>
       </c>
-      <c r="AU2" s="46"/>
-      <c r="AV2" s="46"/>
-      <c r="AW2" s="17" t="s">
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="72" t="s">
         <v>445</v>
       </c>
-      <c r="AX2" s="17" t="s">
+      <c r="AX2" s="72" t="s">
         <v>440</v>
       </c>
-      <c r="AY2" s="17" t="s">
+      <c r="AY2" s="72" t="s">
         <v>438</v>
       </c>
-      <c r="AZ2" s="37" t="s">
+      <c r="AZ2" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="BA2" s="37" t="s">
+      <c r="BA2" s="22" t="s">
         <v>447</v>
       </c>
-      <c r="BB2" s="61" t="s">
+      <c r="BB2" s="43" t="s">
         <v>448</v>
       </c>
-      <c r="BC2" s="46" t="s">
+      <c r="BC2" s="31" t="s">
         <v>449</v>
       </c>
-      <c r="BD2" s="46" t="s">
+      <c r="BD2" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="BE2" s="46" t="s">
+      <c r="BE2" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="BF2" s="46" t="s">
+      <c r="BF2" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="BG2" s="46" t="s">
+      <c r="BG2" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="BH2" s="46" t="s">
+      <c r="BH2" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="BI2" s="46" t="s">
+      <c r="BI2" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="BJ2" s="46" t="s">
+      <c r="BJ2" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="BK2" s="46" t="s">
+      <c r="BK2" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="BL2" s="46"/>
-      <c r="BM2" s="46" t="s">
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="BN2" s="46" t="s">
+      <c r="BN2" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="BO2" s="46" t="s">
+      <c r="BO2" s="31" t="s">
         <v>429</v>
       </c>
-      <c r="BP2" s="46" t="s">
+      <c r="BP2" s="31" t="s">
         <v>451</v>
       </c>
-      <c r="BQ2" s="46" t="s">
+      <c r="BQ2" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="BR2" s="46" t="s">
+      <c r="BR2" s="31" t="s">
         <v>452</v>
       </c>
-      <c r="BS2" s="46" t="s">
+      <c r="BS2" s="31" t="s">
         <v>453</v>
       </c>
-      <c r="BT2" s="46" t="s">
+      <c r="BT2" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="BU2" s="46" t="s">
+      <c r="BU2" s="31" t="s">
         <v>455</v>
       </c>
-      <c r="BV2" s="46" t="s">
+      <c r="BV2" s="31" t="s">
         <v>456</v>
       </c>
-      <c r="BW2" s="46" t="s">
+      <c r="BW2" s="31" t="s">
         <v>457</v>
       </c>
-      <c r="BX2" s="46" t="s">
+      <c r="BX2" s="31" t="s">
         <v>458</v>
       </c>
-      <c r="BY2" s="46" t="s">
+      <c r="BY2" s="31" t="s">
         <v>459</v>
       </c>
-      <c r="BZ2" s="46" t="s">
+      <c r="BZ2" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="CA2" s="46" t="s">
+      <c r="CA2" s="31" t="s">
         <v>282</v>
       </c>
-      <c r="CB2" s="37" t="s">
+      <c r="CB2" s="22" t="s">
         <v>460</v>
       </c>
-      <c r="CC2" s="46" t="s">
+      <c r="CC2" s="31" t="s">
         <v>308</v>
       </c>
-      <c r="CD2" s="37" t="s">
+      <c r="CD2" s="22" t="s">
         <v>461</v>
       </c>
-      <c r="CE2" s="37" t="s">
+      <c r="CE2" s="22" t="s">
         <v>462</v>
       </c>
-      <c r="CF2" s="37" t="s">
+      <c r="CF2" s="22" t="s">
         <v>463</v>
       </c>
-      <c r="CG2" s="37" t="s">
+      <c r="CG2" s="22" t="s">
         <v>464</v>
       </c>
-      <c r="CH2" s="37" t="s">
+      <c r="CH2" s="22" t="s">
         <v>465</v>
       </c>
-      <c r="CI2" s="46" t="s">
+      <c r="CI2" s="31" t="s">
         <v>466</v>
       </c>
-      <c r="CJ2" s="37"/>
-      <c r="CK2" s="37" t="s">
+      <c r="CJ2" s="22"/>
+      <c r="CK2" s="22" t="s">
         <v>451</v>
       </c>
-      <c r="CL2" s="37" t="s">
+      <c r="CL2" s="22" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5253,8 +5264,8 @@
   </sheetPr>
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5296,281 +5307,281 @@
     <col min="41" max="42" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="44" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:50" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="24" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="E1" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="29" t="s">
         <v>469</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="I1" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="J1" s="29" t="s">
         <v>473</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="29" t="s">
         <v>474</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="M1" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="S1" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="T1" s="44" t="s">
+      <c r="T1" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="30" t="s">
         <v>484</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="29" t="s">
         <v>485</v>
       </c>
-      <c r="W1" s="44" t="s">
+      <c r="W1" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="Y1" s="29" t="s">
         <v>337</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="Z1" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AA1" s="29" t="s">
         <v>489</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AB1" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AC1" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="AD1" s="44" t="s">
+      <c r="AD1" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="AE1" s="29" t="s">
         <v>493</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="AF1" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="AG1" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="AH1" s="29" t="s">
         <v>496</v>
       </c>
-      <c r="AI1" s="44" t="s">
+      <c r="AI1" s="29" t="s">
         <v>497</v>
       </c>
-      <c r="AJ1" s="44" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>498</v>
       </c>
-      <c r="AK1" s="44" t="s">
+      <c r="AK1" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="AL1" s="44" t="s">
+      <c r="AL1" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="AM1" s="44" t="s">
+      <c r="AM1" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="AN1" s="44" t="s">
+      <c r="AN1" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="AO1" s="44" t="s">
+      <c r="AO1" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="AP1" s="44" t="s">
+      <c r="AP1" s="29" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="57" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:50" s="39" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="72" t="s">
         <v>505</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="70" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="72" t="s">
         <v>506</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="33" t="s">
         <v>507</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="72" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="54" t="s">
+      <c r="I2" s="72" t="s">
         <v>432</v>
       </c>
-      <c r="J2" s="54" t="s">
+      <c r="J2" s="72" t="s">
         <v>432</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="N2" s="54" t="s">
+      <c r="N2" s="83" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="33" t="s">
         <v>285</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="72" t="s">
         <v>510</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="72" t="s">
         <v>509</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="72" t="s">
         <v>511</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="U2" s="32" t="s">
+      <c r="U2" s="70" t="s">
         <v>238</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="72" t="s">
         <v>249</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="72" t="s">
         <v>512</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="72" t="s">
         <v>509</v>
       </c>
-      <c r="Y2" s="55" t="s">
+      <c r="Y2" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="38" t="s">
         <v>513</v>
       </c>
-      <c r="AA2" s="57" t="s">
+      <c r="AA2" s="39" t="s">
         <v>514</v>
       </c>
-      <c r="AB2" s="57" t="s">
+      <c r="AB2" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="AC2" s="57" t="s">
+      <c r="AC2" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="AD2" s="57" t="s">
+      <c r="AD2" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="AE2" s="57" t="s">
+      <c r="AE2" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="AF2" s="57" t="s">
+      <c r="AF2" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="AG2" s="58" t="s">
+      <c r="AG2" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="AH2" s="58" t="s">
+      <c r="AH2" s="40" t="s">
         <v>328</v>
       </c>
-      <c r="AI2" s="57" t="s">
+      <c r="AI2" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="AJ2" s="57" t="s">
+      <c r="AJ2" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="AK2" s="57" t="s">
+      <c r="AK2" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="AL2" s="57" t="s">
+      <c r="AL2" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="AM2" s="57" t="s">
+      <c r="AM2" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="AN2" s="57" t="s">
+      <c r="AN2" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="AO2" s="57" t="s">
+      <c r="AO2" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="AP2" s="57" t="s">
+      <c r="AP2" s="39" t="s">
         <v>328</v>
       </c>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
+      <c r="AQ2" s="38"/>
+      <c r="AR2" s="38"/>
+      <c r="AS2" s="38"/>
+      <c r="AT2" s="38"/>
+      <c r="AU2" s="38"/>
+      <c r="AV2" s="38"/>
+      <c r="AW2" s="38"/>
+      <c r="AX2" s="38"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="11" t="s">
         <v>516</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="11" t="s">
         <v>516</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5581,8 +5592,8 @@
   </sheetPr>
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE29:AE30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5624,247 +5635,236 @@
     <col min="37" max="37" width="22.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:40" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="17" t="s">
         <v>517</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="17" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="17" t="s">
         <v>519</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="17" t="s">
         <v>520</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="17" t="s">
         <v>521</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="17" t="s">
         <v>522</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="17" t="s">
         <v>523</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="17" t="s">
         <v>524</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="17" t="s">
         <v>525</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="17" t="s">
         <v>529</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="17" t="s">
         <v>530</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="17" t="s">
         <v>531</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="17" t="s">
         <v>532</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="U1" s="17" t="s">
         <v>534</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="17" t="s">
         <v>535</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="17" t="s">
         <v>536</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="17" t="s">
         <v>537</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="17" t="s">
         <v>540</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="17" t="s">
         <v>541</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="17" t="s">
         <v>542</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="17" t="s">
         <v>543</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AE1" s="17" t="s">
         <v>544</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AF1" s="17" t="s">
         <v>545</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="17" t="s">
         <v>546</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AH1" s="17" t="s">
         <v>547</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AI1" s="17" t="s">
         <v>548</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ1" s="17" t="s">
         <v>549</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AK1" s="17" t="s">
         <v>550</v>
       </c>
-      <c r="AL1" s="29" t="s">
+      <c r="AL1" s="17" t="s">
         <v>551</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AM1" s="17" t="s">
         <v>552</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="AN1" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="70" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="70" t="s">
         <v>553</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="70" t="s">
         <v>554</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="70" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="70" t="s">
         <v>555</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="70" t="s">
         <v>556</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="70" t="s">
         <v>557</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="70" t="s">
         <v>558</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="72" t="s">
         <v>559</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="72" t="s">
         <v>560</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="72" t="s">
         <v>329</v>
       </c>
-      <c r="O2" s="17" t="s">
+      <c r="O2" s="72" t="s">
         <v>561</v>
       </c>
-      <c r="P2" s="17" t="s">
+      <c r="P2" s="72" t="s">
         <v>562</v>
       </c>
-      <c r="Q2" s="17" t="s">
+      <c r="Q2" s="72" t="s">
         <v>563</v>
       </c>
-      <c r="R2" s="17" t="s">
+      <c r="R2" s="72" t="s">
         <v>564</v>
       </c>
-      <c r="S2" s="17" t="s">
+      <c r="S2" s="72" t="s">
         <v>565</v>
       </c>
-      <c r="T2" s="17" t="s">
+      <c r="T2" s="72" t="s">
         <v>566</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="V2" s="17" t="s">
+      <c r="V2" s="72" t="s">
         <v>568</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="72" t="s">
         <v>569</v>
       </c>
-      <c r="X2" s="17" t="s">
+      <c r="X2" s="72" t="s">
         <v>570</v>
       </c>
-      <c r="Y2" s="17" t="s">
+      <c r="Y2" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="Z2" s="17">
+      <c r="Z2" s="72">
         <v>50</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AA2" s="8" t="s">
         <v>571</v>
       </c>
-      <c r="AB2" s="49" t="s">
+      <c r="AB2" s="33" t="s">
         <v>434</v>
       </c>
-      <c r="AC2" s="49" t="s">
+      <c r="AC2" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="AD2" s="49">
+      <c r="AD2" s="33">
         <v>1.65</v>
       </c>
-      <c r="AE2" s="49" t="s">
+      <c r="AE2" s="33" t="s">
         <v>567</v>
       </c>
-      <c r="AF2" s="49" t="s">
+      <c r="AF2" s="33" t="s">
         <v>572</v>
       </c>
-      <c r="AG2" s="50" t="s">
-        <v>573</v>
-      </c>
-      <c r="AH2" s="50" t="s">
-        <v>574</v>
-      </c>
-      <c r="AI2" s="38"/>
-      <c r="AJ2" s="51" t="s">
-        <v>575</v>
-      </c>
-      <c r="AK2" s="52" t="s">
-        <v>575</v>
-      </c>
-      <c r="AL2" s="53" t="s">
-        <v>576</v>
-      </c>
-      <c r="AM2" s="53" t="s">
-        <v>577</v>
-      </c>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="35"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5877,10 +5877,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AH2"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5893,231 +5893,231 @@
     <col min="6" max="6" width="26" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="44" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:37" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="29" t="s">
+        <v>573</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>574</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>576</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>577</v>
+      </c>
+      <c r="J1" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="E1" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="F1" s="44" t="s">
+      <c r="K1" s="30" t="s">
         <v>579</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="L1" s="30" t="s">
         <v>580</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="M1" s="30" t="s">
         <v>581</v>
       </c>
-      <c r="I1" s="44" t="s">
+      <c r="N1" s="30" t="s">
         <v>582</v>
       </c>
-      <c r="J1" s="44" t="s">
+      <c r="O1" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="P1" s="29" t="s">
         <v>583</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="Q1" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" s="29" t="s">
         <v>584</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="S1" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="T1" s="29" t="s">
         <v>586</v>
       </c>
-      <c r="N1" s="44" t="s">
-        <v>338</v>
-      </c>
-      <c r="O1" s="44" t="s">
+      <c r="U1" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="P1" s="44" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q1" s="44" t="s">
+      <c r="V1" s="29" t="s">
         <v>588</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="W1" s="29" t="s">
         <v>589</v>
       </c>
-      <c r="S1" s="44" t="s">
+      <c r="X1" s="18" t="s">
         <v>590</v>
       </c>
-      <c r="T1" s="30" t="s">
+      <c r="Y1" s="18" t="s">
         <v>591</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="Z1" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="AA1" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="AB1" s="29" t="s">
+        <v>579</v>
+      </c>
+      <c r="AC1" s="29" t="s">
+        <v>580</v>
+      </c>
+      <c r="AD1" s="29" t="s">
         <v>594</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="AE1" s="29" t="s">
+        <v>581</v>
+      </c>
+      <c r="AF1" s="29" t="s">
         <v>595</v>
       </c>
-      <c r="Y1" s="44" t="s">
+      <c r="AG1" s="29" t="s">
         <v>596</v>
       </c>
-      <c r="Z1" s="44" t="s">
+      <c r="AH1" s="29" t="s">
         <v>597</v>
       </c>
-      <c r="AA1" s="44" t="s">
+      <c r="AI1" s="29" t="s">
         <v>598</v>
       </c>
-      <c r="AB1" s="44" t="s">
+      <c r="AJ1" s="29" t="s">
         <v>599</v>
       </c>
-      <c r="AC1" s="44" t="s">
+      <c r="AK1" s="29" t="s">
         <v>600</v>
       </c>
-      <c r="AD1" s="44" t="s">
+    </row>
+    <row r="2" spans="1:37" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="72" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" s="72" t="s">
         <v>601</v>
       </c>
-      <c r="AE1" s="44" t="s">
+      <c r="G2" s="72" t="s">
         <v>602</v>
       </c>
-      <c r="AF1" s="44" t="s">
+      <c r="H2" s="72" t="s">
         <v>603</v>
       </c>
-      <c r="AG1" s="44" t="s">
+      <c r="I2" s="72" t="s">
         <v>604</v>
       </c>
-      <c r="AH1" s="44" t="s">
+      <c r="J2" s="72" t="s">
         <v>605</v>
       </c>
+      <c r="K2" s="64">
+        <v>0.3</v>
+      </c>
+      <c r="L2" s="64">
+        <v>1171049.45</v>
+      </c>
+      <c r="M2" s="64">
+        <v>365</v>
+      </c>
+      <c r="N2" s="71">
+        <v>895.13</v>
+      </c>
+      <c r="O2" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q2" s="72" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2" s="70" t="s">
+        <v>606</v>
+      </c>
+      <c r="S2" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="32"/>
+      <c r="W2" s="32"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="31"/>
     </row>
-    <row r="2" spans="1:34" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>445</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>606</v>
-      </c>
-      <c r="G2" s="17" t="s">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="M3" s="11" t="s">
         <v>607</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>611</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="46" t="s">
-        <v>612</v>
-      </c>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="P2" s="46" t="s">
-        <v>284</v>
-      </c>
-      <c r="Q2" s="37" t="s">
-        <v>613</v>
-      </c>
-      <c r="R2" s="47" t="s">
-        <v>614</v>
-      </c>
-      <c r="S2" s="47" t="s">
-        <v>615</v>
-      </c>
-      <c r="T2" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="U2" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="V2" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="W2" s="37" t="s">
-        <v>451</v>
-      </c>
-      <c r="X2" s="37">
-        <v>217212.38</v>
-      </c>
-      <c r="Y2" s="37">
-        <v>1.4</v>
-      </c>
-      <c r="Z2" s="37">
-        <v>95000000</v>
-      </c>
-      <c r="AA2" s="37">
-        <v>28767.119999999999</v>
-      </c>
-      <c r="AB2" s="37">
-        <v>365</v>
-      </c>
-      <c r="AC2" s="46" t="s">
-        <v>466</v>
-      </c>
-      <c r="AD2" s="46" t="s">
-        <v>616</v>
-      </c>
-      <c r="AE2" s="48">
-        <v>33.68000067669842</v>
-      </c>
-      <c r="AF2" s="48">
-        <v>28.986666144465609</v>
-      </c>
-      <c r="AG2" s="48">
-        <v>37.333333178835993</v>
-      </c>
-      <c r="AH2" s="46" t="s">
-        <v>617</v>
+      <c r="N3" s="69">
+        <v>885.3</v>
       </c>
     </row>
   </sheetData>
@@ -6131,10 +6131,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6161,154 +6161,144 @@
     <col min="20" max="20" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="25" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="17" t="s">
+        <v>608</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>609</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>610</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>611</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>612</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>614</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>617</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="17" t="s">
         <v>618</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="Q1" s="17" t="s">
         <v>619</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="R1" s="17" t="s">
         <v>620</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="S1" s="17" t="s">
         <v>621</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="T1" s="17" t="s">
         <v>622</v>
       </c>
-      <c r="J1" s="29" t="s">
+    </row>
+    <row r="2" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="I2" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>428</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="M2" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="O2" s="70" t="s">
+        <v>454</v>
+      </c>
+      <c r="P2" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q2" s="70" t="s">
+        <v>101</v>
+      </c>
+      <c r="R2" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="S2" s="72" t="s">
+        <v>432</v>
+      </c>
+      <c r="T2" s="70" t="s">
         <v>624</v>
       </c>
-      <c r="L1" s="29" t="s">
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N3" s="11" t="s">
         <v>625</v>
       </c>
-      <c r="M1" s="29" t="s">
-        <v>626</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>627</v>
-      </c>
-      <c r="O1" s="29" t="s">
-        <v>152</v>
-      </c>
-      <c r="P1" s="29" t="s">
-        <v>628</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>629</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>630</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>631</v>
-      </c>
-      <c r="T1" s="29" t="s">
-        <v>632</v>
-      </c>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-      <c r="AB1" s="29"/>
     </row>
-    <row r="2" spans="1:28" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>427</v>
-      </c>
-      <c r="F2" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="G2" s="41" t="s">
-        <v>240</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>633</v>
-      </c>
-      <c r="I2" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="J2" s="41" t="s">
-        <v>308</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>428</v>
-      </c>
-      <c r="L2" s="41" t="s">
-        <v>428</v>
-      </c>
-      <c r="M2" s="43" t="s">
-        <v>432</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>454</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>634</v>
-      </c>
-      <c r="U2" s="32"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="32"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N3" s="3" t="s">
-        <v>635</v>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E7" s="26"/>
+      <c r="F7" s="2" t="s">
+        <v>756</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6317,10 +6307,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AH3"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6341,206 +6331,199 @@
     <col min="14" max="14" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="40.42578125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="40.42578125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:33" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>627</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>629</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>631</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>635</v>
+      </c>
+      <c r="O1" s="17" t="s">
         <v>636</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="P1" s="17" t="s">
         <v>637</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="Q1" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>583</v>
+      </c>
+      <c r="S1" s="19" t="s">
         <v>638</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="T1" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="U1" s="18" t="s">
         <v>640</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="V1" s="18" t="s">
         <v>641</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="W1" s="18" t="s">
+        <v>590</v>
+      </c>
+      <c r="X1" s="18" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y1" s="18" t="s">
+        <v>592</v>
+      </c>
+      <c r="Z1" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="AA1" s="18" t="s">
         <v>642</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="AB1" s="18" t="s">
         <v>643</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="AC1" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="AD1" s="17" t="s">
         <v>645</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="AE1" s="17" t="s">
         <v>646</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="AF1" s="17" t="s">
         <v>647</v>
       </c>
-      <c r="Q1" s="31" t="s">
-        <v>167</v>
-      </c>
-      <c r="R1" s="31" t="s">
-        <v>587</v>
-      </c>
-      <c r="S1" s="31" t="s">
+      <c r="AG1" s="17" t="s">
         <v>648</v>
       </c>
-      <c r="T1" s="31" t="s">
+    </row>
+    <row r="2" spans="1:33" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="70" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="70">
+        <v>60001816</v>
+      </c>
+      <c r="F2" s="70" t="s">
+        <v>238</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>285</v>
+      </c>
+      <c r="H2" s="70" t="s">
+        <v>434</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>649</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="J2" s="72" t="s">
         <v>650</v>
       </c>
-      <c r="V1" s="30" t="s">
+      <c r="K2" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="L2" s="70" t="s">
         <v>651</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="M2" s="20"/>
+      <c r="N2" s="70" t="s">
         <v>652</v>
       </c>
-      <c r="X1" s="30" t="s">
-        <v>591</v>
-      </c>
-      <c r="Y1" s="30" t="s">
-        <v>592</v>
-      </c>
-      <c r="Z1" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="AA1" s="30" t="s">
-        <v>594</v>
-      </c>
-      <c r="AB1" s="30" t="s">
-        <v>653</v>
-      </c>
-      <c r="AC1" s="30" t="s">
+      <c r="O2" s="72" t="s">
+        <v>605</v>
+      </c>
+      <c r="P2" s="72" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q2" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="S2" s="70" t="s">
         <v>654</v>
       </c>
-      <c r="AD1" s="30" t="s">
+      <c r="T2" s="70" t="s">
         <v>655</v>
       </c>
-      <c r="AE1" s="29" t="s">
-        <v>656</v>
-      </c>
-      <c r="AF1" s="29" t="s">
-        <v>657</v>
-      </c>
-      <c r="AG1" s="29" t="s">
-        <v>658</v>
-      </c>
-      <c r="AH1" s="29" t="s">
-        <v>659</v>
-      </c>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="22"/>
+      <c r="Y2" s="22"/>
+      <c r="Z2" s="22"/>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="22"/>
+      <c r="AE2" s="22"/>
+      <c r="AF2" s="22"/>
+      <c r="AG2" s="22"/>
     </row>
-    <row r="2" spans="1:34" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>421</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>423</v>
-      </c>
-      <c r="E2" s="32">
-        <v>60001816</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>238</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="H2" s="32" t="s">
-        <v>434</v>
-      </c>
-      <c r="I2" s="33" t="s">
-        <v>660</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="L2" s="32" t="s">
-        <v>662</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="32" t="s">
-        <v>663</v>
-      </c>
-      <c r="O2" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="P2" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q2" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="R2" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="S2" s="35" t="s">
-        <v>664</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>665</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>666</v>
-      </c>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="37"/>
-      <c r="AA2" s="37"/>
-      <c r="AB2" s="37"/>
-      <c r="AC2" s="37"/>
-      <c r="AD2" s="37"/>
-      <c r="AE2" s="37"/>
-      <c r="AF2" s="37"/>
-      <c r="AG2" s="37"/>
-      <c r="AH2" s="37"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="K3" s="15" t="s">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="K3" s="11" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6555,563 +6538,705 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BK4"/>
+  <dimension ref="A1:BL5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="37.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="63.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="66.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="31.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="19.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="29.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="29.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="34.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="57" max="58" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" style="2" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="36.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:64" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
+        <v>626</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>662</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="AF1" s="67" t="s">
+        <v>682</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="AQ1" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="AR1" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="AS1" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="AT1" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="AU1" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="AV1" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AX1" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>669</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>670</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>671</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>674</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>675</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>676</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>677</v>
-      </c>
-      <c r="Q1" s="5" t="s">
-        <v>678</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>680</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>681</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>683</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>684</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>685</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>686</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>688</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="AC1" s="7" t="s">
-        <v>690</v>
-      </c>
-      <c r="AD1" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="AE1" s="7" t="s">
-        <v>692</v>
-      </c>
-      <c r="AF1" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="AG1" s="7" t="s">
-        <v>694</v>
-      </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AY1" s="4" t="s">
         <v>695</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>696</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="BA1" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="AK1" s="9" t="s">
+      <c r="BB1" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="AL1" s="9" t="s">
-        <v>578</v>
-      </c>
-      <c r="AM1" s="4" t="s">
-        <v>597</v>
-      </c>
-      <c r="AN1" s="4" t="s">
-        <v>599</v>
-      </c>
-      <c r="AO1" s="5" t="s">
+      <c r="BC1" s="3" t="s">
         <v>699</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="BD1" s="3" t="s">
         <v>700</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="BE1" s="3" t="s">
         <v>701</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="BF1" s="3" t="s">
         <v>702</v>
       </c>
-      <c r="AS1" s="5" t="s">
-        <v>641</v>
-      </c>
-      <c r="AT1" s="5" t="s">
-        <v>642</v>
-      </c>
-      <c r="AU1" s="5" t="s">
+      <c r="BG1" s="3" t="s">
         <v>703</v>
       </c>
-      <c r="AV1" s="5" t="s">
+      <c r="BH1" s="3" t="s">
         <v>704</v>
       </c>
-      <c r="AW1" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="AX1" s="5" t="s">
+      <c r="BI1" s="3" t="s">
         <v>705</v>
       </c>
-      <c r="AY1" s="4" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>706</v>
       </c>
-      <c r="AZ1" s="5" t="s">
+      <c r="BK1" s="3" t="s">
         <v>707</v>
       </c>
-      <c r="BA1" s="5" t="s">
+      <c r="BL1" s="4" t="s">
         <v>708</v>
       </c>
-      <c r="BB1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:64" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="BC1" s="4" t="s">
+      <c r="C2" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="16">
+        <v>60001816</v>
+      </c>
+      <c r="F2" s="8">
+        <v>800</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="H2" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="BE1" s="4" t="s">
+      <c r="J2" s="8" t="s">
         <v>712</v>
       </c>
-      <c r="BF1" s="4" t="s">
+      <c r="K2" s="8" t="s">
         <v>713</v>
       </c>
-      <c r="BG1" s="4" t="s">
+      <c r="L2" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="BH1" s="4" t="s">
+      <c r="M2" s="8" t="s">
         <v>715</v>
       </c>
-      <c r="BI1" s="4" t="s">
+      <c r="N2" s="8" t="s">
         <v>716</v>
       </c>
-      <c r="BJ1" s="4" t="s">
+      <c r="O2" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="BK1" s="5" t="s">
+      <c r="P2" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>718</v>
       </c>
+      <c r="R2" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="77"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="8" t="s">
+        <v>730</v>
+      </c>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
+      <c r="AT2" s="72" t="s">
+        <v>650</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="AV2" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="AW2" s="72" t="s">
+        <v>605</v>
+      </c>
+      <c r="AX2" s="78"/>
+      <c r="AY2" s="78"/>
+      <c r="AZ2" s="78"/>
+      <c r="BA2" s="78"/>
+      <c r="BB2" s="78"/>
+      <c r="BC2" s="78"/>
+      <c r="BD2" s="78"/>
+      <c r="BE2" s="78"/>
+      <c r="BF2" s="78"/>
+      <c r="BG2" s="78"/>
+      <c r="BH2" s="78"/>
+      <c r="BI2" s="78"/>
+      <c r="BJ2" s="78"/>
+      <c r="BK2" s="78"/>
+      <c r="BL2" s="8" t="s">
+        <v>270</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="11" t="s">
+    <row r="3" spans="1:64" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="16">
+        <v>60001816</v>
+      </c>
+      <c r="F3" s="8">
+        <v>800</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="S3" s="9" t="s">
         <v>719</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="T3" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="V3" s="9" t="s">
+        <v>737</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y3" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="Z3" s="9" t="s">
+        <v>726</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>728</v>
+      </c>
+      <c r="AC3" s="78"/>
+      <c r="AD3" s="9" t="s">
+        <v>729</v>
+      </c>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="77"/>
+      <c r="AG3" s="78"/>
+      <c r="AH3" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="AI3" s="78"/>
+      <c r="AJ3" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="AK3" s="78"/>
+      <c r="AL3" s="79"/>
+      <c r="AM3" s="79"/>
+      <c r="AN3" s="79"/>
+      <c r="AO3" s="79"/>
+      <c r="AP3" s="68">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="AQ3" s="68">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="AR3" s="68">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="AS3" s="68" t="s">
+        <v>742</v>
+      </c>
+      <c r="AT3" s="14" t="s">
+        <v>650</v>
+      </c>
+      <c r="AU3" s="15" t="s">
+        <v>508</v>
+      </c>
+      <c r="AV3" s="13" t="s">
+        <v>731</v>
+      </c>
+      <c r="AW3" s="14" t="s">
+        <v>605</v>
+      </c>
+      <c r="AX3" s="78"/>
+      <c r="AY3" s="78"/>
+      <c r="AZ3" s="78"/>
+      <c r="BA3" s="78"/>
+      <c r="BB3" s="78"/>
+      <c r="BC3" s="78"/>
+      <c r="BD3" s="78"/>
+      <c r="BE3" s="78"/>
+      <c r="BF3" s="78"/>
+      <c r="BG3" s="78"/>
+      <c r="BH3" s="78"/>
+      <c r="BI3" s="78"/>
+      <c r="BJ3" s="78"/>
+      <c r="BK3" s="78"/>
+      <c r="BL3" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>743</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D4" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E4" s="16">
         <v>60001816</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F4" s="8">
         <v>800</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G4" s="8" t="s">
+        <v>744</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>712</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>717</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="T4" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I2" s="11" t="s">
+      <c r="U4" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>724</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="N2" s="11" t="s">
+      <c r="V4" s="9" t="s">
+        <v>749</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>750</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>752</v>
+      </c>
+      <c r="Z4" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="AA4" s="9" t="s">
         <v>727</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q2" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>728</v>
-      </c>
-      <c r="S2" s="12" t="s">
+      <c r="AB4" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="9" t="s">
         <v>729</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>732</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>734</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>735</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="AI2" s="11"/>
-      <c r="AJ2" s="11" t="s">
-        <v>740</v>
-      </c>
-      <c r="AK2" s="11"/>
-      <c r="AL2" s="11"/>
-      <c r="AM2" s="11"/>
-      <c r="AN2" s="11"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="11"/>
-      <c r="AQ2" s="11"/>
-      <c r="AR2" s="11"/>
-      <c r="AS2" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="AT2" s="18" t="s">
-        <v>508</v>
-      </c>
-      <c r="AU2" s="11" t="s">
-        <v>741</v>
-      </c>
-      <c r="AV2" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="AW2" s="11"/>
-      <c r="AX2" s="11"/>
-      <c r="AY2" s="11"/>
-      <c r="AZ2" s="11"/>
-      <c r="BA2" s="11"/>
-      <c r="BB2" s="11"/>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="11"/>
-      <c r="BE2" s="11"/>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11" t="s">
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="77"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="8" t="s">
+        <v>754</v>
+      </c>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM4" s="74">
+        <v>1171049.45</v>
+      </c>
+      <c r="AN4" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>885.51</v>
+      </c>
+      <c r="AP4" s="81"/>
+      <c r="AQ4" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="AR4" s="75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AS4" s="81"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="82"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="78"/>
+      <c r="BB4" s="78"/>
+      <c r="BC4" s="78"/>
+      <c r="BD4" s="78"/>
+      <c r="BE4" s="78"/>
+      <c r="BF4" s="78"/>
+      <c r="BG4" s="78"/>
+      <c r="BH4" s="78"/>
+      <c r="BI4" s="78"/>
+      <c r="BJ4" s="78"/>
+      <c r="BK4" s="78"/>
+      <c r="BL4" s="8" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="3" spans="1:63" s="10" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>742</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>743</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="28" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" s="28">
-        <v>60001816</v>
-      </c>
-      <c r="F3" s="11">
-        <v>800</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>744</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>721</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>722</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>745</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>725</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>726</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q3" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>746</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>729</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>731</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>747</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="X3" s="12" t="s">
-        <v>749</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>750</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>737</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>738</v>
-      </c>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="AE3" s="12"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="11"/>
-      <c r="AH3" s="12" t="s">
-        <v>664</v>
-      </c>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11" t="s">
-        <v>751</v>
-      </c>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11"/>
-      <c r="AN3" s="21"/>
-      <c r="AO3" s="27">
-        <v>9.9500000000000005E-3</v>
-      </c>
-      <c r="AP3" s="27">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="AQ3" s="27">
-        <v>2.6450000000000001E-2</v>
-      </c>
-      <c r="AR3" s="22" t="s">
-        <v>752</v>
-      </c>
-      <c r="AS3" s="23" t="s">
-        <v>661</v>
-      </c>
-      <c r="AT3" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="AU3" s="21" t="s">
-        <v>741</v>
-      </c>
-      <c r="AV3" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="AW3" s="11"/>
-      <c r="AX3" s="11"/>
-      <c r="AY3" s="11"/>
-      <c r="AZ3" s="11"/>
-      <c r="BA3" s="11"/>
-      <c r="BB3" s="11"/>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="19"/>
-      <c r="AO4" s="25"/>
-      <c r="AP4" s="25"/>
-      <c r="AQ4" s="25"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="19" t="s">
-        <v>635</v>
-      </c>
-      <c r="AU4" s="20"/>
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+      <c r="AO5" s="11" t="s">
+        <v>755</v>
+      </c>
+      <c r="AR5" s="11"/>
+      <c r="AU5" s="11" t="s">
+        <v>516</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68FAA88F-04A6-49E2-B4BC-42C5E059912F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D595D078-686E-4112-BD74-134213E41FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,25 @@
     <sheet name="SYND02_PrimaryAllocation" sheetId="7" r:id="rId7"/>
     <sheet name="SERV01_LoanDrawdown" sheetId="8" r:id="rId8"/>
     <sheet name="Correspondence" sheetId="9" r:id="rId9"/>
+    <sheet name="SERV08_ComprehensiveRepricing" sheetId="10" r:id="rId10"/>
+    <sheet name="SERV23_LoanPaperClip" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="821">
   <si>
     <t>rowid</t>
   </si>
@@ -1753,6 +1765,21 @@
     <t>BBSY</t>
   </si>
   <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>6.000000</t>
+  </si>
+  <si>
+    <t>Basis Points</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Fixed Rate Option</t>
+  </si>
+  <si>
     <t>OngoingFee_Type</t>
   </si>
   <si>
@@ -1855,6 +1882,24 @@
     <t>CB001/Hold for Investment - Australia/NB_FUF</t>
   </si>
   <si>
+    <t>Fee Payment</t>
+  </si>
+  <si>
+    <t>Projected Due</t>
+  </si>
+  <si>
+    <t>BIG W BANK</t>
+  </si>
+  <si>
+    <t>BAN BANK</t>
+  </si>
+  <si>
+    <t>31-Oct-2018</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
     <t>Correct value when base rate is correct:</t>
   </si>
   <si>
@@ -1918,9 +1963,6 @@
     <t>Borrower_Name</t>
   </si>
   <si>
-    <t>Outstanding_Type</t>
-  </si>
-  <si>
     <t>Pricing_Option</t>
   </si>
   <si>
@@ -1993,237 +2035,237 @@
     <t>to the adjusted due date</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Awaiting release</t>
+  </si>
+  <si>
+    <t>SubAdd_Days</t>
+  </si>
+  <si>
+    <t>Notice_Type</t>
+  </si>
+  <si>
+    <t>Notice_Customer_LegalName</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>NoticeGroup_UserID</t>
+  </si>
+  <si>
+    <t>Notice_Identifier</t>
+  </si>
+  <si>
+    <t>Correlation_ID</t>
+  </si>
+  <si>
+    <t>Thru_Date</t>
+  </si>
+  <si>
+    <t>From_Date</t>
+  </si>
+  <si>
+    <t>Search_By</t>
+  </si>
+  <si>
+    <t>Notice_Method</t>
+  </si>
+  <si>
+    <t>BEO_StartDate</t>
+  </si>
+  <si>
+    <t>BEO_EndDate</t>
+  </si>
+  <si>
+    <t>Customer_IdentifiedBy</t>
+  </si>
+  <si>
+    <t>Zero_TempPath</t>
+  </si>
+  <si>
+    <t>InputFilePath</t>
+  </si>
+  <si>
+    <t>XML_File</t>
+  </si>
+  <si>
+    <t>Temp_File</t>
+  </si>
+  <si>
+    <t>InputJson</t>
+  </si>
+  <si>
+    <t>ExpectedJson</t>
+  </si>
+  <si>
+    <t>OutputFilePath</t>
+  </si>
+  <si>
+    <t>Field_Name</t>
+  </si>
+  <si>
+    <t>OutputAPIResponse</t>
+  </si>
+  <si>
+    <t>messageId</t>
+  </si>
+  <si>
+    <t>CallBack_Status</t>
+  </si>
+  <si>
+    <t>CallBack_Status2</t>
+  </si>
+  <si>
+    <t>errorMessage</t>
+  </si>
+  <si>
+    <t>errorMessage_2</t>
+  </si>
+  <si>
+    <t>Notice_Status</t>
+  </si>
+  <si>
+    <t>WIP_ExceptionQueueDescription</t>
+  </si>
+  <si>
+    <t>XML_NoticeType</t>
+  </si>
+  <si>
+    <t>Loan_PricingOption</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Loan_BaseRate</t>
+  </si>
+  <si>
+    <t>Loan_Spread</t>
+  </si>
+  <si>
+    <t>Notice_AllInRate</t>
+  </si>
+  <si>
+    <t>Notice_Amount</t>
+  </si>
+  <si>
+    <t>Loan_GlobalOriginal</t>
+  </si>
+  <si>
+    <t>Loan_RateSetting_DueDate</t>
+  </si>
+  <si>
+    <t>EffectiveDate_PrincipalPayment</t>
+  </si>
+  <si>
+    <t>Outstanding_PrincipalPayment</t>
+  </si>
+  <si>
+    <t>EffectiveDate_InterestPayment</t>
+  </si>
+  <si>
+    <t>ProjectedCycleDue_InterestPayment</t>
+  </si>
+  <si>
+    <t>StartDate_Principal</t>
+  </si>
+  <si>
+    <t>EndDate_Principal</t>
+  </si>
+  <si>
+    <t>Days_Principal</t>
+  </si>
+  <si>
+    <t>Principal_Amount</t>
+  </si>
+  <si>
+    <t>StartDate_Interest</t>
+  </si>
+  <si>
+    <t>EndDate_Interest</t>
+  </si>
+  <si>
+    <t>Days_Interest</t>
+  </si>
+  <si>
+    <t>Interest_Amount</t>
+  </si>
+  <si>
+    <t>Fee_Type</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>API_COR_TC03_SENT_Drawdown Intent Notice</t>
+  </si>
+  <si>
+    <t>Drawdown Intent Notice</t>
+  </si>
+  <si>
+    <t>Jimmy Croce</t>
+  </si>
+  <si>
+    <t>LOANIQ01</t>
+  </si>
+  <si>
+    <t>E;EJUUL5</t>
+  </si>
+  <si>
+    <t>LIQ-E;EJUUL5-E.EJUT1W-2</t>
+  </si>
+  <si>
+    <t>2023-01-18 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2018-09-01 00:00:00.000</t>
+  </si>
+  <si>
+    <t>Notice Identifier</t>
+  </si>
+  <si>
+    <t>2020-11-18 17:14:48.087</t>
+  </si>
+  <si>
+    <t>Legal Name</t>
+  </si>
+  <si>
+    <t>C:\Users\u723281\AppData\Local\Temp\</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\API\Input\Correspondence</t>
+  </si>
+  <si>
+    <t>API_COR_TC03</t>
+  </si>
+  <si>
+    <t>TEMP_API_COR_TC03</t>
+  </si>
+  <si>
+    <t>INPUT_API_COR_TC03</t>
+  </si>
+  <si>
+    <t>EXP_API_COR_TC03</t>
+  </si>
+  <si>
+    <t>\DataSet\Integration_DataSet\API\Output\Correspondence</t>
+  </si>
+  <si>
+    <t>correlationId</t>
+  </si>
+  <si>
+    <t>API_COR_RESPONSE_TC1</t>
+  </si>
+  <si>
+    <t>SENT</t>
+  </si>
+  <si>
     <t>Sent</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Awaiting release</t>
-  </si>
-  <si>
-    <t>SubAdd_Days</t>
-  </si>
-  <si>
-    <t>Notice_Type</t>
-  </si>
-  <si>
-    <t>Notice_Customer_LegalName</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>NoticeGroup_UserID</t>
-  </si>
-  <si>
-    <t>Notice_Identifier</t>
-  </si>
-  <si>
-    <t>Correlation_ID</t>
-  </si>
-  <si>
-    <t>Thru_Date</t>
-  </si>
-  <si>
-    <t>From_Date</t>
-  </si>
-  <si>
-    <t>Search_By</t>
-  </si>
-  <si>
-    <t>Notice_Method</t>
-  </si>
-  <si>
-    <t>BEO_StartDate</t>
-  </si>
-  <si>
-    <t>BEO_EndDate</t>
-  </si>
-  <si>
-    <t>Customer_IdentifiedBy</t>
-  </si>
-  <si>
-    <t>Zero_TempPath</t>
-  </si>
-  <si>
-    <t>InputFilePath</t>
-  </si>
-  <si>
-    <t>XML_File</t>
-  </si>
-  <si>
-    <t>Temp_File</t>
-  </si>
-  <si>
-    <t>InputJson</t>
-  </si>
-  <si>
-    <t>ExpectedJson</t>
-  </si>
-  <si>
-    <t>OutputFilePath</t>
-  </si>
-  <si>
-    <t>Field_Name</t>
-  </si>
-  <si>
-    <t>OutputAPIResponse</t>
-  </si>
-  <si>
-    <t>messageId</t>
-  </si>
-  <si>
-    <t>CallBack_Status</t>
-  </si>
-  <si>
-    <t>CallBack_Status2</t>
-  </si>
-  <si>
-    <t>errorMessage</t>
-  </si>
-  <si>
-    <t>errorMessage_2</t>
-  </si>
-  <si>
-    <t>Notice_Status</t>
-  </si>
-  <si>
-    <t>WIP_ExceptionQueueDescription</t>
-  </si>
-  <si>
-    <t>XML_NoticeType</t>
-  </si>
-  <si>
-    <t>Loan_PricingOption</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
-    <t>Loan_BaseRate</t>
-  </si>
-  <si>
-    <t>Loan_Spread</t>
-  </si>
-  <si>
-    <t>Notice_AllInRate</t>
-  </si>
-  <si>
-    <t>Notice_Amount</t>
-  </si>
-  <si>
-    <t>Loan_GlobalOriginal</t>
-  </si>
-  <si>
-    <t>Loan_RateSetting_DueDate</t>
-  </si>
-  <si>
-    <t>EffectiveDate_PrincipalPayment</t>
-  </si>
-  <si>
-    <t>Outstanding_PrincipalPayment</t>
-  </si>
-  <si>
-    <t>EffectiveDate_InterestPayment</t>
-  </si>
-  <si>
-    <t>ProjectedCycleDue_InterestPayment</t>
-  </si>
-  <si>
-    <t>StartDate_Principal</t>
-  </si>
-  <si>
-    <t>EndDate_Principal</t>
-  </si>
-  <si>
-    <t>Days_Principal</t>
-  </si>
-  <si>
-    <t>Principal_Amount</t>
-  </si>
-  <si>
-    <t>StartDate_Interest</t>
-  </si>
-  <si>
-    <t>EndDate_Interest</t>
-  </si>
-  <si>
-    <t>Days_Interest</t>
-  </si>
-  <si>
-    <t>Interest_Amount</t>
-  </si>
-  <si>
-    <t>Fee_Type</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>API_COR_TC03_SENT_Drawdown Intent Notice</t>
-  </si>
-  <si>
-    <t>Drawdown Intent Notice</t>
-  </si>
-  <si>
-    <t>Jimmy Croce</t>
-  </si>
-  <si>
-    <t>LOANIQ01</t>
-  </si>
-  <si>
-    <t>E;EJUUL5</t>
-  </si>
-  <si>
-    <t>LIQ-E;EJUUL5-E.EJUT1W-2</t>
-  </si>
-  <si>
-    <t>2023-01-18 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2018-09-01 00:00:00.000</t>
-  </si>
-  <si>
-    <t>Notice Identifier</t>
-  </si>
-  <si>
-    <t>2020-11-18 17:14:48.087</t>
-  </si>
-  <si>
-    <t>Legal Name</t>
-  </si>
-  <si>
-    <t>C:\Users\u723281\AppData\Local\Temp\</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\API\Input\Correspondence</t>
-  </si>
-  <si>
-    <t>API_COR_TC03</t>
-  </si>
-  <si>
-    <t>TEMP_API_COR_TC03</t>
-  </si>
-  <si>
-    <t>INPUT_API_COR_TC03</t>
-  </si>
-  <si>
-    <t>EXP_API_COR_TC03</t>
-  </si>
-  <si>
-    <t>\DataSet\Integration_DataSet\API\Output\Correspondence</t>
-  </si>
-  <si>
-    <t>correlationId</t>
-  </si>
-  <si>
-    <t>API_COR_RESPONSE_TC1</t>
-  </si>
-  <si>
-    <t>SENT</t>
-  </si>
-  <si>
     <t>DRAWDOWN INTENT NOTICE</t>
   </si>
   <si>
@@ -2299,10 +2341,172 @@
     <t>FEE INVOICE</t>
   </si>
   <si>
-    <t>Update to 885.30</t>
-  </si>
-  <si>
-    <t>Need to update data once DBU is created in IEE/Sandbox</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Deal Level Loan Repricing Rate Setting Notice</t>
+  </si>
+  <si>
+    <t>LIQ-RWEL8V2Z-R3EL8T86-4</t>
+  </si>
+  <si>
+    <t>2020-12-15 21:38:06.099</t>
+  </si>
+  <si>
+    <t>Repricing Intent Notice</t>
+  </si>
+  <si>
+    <t>LIQ-RWEL8V2Z-R3EL8T86-2</t>
+  </si>
+  <si>
+    <t>2020-12-15 20:31:18.857</t>
+  </si>
+  <si>
+    <t>OutstandingSelect_Type</t>
+  </si>
+  <si>
+    <t>NewLoan_Alias</t>
+  </si>
+  <si>
+    <t>New_LoanAmount</t>
+  </si>
+  <si>
+    <t>Capitalize_PercentOfPayment</t>
+  </si>
+  <si>
+    <t>Repricing_Type</t>
+  </si>
+  <si>
+    <t>Repricing_Add_Option_Setup</t>
+  </si>
+  <si>
+    <t>Repricing_Frequency</t>
+  </si>
+  <si>
+    <t>Comprehensive Repricing</t>
+  </si>
+  <si>
+    <t>Rollover/Conversion to New:</t>
+  </si>
+  <si>
+    <t>Paperclip_EffectiveDate</t>
+  </si>
+  <si>
+    <t>SBLC_CycleNumber</t>
+  </si>
+  <si>
+    <t>SBLC_ProrateWith</t>
+  </si>
+  <si>
+    <t>Loan_Transaction_Type</t>
+  </si>
+  <si>
+    <t>Loan_CycleNumber</t>
+  </si>
+  <si>
+    <t>Loan_ProrateWith</t>
+  </si>
+  <si>
+    <t>Fee_Requested_Amount</t>
+  </si>
+  <si>
+    <t>SBLC_Amount</t>
+  </si>
+  <si>
+    <t>Loan_Currency</t>
+  </si>
+  <si>
+    <t>Rollover_Amount</t>
+  </si>
+  <si>
+    <t>Remittance_Status</t>
+  </si>
+  <si>
+    <t>Customer_Legal_Name</t>
+  </si>
+  <si>
+    <t>NoticeStatus</t>
+  </si>
+  <si>
+    <t>200,000,000.00</t>
+  </si>
+  <si>
+    <t>BBSY - Bid Loan</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Lender Shares (Prepay Cycle)</t>
+  </si>
+  <si>
+    <t>1,000,000.00</t>
+  </si>
+  <si>
+    <t>Service Fee</t>
+  </si>
+  <si>
+    <t>38.36</t>
+  </si>
+  <si>
+    <t>33.68</t>
+  </si>
+  <si>
+    <t>28.986666662</t>
+  </si>
+  <si>
+    <t>37.3333333333333</t>
+  </si>
+  <si>
+    <t>CB001/Hold for Investment - Australia/BP_CML</t>
+  </si>
+  <si>
+    <t>500,000.00</t>
+  </si>
+  <si>
+    <t>1 Months</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Sanseera Electronics Ltd</t>
+  </si>
+  <si>
+    <t>InterestCapitalization_Status</t>
+  </si>
+  <si>
+    <t>Paper Clip Payment</t>
+  </si>
+  <si>
+    <t>Paperclip_TransactionDescription</t>
+  </si>
+  <si>
+    <t>Early Principal Prepayment of 140,000AUD</t>
+  </si>
+  <si>
+    <t>Loan_Transaction_Type2</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Cycles_ForLoan</t>
+  </si>
+  <si>
+    <t>Pro Rate based on Principal</t>
+  </si>
+  <si>
+    <t>31-Jan-2020</t>
+  </si>
+  <si>
+    <t>Interest_Due</t>
+  </si>
+  <si>
+    <t>311.82</t>
+  </si>
+  <si>
+    <t>140,000.00</t>
   </si>
 </sst>
 </file>
@@ -2315,7 +2519,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2392,6 +2596,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -2416,6 +2628,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2552,12 +2770,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2576,14 +2795,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2592,10 +2814,10 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2751,10 +2973,13 @@
     <xf numFmtId="166" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2769,34 +2994,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3201,451 +3435,872 @@
     <col min="83" max="83" width="17.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:106" s="48" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AH1" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AI1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AK1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AL1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AM1" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AN1" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AO1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AP1" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AR1" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="17" t="s">
+      <c r="AS1" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="25" t="s">
+      <c r="AT1" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="25" t="s">
+      <c r="AU1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="25" t="s">
+      <c r="AV1" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="25" t="s">
+      <c r="AW1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AX1" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="17" t="s">
+      <c r="AY1" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="AZ1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="BA1" s="17" t="s">
+      <c r="BA1" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="17" t="s">
+      <c r="BB1" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="17" t="s">
+      <c r="BC1" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="17" t="s">
+      <c r="BD1" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="17" t="s">
+      <c r="BE1" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="17" t="s">
+      <c r="BF1" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="17" t="s">
+      <c r="BG1" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="17" t="s">
+      <c r="BH1" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="17" t="s">
+      <c r="BI1" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="17" t="s">
+      <c r="BJ1" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="17" t="s">
+      <c r="BK1" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="17" t="s">
+      <c r="BL1" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="17" t="s">
+      <c r="BM1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="17" t="s">
+      <c r="BN1" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="17" t="s">
+      <c r="BO1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="17" t="s">
+      <c r="BP1" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="17" t="s">
+      <c r="BQ1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="17" t="s">
+      <c r="BR1" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="17" t="s">
+      <c r="BS1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="17" t="s">
+      <c r="BT1" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="17" t="s">
+      <c r="BU1" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="17" t="s">
+      <c r="BV1" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="17" t="s">
+      <c r="BW1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="17" t="s">
+      <c r="BX1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" s="17" t="s">
+      <c r="BY1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" s="17" t="s">
+      <c r="BZ1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" s="17" t="s">
+      <c r="CA1" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" s="17" t="s">
+      <c r="CB1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" s="17" t="s">
+      <c r="CC1" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" s="17" t="s">
+      <c r="CD1" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" s="17" t="s">
+      <c r="CE1" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" s="17"/>
-      <c r="CG1" s="17"/>
-      <c r="CH1" s="17"/>
-      <c r="CI1" s="17"/>
-      <c r="CJ1" s="17"/>
-      <c r="CK1" s="17"/>
-      <c r="CL1" s="17"/>
-      <c r="CM1" s="17"/>
-      <c r="CN1" s="17"/>
-      <c r="CO1" s="17"/>
-      <c r="CP1" s="17"/>
-      <c r="CQ1" s="17"/>
-      <c r="CR1" s="17"/>
-      <c r="CS1" s="17"/>
-      <c r="CT1" s="17"/>
-      <c r="CU1" s="17"/>
-      <c r="CV1" s="17"/>
-      <c r="CW1" s="17"/>
-      <c r="CX1" s="17"/>
-      <c r="CY1" s="17"/>
-      <c r="CZ1" s="17"/>
-      <c r="DA1" s="17"/>
-      <c r="DB1" s="17"/>
+      <c r="CF1" s="19"/>
+      <c r="CG1" s="19"/>
+      <c r="CH1" s="19"/>
+      <c r="CI1" s="19"/>
+      <c r="CJ1" s="19"/>
+      <c r="CK1" s="19"/>
+      <c r="CL1" s="19"/>
+      <c r="CM1" s="19"/>
+      <c r="CN1" s="19"/>
+      <c r="CO1" s="19"/>
+      <c r="CP1" s="19"/>
+      <c r="CQ1" s="19"/>
+      <c r="CR1" s="19"/>
+      <c r="CS1" s="19"/>
+      <c r="CT1" s="19"/>
+      <c r="CU1" s="19"/>
+      <c r="CV1" s="19"/>
+      <c r="CW1" s="19"/>
+      <c r="CX1" s="19"/>
+      <c r="CY1" s="19"/>
+      <c r="CZ1" s="19"/>
+      <c r="DA1" s="19"/>
+      <c r="DB1" s="19"/>
     </row>
-    <row r="2" spans="1:106" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:106" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="73" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="62">
+      <c r="G2" s="64">
         <v>1</v>
       </c>
-      <c r="H2" s="62" t="s">
+      <c r="H2" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="62" t="s">
+      <c r="J2" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="61">
+      <c r="K2" s="63">
         <v>100012345</v>
       </c>
-      <c r="L2" s="62" t="s">
+      <c r="L2" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65" t="s">
+      <c r="M2" s="67"/>
+      <c r="N2" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="65" t="s">
+      <c r="O2" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="62" t="s">
+      <c r="P2" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="62" t="s">
+      <c r="Q2" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="62" t="s">
+      <c r="R2" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="62" t="s">
+      <c r="S2" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="61">
+      <c r="T2" s="63">
         <v>1000012345</v>
       </c>
-      <c r="U2" s="62" t="s">
+      <c r="U2" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="62" t="s">
+      <c r="V2" s="64" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="62">
+      <c r="W2" s="64">
         <v>3000</v>
       </c>
-      <c r="X2" s="62" t="s">
+      <c r="X2" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="60" t="s">
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" s="60" t="s">
+      <c r="AC2" s="62" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="62" t="s">
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="62" t="s">
+      <c r="AF2" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="62" t="s">
+      <c r="AG2" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="AH2" s="70" t="s">
+      <c r="AH2" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="AI2" s="70" t="s">
+      <c r="AI2" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="63"/>
-      <c r="AO2" s="63"/>
-      <c r="AP2" s="63"/>
-      <c r="AQ2" s="63"/>
-      <c r="AR2" s="63"/>
-      <c r="AS2" s="63"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="22"/>
-      <c r="AX2" s="22"/>
-      <c r="AY2" s="22"/>
-      <c r="AZ2" s="22"/>
-      <c r="BA2" s="22"/>
-      <c r="BB2" s="22"/>
-      <c r="BC2" s="22"/>
-      <c r="BD2" s="22"/>
-      <c r="BE2" s="22"/>
-      <c r="BF2" s="22"/>
-      <c r="BG2" s="22"/>
-      <c r="BH2" s="22"/>
-      <c r="BI2" s="22"/>
-      <c r="BJ2" s="22"/>
-      <c r="BK2" s="22"/>
-      <c r="BL2" s="22"/>
-      <c r="BM2" s="22"/>
-      <c r="BN2" s="22"/>
-      <c r="BO2" s="22"/>
-      <c r="BP2" s="22"/>
-      <c r="BQ2" s="22"/>
-      <c r="BR2" s="22"/>
-      <c r="BS2" s="22"/>
-      <c r="BT2" s="22"/>
-      <c r="BU2" s="22"/>
-      <c r="BV2" s="22"/>
-      <c r="BW2" s="22"/>
-      <c r="BX2" s="22"/>
-      <c r="BY2" s="22"/>
-      <c r="BZ2" s="22"/>
-      <c r="CA2" s="22"/>
-      <c r="CB2" s="22"/>
-      <c r="CC2" s="22"/>
-      <c r="CD2" s="22"/>
-      <c r="CE2" s="22"/>
-      <c r="CF2" s="70"/>
-      <c r="CG2" s="70"/>
-      <c r="CH2" s="70"/>
-      <c r="CI2" s="70"/>
-      <c r="CJ2" s="70"/>
-      <c r="CK2" s="70"/>
-      <c r="CL2" s="70"/>
-      <c r="CM2" s="70"/>
-      <c r="CN2" s="70"/>
-      <c r="CO2" s="70"/>
-      <c r="CP2" s="70"/>
-      <c r="CQ2" s="70"/>
-      <c r="CR2" s="70"/>
-      <c r="CS2" s="70"/>
-      <c r="CT2" s="70"/>
-      <c r="CU2" s="70"/>
-      <c r="CV2" s="70"/>
-      <c r="CW2" s="70"/>
-      <c r="CX2" s="70"/>
-      <c r="CY2" s="70"/>
-      <c r="CZ2" s="70"/>
-      <c r="DA2" s="70"/>
-      <c r="DB2" s="70"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="25"/>
+      <c r="AU2" s="25"/>
+      <c r="AV2" s="25"/>
+      <c r="AW2" s="24"/>
+      <c r="AX2" s="24"/>
+      <c r="AY2" s="24"/>
+      <c r="AZ2" s="24"/>
+      <c r="BA2" s="24"/>
+      <c r="BB2" s="24"/>
+      <c r="BC2" s="24"/>
+      <c r="BD2" s="24"/>
+      <c r="BE2" s="24"/>
+      <c r="BF2" s="24"/>
+      <c r="BG2" s="24"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="24"/>
+      <c r="BK2" s="24"/>
+      <c r="BL2" s="24"/>
+      <c r="BM2" s="24"/>
+      <c r="BN2" s="24"/>
+      <c r="BO2" s="24"/>
+      <c r="BP2" s="24"/>
+      <c r="BQ2" s="24"/>
+      <c r="BR2" s="24"/>
+      <c r="BS2" s="24"/>
+      <c r="BT2" s="24"/>
+      <c r="BU2" s="24"/>
+      <c r="BV2" s="24"/>
+      <c r="BW2" s="24"/>
+      <c r="BX2" s="24"/>
+      <c r="BY2" s="24"/>
+      <c r="BZ2" s="24"/>
+      <c r="CA2" s="24"/>
+      <c r="CB2" s="24"/>
+      <c r="CC2" s="24"/>
+      <c r="CD2" s="24"/>
+      <c r="CE2" s="24"/>
+      <c r="CF2" s="73"/>
+      <c r="CG2" s="73"/>
+      <c r="CH2" s="73"/>
+      <c r="CI2" s="73"/>
+      <c r="CJ2" s="73"/>
+      <c r="CK2" s="73"/>
+      <c r="CL2" s="73"/>
+      <c r="CM2" s="73"/>
+      <c r="CN2" s="73"/>
+      <c r="CO2" s="73"/>
+      <c r="CP2" s="73"/>
+      <c r="CQ2" s="73"/>
+      <c r="CR2" s="73"/>
+      <c r="CS2" s="73"/>
+      <c r="CT2" s="73"/>
+      <c r="CU2" s="73"/>
+      <c r="CV2" s="73"/>
+      <c r="CW2" s="73"/>
+      <c r="CX2" s="73"/>
+      <c r="CY2" s="73"/>
+      <c r="CZ2" s="73"/>
+      <c r="DA2" s="73"/>
+      <c r="DB2" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="81" t="s">
+        <v>334</v>
+      </c>
+      <c r="D1" s="80" t="s">
+        <v>772</v>
+      </c>
+      <c r="E1" s="81" t="s">
+        <v>336</v>
+      </c>
+      <c r="F1" s="81" t="s">
+        <v>637</v>
+      </c>
+      <c r="G1" s="81" t="s">
+        <v>773</v>
+      </c>
+      <c r="H1" s="82" t="s">
+        <v>638</v>
+      </c>
+      <c r="I1" s="83" t="s">
+        <v>774</v>
+      </c>
+      <c r="J1" s="83" t="s">
+        <v>775</v>
+      </c>
+      <c r="K1" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="L1" s="80" t="s">
+        <v>777</v>
+      </c>
+      <c r="M1" s="80" t="s">
+        <v>639</v>
+      </c>
+      <c r="N1" s="80" t="s">
+        <v>778</v>
+      </c>
+      <c r="O1" s="21" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="73" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" s="73">
+        <v>60001816</v>
+      </c>
+      <c r="G2" s="73">
+        <v>60001939</v>
+      </c>
+      <c r="H2" s="73" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="86">
+        <v>3854477.59</v>
+      </c>
+      <c r="J2" s="73">
+        <v>100</v>
+      </c>
+      <c r="K2" s="85" t="s">
+        <v>779</v>
+      </c>
+      <c r="L2" s="85" t="s">
+        <v>780</v>
+      </c>
+      <c r="M2" s="85" t="s">
+        <v>434</v>
+      </c>
+      <c r="N2" s="61" t="s">
+        <v>661</v>
+      </c>
+      <c r="O2" s="73" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B345030-BBA1-409D-A1AF-6EDB776BCC32}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:AL2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="21" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>809</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>591</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>781</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>811</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>640</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>813</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>815</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>785</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>818</v>
+      </c>
+      <c r="M1" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="O1" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="P1" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q1" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="R1" s="26" t="s">
+        <v>783</v>
+      </c>
+      <c r="S1" s="26" t="s">
+        <v>786</v>
+      </c>
+      <c r="T1" s="26" t="s">
+        <v>787</v>
+      </c>
+      <c r="U1" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="V1" s="26" t="s">
+        <v>788</v>
+      </c>
+      <c r="W1" s="26" t="s">
+        <v>789</v>
+      </c>
+      <c r="X1" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y1" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="Z1" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>589</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>790</v>
+      </c>
+      <c r="AC1" s="26" t="s">
+        <v>778</v>
+      </c>
+      <c r="AD1" s="26" t="s">
+        <v>791</v>
+      </c>
+      <c r="AE1" s="26" t="s">
+        <v>792</v>
+      </c>
+      <c r="AF1" s="26" t="s">
+        <v>793</v>
+      </c>
+      <c r="AG1" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="AH1" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="AI1" s="31" t="s">
+        <v>595</v>
+      </c>
+      <c r="AJ1" s="31" t="s">
+        <v>596</v>
+      </c>
+      <c r="AK1" s="31" t="s">
+        <v>597</v>
+      </c>
+      <c r="AL1" s="31" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="87" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>810</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>817</v>
+      </c>
+      <c r="F2" s="88" t="s">
+        <v>812</v>
+      </c>
+      <c r="G2" s="88" t="s">
+        <v>796</v>
+      </c>
+      <c r="H2" s="89" t="s">
+        <v>820</v>
+      </c>
+      <c r="I2" s="89" t="s">
+        <v>814</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>816</v>
+      </c>
+      <c r="K2" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="88" t="s">
+        <v>819</v>
+      </c>
+      <c r="M2" s="88" t="s">
+        <v>795</v>
+      </c>
+      <c r="N2" s="87" t="s">
+        <v>426</v>
+      </c>
+      <c r="O2" s="87" t="s">
+        <v>426</v>
+      </c>
+      <c r="P2" s="45" t="s">
+        <v>794</v>
+      </c>
+      <c r="Q2" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="S2" s="33" t="s">
+        <v>797</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>798</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>799</v>
+      </c>
+      <c r="V2" s="33" t="s">
+        <v>800</v>
+      </c>
+      <c r="W2" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>801</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>802</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>803</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>804</v>
+      </c>
+      <c r="AB2" s="33" t="s">
+        <v>805</v>
+      </c>
+      <c r="AC2" s="33" t="s">
+        <v>806</v>
+      </c>
+      <c r="AD2" s="36" t="s">
+        <v>807</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>808</v>
+      </c>
+      <c r="AF2" s="33" t="s">
+        <v>664</v>
+      </c>
+      <c r="AG2" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="AH2" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="AK2" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="AL2" s="24" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3797,811 +4452,811 @@
     <col min="135" max="135" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="46" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:135" s="48" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="26" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="26" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="24" t="s">
+      <c r="P1" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="24" t="s">
+      <c r="Q1" s="26" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="24" t="s">
+      <c r="S1" s="26" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="24" t="s">
+      <c r="T1" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="U1" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="24" t="s">
+      <c r="V1" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="24" t="s">
+      <c r="W1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="24" t="s">
+      <c r="X1" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="24" t="s">
+      <c r="Y1" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" s="24" t="s">
+      <c r="Z1" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="24" t="s">
+      <c r="AA1" s="26" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="24" t="s">
+      <c r="AB1" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="24" t="s">
+      <c r="AC1" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" s="24" t="s">
+      <c r="AD1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" s="24" t="s">
+      <c r="AE1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" s="24" t="s">
+      <c r="AF1" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" s="24" t="s">
+      <c r="AG1" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="AH1" s="24" t="s">
+      <c r="AH1" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="AI1" s="24" t="s">
+      <c r="AI1" s="26" t="s">
         <v>134</v>
       </c>
-      <c r="AJ1" s="24" t="s">
+      <c r="AJ1" s="26" t="s">
         <v>135</v>
       </c>
-      <c r="AK1" s="24" t="s">
+      <c r="AK1" s="26" t="s">
         <v>136</v>
       </c>
-      <c r="AL1" s="24" t="s">
+      <c r="AL1" s="26" t="s">
         <v>137</v>
       </c>
-      <c r="AM1" s="24" t="s">
+      <c r="AM1" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AN1" s="24" t="s">
+      <c r="AN1" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="AO1" s="24" t="s">
+      <c r="AO1" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" s="24" t="s">
+      <c r="AP1" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="24" t="s">
+      <c r="AQ1" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="AR1" s="24" t="s">
+      <c r="AR1" s="26" t="s">
         <v>143</v>
       </c>
-      <c r="AS1" s="24" t="s">
+      <c r="AS1" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="AT1" s="24" t="s">
+      <c r="AT1" s="26" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="24" t="s">
+      <c r="AU1" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="AV1" s="24" t="s">
+      <c r="AV1" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="AW1" s="24" t="s">
+      <c r="AW1" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="AX1" s="24" t="s">
+      <c r="AX1" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="AY1" s="24" t="s">
+      <c r="AY1" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="AZ1" s="24" t="s">
+      <c r="AZ1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="BA1" s="24" t="s">
+      <c r="BA1" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="BB1" s="24" t="s">
+      <c r="BB1" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="BC1" s="24" t="s">
+      <c r="BC1" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="BD1" s="24" t="s">
+      <c r="BD1" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="BE1" s="24" t="s">
+      <c r="BE1" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="BF1" s="24" t="s">
+      <c r="BF1" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="BG1" s="24" t="s">
+      <c r="BG1" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="BH1" s="24" t="s">
+      <c r="BH1" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="BI1" s="24" t="s">
+      <c r="BI1" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="BJ1" s="24" t="s">
+      <c r="BJ1" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="BK1" s="24" t="s">
+      <c r="BK1" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="BL1" s="24" t="s">
+      <c r="BL1" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="BM1" s="45" t="s">
+      <c r="BM1" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="BN1" s="24" t="s">
+      <c r="BN1" s="26" t="s">
         <v>165</v>
       </c>
-      <c r="BO1" s="24" t="s">
+      <c r="BO1" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="BP1" s="24" t="s">
+      <c r="BP1" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="BQ1" s="24" t="s">
+      <c r="BQ1" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="BR1" s="24" t="s">
+      <c r="BR1" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="BS1" s="24" t="s">
+      <c r="BS1" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="BT1" s="24" t="s">
+      <c r="BT1" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="BU1" s="24" t="s">
+      <c r="BU1" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="BV1" s="24" t="s">
+      <c r="BV1" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="BW1" s="24" t="s">
+      <c r="BW1" s="26" t="s">
         <v>174</v>
       </c>
-      <c r="BX1" s="24" t="s">
+      <c r="BX1" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="BY1" s="24" t="s">
+      <c r="BY1" s="26" t="s">
         <v>176</v>
       </c>
-      <c r="BZ1" s="24" t="s">
+      <c r="BZ1" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="CA1" s="24" t="s">
+      <c r="CA1" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="CB1" s="24" t="s">
+      <c r="CB1" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="CC1" s="24" t="s">
+      <c r="CC1" s="26" t="s">
         <v>180</v>
       </c>
-      <c r="CD1" s="24" t="s">
+      <c r="CD1" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="CE1" s="24" t="s">
+      <c r="CE1" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="CF1" s="24" t="s">
+      <c r="CF1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="CG1" s="24" t="s">
+      <c r="CG1" s="26" t="s">
         <v>184</v>
       </c>
-      <c r="CH1" s="24" t="s">
+      <c r="CH1" s="26" t="s">
         <v>185</v>
       </c>
-      <c r="CI1" s="24" t="s">
+      <c r="CI1" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="CJ1" s="24" t="s">
+      <c r="CJ1" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="CK1" s="24" t="s">
+      <c r="CK1" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="CL1" s="24" t="s">
+      <c r="CL1" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="CM1" s="24" t="s">
+      <c r="CM1" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="CN1" s="24" t="s">
+      <c r="CN1" s="26" t="s">
         <v>191</v>
       </c>
-      <c r="CO1" s="24" t="s">
+      <c r="CO1" s="26" t="s">
         <v>192</v>
       </c>
-      <c r="CP1" s="24" t="s">
+      <c r="CP1" s="26" t="s">
         <v>193</v>
       </c>
-      <c r="CQ1" s="24" t="s">
+      <c r="CQ1" s="26" t="s">
         <v>194</v>
       </c>
-      <c r="CR1" s="24" t="s">
+      <c r="CR1" s="26" t="s">
         <v>195</v>
       </c>
-      <c r="CS1" s="24" t="s">
+      <c r="CS1" s="26" t="s">
         <v>196</v>
       </c>
-      <c r="CT1" s="24" t="s">
+      <c r="CT1" s="26" t="s">
         <v>197</v>
       </c>
-      <c r="CU1" s="24" t="s">
+      <c r="CU1" s="26" t="s">
         <v>198</v>
       </c>
-      <c r="CV1" s="24" t="s">
+      <c r="CV1" s="26" t="s">
         <v>199</v>
       </c>
-      <c r="CW1" s="24" t="s">
+      <c r="CW1" s="26" t="s">
         <v>200</v>
       </c>
-      <c r="CX1" s="24" t="s">
+      <c r="CX1" s="26" t="s">
         <v>201</v>
       </c>
-      <c r="CY1" s="24" t="s">
+      <c r="CY1" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="CZ1" s="24" t="s">
+      <c r="CZ1" s="26" t="s">
         <v>203</v>
       </c>
-      <c r="DA1" s="24" t="s">
+      <c r="DA1" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="DB1" s="24" t="s">
+      <c r="DB1" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="DC1" s="24" t="s">
+      <c r="DC1" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="DD1" s="24" t="s">
+      <c r="DD1" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="DE1" s="24" t="s">
+      <c r="DE1" s="26" t="s">
         <v>208</v>
       </c>
-      <c r="DF1" s="24" t="s">
+      <c r="DF1" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="DG1" s="24" t="s">
+      <c r="DG1" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="DH1" s="24" t="s">
+      <c r="DH1" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="DI1" s="46" t="s">
+      <c r="DI1" s="48" t="s">
         <v>212</v>
       </c>
-      <c r="DJ1" s="24" t="s">
+      <c r="DJ1" s="26" t="s">
         <v>213</v>
       </c>
-      <c r="DK1" s="24" t="s">
+      <c r="DK1" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="DL1" s="24" t="s">
+      <c r="DL1" s="26" t="s">
         <v>215</v>
       </c>
-      <c r="DM1" s="24" t="s">
+      <c r="DM1" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="DN1" s="24" t="s">
+      <c r="DN1" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="DO1" s="24" t="s">
+      <c r="DO1" s="26" t="s">
         <v>218</v>
       </c>
-      <c r="DP1" s="24" t="s">
+      <c r="DP1" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="DQ1" s="24" t="s">
+      <c r="DQ1" s="26" t="s">
         <v>220</v>
       </c>
-      <c r="DR1" s="24" t="s">
+      <c r="DR1" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="DS1" s="24" t="s">
+      <c r="DS1" s="26" t="s">
         <v>222</v>
       </c>
-      <c r="DT1" s="24" t="s">
+      <c r="DT1" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="DU1" s="24" t="s">
+      <c r="DU1" s="26" t="s">
         <v>224</v>
       </c>
-      <c r="DV1" s="24" t="s">
+      <c r="DV1" s="26" t="s">
         <v>225</v>
       </c>
-      <c r="DW1" s="24" t="s">
+      <c r="DW1" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="DX1" s="24" t="s">
+      <c r="DX1" s="26" t="s">
         <v>227</v>
       </c>
-      <c r="DY1" s="24" t="s">
+      <c r="DY1" s="26" t="s">
         <v>228</v>
       </c>
-      <c r="DZ1" s="24" t="s">
+      <c r="DZ1" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="EA1" s="24" t="s">
+      <c r="EA1" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="EB1" s="24" t="s">
+      <c r="EB1" s="26" t="s">
         <v>231</v>
       </c>
-      <c r="EC1" s="24" t="s">
+      <c r="EC1" s="26" t="s">
         <v>232</v>
       </c>
-      <c r="ED1" s="17" t="s">
+      <c r="ED1" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="EE1" s="17" t="s">
+      <c r="EE1" s="19" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:135" s="59" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:135" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="49" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="49" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="48" t="s">
+      <c r="H2" s="50" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="I2" s="50" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="48" t="s">
+      <c r="J2" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="50" t="s">
         <v>243</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="50" t="s">
         <v>244</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="O2" s="36" t="s">
+      <c r="O2" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="50" t="s">
         <v>249</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="51" t="s">
         <v>251</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="50" t="s">
         <v>252</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="W2" s="50" t="s">
+      <c r="W2" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="Y2" s="51" t="s">
+      <c r="Y2" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="Z2" s="51" t="s">
+      <c r="Z2" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="AA2" s="51" t="s">
+      <c r="AA2" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="AB2" s="51" t="s">
+      <c r="AB2" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="AC2" s="51" t="s">
+      <c r="AC2" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="AD2" s="48" t="s">
+      <c r="AD2" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="AE2" s="52" t="s">
+      <c r="AE2" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="AF2" s="22" t="s">
+      <c r="AF2" s="24" t="s">
         <v>260</v>
       </c>
-      <c r="AG2" s="22" t="s">
+      <c r="AG2" s="24" t="s">
         <v>261</v>
       </c>
-      <c r="AH2" s="22" t="s">
+      <c r="AH2" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="AI2" s="22" t="s">
+      <c r="AI2" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="AJ2" s="22" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="AK2" s="22" t="s">
+      <c r="AK2" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="AL2" s="22" t="s">
+      <c r="AL2" s="24" t="s">
         <v>266</v>
       </c>
-      <c r="AM2" s="34" t="s">
+      <c r="AM2" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="AN2" s="22" t="s">
+      <c r="AN2" s="24" t="s">
         <v>268</v>
       </c>
-      <c r="AO2" s="22" t="s">
+      <c r="AO2" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="AP2" s="22" t="s">
+      <c r="AP2" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="AQ2" s="22" t="s">
+      <c r="AQ2" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="AR2" s="22" t="s">
+      <c r="AR2" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="AS2" s="48" t="s">
+      <c r="AS2" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="AT2" s="33"/>
-      <c r="AU2" s="33" t="s">
+      <c r="AT2" s="35"/>
+      <c r="AU2" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="AV2" s="33" t="s">
+      <c r="AV2" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="AW2" s="33" t="s">
+      <c r="AW2" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="AX2" s="53" t="s">
+      <c r="AX2" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="AY2" s="33" t="s">
+      <c r="AY2" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="AZ2" s="48" t="s">
+      <c r="AZ2" s="50" t="s">
         <v>275</v>
       </c>
-      <c r="BA2" s="33" t="s">
+      <c r="BA2" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="BB2" s="33" t="s">
+      <c r="BB2" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="BC2" s="54" t="s">
+      <c r="BC2" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="BD2" s="54" t="s">
+      <c r="BD2" s="56" t="s">
         <v>279</v>
       </c>
-      <c r="BE2" s="33" t="s">
+      <c r="BE2" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="BF2" s="33" t="s">
+      <c r="BF2" s="35" t="s">
         <v>281</v>
       </c>
-      <c r="BG2" s="33" t="s">
+      <c r="BG2" s="35" t="s">
         <v>282</v>
       </c>
-      <c r="BH2" s="33" t="s">
+      <c r="BH2" s="35" t="s">
         <v>280</v>
       </c>
-      <c r="BI2" s="33" t="s">
+      <c r="BI2" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="BJ2" s="33" t="s">
+      <c r="BJ2" s="35" t="s">
         <v>284</v>
       </c>
-      <c r="BK2" s="48" t="s">
+      <c r="BK2" s="50" t="s">
         <v>283</v>
       </c>
-      <c r="BL2" s="48" t="s">
+      <c r="BL2" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="BM2" s="33" t="s">
+      <c r="BM2" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="BN2" s="33" t="s">
+      <c r="BN2" s="35" t="s">
         <v>286</v>
       </c>
-      <c r="BO2" s="34" t="s">
+      <c r="BO2" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="BP2" s="47" t="s">
+      <c r="BP2" s="49" t="s">
         <v>288</v>
       </c>
-      <c r="BQ2" s="48" t="s">
+      <c r="BQ2" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="BR2" s="49" t="s">
+      <c r="BR2" s="51" t="s">
         <v>290</v>
       </c>
-      <c r="BS2" s="51" t="s">
+      <c r="BS2" s="53" t="s">
         <v>291</v>
       </c>
-      <c r="BT2" s="51" t="s">
+      <c r="BT2" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="BU2" s="55" t="s">
+      <c r="BU2" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="BV2" s="54" t="s">
+      <c r="BV2" s="56" t="s">
         <v>293</v>
       </c>
-      <c r="BW2" s="54" t="s">
+      <c r="BW2" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="BX2" s="54" t="s">
+      <c r="BX2" s="56" t="s">
         <v>295</v>
       </c>
-      <c r="BY2" s="54" t="s">
+      <c r="BY2" s="56" t="s">
         <v>296</v>
       </c>
-      <c r="BZ2" s="20" t="s">
+      <c r="BZ2" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="CA2" s="20" t="s">
+      <c r="CA2" s="22" t="s">
         <v>298</v>
       </c>
-      <c r="CB2" s="55" t="s">
+      <c r="CB2" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="CC2" s="55" t="s">
+      <c r="CC2" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="CD2" s="55" t="s">
+      <c r="CD2" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="CE2" s="55" t="s">
+      <c r="CE2" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="CF2" s="55" t="s">
+      <c r="CF2" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="CG2" s="55" t="s">
+      <c r="CG2" s="57" t="s">
         <v>292</v>
       </c>
-      <c r="CH2" s="54" t="s">
+      <c r="CH2" s="56" t="s">
         <v>302</v>
       </c>
-      <c r="CI2" s="54" t="s">
+      <c r="CI2" s="56" t="s">
         <v>303</v>
       </c>
-      <c r="CJ2" s="54" t="s">
+      <c r="CJ2" s="56" t="s">
         <v>304</v>
       </c>
-      <c r="CK2" s="54" t="s">
+      <c r="CK2" s="56" t="s">
         <v>286</v>
       </c>
-      <c r="CL2" s="54" t="s">
+      <c r="CL2" s="56" t="s">
         <v>294</v>
       </c>
-      <c r="CM2" s="54" t="s">
+      <c r="CM2" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="CN2" s="54" t="s">
+      <c r="CN2" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="CO2" s="54" t="s">
+      <c r="CO2" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="CP2" s="54" t="s">
+      <c r="CP2" s="56" t="s">
         <v>308</v>
       </c>
-      <c r="CQ2" s="54" t="s">
+      <c r="CQ2" s="56" t="s">
         <v>309</v>
       </c>
-      <c r="CR2" s="54" t="s">
+      <c r="CR2" s="56" t="s">
         <v>310</v>
       </c>
-      <c r="CS2" s="54" t="s">
+      <c r="CS2" s="56" t="s">
         <v>311</v>
       </c>
-      <c r="CT2" s="54" t="s">
+      <c r="CT2" s="56" t="s">
         <v>312</v>
       </c>
-      <c r="CU2" s="54" t="s">
+      <c r="CU2" s="56" t="s">
         <v>313</v>
       </c>
-      <c r="CV2" s="54" t="s">
+      <c r="CV2" s="56" t="s">
         <v>314</v>
       </c>
-      <c r="CW2" s="54" t="s">
+      <c r="CW2" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="CX2" s="54" t="s">
+      <c r="CX2" s="56" t="s">
         <v>315</v>
       </c>
-      <c r="CY2" s="54" t="s">
+      <c r="CY2" s="56" t="s">
         <v>316</v>
       </c>
-      <c r="CZ2" s="56" t="s">
+      <c r="CZ2" s="58" t="s">
         <v>317</v>
       </c>
-      <c r="DA2" s="54" t="s">
+      <c r="DA2" s="56" t="s">
         <v>318</v>
       </c>
-      <c r="DB2" s="55" t="s">
+      <c r="DB2" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="DC2" s="55" t="s">
+      <c r="DC2" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="DD2" s="55" t="s">
+      <c r="DD2" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="DE2" s="55" t="s">
+      <c r="DE2" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="DF2" s="55"/>
-      <c r="DG2" s="55"/>
-      <c r="DH2" s="55" t="s">
+      <c r="DF2" s="57"/>
+      <c r="DG2" s="57"/>
+      <c r="DH2" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="DI2" s="55" t="s">
+      <c r="DI2" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="DJ2" s="55" t="s">
+      <c r="DJ2" s="57" t="s">
         <v>322</v>
       </c>
-      <c r="DK2" s="55" t="s">
+      <c r="DK2" s="57" t="s">
         <v>323</v>
       </c>
-      <c r="DL2" s="55" t="s">
+      <c r="DL2" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="DM2" s="55" t="s">
+      <c r="DM2" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="DN2" s="55" t="s">
+      <c r="DN2" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="DO2" s="55" t="s">
+      <c r="DO2" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="DP2" s="55" t="s">
+      <c r="DP2" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="DQ2" s="57" t="s">
+      <c r="DQ2" s="59" t="s">
         <v>328</v>
       </c>
-      <c r="DR2" s="55" t="s">
+      <c r="DR2" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="DS2" s="55" t="s">
+      <c r="DS2" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="DT2" s="55" t="s">
+      <c r="DT2" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="DU2" s="55" t="s">
+      <c r="DU2" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="DV2" s="55" t="s">
+      <c r="DV2" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="DW2" s="55" t="s">
+      <c r="DW2" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="DX2" s="55" t="s">
+      <c r="DX2" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="DY2" s="55" t="s">
+      <c r="DY2" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="DZ2" s="55" t="s">
+      <c r="DZ2" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="EA2" s="55" t="s">
+      <c r="EA2" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="EB2" s="55" t="s">
+      <c r="EB2" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="EC2" s="55" t="s">
+      <c r="EC2" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="ED2" s="58" t="s">
+      <c r="ED2" s="60" t="s">
         <v>330</v>
       </c>
-      <c r="EE2" s="58" t="s">
+      <c r="EE2" s="60" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4621,8 +5276,8 @@
   </sheetPr>
   <dimension ref="A1:CL7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="BL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BR2" sqref="BR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4718,533 +5373,533 @@
     <col min="90" max="90" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:90" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="27" t="s">
         <v>339</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>341</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="19" t="s">
         <v>343</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="19" t="s">
         <v>344</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="19" t="s">
         <v>345</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="19" t="s">
         <v>346</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="19" t="s">
         <v>347</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="19" t="s">
         <v>348</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="19" t="s">
         <v>349</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="19" t="s">
         <v>350</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="19" t="s">
         <v>351</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="19" t="s">
         <v>352</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="19" t="s">
         <v>353</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="19" t="s">
         <v>354</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="19" t="s">
         <v>355</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="19" t="s">
         <v>360</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="19" t="s">
         <v>361</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AH1" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AI1" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AK1" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AL1" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AM1" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AN1" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="AO1" s="17" t="s">
+      <c r="AO1" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="AP1" s="17" t="s">
+      <c r="AP1" s="19" t="s">
         <v>370</v>
       </c>
-      <c r="AQ1" s="17" t="s">
+      <c r="AQ1" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AR1" s="19" t="s">
         <v>372</v>
       </c>
-      <c r="AS1" s="17" t="s">
+      <c r="AS1" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="AT1" s="17" t="s">
+      <c r="AT1" s="19" t="s">
         <v>374</v>
       </c>
-      <c r="AU1" s="17" t="s">
+      <c r="AU1" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="AV1" s="17" t="s">
+      <c r="AV1" s="19" t="s">
         <v>376</v>
       </c>
-      <c r="AW1" s="17" t="s">
+      <c r="AW1" s="19" t="s">
         <v>377</v>
       </c>
-      <c r="AX1" s="17" t="s">
+      <c r="AX1" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="AY1" s="17" t="s">
+      <c r="AY1" s="19" t="s">
         <v>379</v>
       </c>
-      <c r="AZ1" s="17" t="s">
+      <c r="AZ1" s="19" t="s">
         <v>380</v>
       </c>
-      <c r="BA1" s="17" t="s">
+      <c r="BA1" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="BB1" s="17" t="s">
+      <c r="BB1" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="BC1" s="17" t="s">
+      <c r="BC1" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="BD1" s="17" t="s">
+      <c r="BD1" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="BE1" s="17" t="s">
+      <c r="BE1" s="19" t="s">
         <v>385</v>
       </c>
-      <c r="BF1" s="17" t="s">
+      <c r="BF1" s="19" t="s">
         <v>386</v>
       </c>
-      <c r="BG1" s="17" t="s">
+      <c r="BG1" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="BH1" s="17" t="s">
+      <c r="BH1" s="19" t="s">
         <v>388</v>
       </c>
-      <c r="BI1" s="17" t="s">
+      <c r="BI1" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="BJ1" s="17" t="s">
+      <c r="BJ1" s="19" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="17" t="s">
+      <c r="BK1" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="BL1" s="17" t="s">
+      <c r="BL1" s="19" t="s">
         <v>392</v>
       </c>
-      <c r="BM1" s="17" t="s">
+      <c r="BM1" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="BN1" s="17" t="s">
+      <c r="BN1" s="19" t="s">
         <v>394</v>
       </c>
-      <c r="BO1" s="17" t="s">
+      <c r="BO1" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="BP1" s="17" t="s">
+      <c r="BP1" s="19" t="s">
         <v>396</v>
       </c>
-      <c r="BQ1" s="17" t="s">
+      <c r="BQ1" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="BR1" s="17" t="s">
+      <c r="BR1" s="19" t="s">
         <v>398</v>
       </c>
-      <c r="BS1" s="17" t="s">
+      <c r="BS1" s="19" t="s">
         <v>399</v>
       </c>
-      <c r="BT1" s="17" t="s">
+      <c r="BT1" s="19" t="s">
         <v>400</v>
       </c>
-      <c r="BU1" s="17" t="s">
+      <c r="BU1" s="19" t="s">
         <v>401</v>
       </c>
-      <c r="BV1" s="17" t="s">
+      <c r="BV1" s="19" t="s">
         <v>402</v>
       </c>
-      <c r="BW1" s="17" t="s">
+      <c r="BW1" s="19" t="s">
         <v>403</v>
       </c>
-      <c r="BX1" s="17" t="s">
+      <c r="BX1" s="19" t="s">
         <v>404</v>
       </c>
-      <c r="BY1" s="17" t="s">
+      <c r="BY1" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="BZ1" s="17" t="s">
+      <c r="BZ1" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="CA1" s="17" t="s">
+      <c r="CA1" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="CB1" s="17" t="s">
+      <c r="CB1" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="CC1" s="17" t="s">
+      <c r="CC1" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="CD1" s="17" t="s">
+      <c r="CD1" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="CE1" s="17" t="s">
+      <c r="CE1" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="CF1" s="17" t="s">
+      <c r="CF1" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="CG1" s="17" t="s">
+      <c r="CG1" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="CH1" s="17" t="s">
+      <c r="CH1" s="19" t="s">
         <v>414</v>
       </c>
-      <c r="CI1" s="17" t="s">
+      <c r="CI1" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="CJ1" s="17" t="s">
+      <c r="CJ1" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="CK1" s="17" t="s">
+      <c r="CK1" s="19" t="s">
         <v>417</v>
       </c>
-      <c r="CL1" s="17" t="s">
+      <c r="CL1" s="19" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:90" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:90" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="73" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="73" t="s">
         <v>420</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="73" t="s">
         <v>421</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="73" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="73" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="73" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="73" t="s">
         <v>329</v>
       </c>
-      <c r="L2" s="70" t="s">
+      <c r="L2" s="73" t="s">
         <v>250</v>
       </c>
-      <c r="M2" s="72" t="s">
+      <c r="M2" s="75" t="s">
         <v>424</v>
       </c>
-      <c r="N2" s="72" t="s">
+      <c r="N2" s="75" t="s">
         <v>425</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="73" t="s">
         <v>426</v>
       </c>
-      <c r="P2" s="41" t="s">
+      <c r="P2" s="43" t="s">
         <v>427</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="29" t="s">
         <v>282</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="T2" s="41" t="s">
+      <c r="T2" s="43" t="s">
         <v>429</v>
       </c>
-      <c r="U2" s="41" t="s">
+      <c r="U2" s="43" t="s">
         <v>426</v>
       </c>
-      <c r="V2" s="70" t="s">
+      <c r="V2" s="73" t="s">
         <v>430</v>
       </c>
-      <c r="W2" s="70" t="s">
+      <c r="W2" s="73" t="s">
         <v>431</v>
       </c>
-      <c r="X2" s="36" t="s">
+      <c r="X2" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="70" t="s">
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="73" t="s">
         <v>241</v>
       </c>
-      <c r="AC2" s="70" t="s">
+      <c r="AC2" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="AD2" s="70" t="s">
+      <c r="AD2" s="73" t="s">
         <v>240</v>
       </c>
-      <c r="AE2" s="70" t="s">
+      <c r="AE2" s="73" t="s">
         <v>433</v>
       </c>
-      <c r="AF2" s="70" t="s">
+      <c r="AF2" s="73" t="s">
         <v>434</v>
       </c>
-      <c r="AG2" s="70" t="s">
+      <c r="AG2" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="AH2" s="70" t="s">
+      <c r="AH2" s="73" t="s">
         <v>435</v>
       </c>
-      <c r="AI2" s="72" t="s">
+      <c r="AI2" s="75" t="s">
         <v>436</v>
       </c>
-      <c r="AJ2" s="72" t="s">
+      <c r="AJ2" s="75" t="s">
         <v>437</v>
       </c>
-      <c r="AK2" s="72" t="s">
+      <c r="AK2" s="75" t="s">
         <v>438</v>
       </c>
-      <c r="AL2" s="72" t="s">
+      <c r="AL2" s="75" t="s">
         <v>438</v>
       </c>
-      <c r="AM2" s="72" t="s">
+      <c r="AM2" s="75" t="s">
         <v>439</v>
       </c>
-      <c r="AN2" s="72" t="s">
+      <c r="AN2" s="75" t="s">
         <v>440</v>
       </c>
-      <c r="AO2" s="72" t="s">
+      <c r="AO2" s="75" t="s">
         <v>441</v>
       </c>
-      <c r="AP2" s="72" t="s">
+      <c r="AP2" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="AQ2" s="72" t="s">
+      <c r="AQ2" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="AR2" s="72" t="s">
+      <c r="AR2" s="75" t="s">
         <v>442</v>
       </c>
-      <c r="AS2" s="72" t="s">
+      <c r="AS2" s="75" t="s">
         <v>443</v>
       </c>
-      <c r="AT2" s="72" t="s">
+      <c r="AT2" s="75" t="s">
         <v>444</v>
       </c>
-      <c r="AU2" s="31"/>
-      <c r="AV2" s="31"/>
-      <c r="AW2" s="72" t="s">
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="75" t="s">
         <v>445</v>
       </c>
-      <c r="AX2" s="72" t="s">
+      <c r="AX2" s="75" t="s">
         <v>440</v>
       </c>
-      <c r="AY2" s="72" t="s">
+      <c r="AY2" s="75" t="s">
         <v>438</v>
       </c>
-      <c r="AZ2" s="22" t="s">
+      <c r="AZ2" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="BA2" s="22" t="s">
+      <c r="BA2" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="BB2" s="43" t="s">
+      <c r="BB2" s="45" t="s">
         <v>448</v>
       </c>
-      <c r="BC2" s="31" t="s">
+      <c r="BC2" s="33" t="s">
         <v>449</v>
       </c>
-      <c r="BD2" s="31" t="s">
+      <c r="BD2" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="BE2" s="31" t="s">
+      <c r="BE2" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="BF2" s="31" t="s">
+      <c r="BF2" s="33" t="s">
         <v>257</v>
       </c>
-      <c r="BG2" s="31" t="s">
+      <c r="BG2" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="BH2" s="31" t="s">
+      <c r="BH2" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="BI2" s="31" t="s">
+      <c r="BI2" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="BJ2" s="31" t="s">
+      <c r="BJ2" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="BK2" s="31" t="s">
+      <c r="BK2" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="BL2" s="31"/>
-      <c r="BM2" s="31" t="s">
+      <c r="BL2" s="33"/>
+      <c r="BM2" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="BN2" s="31" t="s">
+      <c r="BN2" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="BO2" s="31" t="s">
+      <c r="BO2" s="33" t="s">
         <v>429</v>
       </c>
-      <c r="BP2" s="31" t="s">
+      <c r="BP2" s="33" t="s">
         <v>451</v>
       </c>
-      <c r="BQ2" s="31" t="s">
+      <c r="BQ2" s="33" t="s">
         <v>450</v>
       </c>
-      <c r="BR2" s="31" t="s">
+      <c r="BR2" s="33" t="s">
         <v>452</v>
       </c>
-      <c r="BS2" s="31" t="s">
+      <c r="BS2" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="BT2" s="31" t="s">
+      <c r="BT2" s="33" t="s">
         <v>454</v>
       </c>
-      <c r="BU2" s="31" t="s">
+      <c r="BU2" s="33" t="s">
         <v>455</v>
       </c>
-      <c r="BV2" s="31" t="s">
+      <c r="BV2" s="33" t="s">
         <v>456</v>
       </c>
-      <c r="BW2" s="31" t="s">
+      <c r="BW2" s="33" t="s">
         <v>457</v>
       </c>
-      <c r="BX2" s="31" t="s">
+      <c r="BX2" s="33" t="s">
         <v>458</v>
       </c>
-      <c r="BY2" s="31" t="s">
+      <c r="BY2" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="BZ2" s="31" t="s">
+      <c r="BZ2" s="33" t="s">
         <v>427</v>
       </c>
-      <c r="CA2" s="31" t="s">
+      <c r="CA2" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="CB2" s="22" t="s">
+      <c r="CB2" s="24" t="s">
         <v>460</v>
       </c>
-      <c r="CC2" s="31" t="s">
+      <c r="CC2" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="CD2" s="22" t="s">
+      <c r="CD2" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="CE2" s="22" t="s">
+      <c r="CE2" s="24" t="s">
         <v>462</v>
       </c>
-      <c r="CF2" s="22" t="s">
+      <c r="CF2" s="24" t="s">
         <v>463</v>
       </c>
-      <c r="CG2" s="22" t="s">
+      <c r="CG2" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="CH2" s="22" t="s">
+      <c r="CH2" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="CI2" s="31" t="s">
+      <c r="CI2" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="CJ2" s="22"/>
-      <c r="CK2" s="22" t="s">
+      <c r="CJ2" s="24"/>
+      <c r="CK2" s="24" t="s">
         <v>451</v>
       </c>
-      <c r="CL2" s="22" t="s">
+      <c r="CL2" s="24" t="s">
         <v>467</v>
       </c>
     </row>
@@ -5264,8 +5919,8 @@
   </sheetPr>
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AE24" sqref="AE24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5307,281 +5962,281 @@
     <col min="41" max="42" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:50" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="31" t="s">
         <v>469</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="31" t="s">
         <v>470</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>471</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="31" t="s">
         <v>472</v>
       </c>
-      <c r="J1" s="29" t="s">
+      <c r="J1" s="31" t="s">
         <v>473</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="31" t="s">
         <v>474</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="31" t="s">
         <v>475</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="31" t="s">
         <v>476</v>
       </c>
-      <c r="N1" s="29" t="s">
+      <c r="N1" s="31" t="s">
         <v>477</v>
       </c>
-      <c r="O1" s="29" t="s">
+      <c r="O1" s="31" t="s">
         <v>478</v>
       </c>
-      <c r="P1" s="29" t="s">
+      <c r="P1" s="31" t="s">
         <v>479</v>
       </c>
-      <c r="Q1" s="29" t="s">
+      <c r="Q1" s="31" t="s">
         <v>480</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="31" t="s">
         <v>481</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="S1" s="31" t="s">
         <v>482</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="T1" s="31" t="s">
         <v>483</v>
       </c>
-      <c r="U1" s="30" t="s">
+      <c r="U1" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="V1" s="29" t="s">
+      <c r="V1" s="31" t="s">
         <v>485</v>
       </c>
-      <c r="W1" s="29" t="s">
+      <c r="W1" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="31" t="s">
         <v>487</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="31" t="s">
         <v>337</v>
       </c>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="31" t="s">
         <v>488</v>
       </c>
-      <c r="AA1" s="29" t="s">
+      <c r="AA1" s="31" t="s">
         <v>489</v>
       </c>
-      <c r="AB1" s="29" t="s">
+      <c r="AB1" s="31" t="s">
         <v>490</v>
       </c>
-      <c r="AC1" s="29" t="s">
+      <c r="AC1" s="31" t="s">
         <v>491</v>
       </c>
-      <c r="AD1" s="29" t="s">
+      <c r="AD1" s="31" t="s">
         <v>492</v>
       </c>
-      <c r="AE1" s="29" t="s">
+      <c r="AE1" s="31" t="s">
         <v>493</v>
       </c>
-      <c r="AF1" s="29" t="s">
+      <c r="AF1" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="AG1" s="29" t="s">
+      <c r="AG1" s="31" t="s">
         <v>495</v>
       </c>
-      <c r="AH1" s="29" t="s">
+      <c r="AH1" s="31" t="s">
         <v>496</v>
       </c>
-      <c r="AI1" s="29" t="s">
+      <c r="AI1" s="31" t="s">
         <v>497</v>
       </c>
-      <c r="AJ1" s="29" t="s">
+      <c r="AJ1" s="31" t="s">
         <v>498</v>
       </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AK1" s="31" t="s">
         <v>499</v>
       </c>
-      <c r="AL1" s="29" t="s">
+      <c r="AL1" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="AM1" s="29" t="s">
+      <c r="AM1" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="AN1" s="29" t="s">
+      <c r="AN1" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="AO1" s="29" t="s">
+      <c r="AO1" s="31" t="s">
         <v>503</v>
       </c>
-      <c r="AP1" s="29" t="s">
+      <c r="AP1" s="31" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="39" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:50" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="75" t="s">
         <v>505</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="73" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="75" t="s">
         <v>506</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="35" t="s">
         <v>507</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="75" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="J2" s="72" t="s">
+      <c r="J2" s="38" t="s">
         <v>432</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="M2" s="70" t="s">
+      <c r="M2" s="73" t="s">
         <v>428</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="N2" s="38" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="P2" s="35" t="s">
         <v>509</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="75" t="s">
         <v>510</v>
       </c>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="75" t="s">
         <v>509</v>
       </c>
-      <c r="S2" s="72" t="s">
+      <c r="S2" s="75" t="s">
         <v>511</v>
       </c>
-      <c r="T2" s="72" t="s">
+      <c r="T2" s="75" t="s">
         <v>282</v>
       </c>
-      <c r="U2" s="70" t="s">
+      <c r="U2" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="V2" s="72" t="s">
+      <c r="V2" s="75" t="s">
         <v>249</v>
       </c>
-      <c r="W2" s="72" t="s">
+      <c r="W2" s="75" t="s">
         <v>512</v>
       </c>
-      <c r="X2" s="72" t="s">
+      <c r="X2" s="75" t="s">
         <v>509</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="Z2" s="38" t="s">
+      <c r="Z2" s="40" t="s">
         <v>513</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AA2" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="AB2" s="39" t="s">
+      <c r="AB2" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="41" t="s">
         <v>509</v>
       </c>
-      <c r="AE2" s="39" t="s">
+      <c r="AE2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AG2" s="40" t="s">
+      <c r="AG2" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="AH2" s="40" t="s">
+      <c r="AH2" s="42" t="s">
         <v>328</v>
       </c>
-      <c r="AI2" s="39" t="s">
+      <c r="AI2" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="AJ2" s="39" t="s">
+      <c r="AJ2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AK2" s="39" t="s">
+      <c r="AK2" s="41" t="s">
         <v>509</v>
       </c>
-      <c r="AL2" s="39" t="s">
+      <c r="AL2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AM2" s="39" t="s">
+      <c r="AM2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AN2" s="39" t="s">
+      <c r="AN2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AO2" s="39" t="s">
+      <c r="AO2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AP2" s="39" t="s">
+      <c r="AP2" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="AQ2" s="38"/>
-      <c r="AR2" s="38"/>
-      <c r="AS2" s="38"/>
-      <c r="AT2" s="38"/>
-      <c r="AU2" s="38"/>
-      <c r="AV2" s="38"/>
-      <c r="AW2" s="38"/>
-      <c r="AX2" s="38"/>
+      <c r="AQ2" s="40"/>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="40"/>
+      <c r="AU2" s="40"/>
+      <c r="AV2" s="40"/>
+      <c r="AW2" s="40"/>
+      <c r="AX2" s="40"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="3" t="s">
         <v>516</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5592,8 +6247,8 @@
   </sheetPr>
   <dimension ref="A1:AN2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView topLeftCell="T1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5638,233 +6293,245 @@
     <col min="40" max="40" width="6.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="17" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:40" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="19" t="s">
         <v>517</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="19" t="s">
         <v>519</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="19" t="s">
         <v>521</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>522</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>523</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>524</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="19" t="s">
         <v>525</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="19" t="s">
         <v>527</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="19" t="s">
         <v>528</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="19" t="s">
         <v>529</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="19" t="s">
         <v>530</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="19" t="s">
         <v>531</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="19" t="s">
         <v>532</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="19" t="s">
         <v>533</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="19" t="s">
         <v>534</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="19" t="s">
         <v>535</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="19" t="s">
         <v>536</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="19" t="s">
         <v>537</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="19" t="s">
         <v>538</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="19" t="s">
         <v>540</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="19" t="s">
         <v>542</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="19" t="s">
         <v>543</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="19" t="s">
         <v>544</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="19" t="s">
         <v>545</v>
       </c>
-      <c r="AG1" s="17" t="s">
+      <c r="AG1" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="AH1" s="17" t="s">
+      <c r="AH1" s="19" t="s">
         <v>547</v>
       </c>
-      <c r="AI1" s="17" t="s">
+      <c r="AI1" s="19" t="s">
         <v>548</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>549</v>
       </c>
-      <c r="AK1" s="17" t="s">
+      <c r="AK1" s="19" t="s">
         <v>550</v>
       </c>
-      <c r="AL1" s="17" t="s">
+      <c r="AL1" s="19" t="s">
         <v>551</v>
       </c>
-      <c r="AM1" s="17" t="s">
+      <c r="AM1" s="19" t="s">
         <v>552</v>
       </c>
-      <c r="AN1" s="17" t="s">
+      <c r="AN1" s="19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:40" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="73" t="s">
         <v>553</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="73" t="s">
         <v>554</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="73" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="73" t="s">
         <v>463</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="73" t="s">
         <v>555</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="73" t="s">
         <v>556</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="73" t="s">
         <v>557</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="73" t="s">
         <v>558</v>
       </c>
-      <c r="L2" s="72" t="s">
+      <c r="L2" s="75" t="s">
         <v>559</v>
       </c>
-      <c r="M2" s="72" t="s">
+      <c r="M2" s="75" t="s">
         <v>560</v>
       </c>
-      <c r="N2" s="72" t="s">
+      <c r="N2" s="75" t="s">
         <v>329</v>
       </c>
-      <c r="O2" s="72" t="s">
+      <c r="O2" s="75" t="s">
         <v>561</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="75" t="s">
         <v>562</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="75" t="s">
         <v>563</v>
       </c>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="75" t="s">
         <v>564</v>
       </c>
-      <c r="S2" s="72" t="s">
+      <c r="S2" s="75" t="s">
         <v>565</v>
       </c>
-      <c r="T2" s="72" t="s">
+      <c r="T2" s="75" t="s">
         <v>566</v>
       </c>
-      <c r="U2" s="33" t="s">
+      <c r="U2" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="V2" s="72" t="s">
+      <c r="V2" s="75" t="s">
         <v>568</v>
       </c>
-      <c r="W2" s="72" t="s">
+      <c r="W2" s="75" t="s">
         <v>569</v>
       </c>
-      <c r="X2" s="72" t="s">
+      <c r="X2" s="75" t="s">
         <v>570</v>
       </c>
-      <c r="Y2" s="72" t="s">
+      <c r="Y2" s="75" t="s">
         <v>257</v>
       </c>
-      <c r="Z2" s="72">
+      <c r="Z2" s="75">
         <v>50</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="9" t="s">
         <v>571</v>
       </c>
-      <c r="AB2" s="33" t="s">
+      <c r="AB2" s="35" t="s">
         <v>434</v>
       </c>
-      <c r="AC2" s="33" t="s">
+      <c r="AC2" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="AD2" s="33">
+      <c r="AD2" s="35">
         <v>1.65</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AE2" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="AF2" s="33" t="s">
+      <c r="AF2" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
+      <c r="AG2" s="36" t="s">
+        <v>573</v>
+      </c>
+      <c r="AH2" s="36" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI2" s="25"/>
+      <c r="AJ2" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="AK2" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="AL2" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="AM2" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="AN2" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5879,8 +6546,8 @@
   </sheetPr>
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5922,201 +6589,237 @@
     <col min="37" max="37" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="29" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:37" s="31" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="29" t="s">
-        <v>573</v>
-      </c>
-      <c r="E1" s="30" t="s">
+      <c r="D1" s="31" t="s">
+        <v>578</v>
+      </c>
+      <c r="E1" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>574</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>575</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>576</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>577</v>
-      </c>
-      <c r="J1" s="29" t="s">
-        <v>578</v>
-      </c>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="31" t="s">
         <v>579</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="G1" s="31" t="s">
         <v>580</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="H1" s="31" t="s">
         <v>581</v>
       </c>
-      <c r="N1" s="30" t="s">
+      <c r="I1" s="31" t="s">
         <v>582</v>
       </c>
-      <c r="O1" s="30" t="s">
+      <c r="J1" s="31" t="s">
+        <v>583</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="N1" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="O1" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="P1" s="29" t="s">
-        <v>583</v>
-      </c>
-      <c r="Q1" s="29" t="s">
+      <c r="P1" s="31" t="s">
+        <v>588</v>
+      </c>
+      <c r="Q1" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="R1" s="31" t="s">
+        <v>589</v>
+      </c>
+      <c r="S1" s="31" t="s">
+        <v>590</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>591</v>
+      </c>
+      <c r="U1" s="31" t="s">
+        <v>592</v>
+      </c>
+      <c r="V1" s="31" t="s">
+        <v>593</v>
+      </c>
+      <c r="W1" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB1" s="31" t="s">
         <v>584</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="AC1" s="31" t="s">
         <v>585</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="AD1" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="AE1" s="31" t="s">
         <v>586</v>
       </c>
-      <c r="U1" s="29" t="s">
-        <v>587</v>
-      </c>
-      <c r="V1" s="29" t="s">
-        <v>588</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>589</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>591</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>592</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="AB1" s="29" t="s">
-        <v>579</v>
-      </c>
-      <c r="AC1" s="29" t="s">
-        <v>580</v>
-      </c>
-      <c r="AD1" s="29" t="s">
-        <v>594</v>
-      </c>
-      <c r="AE1" s="29" t="s">
-        <v>581</v>
-      </c>
-      <c r="AF1" s="29" t="s">
-        <v>595</v>
-      </c>
-      <c r="AG1" s="29" t="s">
-        <v>596</v>
-      </c>
-      <c r="AH1" s="29" t="s">
-        <v>597</v>
-      </c>
-      <c r="AI1" s="29" t="s">
-        <v>598</v>
-      </c>
-      <c r="AJ1" s="29" t="s">
-        <v>599</v>
-      </c>
-      <c r="AK1" s="29" t="s">
+      <c r="AF1" s="31" t="s">
         <v>600</v>
       </c>
+      <c r="AG1" s="31" t="s">
+        <v>601</v>
+      </c>
+      <c r="AH1" s="31" t="s">
+        <v>602</v>
+      </c>
+      <c r="AI1" s="31" t="s">
+        <v>603</v>
+      </c>
+      <c r="AJ1" s="31" t="s">
+        <v>604</v>
+      </c>
+      <c r="AK1" s="31" t="s">
+        <v>605</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:37" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="73" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="72" t="s">
+      <c r="D2" s="75" t="s">
         <v>445</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="72" t="s">
-        <v>601</v>
-      </c>
-      <c r="G2" s="72" t="s">
-        <v>602</v>
-      </c>
-      <c r="H2" s="72" t="s">
-        <v>603</v>
-      </c>
-      <c r="I2" s="72" t="s">
-        <v>604</v>
-      </c>
-      <c r="J2" s="72" t="s">
-        <v>605</v>
-      </c>
-      <c r="K2" s="64">
+      <c r="F2" s="75" t="s">
+        <v>606</v>
+      </c>
+      <c r="G2" s="75" t="s">
+        <v>607</v>
+      </c>
+      <c r="H2" s="75" t="s">
+        <v>608</v>
+      </c>
+      <c r="I2" s="75" t="s">
+        <v>609</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>610</v>
+      </c>
+      <c r="K2" s="66">
         <v>0.3</v>
       </c>
-      <c r="L2" s="64">
+      <c r="L2" s="66">
         <v>1171049.45</v>
       </c>
-      <c r="M2" s="64">
+      <c r="M2" s="66">
         <v>365</v>
       </c>
-      <c r="N2" s="71">
+      <c r="N2" s="74">
         <v>895.13</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="73" t="s">
         <v>426</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="75" t="s">
         <v>426</v>
       </c>
-      <c r="R2" s="70" t="s">
-        <v>606</v>
-      </c>
-      <c r="S2" s="72" t="s">
+      <c r="R2" s="73" t="s">
+        <v>611</v>
+      </c>
+      <c r="S2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="32"/>
-      <c r="W2" s="32"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="31"/>
+      <c r="T2" s="33" t="s">
+        <v>612</v>
+      </c>
+      <c r="U2" s="33" t="s">
+        <v>613</v>
+      </c>
+      <c r="V2" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="Z2" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="AB2" s="24">
+        <v>1.4</v>
+      </c>
+      <c r="AC2" s="24">
+        <v>95000000</v>
+      </c>
+      <c r="AD2" s="24">
+        <v>28767.119999999999</v>
+      </c>
+      <c r="AE2" s="24">
+        <v>365</v>
+      </c>
+      <c r="AF2" s="33" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG2" s="33" t="s">
+        <v>616</v>
+      </c>
+      <c r="AH2" s="68">
+        <v>33.68000067669842</v>
+      </c>
+      <c r="AI2" s="68">
+        <v>28.986666144465609</v>
+      </c>
+      <c r="AJ2" s="68">
+        <v>37.333333178835993</v>
+      </c>
+      <c r="AK2" s="33" t="s">
+        <v>617</v>
+      </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M3" s="11" t="s">
-        <v>607</v>
-      </c>
-      <c r="N3" s="69">
+      <c r="M3" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="N3" s="72">
         <v>885.3</v>
       </c>
     </row>
@@ -6131,10 +6834,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6161,144 +6864,154 @@
     <col min="20" max="20" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:28" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="17" t="s">
-        <v>608</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>609</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>610</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>611</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>612</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>613</v>
-      </c>
-      <c r="K1" s="17" t="s">
-        <v>614</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>615</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>616</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>617</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="E1" s="19" t="s">
+        <v>619</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>620</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>621</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>622</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>623</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>624</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>625</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>626</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>627</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>628</v>
+      </c>
+      <c r="O1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="17" t="s">
-        <v>618</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>619</v>
-      </c>
-      <c r="R1" s="17" t="s">
-        <v>620</v>
-      </c>
-      <c r="S1" s="17" t="s">
-        <v>621</v>
-      </c>
-      <c r="T1" s="17" t="s">
-        <v>622</v>
-      </c>
+      <c r="P1" s="19" t="s">
+        <v>629</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>630</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>631</v>
+      </c>
+      <c r="S1" s="19" t="s">
+        <v>632</v>
+      </c>
+      <c r="T1" s="19" t="s">
+        <v>633</v>
+      </c>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
     </row>
-    <row r="2" spans="1:20" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+    <row r="2" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="73" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="28" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>623</v>
-      </c>
-      <c r="I2" s="26" t="s">
+      <c r="H2" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="I2" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="28" t="s">
         <v>428</v>
       </c>
-      <c r="M2" s="28" t="s">
+      <c r="M2" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="O2" s="70" t="s">
+      <c r="O2" s="73" t="s">
         <v>454</v>
       </c>
-      <c r="P2" s="70" t="s">
+      <c r="P2" s="73" t="s">
         <v>452</v>
       </c>
-      <c r="Q2" s="70" t="s">
+      <c r="Q2" s="73" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="72" t="s">
+      <c r="R2" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="S2" s="72" t="s">
+      <c r="S2" s="75" t="s">
         <v>432</v>
       </c>
-      <c r="T2" s="70" t="s">
-        <v>624</v>
-      </c>
+      <c r="T2" s="73" t="s">
+        <v>635</v>
+      </c>
+      <c r="U2" s="73"/>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N3" s="11" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E7" s="26"/>
-      <c r="F7" s="2" t="s">
-        <v>756</v>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="N3" s="3" t="s">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -6310,7 +7023,7 @@
   <dimension ref="A1:AG3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6321,7 +7034,7 @@
     <col min="4" max="4" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -6348,182 +7061,182 @@
     <col min="32" max="32" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="17" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:33" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="20" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="20" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>626</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>627</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>628</v>
-      </c>
-      <c r="H1" s="17" t="s">
-        <v>629</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>630</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>631</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>632</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>635</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>636</v>
-      </c>
-      <c r="P1" s="17" t="s">
+      <c r="E1" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="Q1" s="19" t="s">
+      <c r="F1" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>772</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>639</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>641</v>
+      </c>
+      <c r="K1" s="21" t="s">
+        <v>642</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>643</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>644</v>
+      </c>
+      <c r="N1" s="19" t="s">
+        <v>645</v>
+      </c>
+      <c r="O1" s="19" t="s">
+        <v>646</v>
+      </c>
+      <c r="P1" s="19" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="19" t="s">
-        <v>583</v>
-      </c>
-      <c r="S1" s="19" t="s">
-        <v>638</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>639</v>
-      </c>
-      <c r="U1" s="18" t="s">
-        <v>640</v>
-      </c>
-      <c r="V1" s="18" t="s">
-        <v>641</v>
-      </c>
-      <c r="W1" s="18" t="s">
-        <v>590</v>
-      </c>
-      <c r="X1" s="18" t="s">
-        <v>591</v>
-      </c>
-      <c r="Y1" s="18" t="s">
-        <v>592</v>
-      </c>
-      <c r="Z1" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="AA1" s="18" t="s">
-        <v>642</v>
-      </c>
-      <c r="AB1" s="18" t="s">
-        <v>643</v>
-      </c>
-      <c r="AC1" s="18" t="s">
-        <v>644</v>
-      </c>
-      <c r="AD1" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="AE1" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="AF1" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="AG1" s="17" t="s">
+      <c r="R1" s="21" t="s">
+        <v>588</v>
+      </c>
+      <c r="S1" s="21" t="s">
         <v>648</v>
       </c>
+      <c r="T1" s="21" t="s">
+        <v>649</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>650</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>651</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>595</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>652</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>653</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>654</v>
+      </c>
+      <c r="AD1" s="19" t="s">
+        <v>655</v>
+      </c>
+      <c r="AE1" s="19" t="s">
+        <v>656</v>
+      </c>
+      <c r="AF1" s="19" t="s">
+        <v>657</v>
+      </c>
+      <c r="AG1" s="19" t="s">
+        <v>658</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+    <row r="2" spans="1:33" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="73" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="73" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="73" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="73" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="70">
+      <c r="E2" s="73">
         <v>60001816</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="73" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="73" t="s">
         <v>434</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>649</v>
-      </c>
-      <c r="J2" s="72" t="s">
-        <v>650</v>
-      </c>
-      <c r="K2" s="12" t="s">
+      <c r="I2" s="35" t="s">
+        <v>659</v>
+      </c>
+      <c r="J2" s="75" t="s">
+        <v>660</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="L2" s="70" t="s">
-        <v>651</v>
-      </c>
-      <c r="M2" s="20"/>
-      <c r="N2" s="70" t="s">
-        <v>652</v>
-      </c>
-      <c r="O2" s="72" t="s">
-        <v>605</v>
-      </c>
-      <c r="P2" s="72" t="s">
-        <v>605</v>
-      </c>
-      <c r="Q2" s="70" t="s">
+      <c r="L2" s="73" t="s">
+        <v>661</v>
+      </c>
+      <c r="M2" s="22"/>
+      <c r="N2" s="73" t="s">
+        <v>662</v>
+      </c>
+      <c r="O2" s="75" t="s">
+        <v>610</v>
+      </c>
+      <c r="P2" s="75" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q2" s="73" t="s">
         <v>426</v>
       </c>
-      <c r="R2" s="70" t="s">
+      <c r="R2" s="73" t="s">
         <v>426</v>
       </c>
-      <c r="S2" s="70" t="s">
-        <v>654</v>
-      </c>
-      <c r="T2" s="70" t="s">
-        <v>655</v>
-      </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="22"/>
+      <c r="S2" s="73" t="s">
+        <v>663</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>664</v>
+      </c>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+      <c r="AA2" s="24"/>
+      <c r="AB2" s="24"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
+      <c r="AF2" s="24"/>
+      <c r="AG2" s="24"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6538,10 +7251,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:BL5"/>
+  <dimension ref="A1:BL6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6552,7 +7265,7 @@
     <col min="4" max="4" width="28.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20" style="2" bestFit="1" customWidth="1"/>
@@ -6610,629 +7323,908 @@
     <col min="64" max="64" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:64" s="76" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="J1" s="3" t="s">
+      <c r="E1" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>679</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="V1" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="AF1" s="69" t="s">
+        <v>691</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>693</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>695</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="AL1" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="AM1" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="AN1" s="4" t="s">
+        <v>586</v>
+      </c>
+      <c r="AO1" s="4" t="s">
+        <v>697</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="AQ1" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="AS1" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="AT1" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="AU1" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="AV1" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="AW1" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="AX1" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="AY1" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>705</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="BE1" s="4" t="s">
+        <v>710</v>
+      </c>
+      <c r="BF1" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="BG1" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="BH1" s="4" t="s">
+        <v>713</v>
+      </c>
+      <c r="BI1" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="BJ1" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="BK1" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="BL1" s="5" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="2" spans="1:64" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>718</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="18">
+        <v>60001816</v>
+      </c>
+      <c r="F2" s="9">
+        <v>800</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>719</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>727</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="U2" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="V2" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="X2" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y2" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA2" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB2" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="AE2" s="10"/>
+      <c r="AF2" s="70"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
+      <c r="AS2" s="9"/>
+      <c r="AT2" s="75" t="s">
         <v>660</v>
       </c>
-      <c r="K1" s="4" t="s">
-        <v>661</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>662</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>663</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>664</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>665</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>666</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>667</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>668</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>669</v>
-      </c>
-      <c r="T1" s="3" t="s">
-        <v>670</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>671</v>
-      </c>
-      <c r="V1" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>675</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>676</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>677</v>
-      </c>
-      <c r="AB1" s="3" t="s">
-        <v>678</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="AF1" s="67" t="s">
-        <v>682</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>684</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>685</v>
-      </c>
-      <c r="AJ1" s="7" t="s">
-        <v>686</v>
-      </c>
-      <c r="AK1" s="7" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL1" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="AM1" s="3" t="s">
-        <v>580</v>
-      </c>
-      <c r="AN1" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="AO1" s="3" t="s">
-        <v>688</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>689</v>
-      </c>
-      <c r="AQ1" s="4" t="s">
-        <v>690</v>
-      </c>
-      <c r="AR1" s="4" t="s">
-        <v>691</v>
-      </c>
-      <c r="AS1" s="4" t="s">
-        <v>692</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>632</v>
-      </c>
-      <c r="AV1" s="4" t="s">
-        <v>693</v>
-      </c>
-      <c r="AW1" s="4" t="s">
-        <v>694</v>
-      </c>
-      <c r="AX1" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="AY1" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>696</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>697</v>
-      </c>
-      <c r="BB1" s="4" t="s">
-        <v>698</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>699</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>700</v>
-      </c>
-      <c r="BE1" s="3" t="s">
-        <v>701</v>
-      </c>
-      <c r="BF1" s="3" t="s">
-        <v>702</v>
-      </c>
-      <c r="BG1" s="3" t="s">
-        <v>703</v>
-      </c>
-      <c r="BH1" s="3" t="s">
-        <v>704</v>
-      </c>
-      <c r="BI1" s="3" t="s">
-        <v>705</v>
-      </c>
-      <c r="BJ1" s="3" t="s">
-        <v>706</v>
-      </c>
-      <c r="BK1" s="3" t="s">
-        <v>707</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>708</v>
+      <c r="AU2" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="AV2" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="AW2" s="75" t="s">
+        <v>610</v>
+      </c>
+      <c r="AX2" s="9"/>
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9"/>
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="9" t="s">
+        <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="C2" s="16" t="s">
+    <row r="3" spans="1:64" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>742</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E3" s="18">
         <v>60001816</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F3" s="9">
         <v>800</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="G3" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>714</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="I3" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>745</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="P3" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q3" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="S3" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="T3" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="U3" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="W3" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB3" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="15"/>
+      <c r="AM3" s="15"/>
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="71">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="AQ3" s="71">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="AR3" s="71">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="AS3" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="AT3" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="AU3" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="AV3" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="AW3" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="AX3" s="9"/>
+      <c r="AY3" s="9"/>
+      <c r="AZ3" s="9"/>
+      <c r="BA3" s="9"/>
+      <c r="BB3" s="9"/>
+      <c r="BC3" s="9"/>
+      <c r="BD3" s="9"/>
+      <c r="BE3" s="9"/>
+      <c r="BF3" s="9"/>
+      <c r="BG3" s="9"/>
+      <c r="BH3" s="9"/>
+      <c r="BI3" s="9"/>
+      <c r="BJ3" s="9"/>
+      <c r="BK3" s="9"/>
+      <c r="BL3" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="4" spans="1:64" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>753</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="18">
+        <v>60001816</v>
+      </c>
+      <c r="F4" s="9">
+        <v>800</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>754</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>755</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>756</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>757</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>758</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>746</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>762</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="AC4" s="10"/>
+      <c r="AD4" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="9"/>
+      <c r="AH4" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI4" s="9"/>
+      <c r="AJ4" s="9" t="s">
+        <v>764</v>
+      </c>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM4" s="78">
+        <v>1171049.45</v>
+      </c>
+      <c r="AN4" s="18" t="s">
+        <v>463</v>
+      </c>
+      <c r="AO4" s="11">
+        <v>885.51</v>
+      </c>
+      <c r="AP4" s="11"/>
+      <c r="AQ4" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="AR4" s="79">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AS4" s="11"/>
+      <c r="AT4" s="9"/>
+      <c r="AU4" s="9"/>
+      <c r="AV4" s="9"/>
+      <c r="AW4" s="9"/>
+      <c r="AX4" s="9"/>
+      <c r="AY4" s="77"/>
+      <c r="AZ4" s="9"/>
+      <c r="BA4" s="9"/>
+      <c r="BB4" s="9"/>
+      <c r="BC4" s="9"/>
+      <c r="BD4" s="9"/>
+      <c r="BE4" s="9"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="9"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="9"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="9"/>
+      <c r="BL4" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:64" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>743</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="E5" s="73">
+        <v>60001939</v>
+      </c>
+      <c r="F5" s="9">
+        <v>800</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>720</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>721</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>722</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>767</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>725</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>768</v>
+      </c>
+      <c r="S5" s="10" t="s">
+        <v>728</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>729</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="V5" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="Y5" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA5" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB5" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="70"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI5" s="9"/>
+      <c r="AJ5" s="9" t="s">
+        <v>751</v>
+      </c>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="15"/>
+      <c r="AM5" s="15"/>
+      <c r="AN5" s="15"/>
+      <c r="AO5" s="15"/>
+      <c r="AP5" s="71">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="AQ5" s="71">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="AR5" s="71">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="AS5" s="71" t="s">
+        <v>752</v>
+      </c>
+      <c r="AT5" s="16" t="s">
+        <v>660</v>
+      </c>
+      <c r="AU5" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="AV5" s="15" t="s">
+        <v>741</v>
+      </c>
+      <c r="AW5" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="AX5" s="9"/>
+      <c r="AY5" s="9"/>
+      <c r="AZ5" s="9"/>
+      <c r="BA5" s="9"/>
+      <c r="BB5" s="9"/>
+      <c r="BC5" s="9"/>
+      <c r="BD5" s="9"/>
+      <c r="BE5" s="9"/>
+      <c r="BF5" s="9"/>
+      <c r="BG5" s="9"/>
+      <c r="BH5" s="9"/>
+      <c r="BI5" s="9"/>
+      <c r="BJ5" s="9"/>
+      <c r="BK5" s="9"/>
+      <c r="BL5" s="9" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="6" spans="1:64" s="76" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>718</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>718</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="T2" s="9" t="s">
+      <c r="C6" s="18" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="73">
+        <v>60001939</v>
+      </c>
+      <c r="F6" s="9">
+        <v>800</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>720</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="J6" s="9" t="s">
         <v>721</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="K6" s="9" t="s">
         <v>722</v>
       </c>
-      <c r="W2" s="9" t="s">
-        <v>723</v>
-      </c>
-      <c r="X2" s="9" t="s">
+      <c r="L6" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>724</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="N6" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="O6" s="10" t="s">
         <v>726</v>
       </c>
-      <c r="AA2" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="AB2" s="9" t="s">
+      <c r="P6" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>771</v>
+      </c>
+      <c r="S6" s="10" t="s">
         <v>728</v>
       </c>
-      <c r="AC2" s="78"/>
-      <c r="AD2" s="9" t="s">
+      <c r="T6" s="10" t="s">
         <v>729</v>
       </c>
-      <c r="AE2" s="76"/>
-      <c r="AF2" s="77"/>
-      <c r="AG2" s="78"/>
-      <c r="AH2" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="8" t="s">
+      <c r="U6" s="10" t="s">
         <v>730</v>
       </c>
-      <c r="AK2" s="78"/>
-      <c r="AL2" s="78"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="78"/>
-      <c r="AO2" s="78"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="78"/>
-      <c r="AR2" s="78"/>
-      <c r="AS2" s="78"/>
-      <c r="AT2" s="72" t="s">
-        <v>650</v>
-      </c>
-      <c r="AU2" s="12" t="s">
+      <c r="V6" s="10" t="s">
+        <v>731</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>732</v>
+      </c>
+      <c r="X6" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="Y6" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="AA6" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="AB6" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="13"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="75" t="s">
+        <v>660</v>
+      </c>
+      <c r="AU6" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="AV2" s="8" t="s">
-        <v>731</v>
-      </c>
-      <c r="AW2" s="72" t="s">
-        <v>605</v>
-      </c>
-      <c r="AX2" s="78"/>
-      <c r="AY2" s="78"/>
-      <c r="AZ2" s="78"/>
-      <c r="BA2" s="78"/>
-      <c r="BB2" s="78"/>
-      <c r="BC2" s="78"/>
-      <c r="BD2" s="78"/>
-      <c r="BE2" s="78"/>
-      <c r="BF2" s="78"/>
-      <c r="BG2" s="78"/>
-      <c r="BH2" s="78"/>
-      <c r="BI2" s="78"/>
-      <c r="BJ2" s="78"/>
-      <c r="BK2" s="78"/>
-      <c r="BL2" s="8" t="s">
+      <c r="AV6" s="9" t="s">
+        <v>741</v>
+      </c>
+      <c r="AW6" s="75" t="s">
+        <v>610</v>
+      </c>
+      <c r="AX6" s="9"/>
+      <c r="AY6" s="9"/>
+      <c r="AZ6" s="9"/>
+      <c r="BA6" s="9"/>
+      <c r="BB6" s="9"/>
+      <c r="BC6" s="9"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="9"/>
+      <c r="BL6" s="9" t="s">
         <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:64" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>732</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>733</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" s="16">
-        <v>60001816</v>
-      </c>
-      <c r="F3" s="8">
-        <v>800</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>735</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>716</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>736</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>737</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>738</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>740</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>728</v>
-      </c>
-      <c r="AC3" s="78"/>
-      <c r="AD3" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="AE3" s="76"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="78"/>
-      <c r="AH3" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="AI3" s="78"/>
-      <c r="AJ3" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="AK3" s="78"/>
-      <c r="AL3" s="79"/>
-      <c r="AM3" s="79"/>
-      <c r="AN3" s="79"/>
-      <c r="AO3" s="79"/>
-      <c r="AP3" s="68">
-        <v>9.9500000000000005E-3</v>
-      </c>
-      <c r="AQ3" s="68">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="AR3" s="68">
-        <v>2.6450000000000001E-2</v>
-      </c>
-      <c r="AS3" s="68" t="s">
-        <v>742</v>
-      </c>
-      <c r="AT3" s="14" t="s">
-        <v>650</v>
-      </c>
-      <c r="AU3" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="AV3" s="13" t="s">
-        <v>731</v>
-      </c>
-      <c r="AW3" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="AX3" s="78"/>
-      <c r="AY3" s="78"/>
-      <c r="AZ3" s="78"/>
-      <c r="BA3" s="78"/>
-      <c r="BB3" s="78"/>
-      <c r="BC3" s="78"/>
-      <c r="BD3" s="78"/>
-      <c r="BE3" s="78"/>
-      <c r="BF3" s="78"/>
-      <c r="BG3" s="78"/>
-      <c r="BH3" s="78"/>
-      <c r="BI3" s="78"/>
-      <c r="BJ3" s="78"/>
-      <c r="BK3" s="78"/>
-      <c r="BL3" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:64" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="E4" s="16">
-        <v>60001816</v>
-      </c>
-      <c r="F4" s="8">
-        <v>800</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>712</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>717</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="9" t="s">
-        <v>719</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>720</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>721</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>749</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>750</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>752</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>726</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>727</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="9" t="s">
-        <v>729</v>
-      </c>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="78"/>
-      <c r="AH4" s="9" t="s">
-        <v>653</v>
-      </c>
-      <c r="AI4" s="78"/>
-      <c r="AJ4" s="8" t="s">
-        <v>754</v>
-      </c>
-      <c r="AK4" s="78"/>
-      <c r="AL4" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="AM4" s="74">
-        <v>1171049.45</v>
-      </c>
-      <c r="AN4" s="16" t="s">
-        <v>463</v>
-      </c>
-      <c r="AO4" s="10">
-        <v>885.51</v>
-      </c>
-      <c r="AP4" s="81"/>
-      <c r="AQ4" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="AR4" s="75">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AS4" s="81"/>
-      <c r="AT4" s="78"/>
-      <c r="AU4" s="78"/>
-      <c r="AV4" s="78"/>
-      <c r="AW4" s="78"/>
-      <c r="AX4" s="78"/>
-      <c r="AY4" s="82"/>
-      <c r="AZ4" s="78"/>
-      <c r="BA4" s="78"/>
-      <c r="BB4" s="78"/>
-      <c r="BC4" s="78"/>
-      <c r="BD4" s="78"/>
-      <c r="BE4" s="78"/>
-      <c r="BF4" s="78"/>
-      <c r="BG4" s="78"/>
-      <c r="BH4" s="78"/>
-      <c r="BI4" s="78"/>
-      <c r="BJ4" s="78"/>
-      <c r="BK4" s="78"/>
-      <c r="BL4" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="AO5" s="11" t="s">
-        <v>755</v>
-      </c>
-      <c r="AR5" s="11"/>
-      <c r="AU5" s="11" t="s">
-        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D595D078-686E-4112-BD74-134213E41FBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D125070D-77BB-4B6A-AFA8-85D69AB4578C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1205" uniqueCount="821">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="822">
   <si>
     <t>rowid</t>
   </si>
@@ -2507,6 +2507,9 @@
   </si>
   <si>
     <t>140,000.00</t>
+  </si>
+  <si>
+    <t>Base_Rate</t>
   </si>
 </sst>
 </file>
@@ -3888,10 +3891,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3911,9 +3914,10 @@
     <col min="13" max="13" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="80" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
@@ -3959,8 +3963,11 @@
       <c r="O1" s="21" t="s">
         <v>648</v>
       </c>
+      <c r="P1" s="80" t="s">
+        <v>821</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="61" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
         <v>81</v>
       </c>
@@ -4006,8 +4013,11 @@
       <c r="O2" s="73" t="s">
         <v>663</v>
       </c>
+      <c r="P2" s="61" t="s">
+        <v>328</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" s="73"/>
       <c r="D5" s="73"/>
     </row>
@@ -4024,8 +4034,8 @@
   </sheetPr>
   <dimension ref="A1:AL2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6125DBDA-B2B0-4A6D-A76F-3843064FB16F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6A5A8-8106-4972-815A-00A320675F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="891">
   <si>
     <t>rowid</t>
   </si>
@@ -2971,7 +2971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3251,6 +3251,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7484,8 +7487,8 @@
   </sheetPr>
   <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7710,7 +7713,9 @@
       <c r="L2" s="84" t="s">
         <v>679</v>
       </c>
-      <c r="M2" s="22"/>
+      <c r="M2" s="97" t="s">
+        <v>328</v>
+      </c>
       <c r="N2" s="84" t="s">
         <v>680</v>
       </c>
@@ -7815,7 +7820,9 @@
       <c r="L3" s="84" t="s">
         <v>692</v>
       </c>
-      <c r="M3" s="22"/>
+      <c r="M3" s="97" t="s">
+        <v>328</v>
+      </c>
       <c r="N3" s="84" t="s">
         <v>680</v>
       </c>

--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58F6A5A8-8106-4972-815A-00A320675F45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079D984-173B-4598-9A7B-E10009F80FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1471" uniqueCount="891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="898">
   <si>
     <t>rowid</t>
   </si>
@@ -1996,6 +1996,9 @@
     <t>Loan_AccrualEndDate</t>
   </si>
   <si>
+    <t>Borrower_BaseRate</t>
+  </si>
+  <si>
     <t>AcceptRate_FromPricing</t>
   </si>
   <si>
@@ -2104,7 +2107,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>60002094</t>
+    <t>60002126</t>
   </si>
   <si>
     <t>323.82</t>
@@ -2563,6 +2566,9 @@
     <t>InterestCapitalization_Status</t>
   </si>
   <si>
+    <t>InterestCapitalization_Status2</t>
+  </si>
+  <si>
     <t>Paperclip_EffectiveDate</t>
   </si>
   <si>
@@ -2587,6 +2593,12 @@
     <t>Breakfunding_Reason</t>
   </si>
   <si>
+    <t>GLShortName</t>
+  </si>
+  <si>
+    <t>CashFlow_AfterStatus</t>
+  </si>
+  <si>
     <t>SBLC_CycleNumber</t>
   </si>
   <si>
@@ -2644,6 +2656,15 @@
     <t>Borrower Decision</t>
   </si>
   <si>
+    <t>Special Acc't Pay.</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update to </t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -2707,7 +2728,7 @@
     <t>33.3333</t>
   </si>
   <si>
-    <t>Borrower_BaseRate</t>
+    <t>12-Jun-2023</t>
   </si>
 </sst>
 </file>
@@ -2971,7 +2992,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3216,9 +3237,6 @@
     <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3253,8 +3271,14 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3936,16 +3960,16 @@
       <c r="A2" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="96" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="96" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="63" t="s">
@@ -3957,7 +3981,7 @@
       <c r="H2" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="89" t="s">
         <v>88</v>
       </c>
       <c r="J2" s="63" t="s">
@@ -4022,10 +4046,10 @@
       <c r="AG2" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="AH2" s="84" t="s">
+      <c r="AH2" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="AI2" s="84" t="s">
+      <c r="AI2" s="96" t="s">
         <v>90</v>
       </c>
       <c r="AJ2" s="36"/>
@@ -4076,29 +4100,29 @@
       <c r="CC2" s="24"/>
       <c r="CD2" s="24"/>
       <c r="CE2" s="24"/>
-      <c r="CF2" s="84"/>
-      <c r="CG2" s="84"/>
-      <c r="CH2" s="84"/>
-      <c r="CI2" s="84"/>
-      <c r="CJ2" s="84"/>
-      <c r="CK2" s="84"/>
-      <c r="CL2" s="84"/>
-      <c r="CM2" s="84"/>
-      <c r="CN2" s="84"/>
-      <c r="CO2" s="84"/>
-      <c r="CP2" s="84"/>
-      <c r="CQ2" s="84"/>
-      <c r="CR2" s="84"/>
-      <c r="CS2" s="84"/>
-      <c r="CT2" s="84"/>
-      <c r="CU2" s="84"/>
-      <c r="CV2" s="84"/>
-      <c r="CW2" s="84"/>
-      <c r="CX2" s="84"/>
-      <c r="CY2" s="84"/>
-      <c r="CZ2" s="84"/>
-      <c r="DA2" s="84"/>
-      <c r="DB2" s="84"/>
+      <c r="CF2" s="96"/>
+      <c r="CG2" s="96"/>
+      <c r="CH2" s="96"/>
+      <c r="CI2" s="96"/>
+      <c r="CJ2" s="96"/>
+      <c r="CK2" s="96"/>
+      <c r="CL2" s="96"/>
+      <c r="CM2" s="96"/>
+      <c r="CN2" s="96"/>
+      <c r="CO2" s="96"/>
+      <c r="CP2" s="96"/>
+      <c r="CQ2" s="96"/>
+      <c r="CR2" s="96"/>
+      <c r="CS2" s="96"/>
+      <c r="CT2" s="96"/>
+      <c r="CU2" s="96"/>
+      <c r="CV2" s="96"/>
+      <c r="CW2" s="96"/>
+      <c r="CX2" s="96"/>
+      <c r="CY2" s="96"/>
+      <c r="CZ2" s="96"/>
+      <c r="DA2" s="96"/>
+      <c r="DB2" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4148,7 +4172,7 @@
         <v>334</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="E1" s="78" t="s">
         <v>336</v>
@@ -4157,89 +4181,89 @@
         <v>641</v>
       </c>
       <c r="G1" s="78" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H1" s="79" t="s">
         <v>642</v>
       </c>
       <c r="I1" s="80" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="J1" s="80" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="K1" s="77" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="L1" s="77" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="M1" s="77" t="s">
         <v>644</v>
       </c>
       <c r="N1" s="77" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P1" s="77" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="96" t="s">
         <v>421</v>
       </c>
       <c r="D2" s="82" t="s">
         <v>285</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="96" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="84" t="s">
-        <v>675</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>798</v>
-      </c>
-      <c r="H2" s="84" t="s">
+      <c r="F2" s="96" t="s">
+        <v>676</v>
+      </c>
+      <c r="G2" s="96" t="s">
+        <v>799</v>
+      </c>
+      <c r="H2" s="96" t="s">
         <v>238</v>
       </c>
       <c r="I2" s="83">
         <v>3854477.59</v>
       </c>
-      <c r="J2" s="84">
+      <c r="J2" s="96">
         <v>100</v>
       </c>
       <c r="K2" s="82" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="L2" s="82" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="M2" s="82" t="s">
         <v>434</v>
       </c>
       <c r="N2" s="60" t="s">
-        <v>679</v>
-      </c>
-      <c r="O2" s="84" t="s">
-        <v>681</v>
+        <v>680</v>
+      </c>
+      <c r="O2" s="96" t="s">
+        <v>682</v>
       </c>
       <c r="P2" s="60" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4252,10 +4276,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AM2"/>
+  <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4263,7 +4287,7 @@
     <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -4275,29 +4299,31 @@
     <col min="14" max="14" width="23.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" style="2" customWidth="1"/>
+    <col min="18" max="18" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="40.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="26" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4305,192 +4331,225 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>843</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>595</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>842</v>
-      </c>
       <c r="F1" s="26" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H1" s="26" t="s">
+        <v>846</v>
+      </c>
+      <c r="I1" s="26" t="s">
         <v>645</v>
       </c>
-      <c r="I1" s="26" t="s">
-        <v>845</v>
-      </c>
       <c r="J1" s="26" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="M1" s="26" t="s">
+        <v>850</v>
+      </c>
+      <c r="N1" s="26" t="s">
         <v>644</v>
       </c>
-      <c r="N1" s="31" t="s">
+      <c r="O1" s="31" t="s">
         <v>592</v>
       </c>
-      <c r="O1" s="31" t="s">
+      <c r="P1" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="P1" s="31" t="s">
-        <v>849</v>
-      </c>
-      <c r="Q1" s="26" t="s">
-        <v>744</v>
-      </c>
-      <c r="R1" s="26" t="s">
-        <v>850</v>
-      </c>
-      <c r="S1" s="26" t="s">
+      <c r="Q1" s="31" t="s">
         <v>851</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="R1" s="31" t="s">
         <v>852</v>
       </c>
+      <c r="S1" s="31" t="s">
+        <v>853</v>
+      </c>
+      <c r="T1" s="31" t="s">
+        <v>605</v>
+      </c>
       <c r="U1" s="26" t="s">
-        <v>853</v>
+        <v>745</v>
       </c>
       <c r="V1" s="26" t="s">
-        <v>749</v>
+        <v>854</v>
       </c>
       <c r="W1" s="26" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="X1" s="26" t="s">
-        <v>855</v>
-      </c>
-      <c r="Y1" s="31" t="s">
+        <v>856</v>
+      </c>
+      <c r="Y1" s="26" t="s">
+        <v>857</v>
+      </c>
+      <c r="Z1" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="AA1" s="26" t="s">
+        <v>858</v>
+      </c>
+      <c r="AB1" s="26" t="s">
+        <v>859</v>
+      </c>
+      <c r="AC1" s="31" t="s">
         <v>606</v>
       </c>
-      <c r="Z1" s="31" t="s">
+      <c r="AD1" s="31" t="s">
         <v>607</v>
       </c>
-      <c r="AA1" s="31" t="s">
+      <c r="AE1" s="31" t="s">
         <v>608</v>
       </c>
-      <c r="AB1" s="26" t="s">
+      <c r="AF1" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="AC1" s="26" t="s">
-        <v>856</v>
-      </c>
-      <c r="AD1" s="26" t="s">
-        <v>837</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>857</v>
-      </c>
-      <c r="AF1" s="26" t="s">
-        <v>858</v>
-      </c>
       <c r="AG1" s="26" t="s">
-        <v>859</v>
-      </c>
-      <c r="AH1" s="31" t="s">
+        <v>860</v>
+      </c>
+      <c r="AH1" s="26" t="s">
+        <v>838</v>
+      </c>
+      <c r="AI1" s="26" t="s">
+        <v>861</v>
+      </c>
+      <c r="AJ1" s="26" t="s">
+        <v>862</v>
+      </c>
+      <c r="AK1" s="26" t="s">
+        <v>863</v>
+      </c>
+      <c r="AL1" s="31" t="s">
         <v>597</v>
       </c>
-      <c r="AI1" s="31" t="s">
+      <c r="AM1" s="31" t="s">
         <v>598</v>
       </c>
-      <c r="AJ1" s="31" t="s">
+      <c r="AN1" s="31" t="s">
         <v>599</v>
       </c>
-      <c r="AK1" s="31" t="s">
+      <c r="AO1" s="31" t="s">
         <v>600</v>
       </c>
-      <c r="AL1" s="31" t="s">
+      <c r="AP1" s="31" t="s">
         <v>601</v>
       </c>
-      <c r="AM1" s="31" t="s">
+      <c r="AQ1" s="31" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:43" s="30" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="96" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="85" t="s">
-        <v>860</v>
-      </c>
-      <c r="E2" s="85" t="s">
-        <v>691</v>
-      </c>
-      <c r="F2" s="85" t="s">
-        <v>861</v>
-      </c>
-      <c r="G2" s="85" t="s">
-        <v>862</v>
-      </c>
-      <c r="H2" s="86" t="s">
-        <v>863</v>
-      </c>
-      <c r="I2" s="86" t="s">
+      <c r="D2" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="84" t="s">
         <v>864</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="F2" s="84" t="s">
+        <v>692</v>
+      </c>
+      <c r="G2" s="84" t="s">
         <v>865</v>
       </c>
+      <c r="H2" s="84" t="s">
+        <v>866</v>
+      </c>
+      <c r="I2" s="85" t="s">
+        <v>867</v>
+      </c>
+      <c r="J2" s="85" t="s">
+        <v>868</v>
+      </c>
       <c r="K2" s="85" t="s">
+        <v>869</v>
+      </c>
+      <c r="L2" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="L2" s="85" t="s">
-        <v>866</v>
-      </c>
-      <c r="M2" s="85" t="s">
-        <v>867</v>
+      <c r="M2" s="84" t="s">
+        <v>870</v>
       </c>
       <c r="N2" s="84" t="s">
+        <v>871</v>
+      </c>
+      <c r="O2" s="96" t="s">
         <v>426</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="P2" s="96" t="s">
         <v>426</v>
       </c>
-      <c r="P2" s="84" t="s">
-        <v>868</v>
-      </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="Q2" s="96" t="s">
+        <v>872</v>
+      </c>
+      <c r="R2" s="96" t="s">
+        <v>873</v>
+      </c>
+      <c r="S2" s="96" t="s">
+        <v>874</v>
+      </c>
+      <c r="T2" s="37" t="s">
+        <v>897</v>
+      </c>
+      <c r="U2" s="44"/>
       <c r="V2" s="33"/>
       <c r="W2" s="33"/>
       <c r="X2" s="33"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="35"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="24"/>
+      <c r="AD2" s="24"/>
+      <c r="AE2" s="24"/>
       <c r="AF2" s="24"/>
       <c r="AG2" s="33"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="35"/>
       <c r="AJ2" s="24"/>
-      <c r="AK2" s="24"/>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="24"/>
+      <c r="AO2" s="24"/>
+      <c r="AP2" s="24"/>
+      <c r="AQ2" s="24"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="S4" s="97" t="s">
+        <v>875</v>
+      </c>
+      <c r="T4" s="98" t="s">
+        <v>692</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -4501,8 +4560,8 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4543,7 +4602,7 @@
     <col min="34" max="37" width="15" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="89" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="88" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -4551,13 +4610,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>869</v>
+        <v>876</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>334</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F1" s="45" t="s">
         <v>336</v>
@@ -4566,31 +4625,31 @@
         <v>641</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>871</v>
+        <v>878</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>872</v>
-      </c>
-      <c r="L1" s="91" t="s">
+        <v>879</v>
+      </c>
+      <c r="L1" s="90" t="s">
         <v>107</v>
       </c>
       <c r="M1" s="31" t="s">
-        <v>873</v>
+        <v>880</v>
       </c>
       <c r="N1" s="31" t="s">
-        <v>874</v>
+        <v>881</v>
       </c>
       <c r="O1" s="31" t="s">
-        <v>875</v>
+        <v>882</v>
       </c>
       <c r="P1" s="31" t="s">
-        <v>876</v>
+        <v>883</v>
       </c>
       <c r="Q1" s="26" t="s">
         <v>606</v>
@@ -4611,89 +4670,89 @@
         <v>602</v>
       </c>
       <c r="W1" s="26" t="s">
-        <v>877</v>
-      </c>
-      <c r="X1" s="87" t="s">
+        <v>884</v>
+      </c>
+      <c r="X1" s="86" t="s">
         <v>593</v>
       </c>
       <c r="Y1" s="31" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="Z1" s="31" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="AA1" s="31" t="s">
-        <v>726</v>
-      </c>
-      <c r="AB1" s="88" t="s">
+        <v>727</v>
+      </c>
+      <c r="AB1" s="87" t="s">
         <v>338</v>
       </c>
-      <c r="AC1" s="88" t="s">
-        <v>878</v>
-      </c>
-      <c r="AD1" s="88" t="s">
+      <c r="AC1" s="87" t="s">
+        <v>885</v>
+      </c>
+      <c r="AD1" s="87" t="s">
         <v>592</v>
       </c>
-      <c r="AE1" s="88" t="s">
+      <c r="AE1" s="87" t="s">
         <v>167</v>
       </c>
       <c r="AF1" s="31" t="s">
-        <v>877</v>
+        <v>884</v>
       </c>
       <c r="AG1" s="31" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AH1" s="31" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AI1" s="31" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2" spans="1:35" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="89" t="s">
         <v>285</v>
       </c>
       <c r="D2" s="24"/>
-      <c r="E2" s="90" t="s">
-        <v>879</v>
+      <c r="E2" s="89" t="s">
+        <v>886</v>
       </c>
       <c r="F2" s="24"/>
-      <c r="G2" t="s">
-        <v>798</v>
-      </c>
-      <c r="H2" s="90" t="s">
+      <c r="G2" s="94" t="s">
+        <v>799</v>
+      </c>
+      <c r="H2" s="89" t="s">
         <v>574</v>
       </c>
-      <c r="I2" s="90" t="s">
+      <c r="I2" s="89" t="s">
         <v>270</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>427</v>
       </c>
-      <c r="K2" s="85" t="s">
-        <v>880</v>
-      </c>
-      <c r="L2" s="85" t="s">
-        <v>881</v>
-      </c>
-      <c r="M2" s="85" t="s">
-        <v>882</v>
-      </c>
-      <c r="N2" s="85" t="s">
-        <v>883</v>
-      </c>
-      <c r="O2" s="85" t="s">
-        <v>884</v>
-      </c>
-      <c r="P2" s="92" t="s">
-        <v>885</v>
+      <c r="K2" s="84" t="s">
+        <v>887</v>
+      </c>
+      <c r="L2" s="84" t="s">
+        <v>888</v>
+      </c>
+      <c r="M2" s="84" t="s">
+        <v>889</v>
+      </c>
+      <c r="N2" s="84" t="s">
+        <v>890</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>891</v>
+      </c>
+      <c r="P2" s="91" t="s">
+        <v>892</v>
       </c>
       <c r="Q2" s="35" t="s">
         <v>308</v>
@@ -4715,16 +4774,16 @@
       </c>
       <c r="W2" s="35"/>
       <c r="X2" s="33" t="s">
-        <v>886</v>
+        <v>893</v>
       </c>
       <c r="Y2" s="35" t="s">
         <v>270</v>
       </c>
       <c r="Z2" s="35" t="s">
-        <v>887</v>
+        <v>894</v>
       </c>
       <c r="AA2" s="35" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="AB2" s="24" t="s">
         <v>513</v>
@@ -4739,16 +4798,16 @@
         <v>451</v>
       </c>
       <c r="AF2" s="33" t="s">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="AG2" s="24" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="AH2" s="24" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
       <c r="AI2" s="24" t="s">
-        <v>889</v>
+        <v>896</v>
       </c>
     </row>
   </sheetData>
@@ -4764,8 +4823,8 @@
   </sheetPr>
   <dimension ref="A1:EE2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="DK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="DQ2" sqref="DQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5313,10 +5372,10 @@
       </c>
     </row>
     <row r="2" spans="1:135" s="60" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>235</v>
       </c>
       <c r="C2" s="48" t="s">
@@ -5364,7 +5423,7 @@
       <c r="Q2" s="49" t="s">
         <v>249</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="R2" s="96" t="s">
         <v>250</v>
       </c>
       <c r="S2" s="50" t="s">
@@ -5448,29 +5507,29 @@
       <c r="AS2" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="AT2" s="90"/>
-      <c r="AU2" s="90" t="s">
+      <c r="AT2" s="89"/>
+      <c r="AU2" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="AV2" s="90" t="s">
+      <c r="AV2" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="AW2" s="90" t="s">
+      <c r="AW2" s="89" t="s">
         <v>90</v>
       </c>
       <c r="AX2" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="AY2" s="90" t="s">
+      <c r="AY2" s="89" t="s">
         <v>274</v>
       </c>
       <c r="AZ2" s="49" t="s">
         <v>275</v>
       </c>
-      <c r="BA2" s="90" t="s">
+      <c r="BA2" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="BB2" s="90" t="s">
+      <c r="BB2" s="89" t="s">
         <v>277</v>
       </c>
       <c r="BC2" s="55" t="s">
@@ -5479,22 +5538,22 @@
       <c r="BD2" s="55" t="s">
         <v>279</v>
       </c>
-      <c r="BE2" s="90" t="s">
+      <c r="BE2" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="BF2" s="90" t="s">
+      <c r="BF2" s="89" t="s">
         <v>281</v>
       </c>
-      <c r="BG2" s="90" t="s">
+      <c r="BG2" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="BH2" s="90" t="s">
+      <c r="BH2" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="BI2" s="90" t="s">
+      <c r="BI2" s="89" t="s">
         <v>283</v>
       </c>
-      <c r="BJ2" s="90" t="s">
+      <c r="BJ2" s="89" t="s">
         <v>284</v>
       </c>
       <c r="BK2" s="49" t="s">
@@ -5503,10 +5562,10 @@
       <c r="BL2" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="BM2" s="90" t="s">
+      <c r="BM2" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="BN2" s="90" t="s">
+      <c r="BN2" s="89" t="s">
         <v>286</v>
       </c>
       <c r="BO2" s="35" t="s">
@@ -5729,8 +5788,8 @@
   </sheetPr>
   <dimension ref="A1:CL7"/>
   <sheetViews>
-    <sheetView topLeftCell="BL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BR2" sqref="BR2"/>
+    <sheetView topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6099,49 +6158,49 @@
       </c>
     </row>
     <row r="2" spans="1:90" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="96" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="96" t="s">
         <v>420</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="96" t="s">
         <v>421</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="96" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="96" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="96" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="96" t="s">
         <v>329</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="96" t="s">
         <v>250</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="N2" s="85" t="s">
+      <c r="N2" s="84" t="s">
         <v>425</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="96" t="s">
         <v>426</v>
       </c>
       <c r="P2" s="42" t="s">
@@ -6162,10 +6221,10 @@
       <c r="U2" s="42" t="s">
         <v>426</v>
       </c>
-      <c r="V2" s="84" t="s">
+      <c r="V2" s="96" t="s">
         <v>430</v>
       </c>
-      <c r="W2" s="84" t="s">
+      <c r="W2" s="96" t="s">
         <v>431</v>
       </c>
       <c r="X2" s="37" t="s">
@@ -6174,72 +6233,72 @@
       <c r="Y2" s="33"/>
       <c r="Z2" s="33"/>
       <c r="AA2" s="43"/>
-      <c r="AB2" s="84" t="s">
+      <c r="AB2" s="96" t="s">
         <v>241</v>
       </c>
-      <c r="AC2" s="84" t="s">
+      <c r="AC2" s="96" t="s">
         <v>277</v>
       </c>
-      <c r="AD2" s="84" t="s">
+      <c r="AD2" s="96" t="s">
         <v>240</v>
       </c>
-      <c r="AE2" s="84" t="s">
+      <c r="AE2" s="96" t="s">
         <v>433</v>
       </c>
-      <c r="AF2" s="84" t="s">
+      <c r="AF2" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="AG2" s="84" t="s">
+      <c r="AG2" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="AH2" s="84" t="s">
+      <c r="AH2" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="AI2" s="85" t="s">
+      <c r="AI2" s="84" t="s">
         <v>436</v>
       </c>
-      <c r="AJ2" s="85" t="s">
+      <c r="AJ2" s="84" t="s">
         <v>437</v>
       </c>
-      <c r="AK2" s="85" t="s">
+      <c r="AK2" s="84" t="s">
         <v>438</v>
       </c>
-      <c r="AL2" s="85" t="s">
+      <c r="AL2" s="84" t="s">
         <v>438</v>
       </c>
-      <c r="AM2" s="85" t="s">
+      <c r="AM2" s="84" t="s">
         <v>439</v>
       </c>
-      <c r="AN2" s="85" t="s">
+      <c r="AN2" s="84" t="s">
         <v>440</v>
       </c>
-      <c r="AO2" s="85" t="s">
+      <c r="AO2" s="84" t="s">
         <v>441</v>
       </c>
-      <c r="AP2" s="85" t="s">
+      <c r="AP2" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="AQ2" s="85" t="s">
+      <c r="AQ2" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="AR2" s="85" t="s">
+      <c r="AR2" s="84" t="s">
         <v>442</v>
       </c>
-      <c r="AS2" s="85" t="s">
+      <c r="AS2" s="84" t="s">
         <v>443</v>
       </c>
-      <c r="AT2" s="85" t="s">
+      <c r="AT2" s="84" t="s">
         <v>444</v>
       </c>
       <c r="AU2" s="33"/>
       <c r="AV2" s="33"/>
-      <c r="AW2" s="85" t="s">
+      <c r="AW2" s="84" t="s">
         <v>445</v>
       </c>
-      <c r="AX2" s="85" t="s">
+      <c r="AX2" s="84" t="s">
         <v>440</v>
       </c>
-      <c r="AY2" s="85" t="s">
+      <c r="AY2" s="84" t="s">
         <v>438</v>
       </c>
       <c r="AZ2" s="24" t="s">
@@ -6372,8 +6431,8 @@
   </sheetPr>
   <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Z2"/>
+    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH2" sqref="AH2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6544,28 +6603,28 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="40" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="84" t="s">
         <v>505</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="96" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="96" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="84" t="s">
         <v>506</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="89" t="s">
         <v>507</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="84" t="s">
         <v>270</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -6580,40 +6639,40 @@
       <c r="L2" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="96" t="s">
         <v>428</v>
       </c>
       <c r="N2" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="90" t="s">
+      <c r="O2" s="89" t="s">
         <v>285</v>
       </c>
-      <c r="P2" s="90" t="s">
+      <c r="P2" s="89" t="s">
         <v>509</v>
       </c>
-      <c r="Q2" s="85" t="s">
+      <c r="Q2" s="84" t="s">
         <v>510</v>
       </c>
-      <c r="R2" s="85" t="s">
+      <c r="R2" s="84" t="s">
         <v>509</v>
       </c>
-      <c r="S2" s="85" t="s">
+      <c r="S2" s="84" t="s">
         <v>511</v>
       </c>
-      <c r="T2" s="85" t="s">
+      <c r="T2" s="84" t="s">
         <v>282</v>
       </c>
-      <c r="U2" s="84" t="s">
+      <c r="U2" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="V2" s="85" t="s">
+      <c r="V2" s="84" t="s">
         <v>249</v>
       </c>
-      <c r="W2" s="85" t="s">
+      <c r="W2" s="84" t="s">
         <v>512</v>
       </c>
-      <c r="X2" s="85" t="s">
+      <c r="X2" s="84" t="s">
         <v>509</v>
       </c>
       <c r="Y2" s="38" t="s">
@@ -6878,103 +6937,103 @@
       <c r="A2" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="96" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="96" t="s">
         <v>555</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="96" t="s">
         <v>556</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="96" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="96" t="s">
         <v>463</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="96" t="s">
         <v>557</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="96" t="s">
         <v>558</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="96" t="s">
         <v>559</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="96" t="s">
         <v>560</v>
       </c>
-      <c r="L2" s="85" t="s">
+      <c r="L2" s="84" t="s">
         <v>561</v>
       </c>
-      <c r="M2" s="85" t="s">
+      <c r="M2" s="84" t="s">
         <v>562</v>
       </c>
-      <c r="N2" s="85" t="s">
+      <c r="N2" s="84" t="s">
         <v>329</v>
       </c>
-      <c r="O2" s="85" t="s">
+      <c r="O2" s="84" t="s">
         <v>563</v>
       </c>
-      <c r="P2" s="85" t="s">
+      <c r="P2" s="84" t="s">
         <v>564</v>
       </c>
-      <c r="Q2" s="85" t="s">
+      <c r="Q2" s="84" t="s">
         <v>565</v>
       </c>
-      <c r="R2" s="85" t="s">
+      <c r="R2" s="84" t="s">
         <v>566</v>
       </c>
-      <c r="S2" s="85" t="s">
+      <c r="S2" s="84" t="s">
         <v>567</v>
       </c>
-      <c r="T2" s="85" t="s">
+      <c r="T2" s="84" t="s">
         <v>568</v>
       </c>
-      <c r="U2" s="90" t="s">
+      <c r="U2" s="89" t="s">
         <v>569</v>
       </c>
-      <c r="V2" s="85" t="s">
+      <c r="V2" s="84" t="s">
         <v>570</v>
       </c>
-      <c r="W2" s="85" t="s">
+      <c r="W2" s="84" t="s">
         <v>571</v>
       </c>
-      <c r="X2" s="85" t="s">
+      <c r="X2" s="84" t="s">
         <v>572</v>
       </c>
-      <c r="Y2" s="85" t="s">
+      <c r="Y2" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="Z2" s="85">
+      <c r="Z2" s="84">
         <v>50</v>
       </c>
       <c r="AA2" s="9" t="s">
         <v>573</v>
       </c>
-      <c r="AB2" s="90" t="s">
+      <c r="AB2" s="89" t="s">
         <v>434</v>
       </c>
-      <c r="AC2" s="90" t="s">
+      <c r="AC2" s="89" t="s">
         <v>463</v>
       </c>
-      <c r="AD2" s="90">
+      <c r="AD2" s="89">
         <v>1.65</v>
       </c>
-      <c r="AE2" s="90" t="s">
+      <c r="AE2" s="89" t="s">
         <v>569</v>
       </c>
-      <c r="AF2" s="90" t="s">
+      <c r="AF2" s="89" t="s">
         <v>574</v>
       </c>
-      <c r="AG2" s="90" t="s">
+      <c r="AG2" s="89" t="s">
         <v>575</v>
       </c>
-      <c r="AH2" s="90" t="s">
+      <c r="AH2" s="89" t="s">
         <v>576</v>
       </c>
       <c r="AI2" s="35" t="s">
@@ -7011,8 +7070,8 @@
   </sheetPr>
   <dimension ref="A1:AK3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView topLeftCell="Z1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AK1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7167,35 +7226,35 @@
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:37" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="96" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="84" t="s">
         <v>445</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="96" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="84" t="s">
         <v>610</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="84" t="s">
         <v>611</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="84" t="s">
         <v>612</v>
       </c>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="84" t="s">
         <v>613</v>
       </c>
-      <c r="J2" s="85" t="s">
+      <c r="J2" s="84" t="s">
         <v>614</v>
       </c>
       <c r="K2" s="65">
@@ -7210,19 +7269,19 @@
       <c r="N2" s="72">
         <v>875.27</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="96" t="s">
         <v>426</v>
       </c>
-      <c r="Q2" s="85" t="s">
+      <c r="Q2" s="84" t="s">
         <v>426</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="R2" s="96" t="s">
         <v>615</v>
       </c>
-      <c r="S2" s="85" t="s">
+      <c r="S2" s="84" t="s">
         <v>81</v>
       </c>
       <c r="T2" s="33" t="s">
@@ -7400,16 +7459,16 @@
       <c r="AB1" s="19"/>
     </row>
     <row r="2" spans="1:28" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="96" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="96" t="s">
         <v>423</v>
       </c>
       <c r="E2" s="28" t="s">
@@ -7442,32 +7501,32 @@
       <c r="N2" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="96" t="s">
         <v>454</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="96" t="s">
         <v>452</v>
       </c>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="85" t="s">
+      <c r="R2" s="84" t="s">
         <v>432</v>
       </c>
-      <c r="S2" s="85" t="s">
+      <c r="S2" s="84" t="s">
         <v>432</v>
       </c>
-      <c r="T2" s="84" t="s">
+      <c r="T2" s="96" t="s">
         <v>639</v>
       </c>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="N3" s="3" t="s">
@@ -7487,8 +7546,8 @@
   </sheetPr>
   <dimension ref="A1:AS8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7595,52 +7654,52 @@
         <v>592</v>
       </c>
       <c r="S1" s="21" t="s">
-        <v>890</v>
+        <v>653</v>
       </c>
       <c r="T1" s="21" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="U1" s="21" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="V1" s="21" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="W1" s="21" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="X1" s="21" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="Y1" s="21" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="Z1" s="21" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="AA1" s="21" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="AC1" s="21" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AD1" s="21" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="AE1" s="21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="AF1" s="21" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="AG1" s="20" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AH1" s="20" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="AI1" s="20" t="s">
         <v>599</v>
@@ -7655,119 +7714,119 @@
         <v>602</v>
       </c>
       <c r="AM1" s="20" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="AN1" s="20" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="AO1" s="20" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="AP1" s="19" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AQ1" s="19" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AR1" s="19" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="AS1" s="19" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" spans="1:45" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="96" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="96" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="84" t="s">
-        <v>675</v>
-      </c>
-      <c r="F2" s="84" t="s">
+      <c r="E2" s="96" t="s">
+        <v>676</v>
+      </c>
+      <c r="F2" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="96" t="s">
         <v>285</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="I2" s="90" t="s">
-        <v>676</v>
-      </c>
-      <c r="J2" s="85" t="s">
+      <c r="I2" s="89" t="s">
         <v>677</v>
       </c>
+      <c r="J2" s="84" t="s">
+        <v>678</v>
+      </c>
       <c r="K2" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="L2" s="84" t="s">
         <v>679</v>
       </c>
-      <c r="M2" s="97" t="s">
+      <c r="L2" s="96" t="s">
+        <v>680</v>
+      </c>
+      <c r="M2" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="N2" s="84" t="s">
-        <v>680</v>
-      </c>
-      <c r="O2" s="85" t="s">
+      <c r="N2" s="96" t="s">
+        <v>681</v>
+      </c>
+      <c r="O2" s="84" t="s">
         <v>614</v>
       </c>
-      <c r="P2" s="85" t="s">
+      <c r="P2" s="84" t="s">
         <v>614</v>
       </c>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="96" t="s">
         <v>426</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="R2" s="96" t="s">
         <v>426</v>
       </c>
-      <c r="S2" s="84" t="s">
+      <c r="S2" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="T2" s="84" t="s">
-        <v>681</v>
-      </c>
-      <c r="U2" s="84" t="s">
+      <c r="T2" s="96" t="s">
         <v>682</v>
+      </c>
+      <c r="U2" s="96" t="s">
+        <v>683</v>
       </c>
       <c r="V2" s="23"/>
       <c r="W2" s="23"/>
-      <c r="X2" s="90" t="s">
-        <v>676</v>
-      </c>
-      <c r="Y2" s="90" t="s">
-        <v>676</v>
-      </c>
-      <c r="Z2" s="90" t="s">
-        <v>676</v>
-      </c>
-      <c r="AA2" s="90" t="s">
-        <v>676</v>
-      </c>
-      <c r="AB2" s="94" t="s">
-        <v>683</v>
-      </c>
-      <c r="AC2" s="94" t="s">
+      <c r="X2" s="89" t="s">
+        <v>677</v>
+      </c>
+      <c r="Y2" s="89" t="s">
+        <v>677</v>
+      </c>
+      <c r="Z2" s="89" t="s">
+        <v>677</v>
+      </c>
+      <c r="AA2" s="89" t="s">
+        <v>677</v>
+      </c>
+      <c r="AB2" s="93" t="s">
         <v>684</v>
       </c>
-      <c r="AD2" s="96" t="s">
+      <c r="AC2" s="93" t="s">
         <v>685</v>
       </c>
-      <c r="AE2" s="96" t="s">
+      <c r="AD2" s="95" t="s">
         <v>686</v>
       </c>
-      <c r="AF2" s="96" t="s">
+      <c r="AE2" s="95" t="s">
         <v>687</v>
+      </c>
+      <c r="AF2" s="95" t="s">
+        <v>688</v>
       </c>
       <c r="AG2" s="23"/>
       <c r="AH2" s="23"/>
@@ -7784,101 +7843,101 @@
       <c r="AS2" s="24"/>
     </row>
     <row r="3" spans="1:45" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
-        <v>688</v>
-      </c>
-      <c r="B3" s="84" t="s">
+      <c r="A3" s="96" t="s">
+        <v>689</v>
+      </c>
+      <c r="B3" s="96" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="96" t="s">
         <v>421</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="96" t="s">
         <v>423</v>
       </c>
-      <c r="E3" s="84" t="s">
-        <v>689</v>
-      </c>
-      <c r="F3" s="84" t="s">
+      <c r="E3" s="96" t="s">
+        <v>690</v>
+      </c>
+      <c r="F3" s="96" t="s">
         <v>238</v>
       </c>
-      <c r="G3" s="84" t="s">
+      <c r="G3" s="96" t="s">
         <v>285</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="96" t="s">
         <v>434</v>
       </c>
-      <c r="I3" s="90" t="s">
-        <v>690</v>
-      </c>
-      <c r="J3" s="85" t="s">
+      <c r="I3" s="89" t="s">
         <v>691</v>
       </c>
+      <c r="J3" s="84" t="s">
+        <v>692</v>
+      </c>
       <c r="K3" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="L3" s="84" t="s">
-        <v>692</v>
-      </c>
-      <c r="M3" s="97" t="s">
+        <v>679</v>
+      </c>
+      <c r="L3" s="96" t="s">
+        <v>693</v>
+      </c>
+      <c r="M3" s="96" t="s">
         <v>328</v>
       </c>
-      <c r="N3" s="84" t="s">
-        <v>680</v>
-      </c>
-      <c r="O3" s="85" t="s">
+      <c r="N3" s="96" t="s">
+        <v>681</v>
+      </c>
+      <c r="O3" s="84" t="s">
+        <v>694</v>
+      </c>
+      <c r="P3" s="84" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q3" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="R3" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="S3" s="96" t="s">
+        <v>328</v>
+      </c>
+      <c r="T3" s="96" t="s">
+        <v>682</v>
+      </c>
+      <c r="U3" s="96" t="s">
+        <v>683</v>
+      </c>
+      <c r="V3" s="96" t="s">
+        <v>695</v>
+      </c>
+      <c r="W3" s="96" t="s">
+        <v>696</v>
+      </c>
+      <c r="X3" s="89" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y3" s="89" t="s">
+        <v>691</v>
+      </c>
+      <c r="Z3" s="89" t="s">
+        <v>691</v>
+      </c>
+      <c r="AA3" s="89" t="s">
+        <v>691</v>
+      </c>
+      <c r="AB3" s="93" t="s">
+        <v>684</v>
+      </c>
+      <c r="AC3" s="96" t="s">
         <v>693</v>
       </c>
-      <c r="P3" s="85" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q3" s="84" t="s">
-        <v>426</v>
-      </c>
-      <c r="R3" s="84" t="s">
-        <v>426</v>
-      </c>
-      <c r="S3" s="84" t="s">
-        <v>328</v>
-      </c>
-      <c r="T3" s="84" t="s">
-        <v>681</v>
-      </c>
-      <c r="U3" s="84" t="s">
-        <v>682</v>
-      </c>
-      <c r="V3" s="84" t="s">
-        <v>694</v>
-      </c>
-      <c r="W3" s="84" t="s">
-        <v>695</v>
-      </c>
-      <c r="X3" s="90" t="s">
-        <v>690</v>
-      </c>
-      <c r="Y3" s="90" t="s">
-        <v>690</v>
-      </c>
-      <c r="Z3" s="90" t="s">
-        <v>690</v>
-      </c>
-      <c r="AA3" s="90" t="s">
-        <v>690</v>
-      </c>
-      <c r="AB3" s="94" t="s">
-        <v>683</v>
-      </c>
-      <c r="AC3" s="84" t="s">
-        <v>692</v>
-      </c>
-      <c r="AD3" s="85" t="s">
-        <v>696</v>
-      </c>
-      <c r="AE3" s="96" t="s">
-        <v>686</v>
-      </c>
-      <c r="AF3" s="85" t="s">
+      <c r="AD3" s="84" t="s">
         <v>697</v>
+      </c>
+      <c r="AE3" s="95" t="s">
+        <v>687</v>
+      </c>
+      <c r="AF3" s="84" t="s">
+        <v>698</v>
       </c>
       <c r="AG3" s="23"/>
       <c r="AH3" s="23"/>
@@ -7912,8 +7971,8 @@
   </sheetPr>
   <dimension ref="A1:BL10"/>
   <sheetViews>
-    <sheetView topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+    <sheetView topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AW10" sqref="AW10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7999,100 +8058,100 @@
         <v>641</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AB1" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="AC1" s="7" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="AD1" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AE1" s="7" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AF1" s="68" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="AG1" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="AH1" s="4" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="AI1" s="4" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="AJ1" s="8" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AK1" s="8" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="AL1" s="8" t="s">
         <v>582</v>
@@ -8104,19 +8163,19 @@
         <v>590</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AT1" s="5" t="s">
         <v>646</v>
@@ -8125,55 +8184,55 @@
         <v>647</v>
       </c>
       <c r="AV1" s="5" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="AW1" s="5" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="AX1" s="5" t="s">
         <v>651</v>
       </c>
       <c r="AY1" s="5" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="AZ1" s="4" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BA1" s="5" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="BB1" s="5" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="BC1" s="4" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="BD1" s="4" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="BE1" s="4" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="BF1" s="4" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="BG1" s="4" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="BH1" s="4" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="BI1" s="4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="BJ1" s="4" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="BK1" s="4" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="BL1" s="5" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="2" spans="1:64" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8181,7 +8240,7 @@
         <v>81</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>421</v>
@@ -8190,90 +8249,90 @@
         <v>423</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F2" s="9">
         <v>1100</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>238</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>254</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T2" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="U2" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="X2" s="10" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Y2" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="Z2" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA2" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AB2" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AC2" s="9"/>
       <c r="AD2" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AE2" s="10"/>
       <c r="AF2" s="69"/>
       <c r="AG2" s="9"/>
       <c r="AH2" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AI2" s="9"/>
       <c r="AJ2" s="9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -8284,16 +8343,16 @@
       <c r="AQ2" s="9"/>
       <c r="AR2" s="9"/>
       <c r="AS2" s="9"/>
-      <c r="AT2" s="85" t="s">
-        <v>677</v>
+      <c r="AT2" s="84" t="s">
+        <v>678</v>
       </c>
       <c r="AU2" s="14" t="s">
         <v>508</v>
       </c>
       <c r="AV2" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="AW2" s="85" t="s">
+        <v>775</v>
+      </c>
+      <c r="AW2" s="84" t="s">
         <v>614</v>
       </c>
       <c r="AX2" s="9"/>
@@ -8316,10 +8375,10 @@
     </row>
     <row r="3" spans="1:64" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>421</v>
@@ -8328,90 +8387,90 @@
         <v>423</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F3" s="9">
         <v>1100</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>238</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P3" s="10" t="s">
         <v>254</v>
       </c>
       <c r="Q3" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T3" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="U3" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="X3" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Y3" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AC3" s="9"/>
       <c r="AD3" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AE3" s="10"/>
       <c r="AF3" s="69"/>
       <c r="AG3" s="9"/>
       <c r="AH3" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AI3" s="9"/>
       <c r="AJ3" s="9" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AK3" s="9"/>
       <c r="AL3" s="15"/>
@@ -8428,16 +8487,16 @@
         <v>2.6450000000000001E-2</v>
       </c>
       <c r="AS3" s="70" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AT3" s="16" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AU3" s="17" t="s">
         <v>508</v>
       </c>
       <c r="AV3" s="15" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AW3" s="16" t="s">
         <v>614</v>
@@ -8465,7 +8524,7 @@
         <v>443</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>421</v>
@@ -8474,90 +8533,90 @@
         <v>423</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F4" s="9">
         <v>1100</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>238</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>254</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="S4" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T4" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="U4" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="W4" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="X4" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="Y4" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="Z4" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AB4" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AE4" s="10"/>
       <c r="AF4" s="69"/>
       <c r="AG4" s="9"/>
       <c r="AH4" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AI4" s="9"/>
       <c r="AJ4" s="9" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AK4" s="9"/>
       <c r="AL4" s="9" t="s">
@@ -8604,10 +8663,10 @@
     </row>
     <row r="5" spans="1:64" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>421</v>
@@ -8615,91 +8674,91 @@
       <c r="D5" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="E5" s="84" t="s">
-        <v>798</v>
+      <c r="E5" s="96" t="s">
+        <v>799</v>
       </c>
       <c r="F5" s="9">
         <v>1100</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>238</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P5" s="10" t="s">
         <v>254</v>
       </c>
       <c r="Q5" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T5" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="U5" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="X5" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Y5" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AC5" s="9"/>
       <c r="AD5" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AE5" s="10"/>
       <c r="AF5" s="69"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AI5" s="9"/>
       <c r="AJ5" s="9" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AK5" s="9"/>
       <c r="AL5" s="15"/>
@@ -8716,16 +8775,16 @@
         <v>2.6450000000000001E-2</v>
       </c>
       <c r="AS5" s="70" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AT5" s="16" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="AU5" s="17" t="s">
         <v>508</v>
       </c>
       <c r="AV5" s="15" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="AW5" s="16" t="s">
         <v>614</v>
@@ -8753,7 +8812,7 @@
         <v>580</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>421</v>
@@ -8761,91 +8820,91 @@
       <c r="D6" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="E6" s="84" t="s">
-        <v>798</v>
+      <c r="E6" s="96" t="s">
+        <v>799</v>
       </c>
       <c r="F6" s="9">
         <v>1100</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>238</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P6" s="10" t="s">
         <v>254</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T6" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="W6" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="X6" s="10" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Y6" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AB6" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AC6" s="9"/>
       <c r="AD6" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AE6" s="10"/>
       <c r="AF6" s="69"/>
       <c r="AG6" s="9"/>
       <c r="AH6" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AI6" s="9"/>
       <c r="AJ6" s="9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AK6" s="9"/>
       <c r="AL6" s="9"/>
@@ -8856,16 +8915,16 @@
       <c r="AQ6" s="9"/>
       <c r="AR6" s="9"/>
       <c r="AS6" s="9"/>
-      <c r="AT6" s="85" t="s">
-        <v>677</v>
+      <c r="AT6" s="84" t="s">
+        <v>678</v>
       </c>
       <c r="AU6" s="14" t="s">
         <v>508</v>
       </c>
       <c r="AV6" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="AW6" s="85" t="s">
+        <v>775</v>
+      </c>
+      <c r="AW6" s="84" t="s">
         <v>614</v>
       </c>
       <c r="AX6" s="9"/>
@@ -8888,10 +8947,10 @@
     </row>
     <row r="7" spans="1:64" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>421</v>
@@ -8899,91 +8958,91 @@
       <c r="D7" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="E7" s="84" t="s">
-        <v>798</v>
+      <c r="E7" s="96" t="s">
+        <v>799</v>
       </c>
       <c r="F7" s="9">
         <v>1100</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>238</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P7" s="10" t="s">
         <v>254</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T7" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="U7" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="W7" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="X7" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Y7" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Z7" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AB7" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AC7" s="10"/>
       <c r="AD7" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AE7" s="10"/>
       <c r="AF7" s="69"/>
       <c r="AG7" s="9"/>
       <c r="AH7" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AI7" s="9"/>
       <c r="AJ7" s="9" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AK7" s="9"/>
       <c r="AL7" s="9" t="s">
@@ -9026,10 +9085,10 @@
     </row>
     <row r="8" spans="1:64" s="73" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>421</v>
@@ -9037,125 +9096,125 @@
       <c r="D8" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="E8" s="84" t="s">
-        <v>798</v>
+      <c r="E8" s="96" t="s">
+        <v>799</v>
       </c>
       <c r="F8" s="9">
         <v>1100</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="H8" s="18" t="s">
         <v>236</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P8" s="10" t="s">
         <v>254</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="R8" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T8" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="W8" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="X8" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Y8" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Z8" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AB8" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AC8" s="10"/>
       <c r="AD8" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AE8" s="10"/>
       <c r="AF8" s="69"/>
       <c r="AG8" s="9"/>
       <c r="AH8" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AI8" s="9"/>
       <c r="AJ8" s="9" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="AK8" s="9"/>
       <c r="AL8" s="9"/>
       <c r="AM8" s="75"/>
       <c r="AN8" s="18"/>
-      <c r="AO8" s="93">
+      <c r="AO8" s="92">
         <v>12</v>
       </c>
       <c r="AP8" s="11" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="AQ8" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AR8" s="76" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="AS8" s="11" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AT8" s="9" t="s">
         <v>614</v>
       </c>
       <c r="AU8" s="9" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AV8" s="9" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="AW8" s="9" t="s">
         <v>614</v>
       </c>
       <c r="AX8" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AY8" s="74"/>
       <c r="AZ8" s="9"/>
@@ -9176,10 +9235,10 @@
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>421</v>
@@ -9187,91 +9246,91 @@
       <c r="D9" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="E9" s="95" t="s">
-        <v>689</v>
+      <c r="E9" s="94" t="s">
+        <v>690</v>
       </c>
       <c r="F9" s="9">
         <v>1100</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>236</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P9" s="10" t="s">
         <v>254</v>
       </c>
       <c r="Q9" s="9" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="R9" s="9" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T9" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="U9" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="W9" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="X9" s="10" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="Y9" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="Z9" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AB9" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AC9" s="9"/>
       <c r="AD9" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AE9" s="10"/>
       <c r="AF9" s="69"/>
       <c r="AG9" s="9"/>
       <c r="AH9" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AI9" s="9"/>
       <c r="AJ9" s="9" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="AK9" s="9"/>
       <c r="AL9" s="9"/>
@@ -9279,39 +9338,39 @@
       <c r="AN9" s="9"/>
       <c r="AO9" s="9"/>
       <c r="AP9" s="13" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AS9" s="9" t="s">
-        <v>826</v>
-      </c>
-      <c r="AT9" s="85" t="s">
+        <v>827</v>
+      </c>
+      <c r="AT9" s="84" t="s">
+        <v>692</v>
+      </c>
+      <c r="AU9" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="AV9" s="9" t="s">
         <v>691</v>
       </c>
-      <c r="AU9" s="14" t="s">
-        <v>678</v>
-      </c>
-      <c r="AV9" s="9" t="s">
-        <v>690</v>
-      </c>
-      <c r="AW9" s="85" t="s">
-        <v>691</v>
+      <c r="AW9" s="84" t="s">
+        <v>692</v>
       </c>
       <c r="AX9" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>421</v>
@@ -9319,91 +9378,91 @@
       <c r="D10" s="18" t="s">
         <v>423</v>
       </c>
-      <c r="E10" s="95" t="s">
-        <v>689</v>
+      <c r="E10" s="94" t="s">
+        <v>690</v>
       </c>
       <c r="F10" s="9">
         <v>1100</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="H10" s="9" t="s">
         <v>236</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="P10" s="10" t="s">
         <v>254</v>
       </c>
       <c r="Q10" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="S10" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="T10" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="U10" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="W10" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="X10" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="Y10" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="Z10" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AB10" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AC10" s="9"/>
       <c r="AD10" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AE10" s="10"/>
       <c r="AF10" s="69"/>
       <c r="AG10" s="9"/>
       <c r="AH10" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="AI10" s="9"/>
       <c r="AJ10" s="9" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AK10" s="9"/>
       <c r="AL10" s="15"/>
@@ -9411,31 +9470,31 @@
       <c r="AN10" s="15"/>
       <c r="AO10" s="15"/>
       <c r="AP10" s="70" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="AQ10" s="70" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AR10" s="70" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="AS10" s="70" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="AT10" s="16" t="s">
+        <v>692</v>
+      </c>
+      <c r="AU10" s="17" t="s">
+        <v>679</v>
+      </c>
+      <c r="AV10" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="AU10" s="17" t="s">
-        <v>678</v>
-      </c>
-      <c r="AV10" s="15" t="s">
-        <v>690</v>
-      </c>
       <c r="AW10" s="16" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="AX10" s="9" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
   </sheetData>

--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7079D984-173B-4598-9A7B-E10009F80FE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2919FBF-59B2-4B50-84B0-188170615028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="2790" windowWidth="21600" windowHeight="11385" tabRatio="842" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="898">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="900">
   <si>
     <t>rowid</t>
   </si>
@@ -2729,6 +2729,12 @@
   </si>
   <si>
     <t>12-Jun-2023</t>
+  </si>
+  <si>
+    <t>07-Feb-2020</t>
+  </si>
+  <si>
+    <t>Principal Prepayment of $157,000AUD</t>
   </si>
 </sst>
 </file>
@@ -2741,7 +2747,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2856,6 +2862,12 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="14">
@@ -2992,7 +3004,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3279,6 +3291,9 @@
     </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4137,8 +4152,8 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4278,8 +4293,8 @@
   </sheetPr>
   <dimension ref="A1:AQ4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4289,11 +4304,9 @@
     <col min="3" max="3" width="28.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="23.140625" style="2" bestFit="1" customWidth="1"/>
@@ -4539,6 +4552,58 @@
       <c r="AP2" s="24"/>
       <c r="AQ2" s="24"/>
     </row>
+    <row r="3" spans="1:43" s="73" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="96" t="s">
+        <v>689</v>
+      </c>
+      <c r="B3" s="96" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="84" t="s">
+        <v>864</v>
+      </c>
+      <c r="F3" s="84" t="s">
+        <v>898</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>899</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>866</v>
+      </c>
+      <c r="I3" s="99">
+        <v>157000</v>
+      </c>
+      <c r="J3" s="85" t="s">
+        <v>868</v>
+      </c>
+      <c r="K3" s="85" t="s">
+        <v>869</v>
+      </c>
+      <c r="L3" s="84" t="s">
+        <v>81</v>
+      </c>
+      <c r="M3" s="9">
+        <v>428.64</v>
+      </c>
+      <c r="N3" s="84" t="s">
+        <v>871</v>
+      </c>
+      <c r="O3" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="P3" s="96" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q3" s="96" t="s">
+        <v>872</v>
+      </c>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="25"/>
+    </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="S4" s="97" t="s">
         <v>875</v>
@@ -4548,6 +4613,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -4560,7 +4626,7 @@
   </sheetPr>
   <dimension ref="A1:AK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>

--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3BF82C-8A5E-41B1-9ADD-5012EA10C029}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52470BC0-5812-411C-9CC5-7160562B4521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1481" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="889">
   <si>
     <t>rowid</t>
   </si>
@@ -2699,6 +2699,9 @@
   </si>
   <si>
     <t xml:space="preserve">Update row 2 to </t>
+  </si>
+  <si>
+    <t>Increase_Actual_Amount</t>
   </si>
 </sst>
 </file>
@@ -4504,10 +4507,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4527,17 +4530,18 @@
     <col min="13" max="13" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="35" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="79" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="79" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -4583,32 +4587,35 @@
       <c r="O1" s="17" t="s">
         <v>879</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="93" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q1" s="27" t="s">
         <v>880</v>
       </c>
-      <c r="Q1" s="93" t="s">
+      <c r="R1" s="93" t="s">
         <v>850</v>
       </c>
-      <c r="R1" s="93" t="s">
+      <c r="S1" s="93" t="s">
         <v>851</v>
       </c>
-      <c r="S1" s="93" t="s">
+      <c r="T1" s="93" t="s">
         <v>605</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="U1" s="27" t="s">
         <v>882</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="V1" s="17" t="s">
         <v>660</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="W1" s="17" t="s">
         <v>661</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="X1" s="17" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="2" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>81</v>
       </c>
@@ -4647,7 +4654,7 @@
       <c r="N2" s="31"/>
       <c r="O2" s="31"/>
     </row>
-    <row r="3" spans="1:23" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
         <v>680</v>
       </c>
@@ -4693,23 +4700,23 @@
       <c r="O3" s="78" t="s">
         <v>864</v>
       </c>
-      <c r="P3" s="90" t="s">
+      <c r="P3" s="78" t="s">
+        <v>875</v>
+      </c>
+      <c r="Q3" s="90" t="s">
         <v>881</v>
       </c>
-      <c r="Q3" s="98" t="s">
+      <c r="R3" s="98" t="s">
         <v>861</v>
       </c>
-      <c r="R3" s="98" t="s">
+      <c r="S3" s="98" t="s">
         <v>862</v>
       </c>
-      <c r="S3" s="102" t="s">
+      <c r="T3" s="102" t="s">
         <v>885</v>
       </c>
-      <c r="T3" s="78" t="s">
+      <c r="U3" s="78" t="s">
         <v>883</v>
-      </c>
-      <c r="U3" s="90" t="s">
-        <v>886</v>
       </c>
       <c r="V3" s="90" t="s">
         <v>886</v>
@@ -4717,14 +4724,18 @@
       <c r="W3" s="90" t="s">
         <v>886</v>
       </c>
+      <c r="X3" s="90" t="s">
+        <v>886</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="R4" s="85" t="s">
         <v>887</v>
       </c>
       <c r="S4" s="86" t="s">
         <v>864</v>
       </c>
+      <c r="T4" s="86"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52470BC0-5812-411C-9CC5-7160562B4521}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2CAF14-9BD9-4B19-9F7F-5FEA064FAD19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="903">
   <si>
     <t>rowid</t>
   </si>
@@ -2041,6 +2041,9 @@
     <t>Expctd_LoanAllInRate</t>
   </si>
   <si>
+    <t>Outstanding_Currency</t>
+  </si>
+  <si>
     <t>60001971</t>
   </si>
   <si>
@@ -2107,6 +2110,24 @@
     <t>2.54660%</t>
   </si>
   <si>
+    <t>60002385</t>
+  </si>
+  <si>
+    <t>100,000.00</t>
+  </si>
+  <si>
+    <t>19-Feb-2020</t>
+  </si>
+  <si>
+    <t>30-Mar-2020</t>
+  </si>
+  <si>
+    <t>0.900000%</t>
+  </si>
+  <si>
+    <t>2.550000%</t>
+  </si>
+  <si>
     <t>SubAdd_Days</t>
   </si>
   <si>
@@ -2224,6 +2245,9 @@
     <t>Loan_RateSetting_DueDate</t>
   </si>
   <si>
+    <t>Currency</t>
+  </si>
+  <si>
     <t>EffectiveDate_PrincipalPayment</t>
   </si>
   <si>
@@ -2263,9 +2287,6 @@
     <t>Fee_Type</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
     <t>API_COR_TC03_SENT_Drawdown Intent Notice</t>
   </si>
   <si>
@@ -2527,6 +2548,27 @@
     <t>2021-01-18 11:34:12.961</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>.SEMO3H7</t>
+  </si>
+  <si>
+    <t>LIQ-.SEMO3H7-.6EMO1VK-2</t>
+  </si>
+  <si>
+    <t>2024-01-26 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2018-01-17 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2021-01-21 10:48:00.051</t>
+  </si>
+  <si>
     <t>OutstandingSelect_Type</t>
   </si>
   <si>
@@ -2635,6 +2677,9 @@
     <t>Principal Prepayment of $157,000AUD</t>
   </si>
   <si>
+    <t xml:space="preserve">Update row 1 to </t>
+  </si>
+  <si>
     <t>Type</t>
   </si>
   <si>
@@ -2650,6 +2695,21 @@
     <t>Loan_Events</t>
   </si>
   <si>
+    <t>Increase_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Increase_Accrual_EffectiveDate</t>
+  </si>
+  <si>
+    <t>Increase_Actual_Amount</t>
+  </si>
+  <si>
+    <t>Increase_Reason</t>
+  </si>
+  <si>
+    <t>Expected_Outstanding</t>
+  </si>
+  <si>
     <t>Deal/Facility</t>
   </si>
   <si>
@@ -2671,37 +2731,19 @@
     <t>Capitalising break costs to existing loan</t>
   </si>
   <si>
-    <t>Increase_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Increase_Accrual_EffectiveDate</t>
-  </si>
-  <si>
-    <t>Increase_Reason</t>
-  </si>
-  <si>
     <t>Capitalising Breakcost into existing loan</t>
   </si>
   <si>
-    <t>Expected_Outstanding</t>
+    <t>20-Oct-2023</t>
   </si>
   <si>
     <t>3,557,906.23</t>
   </si>
   <si>
-    <t xml:space="preserve">Update row 1 to </t>
-  </si>
-  <si>
-    <t>20-Oct-2023</t>
-  </si>
-  <si>
     <t>3,557,907.51</t>
   </si>
   <si>
     <t xml:space="preserve">Update row 2 to </t>
-  </si>
-  <si>
-    <t>Increase_Actual_Amount</t>
   </si>
 </sst>
 </file>
@@ -2823,7 +2865,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2902,8 +2944,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -2939,12 +2987,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2965,297 +3026,306 @@
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="15" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3659,447 +3729,447 @@
     <col min="83" max="83" width="17.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" s="43" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" s="40" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AR1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AS1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="23" t="s">
+      <c r="AT1" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="23" t="s">
+      <c r="AU1" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="23" t="s">
+      <c r="AV1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="23" t="s">
+      <c r="AW1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="AX1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="AY1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BA1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BB1" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BC1" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BD1" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BE1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BF1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BG1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BH1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BI1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="BK1" s="15" t="s">
+      <c r="BK1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="BL1" s="15" t="s">
+      <c r="BL1" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="BM1" s="15" t="s">
+      <c r="BM1" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="BN1" s="15" t="s">
+      <c r="BN1" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="BO1" s="15" t="s">
+      <c r="BO1" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="BP1" s="15" t="s">
+      <c r="BP1" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="BQ1" s="15" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BR1" s="15" t="s">
+      <c r="BR1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="BS1" s="15" t="s">
+      <c r="BS1" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="15" t="s">
+      <c r="BT1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="BU1" s="15" t="s">
+      <c r="BU1" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="BV1" s="15" t="s">
+      <c r="BV1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="BW1" s="15" t="s">
+      <c r="BW1" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="BX1" s="15" t="s">
+      <c r="BX1" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="BY1" s="15" t="s">
+      <c r="BY1" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="BZ1" s="15" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="CA1" s="15" t="s">
+      <c r="CA1" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="CB1" s="15" t="s">
+      <c r="CB1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="CC1" s="15" t="s">
+      <c r="CC1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="CD1" s="15" t="s">
+      <c r="CD1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" s="15" t="s">
+      <c r="CE1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" s="15"/>
-      <c r="CG1" s="15"/>
-      <c r="CH1" s="15"/>
-      <c r="CI1" s="15"/>
-      <c r="CJ1" s="15"/>
-      <c r="CK1" s="15"/>
-      <c r="CL1" s="15"/>
-      <c r="CM1" s="15"/>
-      <c r="CN1" s="15"/>
-      <c r="CO1" s="15"/>
-      <c r="CP1" s="15"/>
-      <c r="CQ1" s="15"/>
-      <c r="CR1" s="15"/>
-      <c r="CS1" s="15"/>
-      <c r="CT1" s="15"/>
-      <c r="CU1" s="15"/>
-      <c r="CV1" s="15"/>
-      <c r="CW1" s="15"/>
-      <c r="CX1" s="15"/>
-      <c r="CY1" s="15"/>
-      <c r="CZ1" s="15"/>
-      <c r="DA1" s="15"/>
-      <c r="DB1" s="15"/>
+      <c r="CF1" s="13"/>
+      <c r="CG1" s="13"/>
+      <c r="CH1" s="13"/>
+      <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="13"/>
+      <c r="CL1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CN1" s="13"/>
+      <c r="CO1" s="13"/>
+      <c r="CP1" s="13"/>
+      <c r="CQ1" s="13"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CT1" s="13"/>
+      <c r="CU1" s="13"/>
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13"/>
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="13"/>
     </row>
-    <row r="2" spans="1:106" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:106" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="59" t="s">
+      <c r="F2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="59">
+      <c r="G2" s="56">
         <v>1</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="H2" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="J2" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="58">
+      <c r="K2" s="55">
         <v>100012345</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="L2" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62" t="s">
+      <c r="M2" s="59"/>
+      <c r="N2" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="O2" s="62" t="s">
+      <c r="O2" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="P2" s="59" t="s">
+      <c r="P2" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="Q2" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="59" t="s">
+      <c r="R2" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="59" t="s">
+      <c r="S2" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="T2" s="58">
+      <c r="T2" s="55">
         <v>1000012345</v>
       </c>
-      <c r="U2" s="59" t="s">
+      <c r="U2" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="V2" s="59" t="s">
+      <c r="V2" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="W2" s="59">
+      <c r="W2" s="56">
         <v>3000</v>
       </c>
-      <c r="X2" s="59" t="s">
+      <c r="X2" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="Y2" s="32"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="32"/>
-      <c r="AB2" s="57" t="s">
+      <c r="Y2" s="30"/>
+      <c r="Z2" s="30"/>
+      <c r="AA2" s="30"/>
+      <c r="AB2" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" s="57" t="s">
+      <c r="AC2" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="AD2" s="32"/>
-      <c r="AE2" s="59" t="s">
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="AF2" s="59" t="s">
+      <c r="AF2" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="AG2" s="59" t="s">
+      <c r="AG2" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="AH2" s="84" t="s">
+      <c r="AH2" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="AI2" s="84" t="s">
+      <c r="AI2" s="88" t="s">
         <v>90</v>
       </c>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
-      <c r="AP2" s="60"/>
-      <c r="AQ2" s="60"/>
-      <c r="AR2" s="60"/>
-      <c r="AS2" s="60"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
-      <c r="AW2" s="20"/>
-      <c r="AX2" s="20"/>
-      <c r="AY2" s="20"/>
-      <c r="AZ2" s="20"/>
-      <c r="BA2" s="20"/>
-      <c r="BB2" s="20"/>
-      <c r="BC2" s="20"/>
-      <c r="BD2" s="20"/>
-      <c r="BE2" s="20"/>
-      <c r="BF2" s="20"/>
-      <c r="BG2" s="20"/>
-      <c r="BH2" s="20"/>
-      <c r="BI2" s="20"/>
-      <c r="BJ2" s="20"/>
-      <c r="BK2" s="20"/>
-      <c r="BL2" s="20"/>
-      <c r="BM2" s="20"/>
-      <c r="BN2" s="20"/>
-      <c r="BO2" s="20"/>
-      <c r="BP2" s="20"/>
-      <c r="BQ2" s="20"/>
-      <c r="BR2" s="20"/>
-      <c r="BS2" s="20"/>
-      <c r="BT2" s="20"/>
-      <c r="BU2" s="20"/>
-      <c r="BV2" s="20"/>
-      <c r="BW2" s="20"/>
-      <c r="BX2" s="20"/>
-      <c r="BY2" s="20"/>
-      <c r="BZ2" s="20"/>
-      <c r="CA2" s="20"/>
-      <c r="CB2" s="20"/>
-      <c r="CC2" s="20"/>
-      <c r="CD2" s="20"/>
-      <c r="CE2" s="20"/>
-      <c r="CF2" s="84"/>
-      <c r="CG2" s="84"/>
-      <c r="CH2" s="84"/>
-      <c r="CI2" s="84"/>
-      <c r="CJ2" s="84"/>
-      <c r="CK2" s="84"/>
-      <c r="CL2" s="84"/>
-      <c r="CM2" s="84"/>
-      <c r="CN2" s="84"/>
-      <c r="CO2" s="84"/>
-      <c r="CP2" s="84"/>
-      <c r="CQ2" s="84"/>
-      <c r="CR2" s="84"/>
-      <c r="CS2" s="84"/>
-      <c r="CT2" s="84"/>
-      <c r="CU2" s="84"/>
-      <c r="CV2" s="84"/>
-      <c r="CW2" s="84"/>
-      <c r="CX2" s="84"/>
-      <c r="CY2" s="84"/>
-      <c r="CZ2" s="84"/>
-      <c r="DA2" s="84"/>
-      <c r="DB2" s="84"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
+      <c r="AP2" s="57"/>
+      <c r="AQ2" s="57"/>
+      <c r="AR2" s="57"/>
+      <c r="AS2" s="57"/>
+      <c r="AT2" s="19"/>
+      <c r="AU2" s="19"/>
+      <c r="AV2" s="19"/>
+      <c r="AW2" s="18"/>
+      <c r="AX2" s="18"/>
+      <c r="AY2" s="18"/>
+      <c r="AZ2" s="18"/>
+      <c r="BA2" s="18"/>
+      <c r="BB2" s="18"/>
+      <c r="BC2" s="18"/>
+      <c r="BD2" s="18"/>
+      <c r="BE2" s="18"/>
+      <c r="BF2" s="18"/>
+      <c r="BG2" s="18"/>
+      <c r="BH2" s="18"/>
+      <c r="BI2" s="18"/>
+      <c r="BJ2" s="18"/>
+      <c r="BK2" s="18"/>
+      <c r="BL2" s="18"/>
+      <c r="BM2" s="18"/>
+      <c r="BN2" s="18"/>
+      <c r="BO2" s="18"/>
+      <c r="BP2" s="18"/>
+      <c r="BQ2" s="18"/>
+      <c r="BR2" s="18"/>
+      <c r="BS2" s="18"/>
+      <c r="BT2" s="18"/>
+      <c r="BU2" s="18"/>
+      <c r="BV2" s="18"/>
+      <c r="BW2" s="18"/>
+      <c r="BX2" s="18"/>
+      <c r="BY2" s="18"/>
+      <c r="BZ2" s="18"/>
+      <c r="CA2" s="18"/>
+      <c r="CB2" s="18"/>
+      <c r="CC2" s="18"/>
+      <c r="CD2" s="18"/>
+      <c r="CE2" s="18"/>
+      <c r="CF2" s="88"/>
+      <c r="CG2" s="88"/>
+      <c r="CH2" s="88"/>
+      <c r="CI2" s="88"/>
+      <c r="CJ2" s="88"/>
+      <c r="CK2" s="88"/>
+      <c r="CL2" s="88"/>
+      <c r="CM2" s="88"/>
+      <c r="CN2" s="88"/>
+      <c r="CO2" s="88"/>
+      <c r="CP2" s="88"/>
+      <c r="CQ2" s="88"/>
+      <c r="CR2" s="88"/>
+      <c r="CS2" s="88"/>
+      <c r="CT2" s="88"/>
+      <c r="CU2" s="88"/>
+      <c r="CV2" s="88"/>
+      <c r="CW2" s="88"/>
+      <c r="CX2" s="88"/>
+      <c r="CY2" s="88"/>
+      <c r="CZ2" s="88"/>
+      <c r="DA2" s="88"/>
+      <c r="DB2" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4114,8 +4184,8 @@
   </sheetPr>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4138,109 +4208,109 @@
     <col min="16" max="16" width="12" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="71" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71" t="s">
+    <row r="1" spans="1:16" s="65" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="72" t="s">
+      <c r="C1" s="66" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="71" t="s">
-        <v>830</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="D1" s="65" t="s">
+        <v>844</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="66" t="s">
         <v>642</v>
       </c>
-      <c r="G1" s="72" t="s">
-        <v>831</v>
-      </c>
-      <c r="H1" s="73" t="s">
+      <c r="G1" s="66" t="s">
+        <v>845</v>
+      </c>
+      <c r="H1" s="67" t="s">
         <v>643</v>
       </c>
-      <c r="I1" s="74" t="s">
-        <v>832</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>833</v>
-      </c>
-      <c r="K1" s="71" t="s">
-        <v>834</v>
-      </c>
-      <c r="L1" s="71" t="s">
-        <v>835</v>
-      </c>
-      <c r="M1" s="71" t="s">
+      <c r="I1" s="68" t="s">
+        <v>846</v>
+      </c>
+      <c r="J1" s="68" t="s">
+        <v>847</v>
+      </c>
+      <c r="K1" s="65" t="s">
+        <v>848</v>
+      </c>
+      <c r="L1" s="65" t="s">
+        <v>849</v>
+      </c>
+      <c r="M1" s="65" t="s">
         <v>645</v>
       </c>
-      <c r="N1" s="71" t="s">
-        <v>836</v>
-      </c>
-      <c r="O1" s="17" t="s">
+      <c r="N1" s="65" t="s">
+        <v>850</v>
+      </c>
+      <c r="O1" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="P1" s="71" t="s">
-        <v>837</v>
+      <c r="P1" s="65" t="s">
+        <v>851</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="56" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:16" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="70" t="s">
         <v>285</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="84" t="s">
-        <v>668</v>
-      </c>
-      <c r="G2" s="84" t="s">
-        <v>790</v>
-      </c>
-      <c r="H2" s="84" t="s">
+      <c r="F2" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="G2" s="88" t="s">
+        <v>797</v>
+      </c>
+      <c r="H2" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="77">
+      <c r="I2" s="71">
         <v>3854477.59</v>
       </c>
-      <c r="J2" s="84">
+      <c r="J2" s="88">
         <v>100</v>
       </c>
-      <c r="K2" s="76" t="s">
-        <v>838</v>
-      </c>
-      <c r="L2" s="76" t="s">
-        <v>839</v>
-      </c>
-      <c r="M2" s="76" t="s">
+      <c r="K2" s="70" t="s">
+        <v>852</v>
+      </c>
+      <c r="L2" s="70" t="s">
+        <v>853</v>
+      </c>
+      <c r="M2" s="70" t="s">
         <v>434</v>
       </c>
-      <c r="N2" s="56" t="s">
-        <v>671</v>
-      </c>
-      <c r="O2" s="84" t="s">
-        <v>673</v>
-      </c>
-      <c r="P2" s="56" t="s">
+      <c r="N2" s="53" t="s">
+        <v>672</v>
+      </c>
+      <c r="O2" s="88" t="s">
+        <v>674</v>
+      </c>
+      <c r="P2" s="53" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4282,223 +4352,223 @@
     <col min="20" max="20" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="92" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:50" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="81" t="s">
-        <v>840</v>
-      </c>
-      <c r="D1" s="81" t="s">
-        <v>841</v>
-      </c>
-      <c r="E1" s="81" t="s">
+      <c r="C1" s="74" t="s">
+        <v>854</v>
+      </c>
+      <c r="D1" s="74" t="s">
+        <v>855</v>
+      </c>
+      <c r="E1" s="74" t="s">
         <v>595</v>
       </c>
-      <c r="F1" s="81" t="s">
-        <v>842</v>
-      </c>
-      <c r="G1" s="81" t="s">
-        <v>843</v>
-      </c>
-      <c r="H1" s="81" t="s">
-        <v>844</v>
-      </c>
-      <c r="I1" s="81" t="s">
+      <c r="F1" s="74" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1" s="74" t="s">
+        <v>857</v>
+      </c>
+      <c r="H1" s="74" t="s">
+        <v>858</v>
+      </c>
+      <c r="I1" s="74" t="s">
         <v>646</v>
       </c>
-      <c r="J1" s="81" t="s">
-        <v>845</v>
-      </c>
-      <c r="K1" s="81" t="s">
-        <v>846</v>
-      </c>
-      <c r="L1" s="81" t="s">
-        <v>847</v>
-      </c>
-      <c r="M1" s="81" t="s">
-        <v>848</v>
-      </c>
-      <c r="N1" s="81" t="s">
+      <c r="J1" s="74" t="s">
+        <v>859</v>
+      </c>
+      <c r="K1" s="74" t="s">
+        <v>860</v>
+      </c>
+      <c r="L1" s="74" t="s">
+        <v>861</v>
+      </c>
+      <c r="M1" s="74" t="s">
+        <v>862</v>
+      </c>
+      <c r="N1" s="74" t="s">
         <v>645</v>
       </c>
-      <c r="O1" s="93" t="s">
+      <c r="O1" s="83" t="s">
         <v>592</v>
       </c>
-      <c r="P1" s="93" t="s">
+      <c r="P1" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="93" t="s">
-        <v>849</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>850</v>
-      </c>
-      <c r="S1" s="93" t="s">
-        <v>851</v>
-      </c>
-      <c r="T1" s="93" t="s">
+      <c r="Q1" s="83" t="s">
+        <v>863</v>
+      </c>
+      <c r="R1" s="83" t="s">
+        <v>864</v>
+      </c>
+      <c r="S1" s="83" t="s">
+        <v>865</v>
+      </c>
+      <c r="T1" s="83" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="95" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+    <row r="2" spans="1:50" s="85" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="84" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="84" t="s">
         <v>329</v>
       </c>
-      <c r="D2" s="94" t="s">
+      <c r="D2" s="84" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="95" t="s">
-        <v>852</v>
-      </c>
-      <c r="F2" s="95" t="s">
-        <v>683</v>
-      </c>
-      <c r="G2" s="95" t="s">
-        <v>853</v>
-      </c>
-      <c r="H2" s="95" t="s">
-        <v>854</v>
-      </c>
-      <c r="I2" s="96" t="s">
-        <v>855</v>
-      </c>
-      <c r="J2" s="96" t="s">
-        <v>856</v>
-      </c>
-      <c r="K2" s="96" t="s">
-        <v>857</v>
-      </c>
-      <c r="L2" s="95" t="s">
+      <c r="E2" s="85" t="s">
+        <v>866</v>
+      </c>
+      <c r="F2" s="85" t="s">
+        <v>684</v>
+      </c>
+      <c r="G2" s="85" t="s">
+        <v>867</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>868</v>
+      </c>
+      <c r="I2" s="86" t="s">
+        <v>869</v>
+      </c>
+      <c r="J2" s="86" t="s">
+        <v>870</v>
+      </c>
+      <c r="K2" s="86" t="s">
+        <v>871</v>
+      </c>
+      <c r="L2" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="95" t="s">
-        <v>858</v>
-      </c>
-      <c r="N2" s="95" t="s">
-        <v>859</v>
-      </c>
-      <c r="O2" s="94" t="s">
+      <c r="M2" s="85" t="s">
+        <v>872</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>873</v>
+      </c>
+      <c r="O2" s="84" t="s">
         <v>426</v>
       </c>
-      <c r="P2" s="94" t="s">
+      <c r="P2" s="84" t="s">
         <v>426</v>
       </c>
-      <c r="Q2" s="94" t="s">
-        <v>860</v>
-      </c>
-      <c r="R2" s="94" t="s">
-        <v>861</v>
-      </c>
-      <c r="S2" s="94" t="s">
-        <v>862</v>
-      </c>
-      <c r="T2" s="97" t="s">
-        <v>863</v>
-      </c>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="91"/>
-      <c r="AA2" s="91"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="91"/>
-      <c r="AM2" s="91"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="91"/>
-      <c r="AP2" s="91"/>
-      <c r="AQ2" s="91"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="91"/>
+      <c r="Q2" s="84" t="s">
+        <v>874</v>
+      </c>
+      <c r="R2" s="84" t="s">
+        <v>875</v>
+      </c>
+      <c r="S2" s="84" t="s">
+        <v>876</v>
+      </c>
+      <c r="T2" s="87" t="s">
+        <v>877</v>
+      </c>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="81"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="81"/>
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="81"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="81"/>
+      <c r="AG2" s="81"/>
+      <c r="AH2" s="81"/>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81"/>
+      <c r="AK2" s="81"/>
+      <c r="AL2" s="81"/>
+      <c r="AM2" s="81"/>
+      <c r="AN2" s="81"/>
+      <c r="AO2" s="81"/>
+      <c r="AP2" s="81"/>
+      <c r="AQ2" s="81"/>
+      <c r="AR2" s="81"/>
+      <c r="AS2" s="81"/>
+      <c r="AT2" s="81"/>
+      <c r="AU2" s="81"/>
+      <c r="AV2" s="81"/>
+      <c r="AW2" s="81"/>
+      <c r="AX2" s="81"/>
     </row>
-    <row r="3" spans="1:50" s="103" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="98" t="s">
-        <v>680</v>
-      </c>
-      <c r="B3" s="98" t="s">
+    <row r="3" spans="1:50" s="93" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="90" t="s">
-        <v>852</v>
-      </c>
-      <c r="F3" s="90" t="s">
-        <v>864</v>
-      </c>
-      <c r="G3" s="99" t="s">
-        <v>865</v>
-      </c>
-      <c r="H3" s="90" t="s">
-        <v>854</v>
-      </c>
-      <c r="I3" s="100">
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="80" t="s">
+        <v>866</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>878</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>879</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>868</v>
+      </c>
+      <c r="I3" s="90">
         <v>157000</v>
       </c>
-      <c r="J3" s="101" t="s">
-        <v>856</v>
-      </c>
-      <c r="K3" s="101" t="s">
-        <v>857</v>
-      </c>
-      <c r="L3" s="90" t="s">
+      <c r="J3" s="91" t="s">
+        <v>870</v>
+      </c>
+      <c r="K3" s="91" t="s">
+        <v>871</v>
+      </c>
+      <c r="L3" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="99">
+      <c r="M3" s="89">
         <v>428.64</v>
       </c>
-      <c r="N3" s="90" t="s">
-        <v>859</v>
-      </c>
-      <c r="O3" s="98" t="s">
+      <c r="N3" s="80" t="s">
+        <v>873</v>
+      </c>
+      <c r="O3" s="88" t="s">
         <v>426</v>
       </c>
-      <c r="P3" s="98" t="s">
+      <c r="P3" s="88" t="s">
         <v>426</v>
       </c>
-      <c r="Q3" s="98" t="s">
-        <v>860</v>
-      </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
+      <c r="Q3" s="88" t="s">
+        <v>874</v>
+      </c>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="S4" s="85" t="s">
-        <v>884</v>
-      </c>
-      <c r="T4" s="86" t="s">
-        <v>683</v>
+      <c r="S4" s="76" t="s">
+        <v>880</v>
+      </c>
+      <c r="T4" s="77" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -4509,8 +4579,8 @@
   </sheetPr>
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4530,216 +4600,216 @@
     <col min="13" max="13" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="30.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="35" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="35" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="79" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:24" s="72" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>866</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>699</v>
-      </c>
-      <c r="E1" s="72" t="s">
+      <c r="C1" s="20" t="s">
+        <v>881</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>706</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>642</v>
       </c>
-      <c r="F1" s="22" t="s">
-        <v>867</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>742</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>868</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>869</v>
-      </c>
-      <c r="J1" s="81" t="s">
+      <c r="F1" s="20" t="s">
+        <v>882</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>736</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>883</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>884</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="M1" s="17" t="s">
-        <v>870</v>
-      </c>
-      <c r="N1" s="17" t="s">
+      <c r="M1" s="15" t="s">
+        <v>885</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>886</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>887</v>
+      </c>
+      <c r="P1" s="83" t="s">
+        <v>888</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>889</v>
+      </c>
+      <c r="R1" s="83" t="s">
+        <v>864</v>
+      </c>
+      <c r="S1" s="83" t="s">
+        <v>865</v>
+      </c>
+      <c r="T1" s="83" t="s">
+        <v>605</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>890</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="X1" s="15" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="73" t="s">
+        <v>891</v>
+      </c>
+      <c r="E2" s="73" t="s">
+        <v>797</v>
+      </c>
+      <c r="F2" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="G2" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="I2" s="80" t="s">
+        <v>892</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>893</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="79" t="s">
+        <v>894</v>
+      </c>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="73" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="73" t="s">
+        <v>891</v>
+      </c>
+      <c r="E3" s="73" t="s">
+        <v>797</v>
+      </c>
+      <c r="F3" s="73" t="s">
+        <v>574</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>270</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>895</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>893</v>
+      </c>
+      <c r="K3" s="88" t="s">
+        <v>896</v>
+      </c>
+      <c r="L3" s="88" t="s">
+        <v>897</v>
+      </c>
+      <c r="M3" s="79" t="s">
+        <v>894</v>
+      </c>
+      <c r="N3" s="80" t="s">
         <v>878</v>
       </c>
-      <c r="O1" s="17" t="s">
-        <v>879</v>
-      </c>
-      <c r="P1" s="93" t="s">
-        <v>888</v>
-      </c>
-      <c r="Q1" s="27" t="s">
-        <v>880</v>
-      </c>
-      <c r="R1" s="93" t="s">
-        <v>850</v>
-      </c>
-      <c r="S1" s="93" t="s">
-        <v>851</v>
-      </c>
-      <c r="T1" s="93" t="s">
-        <v>605</v>
-      </c>
-      <c r="U1" s="27" t="s">
-        <v>882</v>
-      </c>
-      <c r="V1" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="W1" s="17" t="s">
-        <v>661</v>
-      </c>
-      <c r="X1" s="17" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>285</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>871</v>
-      </c>
-      <c r="E2" s="80" t="s">
-        <v>790</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>574</v>
-      </c>
-      <c r="G2" s="80" t="s">
-        <v>270</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>872</v>
-      </c>
-      <c r="J2" s="78" t="s">
-        <v>873</v>
-      </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="89" t="s">
-        <v>874</v>
-      </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-    </row>
-    <row r="3" spans="1:24" s="29" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
-        <v>680</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="80" t="s">
-        <v>285</v>
-      </c>
-      <c r="D3" s="80" t="s">
-        <v>871</v>
-      </c>
-      <c r="E3" s="80" t="s">
-        <v>790</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>574</v>
-      </c>
-      <c r="G3" s="80" t="s">
-        <v>270</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="I3" s="78" t="s">
+      <c r="O3" s="80" t="s">
+        <v>878</v>
+      </c>
+      <c r="P3" s="80" t="s">
+        <v>895</v>
+      </c>
+      <c r="Q3" s="80" t="s">
+        <v>898</v>
+      </c>
+      <c r="R3" s="88" t="s">
         <v>875</v>
       </c>
-      <c r="J3" s="78" t="s">
-        <v>873</v>
-      </c>
-      <c r="K3" s="84" t="s">
+      <c r="S3" s="88" t="s">
         <v>876</v>
       </c>
-      <c r="L3" s="84" t="s">
-        <v>877</v>
-      </c>
-      <c r="M3" s="89" t="s">
-        <v>874</v>
-      </c>
-      <c r="N3" s="78" t="s">
-        <v>864</v>
-      </c>
-      <c r="O3" s="78" t="s">
-        <v>864</v>
-      </c>
-      <c r="P3" s="78" t="s">
-        <v>875</v>
-      </c>
-      <c r="Q3" s="90" t="s">
-        <v>881</v>
-      </c>
-      <c r="R3" s="98" t="s">
-        <v>861</v>
-      </c>
-      <c r="S3" s="98" t="s">
-        <v>862</v>
-      </c>
-      <c r="T3" s="102" t="s">
-        <v>885</v>
-      </c>
-      <c r="U3" s="78" t="s">
-        <v>883</v>
-      </c>
-      <c r="V3" s="90" t="s">
-        <v>886</v>
-      </c>
-      <c r="W3" s="90" t="s">
-        <v>886</v>
-      </c>
-      <c r="X3" s="90" t="s">
-        <v>886</v>
+      <c r="T3" s="92" t="s">
+        <v>899</v>
+      </c>
+      <c r="U3" s="80" t="s">
+        <v>900</v>
+      </c>
+      <c r="V3" s="80" t="s">
+        <v>901</v>
+      </c>
+      <c r="W3" s="80" t="s">
+        <v>901</v>
+      </c>
+      <c r="X3" s="80" t="s">
+        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="R4" s="85" t="s">
-        <v>887</v>
-      </c>
-      <c r="S4" s="86" t="s">
-        <v>864</v>
-      </c>
-      <c r="T4" s="86"/>
+      <c r="R4" s="76" t="s">
+        <v>902</v>
+      </c>
+      <c r="S4" s="77" t="s">
+        <v>878</v>
+      </c>
+      <c r="T4" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4891,811 +4961,811 @@
     <col min="135" max="135" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:135" s="43" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:135" s="40" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="22" t="s">
+      <c r="W1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="X1" s="22" t="s">
+      <c r="X1" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" s="22" t="s">
+      <c r="Y1" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" s="22" t="s">
+      <c r="Z1" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" s="22" t="s">
+      <c r="AA1" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" s="22" t="s">
+      <c r="AB1" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" s="22" t="s">
+      <c r="AC1" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" s="22" t="s">
+      <c r="AE1" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" s="22" t="s">
+      <c r="AF1" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" s="22" t="s">
+      <c r="AG1" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="AH1" s="22" t="s">
+      <c r="AH1" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="AI1" s="22" t="s">
+      <c r="AI1" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="AJ1" s="22" t="s">
+      <c r="AJ1" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="AK1" s="22" t="s">
+      <c r="AK1" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="AL1" s="22" t="s">
+      <c r="AL1" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="AM1" s="22" t="s">
+      <c r="AM1" s="20" t="s">
         <v>138</v>
       </c>
-      <c r="AN1" s="22" t="s">
+      <c r="AN1" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="AO1" s="22" t="s">
+      <c r="AO1" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="AP1" s="22" t="s">
+      <c r="AP1" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="AQ1" s="22" t="s">
+      <c r="AQ1" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="AR1" s="22" t="s">
+      <c r="AR1" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="AS1" s="22" t="s">
+      <c r="AS1" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="AT1" s="22" t="s">
+      <c r="AT1" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="AU1" s="22" t="s">
+      <c r="AU1" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="AV1" s="22" t="s">
+      <c r="AV1" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="AW1" s="22" t="s">
+      <c r="AW1" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="AX1" s="22" t="s">
+      <c r="AX1" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="AY1" s="22" t="s">
+      <c r="AY1" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="AZ1" s="22" t="s">
+      <c r="AZ1" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="BA1" s="22" t="s">
+      <c r="BA1" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="BB1" s="22" t="s">
+      <c r="BB1" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="BC1" s="22" t="s">
+      <c r="BC1" s="20" t="s">
         <v>154</v>
       </c>
-      <c r="BD1" s="22" t="s">
+      <c r="BD1" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="BE1" s="22" t="s">
+      <c r="BE1" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="BF1" s="22" t="s">
+      <c r="BF1" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="BG1" s="22" t="s">
+      <c r="BG1" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="BH1" s="22" t="s">
+      <c r="BH1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="BI1" s="22" t="s">
+      <c r="BI1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="BJ1" s="22" t="s">
+      <c r="BJ1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="BK1" s="22" t="s">
+      <c r="BK1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="BL1" s="22" t="s">
+      <c r="BL1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="BM1" s="42" t="s">
+      <c r="BM1" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="BN1" s="22" t="s">
+      <c r="BN1" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="BO1" s="22" t="s">
+      <c r="BO1" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="BP1" s="22" t="s">
+      <c r="BP1" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="BQ1" s="22" t="s">
+      <c r="BQ1" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="BR1" s="22" t="s">
+      <c r="BR1" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="BS1" s="22" t="s">
+      <c r="BS1" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="BT1" s="22" t="s">
+      <c r="BT1" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="BU1" s="22" t="s">
+      <c r="BU1" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="BV1" s="22" t="s">
+      <c r="BV1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="BW1" s="22" t="s">
+      <c r="BW1" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="BX1" s="22" t="s">
+      <c r="BX1" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="BY1" s="22" t="s">
+      <c r="BY1" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="BZ1" s="22" t="s">
+      <c r="BZ1" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="CA1" s="22" t="s">
+      <c r="CA1" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="CB1" s="22" t="s">
+      <c r="CB1" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="CC1" s="22" t="s">
+      <c r="CC1" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="CD1" s="22" t="s">
+      <c r="CD1" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="CE1" s="22" t="s">
+      <c r="CE1" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="CF1" s="22" t="s">
+      <c r="CF1" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="CG1" s="22" t="s">
+      <c r="CG1" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="CH1" s="22" t="s">
+      <c r="CH1" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="CI1" s="22" t="s">
+      <c r="CI1" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="CJ1" s="22" t="s">
+      <c r="CJ1" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="CK1" s="22" t="s">
+      <c r="CK1" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="CL1" s="22" t="s">
+      <c r="CL1" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="CM1" s="22" t="s">
+      <c r="CM1" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="CN1" s="22" t="s">
+      <c r="CN1" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="CO1" s="22" t="s">
+      <c r="CO1" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="CP1" s="22" t="s">
+      <c r="CP1" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="CQ1" s="22" t="s">
+      <c r="CQ1" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="CR1" s="22" t="s">
+      <c r="CR1" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="CS1" s="22" t="s">
+      <c r="CS1" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="CT1" s="22" t="s">
+      <c r="CT1" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="CU1" s="22" t="s">
+      <c r="CU1" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="CV1" s="22" t="s">
+      <c r="CV1" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="CW1" s="22" t="s">
+      <c r="CW1" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="CX1" s="22" t="s">
+      <c r="CX1" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="CY1" s="22" t="s">
+      <c r="CY1" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="CZ1" s="22" t="s">
+      <c r="CZ1" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="DA1" s="22" t="s">
+      <c r="DA1" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="DB1" s="22" t="s">
+      <c r="DB1" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="DC1" s="22" t="s">
+      <c r="DC1" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="DD1" s="22" t="s">
+      <c r="DD1" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="DE1" s="22" t="s">
+      <c r="DE1" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="DF1" s="22" t="s">
+      <c r="DF1" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="DG1" s="22" t="s">
+      <c r="DG1" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="DH1" s="22" t="s">
+      <c r="DH1" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="DI1" s="43" t="s">
+      <c r="DI1" s="40" t="s">
         <v>212</v>
       </c>
-      <c r="DJ1" s="22" t="s">
+      <c r="DJ1" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="DK1" s="22" t="s">
+      <c r="DK1" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="DL1" s="22" t="s">
+      <c r="DL1" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="DM1" s="22" t="s">
+      <c r="DM1" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="DN1" s="22" t="s">
+      <c r="DN1" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="DO1" s="22" t="s">
+      <c r="DO1" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="DP1" s="22" t="s">
+      <c r="DP1" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="DQ1" s="22" t="s">
+      <c r="DQ1" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="DR1" s="22" t="s">
+      <c r="DR1" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="DS1" s="22" t="s">
+      <c r="DS1" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="DT1" s="22" t="s">
+      <c r="DT1" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="DU1" s="22" t="s">
+      <c r="DU1" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="DV1" s="22" t="s">
+      <c r="DV1" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="DW1" s="22" t="s">
+      <c r="DW1" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="DX1" s="22" t="s">
+      <c r="DX1" s="20" t="s">
         <v>227</v>
       </c>
-      <c r="DY1" s="22" t="s">
+      <c r="DY1" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="DZ1" s="22" t="s">
+      <c r="DZ1" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="EA1" s="22" t="s">
+      <c r="EA1" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="EB1" s="22" t="s">
+      <c r="EB1" s="20" t="s">
         <v>231</v>
       </c>
-      <c r="EC1" s="22" t="s">
+      <c r="EC1" s="20" t="s">
         <v>232</v>
       </c>
-      <c r="ED1" s="15" t="s">
+      <c r="ED1" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="EE1" s="15" t="s">
+      <c r="EE1" s="13" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:135" s="56" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:135" s="53" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="41" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="44" t="s">
+      <c r="D2" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="44" t="s">
+      <c r="F2" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="42" t="s">
         <v>242</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="92" t="s">
         <v>246</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="92" t="s">
         <v>247</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="42" t="s">
         <v>249</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="R2" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="S2" s="46" t="s">
+      <c r="S2" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="42" t="s">
         <v>252</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="42" t="s">
         <v>253</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="42" t="s">
         <v>254</v>
       </c>
-      <c r="W2" s="47" t="s">
+      <c r="W2" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="X2" s="46" t="s">
+      <c r="X2" s="43" t="s">
         <v>248</v>
       </c>
-      <c r="Y2" s="48" t="s">
+      <c r="Y2" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="Z2" s="48" t="s">
+      <c r="Z2" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="AA2" s="48" t="s">
+      <c r="AA2" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="AB2" s="48" t="s">
+      <c r="AB2" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="AC2" s="48" t="s">
+      <c r="AC2" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="AD2" s="45" t="s">
+      <c r="AD2" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="AE2" s="49" t="s">
+      <c r="AE2" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="AF2" s="20" t="s">
+      <c r="AF2" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="AG2" s="20" t="s">
+      <c r="AG2" s="18" t="s">
         <v>261</v>
       </c>
-      <c r="AH2" s="20" t="s">
+      <c r="AH2" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="AI2" s="20" t="s">
+      <c r="AI2" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AJ2" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="AK2" s="20" t="s">
+      <c r="AK2" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="AL2" s="20" t="s">
+      <c r="AL2" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="AM2" s="31" t="s">
+      <c r="AM2" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="AN2" s="20" t="s">
+      <c r="AN2" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="AO2" s="20" t="s">
+      <c r="AO2" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="AP2" s="20" t="s">
+      <c r="AP2" s="18" t="s">
         <v>270</v>
       </c>
-      <c r="AQ2" s="20" t="s">
+      <c r="AQ2" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="AR2" s="20" t="s">
+      <c r="AR2" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="AS2" s="45" t="s">
+      <c r="AS2" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="AT2" s="80"/>
-      <c r="AU2" s="80" t="s">
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73" t="s">
         <v>96</v>
       </c>
-      <c r="AV2" s="80" t="s">
+      <c r="AV2" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="AW2" s="80" t="s">
+      <c r="AW2" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="AX2" s="50" t="s">
+      <c r="AX2" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="AY2" s="80" t="s">
+      <c r="AY2" s="73" t="s">
         <v>274</v>
       </c>
-      <c r="AZ2" s="45" t="s">
+      <c r="AZ2" s="42" t="s">
         <v>275</v>
       </c>
-      <c r="BA2" s="80" t="s">
+      <c r="BA2" s="73" t="s">
         <v>276</v>
       </c>
-      <c r="BB2" s="80" t="s">
+      <c r="BB2" s="73" t="s">
         <v>277</v>
       </c>
-      <c r="BC2" s="51" t="s">
+      <c r="BC2" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="BD2" s="51" t="s">
+      <c r="BD2" s="48" t="s">
         <v>279</v>
       </c>
-      <c r="BE2" s="80" t="s">
+      <c r="BE2" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="BF2" s="80" t="s">
+      <c r="BF2" s="73" t="s">
         <v>281</v>
       </c>
-      <c r="BG2" s="80" t="s">
+      <c r="BG2" s="73" t="s">
         <v>282</v>
       </c>
-      <c r="BH2" s="80" t="s">
+      <c r="BH2" s="73" t="s">
         <v>280</v>
       </c>
-      <c r="BI2" s="80" t="s">
+      <c r="BI2" s="73" t="s">
         <v>283</v>
       </c>
-      <c r="BJ2" s="80" t="s">
+      <c r="BJ2" s="73" t="s">
         <v>284</v>
       </c>
-      <c r="BK2" s="45" t="s">
+      <c r="BK2" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="BL2" s="45" t="s">
+      <c r="BL2" s="42" t="s">
         <v>251</v>
       </c>
-      <c r="BM2" s="80" t="s">
+      <c r="BM2" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="BN2" s="80" t="s">
+      <c r="BN2" s="73" t="s">
         <v>286</v>
       </c>
-      <c r="BO2" s="31" t="s">
+      <c r="BO2" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="BP2" s="44" t="s">
+      <c r="BP2" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="BQ2" s="45" t="s">
+      <c r="BQ2" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="BR2" s="46" t="s">
+      <c r="BR2" s="43" t="s">
         <v>290</v>
       </c>
-      <c r="BS2" s="48" t="s">
+      <c r="BS2" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="BT2" s="48" t="s">
+      <c r="BT2" s="45" t="s">
         <v>270</v>
       </c>
-      <c r="BU2" s="52" t="s">
+      <c r="BU2" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="BV2" s="51" t="s">
+      <c r="BV2" s="48" t="s">
         <v>293</v>
       </c>
-      <c r="BW2" s="51" t="s">
+      <c r="BW2" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="BX2" s="51" t="s">
+      <c r="BX2" s="48" t="s">
         <v>295</v>
       </c>
-      <c r="BY2" s="51" t="s">
+      <c r="BY2" s="48" t="s">
         <v>296</v>
       </c>
-      <c r="BZ2" s="18" t="s">
+      <c r="BZ2" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="CA2" s="18" t="s">
+      <c r="CA2" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="CB2" s="52" t="s">
+      <c r="CB2" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="CC2" s="52" t="s">
+      <c r="CC2" s="49" t="s">
         <v>299</v>
       </c>
-      <c r="CD2" s="52" t="s">
+      <c r="CD2" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="CE2" s="52" t="s">
+      <c r="CE2" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="CF2" s="52" t="s">
+      <c r="CF2" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="CG2" s="52" t="s">
+      <c r="CG2" s="49" t="s">
         <v>292</v>
       </c>
-      <c r="CH2" s="51" t="s">
+      <c r="CH2" s="48" t="s">
         <v>302</v>
       </c>
-      <c r="CI2" s="51" t="s">
+      <c r="CI2" s="48" t="s">
         <v>303</v>
       </c>
-      <c r="CJ2" s="51" t="s">
+      <c r="CJ2" s="48" t="s">
         <v>304</v>
       </c>
-      <c r="CK2" s="51" t="s">
+      <c r="CK2" s="48" t="s">
         <v>286</v>
       </c>
-      <c r="CL2" s="51" t="s">
+      <c r="CL2" s="48" t="s">
         <v>294</v>
       </c>
-      <c r="CM2" s="51" t="s">
+      <c r="CM2" s="48" t="s">
         <v>305</v>
       </c>
-      <c r="CN2" s="51" t="s">
+      <c r="CN2" s="48" t="s">
         <v>306</v>
       </c>
-      <c r="CO2" s="51" t="s">
+      <c r="CO2" s="48" t="s">
         <v>307</v>
       </c>
-      <c r="CP2" s="51" t="s">
+      <c r="CP2" s="48" t="s">
         <v>308</v>
       </c>
-      <c r="CQ2" s="51" t="s">
+      <c r="CQ2" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="CR2" s="51" t="s">
+      <c r="CR2" s="48" t="s">
         <v>310</v>
       </c>
-      <c r="CS2" s="51" t="s">
+      <c r="CS2" s="48" t="s">
         <v>311</v>
       </c>
-      <c r="CT2" s="51" t="s">
+      <c r="CT2" s="48" t="s">
         <v>312</v>
       </c>
-      <c r="CU2" s="51" t="s">
+      <c r="CU2" s="48" t="s">
         <v>313</v>
       </c>
-      <c r="CV2" s="51" t="s">
+      <c r="CV2" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="CW2" s="51" t="s">
+      <c r="CW2" s="48" t="s">
         <v>258</v>
       </c>
-      <c r="CX2" s="51" t="s">
+      <c r="CX2" s="48" t="s">
         <v>315</v>
       </c>
-      <c r="CY2" s="51" t="s">
+      <c r="CY2" s="48" t="s">
         <v>316</v>
       </c>
-      <c r="CZ2" s="53" t="s">
+      <c r="CZ2" s="50" t="s">
         <v>317</v>
       </c>
-      <c r="DA2" s="51" t="s">
+      <c r="DA2" s="48" t="s">
         <v>318</v>
       </c>
-      <c r="DB2" s="52" t="s">
+      <c r="DB2" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="DC2" s="52" t="s">
+      <c r="DC2" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="DD2" s="52" t="s">
+      <c r="DD2" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="DE2" s="52" t="s">
+      <c r="DE2" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="DF2" s="52"/>
-      <c r="DG2" s="52"/>
-      <c r="DH2" s="52" t="s">
+      <c r="DF2" s="49"/>
+      <c r="DG2" s="49"/>
+      <c r="DH2" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="DI2" s="52" t="s">
+      <c r="DI2" s="49" t="s">
         <v>319</v>
       </c>
-      <c r="DJ2" s="52" t="s">
+      <c r="DJ2" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="DK2" s="52" t="s">
+      <c r="DK2" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="DL2" s="52" t="s">
+      <c r="DL2" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="DM2" s="52" t="s">
+      <c r="DM2" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="DN2" s="52" t="s">
+      <c r="DN2" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="DO2" s="52" t="s">
+      <c r="DO2" s="49" t="s">
         <v>326</v>
       </c>
-      <c r="DP2" s="52" t="s">
+      <c r="DP2" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="DQ2" s="54" t="s">
+      <c r="DQ2" s="51" t="s">
         <v>328</v>
       </c>
-      <c r="DR2" s="52" t="s">
+      <c r="DR2" s="49" t="s">
         <v>327</v>
       </c>
-      <c r="DS2" s="52" t="s">
+      <c r="DS2" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="DT2" s="52" t="s">
+      <c r="DT2" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="DU2" s="52" t="s">
+      <c r="DU2" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="DV2" s="52" t="s">
+      <c r="DV2" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="DW2" s="52" t="s">
+      <c r="DW2" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="DX2" s="52" t="s">
+      <c r="DX2" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="DY2" s="52" t="s">
+      <c r="DY2" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="DZ2" s="52" t="s">
+      <c r="DZ2" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="EA2" s="52" t="s">
+      <c r="EA2" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="EB2" s="52" t="s">
+      <c r="EB2" s="49" t="s">
         <v>329</v>
       </c>
-      <c r="EC2" s="52" t="s">
+      <c r="EC2" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="ED2" s="55" t="s">
+      <c r="ED2" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="EE2" s="55" t="s">
+      <c r="EE2" s="52" t="s">
         <v>331</v>
       </c>
     </row>
@@ -5812,533 +5882,533 @@
     <col min="90" max="90" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:90" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>338</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="21" t="s">
         <v>339</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="AQ1" s="15" t="s">
+      <c r="AQ1" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AR1" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AS1" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="AT1" s="15" t="s">
+      <c r="AT1" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="AU1" s="15" t="s">
+      <c r="AU1" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="AV1" s="15" t="s">
+      <c r="AV1" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="AW1" s="15" t="s">
+      <c r="AW1" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="AX1" s="15" t="s">
+      <c r="AX1" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="AY1" s="15" t="s">
+      <c r="AY1" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="AZ1" s="15" t="s">
+      <c r="AZ1" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="BA1" s="15" t="s">
+      <c r="BA1" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="BB1" s="15" t="s">
+      <c r="BB1" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="BC1" s="15" t="s">
+      <c r="BC1" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="BD1" s="15" t="s">
+      <c r="BD1" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="BE1" s="15" t="s">
+      <c r="BE1" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="BF1" s="15" t="s">
+      <c r="BF1" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="BG1" s="15" t="s">
+      <c r="BG1" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="BH1" s="15" t="s">
+      <c r="BH1" s="13" t="s">
         <v>388</v>
       </c>
-      <c r="BI1" s="15" t="s">
+      <c r="BI1" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BJ1" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="BK1" s="15" t="s">
+      <c r="BK1" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="BL1" s="15" t="s">
+      <c r="BL1" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="BM1" s="15" t="s">
+      <c r="BM1" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="BN1" s="15" t="s">
+      <c r="BN1" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="BO1" s="15" t="s">
+      <c r="BO1" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="BP1" s="15" t="s">
+      <c r="BP1" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="BQ1" s="15" t="s">
+      <c r="BQ1" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="BR1" s="15" t="s">
+      <c r="BR1" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="BS1" s="15" t="s">
+      <c r="BS1" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="BT1" s="15" t="s">
+      <c r="BT1" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="BU1" s="15" t="s">
+      <c r="BU1" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="BV1" s="15" t="s">
+      <c r="BV1" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="BW1" s="15" t="s">
+      <c r="BW1" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="BX1" s="15" t="s">
+      <c r="BX1" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="BY1" s="15" t="s">
+      <c r="BY1" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="BZ1" s="15" t="s">
+      <c r="BZ1" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="CA1" s="15" t="s">
+      <c r="CA1" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="CB1" s="15" t="s">
+      <c r="CB1" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="CC1" s="15" t="s">
+      <c r="CC1" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="CD1" s="15" t="s">
+      <c r="CD1" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="CE1" s="15" t="s">
+      <c r="CE1" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="CF1" s="15" t="s">
+      <c r="CF1" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="CG1" s="15" t="s">
+      <c r="CG1" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="CH1" s="15" t="s">
+      <c r="CH1" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="CI1" s="15" t="s">
+      <c r="CI1" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="CJ1" s="15" t="s">
+      <c r="CJ1" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="CK1" s="15" t="s">
+      <c r="CK1" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="CL1" s="15" t="s">
+      <c r="CL1" s="13" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="2" spans="1:90" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:90" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="88" t="s">
         <v>420</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>421</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="88" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="88" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="88" t="s">
         <v>245</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="88" t="s">
         <v>329</v>
       </c>
-      <c r="L2" s="84" t="s">
+      <c r="L2" s="88" t="s">
         <v>250</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="80" t="s">
         <v>424</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="80" t="s">
         <v>425</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="88" t="s">
         <v>426</v>
       </c>
-      <c r="P2" s="38" t="s">
+      <c r="P2" s="35" t="s">
         <v>427</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="T2" s="38" t="s">
+      <c r="T2" s="35" t="s">
         <v>429</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="V2" s="84" t="s">
+      <c r="V2" s="88" t="s">
         <v>430</v>
       </c>
-      <c r="W2" s="84" t="s">
+      <c r="W2" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="X2" s="92" t="s">
         <v>432</v>
       </c>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="84" t="s">
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="36"/>
+      <c r="AB2" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="AC2" s="84" t="s">
+      <c r="AC2" s="88" t="s">
         <v>277</v>
       </c>
-      <c r="AD2" s="84" t="s">
+      <c r="AD2" s="88" t="s">
         <v>240</v>
       </c>
-      <c r="AE2" s="84" t="s">
+      <c r="AE2" s="88" t="s">
         <v>433</v>
       </c>
-      <c r="AF2" s="84" t="s">
+      <c r="AF2" s="88" t="s">
         <v>434</v>
       </c>
-      <c r="AG2" s="84" t="s">
+      <c r="AG2" s="88" t="s">
         <v>435</v>
       </c>
-      <c r="AH2" s="84" t="s">
+      <c r="AH2" s="88" t="s">
         <v>435</v>
       </c>
-      <c r="AI2" s="78" t="s">
+      <c r="AI2" s="80" t="s">
         <v>436</v>
       </c>
-      <c r="AJ2" s="78" t="s">
+      <c r="AJ2" s="80" t="s">
         <v>437</v>
       </c>
-      <c r="AK2" s="78" t="s">
+      <c r="AK2" s="80" t="s">
         <v>438</v>
       </c>
-      <c r="AL2" s="78" t="s">
+      <c r="AL2" s="80" t="s">
         <v>438</v>
       </c>
-      <c r="AM2" s="78" t="s">
+      <c r="AM2" s="80" t="s">
         <v>439</v>
       </c>
-      <c r="AN2" s="78" t="s">
+      <c r="AN2" s="80" t="s">
         <v>440</v>
       </c>
-      <c r="AO2" s="78" t="s">
+      <c r="AO2" s="80" t="s">
         <v>441</v>
       </c>
-      <c r="AP2" s="78" t="s">
+      <c r="AP2" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="AQ2" s="78" t="s">
+      <c r="AQ2" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="AR2" s="78" t="s">
+      <c r="AR2" s="80" t="s">
         <v>442</v>
       </c>
-      <c r="AS2" s="78" t="s">
+      <c r="AS2" s="80" t="s">
         <v>443</v>
       </c>
-      <c r="AT2" s="78" t="s">
+      <c r="AT2" s="80" t="s">
         <v>444</v>
       </c>
-      <c r="AU2" s="29"/>
-      <c r="AV2" s="29"/>
-      <c r="AW2" s="78" t="s">
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="80" t="s">
         <v>445</v>
       </c>
-      <c r="AX2" s="78" t="s">
+      <c r="AX2" s="80" t="s">
         <v>440</v>
       </c>
-      <c r="AY2" s="78" t="s">
+      <c r="AY2" s="80" t="s">
         <v>438</v>
       </c>
-      <c r="AZ2" s="20" t="s">
+      <c r="AZ2" s="18" t="s">
         <v>446</v>
       </c>
-      <c r="BA2" s="20" t="s">
+      <c r="BA2" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="BB2" s="40" t="s">
+      <c r="BB2" s="37" t="s">
         <v>448</v>
       </c>
-      <c r="BC2" s="29" t="s">
+      <c r="BC2" s="27" t="s">
         <v>449</v>
       </c>
-      <c r="BD2" s="29" t="s">
+      <c r="BD2" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="BE2" s="29" t="s">
+      <c r="BE2" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="BF2" s="29" t="s">
+      <c r="BF2" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="BG2" s="29" t="s">
+      <c r="BG2" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="BH2" s="29" t="s">
+      <c r="BH2" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="BI2" s="29" t="s">
+      <c r="BI2" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="BJ2" s="29" t="s">
+      <c r="BJ2" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="BK2" s="29" t="s">
+      <c r="BK2" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="BL2" s="29"/>
-      <c r="BM2" s="29" t="s">
+      <c r="BL2" s="27"/>
+      <c r="BM2" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="BN2" s="29" t="s">
+      <c r="BN2" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="BO2" s="29" t="s">
+      <c r="BO2" s="27" t="s">
         <v>429</v>
       </c>
-      <c r="BP2" s="29" t="s">
+      <c r="BP2" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="BQ2" s="29" t="s">
+      <c r="BQ2" s="27" t="s">
         <v>450</v>
       </c>
-      <c r="BR2" s="29" t="s">
+      <c r="BR2" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="BS2" s="29" t="s">
+      <c r="BS2" s="27" t="s">
         <v>453</v>
       </c>
-      <c r="BT2" s="29" t="s">
+      <c r="BT2" s="27" t="s">
         <v>454</v>
       </c>
-      <c r="BU2" s="29" t="s">
+      <c r="BU2" s="27" t="s">
         <v>455</v>
       </c>
-      <c r="BV2" s="29" t="s">
+      <c r="BV2" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="BW2" s="29" t="s">
+      <c r="BW2" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="BX2" s="29" t="s">
+      <c r="BX2" s="27" t="s">
         <v>458</v>
       </c>
-      <c r="BY2" s="29" t="s">
+      <c r="BY2" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="BZ2" s="29" t="s">
+      <c r="BZ2" s="27" t="s">
         <v>427</v>
       </c>
-      <c r="CA2" s="29" t="s">
+      <c r="CA2" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="CB2" s="20" t="s">
+      <c r="CB2" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="CC2" s="29" t="s">
+      <c r="CC2" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="CD2" s="20" t="s">
+      <c r="CD2" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="CE2" s="20" t="s">
+      <c r="CE2" s="18" t="s">
         <v>462</v>
       </c>
-      <c r="CF2" s="20" t="s">
+      <c r="CF2" s="18" t="s">
         <v>463</v>
       </c>
-      <c r="CG2" s="20" t="s">
+      <c r="CG2" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="CH2" s="20" t="s">
+      <c r="CH2" s="18" t="s">
         <v>465</v>
       </c>
-      <c r="CI2" s="29" t="s">
+      <c r="CI2" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="CJ2" s="20"/>
-      <c r="CK2" s="20" t="s">
+      <c r="CJ2" s="18"/>
+      <c r="CK2" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="CL2" s="20" t="s">
+      <c r="CL2" s="18" t="s">
         <v>467</v>
       </c>
     </row>
@@ -6401,275 +6471,275 @@
     <col min="41" max="42" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:50" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>469</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>470</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>471</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="K1" s="27" t="s">
+      <c r="K1" s="25" t="s">
         <v>474</v>
       </c>
-      <c r="L1" s="27" t="s">
+      <c r="L1" s="25" t="s">
         <v>475</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="25" t="s">
         <v>476</v>
       </c>
-      <c r="N1" s="27" t="s">
+      <c r="N1" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="O1" s="27" t="s">
+      <c r="O1" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="25" t="s">
         <v>479</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="25" t="s">
         <v>480</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="26" t="s">
         <v>484</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="25" t="s">
         <v>486</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="25" t="s">
         <v>487</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="25" t="s">
         <v>337</v>
       </c>
-      <c r="Z1" s="27" t="s">
+      <c r="Z1" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="AA1" s="27" t="s">
+      <c r="AA1" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="25" t="s">
         <v>490</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="25" t="s">
         <v>491</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="25" t="s">
         <v>494</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="25" t="s">
         <v>495</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AH1" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AI1" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>498</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AK1" s="25" t="s">
         <v>499</v>
       </c>
-      <c r="AL1" s="27" t="s">
+      <c r="AL1" s="25" t="s">
         <v>500</v>
       </c>
-      <c r="AM1" s="27" t="s">
+      <c r="AM1" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="AN1" s="27" t="s">
+      <c r="AN1" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="AO1" s="27" t="s">
+      <c r="AO1" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="AP1" s="27" t="s">
+      <c r="AP1" s="25" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:50" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="80" t="s">
         <v>505</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="88" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="80" t="s">
         <v>506</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="73" t="s">
         <v>507</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="80" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="92" t="s">
         <v>432</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="92" t="s">
         <v>432</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="11" t="s">
         <v>508</v>
       </c>
-      <c r="M2" s="84" t="s">
+      <c r="M2" s="88" t="s">
         <v>428</v>
       </c>
-      <c r="N2" s="33" t="s">
+      <c r="N2" s="92" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="73" t="s">
         <v>509</v>
       </c>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="80" t="s">
         <v>510</v>
       </c>
-      <c r="R2" s="78" t="s">
+      <c r="R2" s="80" t="s">
         <v>509</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="T2" s="78" t="s">
+      <c r="T2" s="80" t="s">
         <v>282</v>
       </c>
-      <c r="U2" s="84" t="s">
+      <c r="U2" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="V2" s="78" t="s">
+      <c r="V2" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="W2" s="78" t="s">
+      <c r="W2" s="80" t="s">
         <v>512</v>
       </c>
-      <c r="X2" s="78" t="s">
+      <c r="X2" s="80" t="s">
         <v>509</v>
       </c>
-      <c r="Y2" s="34" t="s">
+      <c r="Y2" s="31" t="s">
         <v>270</v>
       </c>
-      <c r="Z2" s="35" t="s">
+      <c r="Z2" s="32" t="s">
         <v>513</v>
       </c>
-      <c r="AA2" s="36" t="s">
+      <c r="AA2" s="33" t="s">
         <v>514</v>
       </c>
-      <c r="AB2" s="36" t="s">
+      <c r="AB2" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="AC2" s="36" t="s">
+      <c r="AC2" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="AD2" s="36" t="s">
+      <c r="AD2" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="AE2" s="36" t="s">
+      <c r="AE2" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="AF2" s="36" t="s">
+      <c r="AF2" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="AG2" s="37" t="s">
+      <c r="AG2" s="34" t="s">
         <v>515</v>
       </c>
-      <c r="AH2" s="37" t="s">
+      <c r="AH2" s="34" t="s">
         <v>328</v>
       </c>
-      <c r="AI2" s="36" t="s">
+      <c r="AI2" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="AJ2" s="36" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="AK2" s="36" t="s">
+      <c r="AK2" s="33" t="s">
         <v>509</v>
       </c>
-      <c r="AL2" s="36" t="s">
+      <c r="AL2" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="AM2" s="36" t="s">
+      <c r="AM2" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="AN2" s="36" t="s">
+      <c r="AN2" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="AO2" s="36" t="s">
+      <c r="AO2" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="AP2" s="36" t="s">
+      <c r="AP2" s="33" t="s">
         <v>328</v>
       </c>
-      <c r="AQ2" s="35"/>
-      <c r="AR2" s="35"/>
-      <c r="AS2" s="35"/>
-      <c r="AT2" s="35"/>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
+      <c r="AW2" s="32"/>
+      <c r="AX2" s="32"/>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="10" t="s">
         <v>516</v>
       </c>
     </row>
@@ -6732,257 +6802,257 @@
     <col min="40" max="40" width="6.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="15" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:42" s="13" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>522</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>526</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="13" t="s">
         <v>534</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="13" t="s">
         <v>537</v>
       </c>
-      <c r="Y1" s="15" t="s">
+      <c r="Y1" s="13" t="s">
         <v>538</v>
       </c>
-      <c r="Z1" s="15" t="s">
+      <c r="Z1" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="AB1" s="15" t="s">
+      <c r="AB1" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="AC1" s="15" t="s">
+      <c r="AC1" s="13" t="s">
         <v>542</v>
       </c>
-      <c r="AD1" s="15" t="s">
+      <c r="AD1" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AE1" s="13" t="s">
         <v>544</v>
       </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AF1" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="AG1" s="15" t="s">
+      <c r="AG1" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="AH1" s="15" t="s">
+      <c r="AH1" s="13" t="s">
         <v>547</v>
       </c>
-      <c r="AI1" s="15" t="s">
+      <c r="AI1" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="AJ1" s="15" t="s">
+      <c r="AJ1" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="AK1" s="15" t="s">
+      <c r="AK1" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="AL1" s="15" t="s">
+      <c r="AL1" s="13" t="s">
         <v>551</v>
       </c>
-      <c r="AM1" s="15" t="s">
+      <c r="AM1" s="13" t="s">
         <v>552</v>
       </c>
-      <c r="AN1" s="15" t="s">
+      <c r="AN1" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="AO1" s="15" t="s">
+      <c r="AO1" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="AP1" s="15" t="s">
+      <c r="AP1" s="13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:42" s="89" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="88" t="s">
         <v>555</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>556</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="88" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="88" t="s">
         <v>463</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="88" t="s">
         <v>557</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="88" t="s">
         <v>558</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="88" t="s">
         <v>559</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="88" t="s">
         <v>560</v>
       </c>
-      <c r="L2" s="78" t="s">
+      <c r="L2" s="80" t="s">
         <v>561</v>
       </c>
-      <c r="M2" s="78" t="s">
+      <c r="M2" s="80" t="s">
         <v>562</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="80" t="s">
         <v>329</v>
       </c>
-      <c r="O2" s="78" t="s">
+      <c r="O2" s="80" t="s">
         <v>563</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="P2" s="80" t="s">
         <v>564</v>
       </c>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="80" t="s">
         <v>565</v>
       </c>
-      <c r="R2" s="78" t="s">
+      <c r="R2" s="80" t="s">
         <v>566</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="80" t="s">
         <v>567</v>
       </c>
-      <c r="T2" s="78" t="s">
+      <c r="T2" s="80" t="s">
         <v>568</v>
       </c>
-      <c r="U2" s="80" t="s">
+      <c r="U2" s="73" t="s">
         <v>569</v>
       </c>
-      <c r="V2" s="78" t="s">
+      <c r="V2" s="80" t="s">
         <v>570</v>
       </c>
-      <c r="W2" s="78" t="s">
+      <c r="W2" s="80" t="s">
         <v>571</v>
       </c>
-      <c r="X2" s="78" t="s">
+      <c r="X2" s="80" t="s">
         <v>572</v>
       </c>
-      <c r="Y2" s="78" t="s">
+      <c r="Y2" s="80" t="s">
         <v>257</v>
       </c>
-      <c r="Z2" s="78">
+      <c r="Z2" s="80">
         <v>50</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="89" t="s">
         <v>573</v>
       </c>
-      <c r="AB2" s="80" t="s">
+      <c r="AB2" s="73" t="s">
         <v>434</v>
       </c>
-      <c r="AC2" s="80" t="s">
+      <c r="AC2" s="73" t="s">
         <v>463</v>
       </c>
-      <c r="AD2" s="80">
+      <c r="AD2" s="73">
         <v>1.65</v>
       </c>
-      <c r="AE2" s="80" t="s">
+      <c r="AE2" s="73" t="s">
         <v>569</v>
       </c>
-      <c r="AF2" s="80" t="s">
+      <c r="AF2" s="73" t="s">
         <v>574</v>
       </c>
-      <c r="AG2" s="80" t="s">
+      <c r="AG2" s="73" t="s">
         <v>575</v>
       </c>
-      <c r="AH2" s="80" t="s">
+      <c r="AH2" s="73" t="s">
         <v>576</v>
       </c>
-      <c r="AI2" s="31" t="s">
+      <c r="AI2" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="AJ2" s="31" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>578</v>
       </c>
-      <c r="AK2" s="21"/>
-      <c r="AL2" s="32" t="s">
+      <c r="AK2" s="19"/>
+      <c r="AL2" s="30" t="s">
         <v>579</v>
       </c>
-      <c r="AM2" s="32" t="s">
+      <c r="AM2" s="30" t="s">
         <v>579</v>
       </c>
-      <c r="AN2" s="21" t="s">
+      <c r="AN2" s="19" t="s">
         <v>580</v>
       </c>
-      <c r="AO2" s="21" t="s">
+      <c r="AO2" s="19" t="s">
         <v>581</v>
       </c>
-      <c r="AP2" s="21"/>
+      <c r="AP2" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7040,237 +7110,237 @@
     <col min="37" max="37" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:37" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="25" t="s">
         <v>582</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="25" t="s">
         <v>583</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G1" s="25" t="s">
         <v>584</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H1" s="25" t="s">
         <v>585</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I1" s="25" t="s">
         <v>586</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="M1" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="N1" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="O1" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="Q1" s="27" t="s">
+      <c r="Q1" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="27" t="s">
+      <c r="R1" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="S1" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="T1" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="V1" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="X1" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="Y1" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="Z1" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="AB1" s="27" t="s">
+      <c r="AB1" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="AC1" s="27" t="s">
+      <c r="AC1" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="AD1" s="27" t="s">
+      <c r="AD1" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AE1" s="27" t="s">
+      <c r="AE1" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="AF1" s="27" t="s">
+      <c r="AF1" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AG1" s="27" t="s">
+      <c r="AG1" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AH1" s="27" t="s">
+      <c r="AH1" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AI1" s="27" t="s">
+      <c r="AI1" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AJ1" s="27" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="AK1" s="27" t="s">
+      <c r="AK1" s="25" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:37" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="80" t="s">
         <v>445</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="80" t="s">
         <v>610</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="80" t="s">
         <v>611</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="80" t="s">
         <v>612</v>
       </c>
-      <c r="I2" s="78" t="s">
+      <c r="I2" s="80" t="s">
         <v>613</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="80" t="s">
         <v>614</v>
       </c>
-      <c r="K2" s="61">
+      <c r="K2" s="58">
         <v>0.3</v>
       </c>
-      <c r="L2" s="61">
+      <c r="L2" s="58">
         <v>1145071.71</v>
       </c>
-      <c r="M2" s="61">
+      <c r="M2" s="58">
         <v>365</v>
       </c>
-      <c r="N2" s="67">
+      <c r="N2" s="64">
         <v>875.27</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="88" t="s">
         <v>426</v>
       </c>
-      <c r="Q2" s="78" t="s">
+      <c r="Q2" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="R2" s="88" t="s">
         <v>615</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="27" t="s">
         <v>617</v>
       </c>
-      <c r="V2" s="30" t="s">
+      <c r="V2" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="W2" s="30" t="s">
+      <c r="W2" s="28" t="s">
         <v>619</v>
       </c>
-      <c r="X2" s="20" t="s">
+      <c r="X2" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="Y2" s="20" t="s">
+      <c r="Y2" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="Z2" s="20" t="s">
+      <c r="Z2" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="AB2" s="20">
+      <c r="AB2" s="18">
         <v>1.4</v>
       </c>
-      <c r="AC2" s="20">
+      <c r="AC2" s="18">
         <v>95000000</v>
       </c>
-      <c r="AD2" s="20">
+      <c r="AD2" s="18">
         <v>28767.119999999999</v>
       </c>
-      <c r="AE2" s="20">
+      <c r="AE2" s="18">
         <v>365</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="27" t="s">
         <v>620</v>
       </c>
-      <c r="AH2" s="63">
+      <c r="AH2" s="60">
         <v>33.68000067669842</v>
       </c>
-      <c r="AI2" s="63">
+      <c r="AI2" s="60">
         <v>28.986666144465609</v>
       </c>
-      <c r="AJ2" s="63">
+      <c r="AJ2" s="60">
         <v>37.333333178835993</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AK2" s="27" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="N3" s="66">
+      <c r="N3" s="63">
         <v>885.3</v>
       </c>
     </row>
@@ -7315,148 +7385,148 @@
     <col min="20" max="20" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="8" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:28" s="89" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>623</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>624</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>625</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>626</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>627</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>628</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>629</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
-      <c r="AB1" s="15"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
     </row>
-    <row r="2" spans="1:28" s="8" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+    <row r="2" spans="1:28" s="89" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="22" t="s">
         <v>240</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="22" t="s">
         <v>638</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="88" t="s">
         <v>454</v>
       </c>
-      <c r="P2" s="84" t="s">
+      <c r="P2" s="88" t="s">
         <v>452</v>
       </c>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="88" t="s">
         <v>101</v>
       </c>
-      <c r="R2" s="78" t="s">
+      <c r="R2" s="80" t="s">
         <v>432</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="80" t="s">
         <v>432</v>
       </c>
-      <c r="T2" s="84" t="s">
+      <c r="T2" s="88" t="s">
         <v>640</v>
       </c>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="84"/>
-      <c r="Y2" s="84"/>
-      <c r="Z2" s="84"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="84"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="88"/>
+      <c r="AA2" s="88"/>
+      <c r="AB2" s="88"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="N3" s="11" t="s">
+      <c r="N3" s="10" t="s">
         <v>641</v>
       </c>
     </row>
@@ -7471,10 +7541,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AS4"/>
+  <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7488,16 +7558,16 @@
     <col min="7" max="7" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="20" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="24.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="24.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="34.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -7511,347 +7581,443 @@
     <col min="30" max="30" width="29.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="7.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:45" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>336</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>644</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="13" t="s">
         <v>645</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="13" t="s">
         <v>646</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>647</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="13" t="s">
         <v>649</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="13" t="s">
         <v>650</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="13" t="s">
         <v>651</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>652</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>653</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="R1" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="15" t="s">
         <v>654</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="W1" s="17" t="s">
+      <c r="W1" s="15" t="s">
         <v>658</v>
       </c>
-      <c r="X1" s="17" t="s">
+      <c r="X1" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="Y1" s="17" t="s">
+      <c r="Y1" s="15" t="s">
         <v>660</v>
       </c>
-      <c r="Z1" s="17" t="s">
+      <c r="Z1" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="AA1" s="17" t="s">
+      <c r="AA1" s="15" t="s">
         <v>662</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="AC1" s="17" t="s">
+      <c r="AC1" s="15" t="s">
         <v>664</v>
       </c>
-      <c r="AD1" s="17" t="s">
+      <c r="AD1" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AE1" s="15" t="s">
         <v>666</v>
       </c>
-      <c r="AF1" s="17" t="s">
+      <c r="AF1" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16"/>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16"/>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
+      <c r="AG1" s="13" t="s">
+        <v>668</v>
+      </c>
+      <c r="AH1" s="14"/>
+      <c r="AI1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AK1" s="14"/>
+      <c r="AL1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AN1" s="14"/>
+      <c r="AO1" s="14"/>
     </row>
-    <row r="2" spans="1:45" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:45" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="88" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="84" t="s">
+      <c r="D2" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="84" t="s">
-        <v>668</v>
-      </c>
-      <c r="F2" s="84" t="s">
+      <c r="E2" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="F2" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="G2" s="84" t="s">
+      <c r="G2" s="88" t="s">
         <v>285</v>
       </c>
-      <c r="H2" s="84" t="s">
+      <c r="H2" s="88" t="s">
         <v>434</v>
       </c>
-      <c r="I2" s="80" t="s">
-        <v>669</v>
-      </c>
-      <c r="J2" s="78" t="s">
+      <c r="I2" s="73" t="s">
         <v>670</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="80" t="s">
+        <v>671</v>
+      </c>
+      <c r="K2" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="L2" s="84" t="s">
-        <v>671</v>
-      </c>
-      <c r="M2" s="84" t="s">
+      <c r="L2" s="88" t="s">
+        <v>672</v>
+      </c>
+      <c r="M2" s="88" t="s">
         <v>328</v>
       </c>
-      <c r="N2" s="84" t="s">
-        <v>672</v>
-      </c>
-      <c r="O2" s="78" t="s">
+      <c r="N2" s="88" t="s">
+        <v>673</v>
+      </c>
+      <c r="O2" s="80" t="s">
         <v>614</v>
       </c>
-      <c r="P2" s="78" t="s">
+      <c r="P2" s="80" t="s">
         <v>614</v>
       </c>
-      <c r="Q2" s="84" t="s">
+      <c r="Q2" s="88" t="s">
         <v>426</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="R2" s="88" t="s">
         <v>426</v>
       </c>
-      <c r="S2" s="84" t="s">
+      <c r="S2" s="88" t="s">
         <v>328</v>
       </c>
-      <c r="T2" s="84" t="s">
+      <c r="T2" s="88" t="s">
+        <v>674</v>
+      </c>
+      <c r="U2" s="88" t="s">
+        <v>675</v>
+      </c>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="73" t="s">
+        <v>670</v>
+      </c>
+      <c r="Y2" s="73" t="s">
+        <v>670</v>
+      </c>
+      <c r="Z2" s="73" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA2" s="73" t="s">
+        <v>670</v>
+      </c>
+      <c r="AB2" s="79" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC2" s="79" t="s">
+        <v>677</v>
+      </c>
+      <c r="AD2" s="75" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE2" s="75" t="s">
+        <v>679</v>
+      </c>
+      <c r="AF2" s="75" t="s">
+        <v>680</v>
+      </c>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="17"/>
+      <c r="AI2" s="18"/>
+      <c r="AJ2" s="18"/>
+      <c r="AK2" s="18"/>
+      <c r="AL2" s="18"/>
+      <c r="AM2" s="18"/>
+      <c r="AN2" s="18"/>
+      <c r="AO2" s="18"/>
+      <c r="AP2" s="18"/>
+      <c r="AQ2" s="18"/>
+      <c r="AR2" s="18"/>
+      <c r="AS2" s="18"/>
+    </row>
+    <row r="3" spans="1:45" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="88" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="88" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="88" t="s">
+        <v>682</v>
+      </c>
+      <c r="F3" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="I3" s="73" t="s">
+        <v>683</v>
+      </c>
+      <c r="J3" s="80" t="s">
+        <v>684</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="L3" s="88" t="s">
+        <v>685</v>
+      </c>
+      <c r="M3" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="N3" s="88" t="s">
         <v>673</v>
       </c>
-      <c r="U2" s="84" t="s">
+      <c r="O3" s="80" t="s">
+        <v>686</v>
+      </c>
+      <c r="P3" s="80" t="s">
+        <v>686</v>
+      </c>
+      <c r="Q3" s="88" t="s">
+        <v>426</v>
+      </c>
+      <c r="R3" s="88" t="s">
+        <v>426</v>
+      </c>
+      <c r="S3" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="T3" s="88" t="s">
         <v>674</v>
       </c>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="80" t="s">
-        <v>669</v>
-      </c>
-      <c r="Y2" s="80" t="s">
-        <v>669</v>
-      </c>
-      <c r="Z2" s="80" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA2" s="80" t="s">
-        <v>669</v>
-      </c>
-      <c r="AB2" s="89" t="s">
+      <c r="U3" s="88" t="s">
         <v>675</v>
       </c>
-      <c r="AC2" s="89" t="s">
+      <c r="V3" s="88" t="s">
+        <v>687</v>
+      </c>
+      <c r="W3" s="88" t="s">
+        <v>688</v>
+      </c>
+      <c r="X3" s="73" t="s">
+        <v>683</v>
+      </c>
+      <c r="Y3" s="73" t="s">
+        <v>683</v>
+      </c>
+      <c r="Z3" s="73" t="s">
+        <v>683</v>
+      </c>
+      <c r="AA3" s="73" t="s">
+        <v>683</v>
+      </c>
+      <c r="AB3" s="79" t="s">
         <v>676</v>
       </c>
-      <c r="AD2" s="83" t="s">
-        <v>677</v>
-      </c>
-      <c r="AE2" s="83" t="s">
-        <v>678</v>
-      </c>
-      <c r="AF2" s="83" t="s">
+      <c r="AC3" s="88" t="s">
+        <v>685</v>
+      </c>
+      <c r="AD3" s="80" t="s">
+        <v>689</v>
+      </c>
+      <c r="AE3" s="75" t="s">
         <v>679</v>
       </c>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="19"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20"/>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20"/>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="20"/>
-    </row>
-    <row r="3" spans="1:45" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84" t="s">
-        <v>680</v>
-      </c>
-      <c r="B3" s="84" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="84" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" s="84" t="s">
-        <v>681</v>
-      </c>
-      <c r="F3" s="84" t="s">
-        <v>238</v>
-      </c>
-      <c r="G3" s="84" t="s">
-        <v>285</v>
-      </c>
-      <c r="H3" s="84" t="s">
-        <v>434</v>
-      </c>
-      <c r="I3" s="80" t="s">
-        <v>682</v>
-      </c>
-      <c r="J3" s="78" t="s">
-        <v>683</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="L3" s="84" t="s">
-        <v>684</v>
-      </c>
-      <c r="M3" s="84" t="s">
-        <v>328</v>
-      </c>
-      <c r="N3" s="84" t="s">
-        <v>672</v>
-      </c>
-      <c r="O3" s="78" t="s">
-        <v>685</v>
-      </c>
-      <c r="P3" s="78" t="s">
-        <v>685</v>
-      </c>
-      <c r="Q3" s="84" t="s">
-        <v>426</v>
-      </c>
-      <c r="R3" s="84" t="s">
-        <v>426</v>
-      </c>
-      <c r="S3" s="84" t="s">
-        <v>328</v>
-      </c>
-      <c r="T3" s="84" t="s">
-        <v>673</v>
-      </c>
-      <c r="U3" s="84" t="s">
-        <v>674</v>
-      </c>
-      <c r="V3" s="84" t="s">
-        <v>686</v>
-      </c>
-      <c r="W3" s="84" t="s">
-        <v>687</v>
-      </c>
-      <c r="X3" s="80" t="s">
-        <v>682</v>
-      </c>
-      <c r="Y3" s="80" t="s">
-        <v>682</v>
-      </c>
-      <c r="Z3" s="80" t="s">
-        <v>682</v>
-      </c>
-      <c r="AA3" s="80" t="s">
-        <v>682</v>
-      </c>
-      <c r="AB3" s="89" t="s">
-        <v>675</v>
-      </c>
-      <c r="AC3" s="84" t="s">
-        <v>684</v>
-      </c>
-      <c r="AD3" s="78" t="s">
-        <v>688</v>
-      </c>
-      <c r="AE3" s="83" t="s">
-        <v>678</v>
-      </c>
-      <c r="AF3" s="78" t="s">
-        <v>689</v>
-      </c>
-      <c r="AG3" s="19"/>
-      <c r="AH3" s="19"/>
-      <c r="AI3" s="20"/>
-      <c r="AJ3" s="20"/>
-      <c r="AK3" s="20"/>
-      <c r="AL3" s="20"/>
-      <c r="AM3" s="20"/>
-      <c r="AN3" s="20"/>
-      <c r="AO3" s="20"/>
-      <c r="AP3" s="20"/>
-      <c r="AQ3" s="20"/>
-      <c r="AR3" s="20"/>
-      <c r="AS3" s="20"/>
+      <c r="AF3" s="80" t="s">
+        <v>690</v>
+      </c>
+      <c r="AG3" s="18"/>
+      <c r="AH3" s="17"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="18"/>
+      <c r="AK3" s="18"/>
+      <c r="AL3" s="18"/>
+      <c r="AM3" s="18"/>
+      <c r="AN3" s="18"/>
+      <c r="AO3" s="18"/>
+      <c r="AP3" s="18"/>
+      <c r="AQ3" s="18"/>
+      <c r="AR3" s="18"/>
+      <c r="AS3" s="18"/>
     </row>
     <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="88" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="88" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F4" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="G4" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="H4" s="88" t="s">
+        <v>434</v>
+      </c>
+      <c r="I4" s="73" t="s">
+        <v>692</v>
+      </c>
+      <c r="J4" s="80" t="s">
+        <v>693</v>
+      </c>
       <c r="K4" s="11" t="s">
+        <v>639</v>
+      </c>
+      <c r="L4" s="88" t="s">
+        <v>685</v>
+      </c>
+      <c r="M4" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="N4" s="88" t="s">
+        <v>673</v>
+      </c>
+      <c r="O4" s="92" t="s">
+        <v>686</v>
+      </c>
+      <c r="P4" s="92" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>426</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>426</v>
+      </c>
+      <c r="S4" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="T4" s="88" t="s">
+        <v>674</v>
+      </c>
+      <c r="U4" s="88" t="s">
+        <v>675</v>
+      </c>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="73" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y4" s="73" t="s">
+        <v>692</v>
+      </c>
+      <c r="Z4" s="73" t="s">
+        <v>692</v>
+      </c>
+      <c r="AA4" s="73" t="s">
+        <v>692</v>
+      </c>
+      <c r="AB4" s="79" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC4" s="88" t="s">
+        <v>685</v>
+      </c>
+      <c r="AD4" s="75" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE4" s="75" t="s">
+        <v>679</v>
+      </c>
+      <c r="AF4" s="80" t="s">
+        <v>696</v>
+      </c>
+      <c r="AG4" s="18"/>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="J5" s="10" t="s">
         <v>516</v>
       </c>
     </row>
@@ -7868,79 +8034,79 @@
   </sheetPr>
   <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="88" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="88" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="22.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="22.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" style="88" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39" style="88" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="65.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" style="88" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="88" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="66.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" style="88" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17" style="88" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="31.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.28515625" style="88" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16" style="88" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19" style="88" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21" style="88" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="26.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="30.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="30.42578125" style="88" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="36.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18" style="88" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="14.5703125" style="88" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="17.85546875" style="88" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="18.28515625" style="88" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="17.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="10" style="88" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="9.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="65" max="70" width="9.140625" style="88" customWidth="1"/>
-    <col min="71" max="16384" width="9.140625" style="88"/>
+    <col min="1" max="1" width="6.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" style="78" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="78" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="22.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="22.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" style="78" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39" style="78" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="65.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="78" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="78" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="66.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="78" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17" style="78" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" style="78" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16" style="78" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19" style="78" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21" style="78" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="30.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.42578125" style="78" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="36.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18" style="78" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.5703125" style="78" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.28515625" style="78" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.140625" style="78" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10" style="78" bestFit="1" customWidth="1"/>
+    <col min="65" max="73" width="9.140625" style="78" customWidth="1"/>
+    <col min="74" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="93" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -7957,100 +8123,100 @@
         <v>642</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="T1" s="3" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="U1" s="3" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="V1" s="3" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="Z1" s="3" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="AA1" s="3" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="AC1" s="6" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="AD1" s="6" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="AE1" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="AF1" s="64" t="s">
-        <v>716</v>
+        <v>722</v>
+      </c>
+      <c r="AF1" s="61" t="s">
+        <v>723</v>
       </c>
       <c r="AG1" s="6" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="AH1" s="3" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="AJ1" s="7" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="AK1" s="7" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="AL1" s="7" t="s">
         <v>582</v>
@@ -8062,19 +8228,19 @@
         <v>590</v>
       </c>
       <c r="AO1" s="3" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>725</v>
+        <v>732</v>
       </c>
       <c r="AS1" s="4" t="s">
-        <v>726</v>
+        <v>733</v>
       </c>
       <c r="AT1" s="4" t="s">
         <v>647</v>
@@ -8083,1545 +8249,1720 @@
         <v>648</v>
       </c>
       <c r="AV1" s="4" t="s">
-        <v>727</v>
+        <v>734</v>
       </c>
       <c r="AW1" s="4" t="s">
-        <v>728</v>
+        <v>735</v>
       </c>
       <c r="AX1" s="4" t="s">
         <v>652</v>
       </c>
       <c r="AY1" s="4" t="s">
-        <v>729</v>
-      </c>
-      <c r="AZ1" s="3" t="s">
-        <v>730</v>
-      </c>
-      <c r="BA1" s="4" t="s">
-        <v>731</v>
+        <v>736</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>738</v>
       </c>
       <c r="BB1" s="4" t="s">
-        <v>732</v>
-      </c>
-      <c r="BC1" s="3" t="s">
-        <v>733</v>
+        <v>739</v>
+      </c>
+      <c r="BC1" s="4" t="s">
+        <v>740</v>
       </c>
       <c r="BD1" s="3" t="s">
-        <v>734</v>
+        <v>741</v>
       </c>
       <c r="BE1" s="3" t="s">
-        <v>735</v>
+        <v>742</v>
       </c>
       <c r="BF1" s="3" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="BG1" s="3" t="s">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="BH1" s="3" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="BI1" s="3" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="BJ1" s="3" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="BK1" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="BL1" s="4" t="s">
-        <v>742</v>
+        <v>748</v>
+      </c>
+      <c r="BL1" s="3" t="s">
+        <v>749</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="89" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="89" t="s">
+        <v>750</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="E2" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="F2" s="89">
         <v>1100</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="89" t="s">
+        <v>751</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>748</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="N2" s="8" t="s">
+      <c r="I2" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="J2" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K2" s="89" t="s">
+        <v>754</v>
+      </c>
+      <c r="L2" s="89" t="s">
+        <v>755</v>
+      </c>
+      <c r="M2" s="89" t="s">
+        <v>756</v>
+      </c>
+      <c r="N2" s="89" t="s">
+        <v>757</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q2" s="89" t="s">
+        <v>759</v>
+      </c>
+      <c r="R2" s="89" t="s">
+        <v>759</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="62"/>
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI2" s="89"/>
+      <c r="AJ2" s="89" t="s">
+        <v>772</v>
+      </c>
+      <c r="AK2" s="96"/>
+      <c r="AL2" s="96"/>
+      <c r="AM2" s="96"/>
+      <c r="AN2" s="96"/>
+      <c r="AO2" s="96"/>
+      <c r="AP2" s="97"/>
+      <c r="AQ2" s="96"/>
+      <c r="AR2" s="96"/>
+      <c r="AS2" s="96"/>
+      <c r="AT2" s="98" t="s">
+        <v>671</v>
+      </c>
+      <c r="AU2" s="99" t="s">
+        <v>508</v>
+      </c>
+      <c r="AV2" s="96" t="s">
+        <v>773</v>
+      </c>
+      <c r="AW2" s="98" t="s">
+        <v>614</v>
+      </c>
+      <c r="AX2" s="96"/>
+      <c r="AY2" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ2" s="96"/>
+      <c r="BA2" s="96"/>
+      <c r="BB2" s="96"/>
+      <c r="BC2" s="96"/>
+      <c r="BD2" s="96"/>
+      <c r="BE2" s="96"/>
+      <c r="BF2" s="96"/>
+      <c r="BG2" s="96"/>
+      <c r="BH2" s="96"/>
+      <c r="BI2" s="96"/>
+      <c r="BJ2" s="96"/>
+      <c r="BK2" s="96"/>
+      <c r="BL2" s="96"/>
+    </row>
+    <row r="3" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>681</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>774</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="F3" s="89">
+        <v>1100</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>775</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I3" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="J3" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K3" s="89" t="s">
+        <v>754</v>
+      </c>
+      <c r="L3" s="89" t="s">
+        <v>776</v>
+      </c>
+      <c r="M3" s="89" t="s">
+        <v>756</v>
+      </c>
+      <c r="N3" s="89" t="s">
+        <v>757</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q3" s="89" t="s">
+        <v>777</v>
+      </c>
+      <c r="R3" s="89" t="s">
+        <v>777</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="W3" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="X3" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y3" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z3" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB3" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="89"/>
+      <c r="AH3" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI3" s="89"/>
+      <c r="AJ3" s="89" t="s">
+        <v>782</v>
+      </c>
+      <c r="AK3" s="96"/>
+      <c r="AL3" s="96"/>
+      <c r="AM3" s="96"/>
+      <c r="AN3" s="96"/>
+      <c r="AO3" s="96"/>
+      <c r="AP3" s="100">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="AQ3" s="100">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="AR3" s="100">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="AS3" s="100" t="s">
+        <v>783</v>
+      </c>
+      <c r="AT3" s="98" t="s">
+        <v>671</v>
+      </c>
+      <c r="AU3" s="99" t="s">
+        <v>508</v>
+      </c>
+      <c r="AV3" s="96" t="s">
+        <v>773</v>
+      </c>
+      <c r="AW3" s="98" t="s">
+        <v>614</v>
+      </c>
+      <c r="AX3" s="96"/>
+      <c r="AY3" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ3" s="96"/>
+      <c r="BA3" s="96"/>
+      <c r="BB3" s="96"/>
+      <c r="BC3" s="96"/>
+      <c r="BD3" s="96"/>
+      <c r="BE3" s="96"/>
+      <c r="BF3" s="96"/>
+      <c r="BG3" s="96"/>
+      <c r="BH3" s="96"/>
+      <c r="BI3" s="96"/>
+      <c r="BJ3" s="96"/>
+      <c r="BK3" s="96"/>
+      <c r="BL3" s="96"/>
+    </row>
+    <row r="4" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>784</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="F4" s="89">
+        <v>1100</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>785</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I4" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="J4" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K4" s="89" t="s">
+        <v>786</v>
+      </c>
+      <c r="L4" s="89" t="s">
+        <v>787</v>
+      </c>
+      <c r="M4" s="89" t="s">
+        <v>788</v>
+      </c>
+      <c r="N4" s="89" t="s">
+        <v>789</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q4" s="89" t="s">
+        <v>777</v>
+      </c>
+      <c r="R4" s="89" t="s">
+        <v>777</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>790</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="Y4" s="8" t="s">
+        <v>793</v>
+      </c>
+      <c r="Z4" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="62"/>
+      <c r="AG4" s="89"/>
+      <c r="AH4" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI4" s="89"/>
+      <c r="AJ4" s="89" t="s">
+        <v>795</v>
+      </c>
+      <c r="AK4" s="96"/>
+      <c r="AL4" s="96" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM4" s="101">
+        <v>1171049.45</v>
+      </c>
+      <c r="AN4" s="102" t="s">
+        <v>463</v>
+      </c>
+      <c r="AO4" s="103">
+        <v>885.51</v>
+      </c>
+      <c r="AP4" s="103"/>
+      <c r="AQ4" s="96" t="s">
+        <v>445</v>
+      </c>
+      <c r="AR4" s="104">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AS4" s="103"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="96"/>
+      <c r="AY4" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="96"/>
+      <c r="BF4" s="96"/>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="96"/>
+    </row>
+    <row r="5" spans="1:64" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>796</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>774</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>797</v>
+      </c>
+      <c r="F5" s="89">
+        <v>1100</v>
+      </c>
+      <c r="G5" s="89" t="s">
+        <v>798</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I5" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="J5" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K5" s="89" t="s">
+        <v>754</v>
+      </c>
+      <c r="L5" s="89" t="s">
+        <v>799</v>
+      </c>
+      <c r="M5" s="89" t="s">
+        <v>756</v>
+      </c>
+      <c r="N5" s="89" t="s">
+        <v>757</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P5" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q5" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="R5" s="89" t="s">
+        <v>800</v>
+      </c>
+      <c r="S5" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="V5" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y5" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z5" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA5" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB5" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="89"/>
+      <c r="AH5" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI5" s="89"/>
+      <c r="AJ5" s="89" t="s">
+        <v>782</v>
+      </c>
+      <c r="AK5" s="96"/>
+      <c r="AL5" s="96"/>
+      <c r="AM5" s="96"/>
+      <c r="AN5" s="96"/>
+      <c r="AO5" s="96"/>
+      <c r="AP5" s="100">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="AQ5" s="100">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="AR5" s="100">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="AS5" s="100" t="s">
+        <v>783</v>
+      </c>
+      <c r="AT5" s="98" t="s">
+        <v>671</v>
+      </c>
+      <c r="AU5" s="99" t="s">
+        <v>508</v>
+      </c>
+      <c r="AV5" s="96" t="s">
+        <v>773</v>
+      </c>
+      <c r="AW5" s="98" t="s">
+        <v>614</v>
+      </c>
+      <c r="AX5" s="96"/>
+      <c r="AY5" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ5" s="96"/>
+      <c r="BA5" s="96"/>
+      <c r="BB5" s="96"/>
+      <c r="BC5" s="96"/>
+      <c r="BD5" s="96"/>
+      <c r="BE5" s="96"/>
+      <c r="BF5" s="96"/>
+      <c r="BG5" s="96"/>
+      <c r="BH5" s="96"/>
+      <c r="BI5" s="96"/>
+      <c r="BJ5" s="96"/>
+      <c r="BK5" s="96"/>
+      <c r="BL5" s="96"/>
+    </row>
+    <row r="6" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>580</v>
+      </c>
+      <c r="B6" s="89" t="s">
         <v>750</v>
       </c>
-      <c r="O2" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="P2" s="9" t="s">
+      <c r="C6" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>797</v>
+      </c>
+      <c r="F6" s="89">
+        <v>1100</v>
+      </c>
+      <c r="G6" s="89" t="s">
+        <v>801</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="J6" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K6" s="89" t="s">
+        <v>754</v>
+      </c>
+      <c r="L6" s="89" t="s">
+        <v>802</v>
+      </c>
+      <c r="M6" s="89" t="s">
+        <v>756</v>
+      </c>
+      <c r="N6" s="89" t="s">
+        <v>757</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P6" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q6" s="89" t="s">
+        <v>803</v>
+      </c>
+      <c r="R6" s="89" t="s">
+        <v>803</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="U6" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="X6" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y6" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="Z6" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA6" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB6" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC6" s="89"/>
+      <c r="AD6" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="89"/>
+      <c r="AH6" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89" t="s">
+        <v>772</v>
+      </c>
+      <c r="AK6" s="96"/>
+      <c r="AL6" s="96"/>
+      <c r="AM6" s="96"/>
+      <c r="AN6" s="96"/>
+      <c r="AO6" s="96"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="96"/>
+      <c r="AR6" s="96"/>
+      <c r="AS6" s="96"/>
+      <c r="AT6" s="98" t="s">
+        <v>671</v>
+      </c>
+      <c r="AU6" s="99" t="s">
+        <v>508</v>
+      </c>
+      <c r="AV6" s="96" t="s">
+        <v>773</v>
+      </c>
+      <c r="AW6" s="98" t="s">
+        <v>614</v>
+      </c>
+      <c r="AX6" s="96"/>
+      <c r="AY6" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ6" s="96"/>
+      <c r="BA6" s="96"/>
+      <c r="BB6" s="96"/>
+      <c r="BC6" s="96"/>
+      <c r="BD6" s="96"/>
+      <c r="BE6" s="96"/>
+      <c r="BF6" s="96"/>
+      <c r="BG6" s="96"/>
+      <c r="BH6" s="96"/>
+      <c r="BI6" s="96"/>
+      <c r="BJ6" s="96"/>
+      <c r="BK6" s="96"/>
+      <c r="BL6" s="96"/>
+    </row>
+    <row r="7" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>804</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>784</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>797</v>
+      </c>
+      <c r="F7" s="89">
+        <v>1100</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>805</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I7" s="89" t="s">
         <v>752</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="J7" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K7" s="89" t="s">
+        <v>806</v>
+      </c>
+      <c r="L7" s="89" t="s">
+        <v>807</v>
+      </c>
+      <c r="M7" s="89" t="s">
+        <v>808</v>
+      </c>
+      <c r="N7" s="89" t="s">
+        <v>809</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q7" s="89" t="s">
+        <v>810</v>
+      </c>
+      <c r="R7" s="89" t="s">
+        <v>810</v>
+      </c>
+      <c r="S7" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="U7" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="X7" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y7" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z7" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA7" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB7" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="89" t="s">
+        <v>795</v>
+      </c>
+      <c r="AK7" s="96"/>
+      <c r="AL7" s="96" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM7" s="101">
+        <v>1171049.45</v>
+      </c>
+      <c r="AN7" s="102" t="s">
+        <v>463</v>
+      </c>
+      <c r="AO7" s="103">
+        <v>885.51</v>
+      </c>
+      <c r="AP7" s="103"/>
+      <c r="AQ7" s="96"/>
+      <c r="AR7" s="104"/>
+      <c r="AS7" s="103"/>
+      <c r="AT7" s="96"/>
+      <c r="AU7" s="96"/>
+      <c r="AV7" s="96"/>
+      <c r="AW7" s="96"/>
+      <c r="AX7" s="96"/>
+      <c r="AY7" s="96" t="s">
+        <v>270</v>
+      </c>
+      <c r="AZ7" s="96"/>
+      <c r="BA7" s="96"/>
+      <c r="BB7" s="96"/>
+      <c r="BC7" s="96"/>
+      <c r="BD7" s="96"/>
+      <c r="BE7" s="96"/>
+      <c r="BF7" s="96"/>
+      <c r="BG7" s="96"/>
+      <c r="BH7" s="96"/>
+      <c r="BI7" s="96"/>
+      <c r="BJ7" s="96"/>
+      <c r="BK7" s="96"/>
+      <c r="BL7" s="96"/>
+    </row>
+    <row r="8" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>811</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>784</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>797</v>
+      </c>
+      <c r="F8" s="89">
+        <v>1100</v>
+      </c>
+      <c r="G8" s="89" t="s">
+        <v>812</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I8" s="89" t="s">
         <v>752</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="J8" s="89" t="s">
         <v>753</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="V2" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="W2" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="X2" s="9" t="s">
+      <c r="K8" s="89" t="s">
+        <v>813</v>
+      </c>
+      <c r="L8" s="89" t="s">
+        <v>814</v>
+      </c>
+      <c r="M8" s="89" t="s">
+        <v>808</v>
+      </c>
+      <c r="N8" s="89" t="s">
+        <v>809</v>
+      </c>
+      <c r="O8" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="Y2" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z2" s="9" t="s">
+      <c r="P8" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q8" s="89" t="s">
+        <v>815</v>
+      </c>
+      <c r="R8" s="89" t="s">
+        <v>815</v>
+      </c>
+      <c r="S8" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="T8" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="AB2" s="9" t="s">
+      <c r="U8" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="78" t="s">
-        <v>670</v>
-      </c>
-      <c r="AU2" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="AV2" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="AW2" s="78" t="s">
+      <c r="V8" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="W8" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="X8" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y8" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z8" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA8" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB8" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="89"/>
+      <c r="AH8" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI8" s="89"/>
+      <c r="AJ8" s="89" t="s">
+        <v>795</v>
+      </c>
+      <c r="AK8" s="96"/>
+      <c r="AL8" s="96"/>
+      <c r="AM8" s="101"/>
+      <c r="AN8" s="102"/>
+      <c r="AO8" s="105">
+        <v>12</v>
+      </c>
+      <c r="AP8" s="103" t="s">
+        <v>816</v>
+      </c>
+      <c r="AQ8" s="96" t="s">
+        <v>679</v>
+      </c>
+      <c r="AR8" s="104" t="s">
+        <v>817</v>
+      </c>
+      <c r="AS8" s="103" t="s">
+        <v>818</v>
+      </c>
+      <c r="AT8" s="96" t="s">
         <v>614</v>
       </c>
-      <c r="AX2" s="8"/>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8"/>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8" t="s">
+      <c r="AU8" s="96" t="s">
+        <v>639</v>
+      </c>
+      <c r="AV8" s="96" t="s">
+        <v>819</v>
+      </c>
+      <c r="AW8" s="96" t="s">
+        <v>614</v>
+      </c>
+      <c r="AX8" s="96" t="s">
+        <v>686</v>
+      </c>
+      <c r="AY8" s="96" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="3" spans="1:64" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
-        <v>680</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1100</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>769</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="Z3" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA3" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB3" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="87">
-        <v>9.9500000000000005E-3</v>
-      </c>
-      <c r="AQ3" s="87">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="AR3" s="87">
-        <v>2.6450000000000001E-2</v>
-      </c>
-      <c r="AS3" s="87" t="s">
-        <v>776</v>
-      </c>
-      <c r="AT3" s="78" t="s">
-        <v>670</v>
-      </c>
-      <c r="AU3" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="AV3" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="AW3" s="78" t="s">
-        <v>614</v>
-      </c>
-      <c r="AX3" s="8"/>
-      <c r="AY3" s="8"/>
-      <c r="AZ3" s="8"/>
-      <c r="BA3" s="8"/>
-      <c r="BB3" s="8"/>
-      <c r="BC3" s="8"/>
-      <c r="BD3" s="8"/>
-      <c r="BE3" s="8"/>
-      <c r="BF3" s="8"/>
-      <c r="BG3" s="8"/>
-      <c r="BH3" s="8"/>
-      <c r="BI3" s="8"/>
-      <c r="BJ3" s="8"/>
-      <c r="BK3" s="8"/>
-      <c r="BL3" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="4" spans="1:64" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>668</v>
-      </c>
-      <c r="F4" s="8">
-        <v>1100</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>778</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>779</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>780</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>781</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>782</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>770</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="V4" s="9" t="s">
-        <v>783</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>784</v>
-      </c>
-      <c r="X4" s="9" t="s">
-        <v>785</v>
-      </c>
-      <c r="Y4" s="9" t="s">
-        <v>786</v>
-      </c>
-      <c r="Z4" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA4" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB4" s="9" t="s">
-        <v>787</v>
-      </c>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="65"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="AM4" s="69">
-        <v>1171049.45</v>
-      </c>
-      <c r="AN4" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="AO4" s="10">
-        <v>885.51</v>
-      </c>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="AR4" s="70">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:64" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
-        <v>789</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E5" s="84" t="s">
-        <v>790</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1100</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>791</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="R5" s="8" t="s">
-        <v>793</v>
-      </c>
-      <c r="S5" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="U5" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="V5" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="W5" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="Y5" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="Z5" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA5" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB5" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="65"/>
-      <c r="AG5" s="8"/>
-      <c r="AH5" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="AI5" s="8"/>
-      <c r="AJ5" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="AK5" s="8"/>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AP5" s="87">
-        <v>9.9500000000000005E-3</v>
-      </c>
-      <c r="AQ5" s="87">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="AR5" s="87">
-        <v>2.6450000000000001E-2</v>
-      </c>
-      <c r="AS5" s="87" t="s">
-        <v>776</v>
-      </c>
-      <c r="AT5" s="78" t="s">
-        <v>670</v>
-      </c>
-      <c r="AU5" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="AV5" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="AW5" s="78" t="s">
-        <v>614</v>
-      </c>
-      <c r="AX5" s="8"/>
-      <c r="AY5" s="8"/>
-      <c r="AZ5" s="8"/>
-      <c r="BA5" s="8"/>
-      <c r="BB5" s="8"/>
-      <c r="BC5" s="8"/>
-      <c r="BD5" s="8"/>
-      <c r="BE5" s="8"/>
-      <c r="BF5" s="8"/>
-      <c r="BG5" s="8"/>
-      <c r="BH5" s="8"/>
-      <c r="BI5" s="8"/>
-      <c r="BJ5" s="8"/>
-      <c r="BK5" s="8"/>
-      <c r="BL5" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="6" spans="1:64" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E6" s="84" t="s">
-        <v>790</v>
-      </c>
-      <c r="F6" s="8">
-        <v>1100</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>794</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>747</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>749</v>
-      </c>
-      <c r="N6" s="8" t="s">
-        <v>750</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q6" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="R6" s="8" t="s">
-        <v>796</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="W6" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="X6" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="Y6" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z6" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA6" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB6" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8" t="s">
-        <v>765</v>
-      </c>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="78" t="s">
-        <v>670</v>
-      </c>
-      <c r="AU6" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="AV6" s="8" t="s">
-        <v>766</v>
-      </c>
-      <c r="AW6" s="78" t="s">
-        <v>614</v>
-      </c>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="8"/>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="8"/>
-      <c r="BL6" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="7" spans="1:64" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>797</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E7" s="84" t="s">
-        <v>790</v>
-      </c>
-      <c r="F7" s="8">
-        <v>1100</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>798</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>799</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>800</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q7" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="R7" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="U7" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="W7" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="X7" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="Y7" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="Z7" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA7" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB7" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="65"/>
-      <c r="AG7" s="8"/>
-      <c r="AH7" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="AI7" s="8"/>
-      <c r="AJ7" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="AK7" s="8"/>
-      <c r="AL7" s="8" t="s">
-        <v>445</v>
-      </c>
-      <c r="AM7" s="69">
-        <v>1171049.45</v>
-      </c>
-      <c r="AN7" s="14" t="s">
-        <v>463</v>
-      </c>
-      <c r="AO7" s="10">
-        <v>885.51</v>
-      </c>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="8"/>
-      <c r="AR7" s="70"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="8"/>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="8"/>
-      <c r="AW7" s="8"/>
-      <c r="AX7" s="8"/>
-      <c r="AY7" s="8"/>
-      <c r="AZ7" s="8"/>
-      <c r="BA7" s="8"/>
-      <c r="BB7" s="8"/>
-      <c r="BC7" s="8"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="8"/>
-      <c r="BJ7" s="8"/>
-      <c r="BK7" s="8"/>
-      <c r="BL7" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="8" spans="1:64" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>804</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E8" s="84" t="s">
-        <v>790</v>
-      </c>
-      <c r="F8" s="8">
-        <v>1100</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>807</v>
-      </c>
-      <c r="M8" s="8" t="s">
-        <v>801</v>
-      </c>
-      <c r="N8" s="8" t="s">
-        <v>802</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q8" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="R8" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>771</v>
-      </c>
-      <c r="W8" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="Z8" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA8" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB8" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="65"/>
-      <c r="AG8" s="8"/>
-      <c r="AH8" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="AI8" s="8"/>
-      <c r="AJ8" s="8" t="s">
-        <v>788</v>
-      </c>
-      <c r="AK8" s="8"/>
-      <c r="AL8" s="8"/>
-      <c r="AM8" s="69"/>
-      <c r="AN8" s="14"/>
-      <c r="AO8" s="82">
-        <v>12</v>
-      </c>
-      <c r="AP8" s="10" t="s">
-        <v>809</v>
-      </c>
-      <c r="AQ8" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="AR8" s="70" t="s">
-        <v>810</v>
-      </c>
-      <c r="AS8" s="10" t="s">
-        <v>811</v>
-      </c>
-      <c r="AT8" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="AU8" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="AV8" s="8" t="s">
-        <v>812</v>
-      </c>
-      <c r="AW8" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="AX8" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="AY8" s="8"/>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="8"/>
-      <c r="BJ8" s="8"/>
-      <c r="BK8" s="8"/>
-      <c r="BL8" s="8" t="s">
-        <v>270</v>
-      </c>
+      <c r="AZ8" s="96"/>
+      <c r="BA8" s="96"/>
+      <c r="BB8" s="96"/>
+      <c r="BC8" s="96"/>
+      <c r="BD8" s="96"/>
+      <c r="BE8" s="96"/>
+      <c r="BF8" s="96"/>
+      <c r="BG8" s="96"/>
+      <c r="BH8" s="96"/>
+      <c r="BI8" s="96"/>
+      <c r="BJ8" s="96"/>
+      <c r="BK8" s="96"/>
+      <c r="BL8" s="96"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="89" t="s">
+        <v>820</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>750</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="F9" s="89">
+        <v>1100</v>
+      </c>
+      <c r="G9" s="89" t="s">
+        <v>751</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I9" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="J9" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K9" s="89" t="s">
         <v>813</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E9" s="61" t="s">
-        <v>681</v>
-      </c>
-      <c r="F9" s="8">
-        <v>1100</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>744</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>814</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="P9" s="9" t="s">
+      <c r="L9" s="89" t="s">
+        <v>821</v>
+      </c>
+      <c r="M9" s="89" t="s">
+        <v>822</v>
+      </c>
+      <c r="N9" s="89" t="s">
+        <v>823</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P9" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="R9" s="8" t="s">
-        <v>817</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>756</v>
-      </c>
-      <c r="W9" s="9" t="s">
-        <v>757</v>
-      </c>
-      <c r="X9" s="9" t="s">
-        <v>758</v>
-      </c>
-      <c r="Y9" s="9" t="s">
-        <v>759</v>
-      </c>
-      <c r="Z9" s="9" t="s">
+      <c r="Q9" s="89" t="s">
+        <v>824</v>
+      </c>
+      <c r="R9" s="89" t="s">
+        <v>824</v>
+      </c>
+      <c r="S9" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="AA9" s="9" t="s">
+      <c r="T9" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="AB9" s="9" t="s">
+      <c r="U9" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="9" t="s">
+      <c r="V9" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="65"/>
-      <c r="AG9" s="8"/>
-      <c r="AH9" s="9" t="s">
+      <c r="W9" s="8" t="s">
         <v>764</v>
       </c>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="8" t="s">
+      <c r="X9" s="8" t="s">
         <v>765</v>
       </c>
-      <c r="AK9" s="8"/>
-      <c r="AL9" s="8"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="8"/>
-      <c r="AP9" s="12" t="s">
-        <v>818</v>
-      </c>
-      <c r="AQ9" s="8" t="s">
-        <v>678</v>
-      </c>
-      <c r="AR9" s="8" t="s">
-        <v>819</v>
-      </c>
-      <c r="AS9" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="AT9" s="78" t="s">
+      <c r="Y9" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="Z9" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA9" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB9" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC9" s="89"/>
+      <c r="AD9" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="89"/>
+      <c r="AH9" s="8" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI9" s="89"/>
+      <c r="AJ9" s="89" t="s">
+        <v>772</v>
+      </c>
+      <c r="AK9" s="96"/>
+      <c r="AL9" s="96"/>
+      <c r="AM9" s="96"/>
+      <c r="AN9" s="96"/>
+      <c r="AO9" s="96"/>
+      <c r="AP9" s="97" t="s">
+        <v>825</v>
+      </c>
+      <c r="AQ9" s="96" t="s">
+        <v>679</v>
+      </c>
+      <c r="AR9" s="96" t="s">
+        <v>826</v>
+      </c>
+      <c r="AS9" s="96" t="s">
+        <v>827</v>
+      </c>
+      <c r="AT9" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="AU9" s="99" t="s">
+        <v>639</v>
+      </c>
+      <c r="AV9" s="96" t="s">
         <v>683</v>
       </c>
-      <c r="AU9" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="AV9" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="AW9" s="78" t="s">
-        <v>683</v>
-      </c>
-      <c r="AX9" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="61"/>
-      <c r="BA9" s="61"/>
-      <c r="BB9" s="61"/>
-      <c r="BC9" s="61"/>
-      <c r="BD9" s="61"/>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="61"/>
-      <c r="BG9" s="61"/>
-      <c r="BH9" s="61"/>
-      <c r="BI9" s="61"/>
-      <c r="BJ9" s="61"/>
-      <c r="BK9" s="61"/>
-      <c r="BL9" s="8" t="s">
+      <c r="AW9" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="AX9" s="96" t="s">
+        <v>686</v>
+      </c>
+      <c r="AY9" s="96" t="s">
         <v>270</v>
       </c>
+      <c r="AZ9" s="106"/>
+      <c r="BA9" s="106"/>
+      <c r="BB9" s="106"/>
+      <c r="BC9" s="106"/>
+      <c r="BD9" s="106"/>
+      <c r="BE9" s="106"/>
+      <c r="BF9" s="106"/>
+      <c r="BG9" s="106"/>
+      <c r="BH9" s="106"/>
+      <c r="BI9" s="106"/>
+      <c r="BJ9" s="106"/>
+      <c r="BK9" s="106"/>
+      <c r="BL9" s="106"/>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>821</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="89" t="s">
+        <v>828</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>774</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E10" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="F10" s="89">
+        <v>1100</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>775</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="I10" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="J10" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K10" s="89" t="s">
+        <v>829</v>
+      </c>
+      <c r="L10" s="89" t="s">
+        <v>830</v>
+      </c>
+      <c r="M10" s="89" t="s">
+        <v>822</v>
+      </c>
+      <c r="N10" s="89" t="s">
+        <v>823</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q10" s="89" t="s">
+        <v>831</v>
+      </c>
+      <c r="R10" s="89" t="s">
+        <v>831</v>
+      </c>
+      <c r="S10" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="U10" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="W10" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="X10" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y10" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z10" s="8" t="s">
         <v>767</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>681</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1100</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="AA10" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>236</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>822</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>823</v>
-      </c>
-      <c r="M10" s="8" t="s">
-        <v>815</v>
-      </c>
-      <c r="N10" s="8" t="s">
-        <v>816</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q10" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="R10" s="8" t="s">
-        <v>824</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="V10" s="9" t="s">
+      <c r="AB10" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="89"/>
+      <c r="AH10" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="W10" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="X10" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="Y10" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="Z10" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA10" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB10" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="65"/>
-      <c r="AG10" s="8"/>
-      <c r="AH10" s="9" t="s">
-        <v>764</v>
-      </c>
-      <c r="AI10" s="8"/>
-      <c r="AJ10" s="8" t="s">
-        <v>775</v>
-      </c>
-      <c r="AK10" s="8"/>
-      <c r="AL10" s="8"/>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="8"/>
-      <c r="AP10" s="87" t="s">
-        <v>818</v>
-      </c>
-      <c r="AQ10" s="87" t="s">
-        <v>678</v>
-      </c>
-      <c r="AR10" s="87" t="s">
-        <v>819</v>
-      </c>
-      <c r="AS10" s="87" t="s">
-        <v>820</v>
-      </c>
-      <c r="AT10" s="78" t="s">
+      <c r="AI10" s="89"/>
+      <c r="AJ10" s="89" t="s">
+        <v>782</v>
+      </c>
+      <c r="AK10" s="96"/>
+      <c r="AL10" s="96"/>
+      <c r="AM10" s="96"/>
+      <c r="AN10" s="96"/>
+      <c r="AO10" s="96"/>
+      <c r="AP10" s="100" t="s">
+        <v>825</v>
+      </c>
+      <c r="AQ10" s="100" t="s">
+        <v>679</v>
+      </c>
+      <c r="AR10" s="100" t="s">
+        <v>826</v>
+      </c>
+      <c r="AS10" s="100" t="s">
+        <v>827</v>
+      </c>
+      <c r="AT10" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="AU10" s="99" t="s">
+        <v>639</v>
+      </c>
+      <c r="AV10" s="96" t="s">
         <v>683</v>
       </c>
-      <c r="AU10" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="AV10" s="8" t="s">
-        <v>682</v>
-      </c>
-      <c r="AW10" s="78" t="s">
-        <v>683</v>
-      </c>
-      <c r="AX10" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="61"/>
-      <c r="BA10" s="61"/>
-      <c r="BB10" s="61"/>
-      <c r="BC10" s="61"/>
-      <c r="BD10" s="61"/>
-      <c r="BE10" s="61"/>
-      <c r="BF10" s="61"/>
-      <c r="BG10" s="61"/>
-      <c r="BH10" s="61"/>
-      <c r="BI10" s="61"/>
-      <c r="BJ10" s="61"/>
-      <c r="BK10" s="61"/>
-      <c r="BL10" s="8" t="s">
+      <c r="AW10" s="98" t="s">
+        <v>684</v>
+      </c>
+      <c r="AX10" s="96" t="s">
+        <v>686</v>
+      </c>
+      <c r="AY10" s="96" t="s">
         <v>270</v>
       </c>
+      <c r="AZ10" s="106"/>
+      <c r="BA10" s="106"/>
+      <c r="BB10" s="106"/>
+      <c r="BC10" s="106"/>
+      <c r="BD10" s="106"/>
+      <c r="BE10" s="106"/>
+      <c r="BF10" s="106"/>
+      <c r="BG10" s="106"/>
+      <c r="BH10" s="106"/>
+      <c r="BI10" s="106"/>
+      <c r="BJ10" s="106"/>
+      <c r="BK10" s="106"/>
+      <c r="BL10" s="106"/>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="89" t="s">
         <v>439</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>777</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="89" t="s">
+        <v>784</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="E11" s="84" t="s">
-        <v>790</v>
-      </c>
-      <c r="F11" s="8">
+      <c r="E11" s="88" t="s">
+        <v>797</v>
+      </c>
+      <c r="F11" s="89">
         <v>1100</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>805</v>
-      </c>
-      <c r="H11" s="61" t="s">
+      <c r="G11" s="89" t="s">
+        <v>812</v>
+      </c>
+      <c r="H11" s="58" t="s">
         <v>236</v>
       </c>
-      <c r="I11" s="8" t="s">
-        <v>745</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>746</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>825</v>
-      </c>
-      <c r="L11" s="61" t="s">
-        <v>826</v>
-      </c>
-      <c r="M11" s="61" t="s">
-        <v>827</v>
-      </c>
-      <c r="N11" s="61" t="s">
-        <v>828</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>751</v>
-      </c>
-      <c r="P11" s="9" t="s">
+      <c r="I11" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="J11" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K11" s="89" t="s">
+        <v>832</v>
+      </c>
+      <c r="L11" s="58" t="s">
+        <v>833</v>
+      </c>
+      <c r="M11" s="58" t="s">
+        <v>834</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>835</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P11" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="Q11" s="61" t="s">
-        <v>829</v>
-      </c>
-      <c r="R11" s="61" t="s">
-        <v>829</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>753</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>754</v>
-      </c>
-      <c r="U11" s="9" t="s">
-        <v>755</v>
-      </c>
-      <c r="V11" s="9" t="s">
+      <c r="Q11" s="58" t="s">
+        <v>836</v>
+      </c>
+      <c r="R11" s="58" t="s">
+        <v>836</v>
+      </c>
+      <c r="S11" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="U11" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="X11" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y11" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z11" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA11" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB11" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE11" s="58"/>
+      <c r="AF11" s="58"/>
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58" t="s">
         <v>771</v>
       </c>
-      <c r="W11" s="9" t="s">
-        <v>772</v>
-      </c>
-      <c r="X11" s="9" t="s">
-        <v>773</v>
-      </c>
-      <c r="Y11" s="9" t="s">
-        <v>774</v>
-      </c>
-      <c r="Z11" s="9" t="s">
-        <v>760</v>
-      </c>
-      <c r="AA11" s="9" t="s">
-        <v>761</v>
-      </c>
-      <c r="AB11" s="9" t="s">
-        <v>762</v>
-      </c>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9" t="s">
-        <v>763</v>
-      </c>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="61"/>
-      <c r="AH11" s="61" t="s">
-        <v>764</v>
-      </c>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="61"/>
-      <c r="AK11" s="61"/>
-      <c r="AL11" s="61"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="61"/>
-      <c r="AO11" s="61"/>
-      <c r="AP11" s="61"/>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="61"/>
-      <c r="AS11" s="61"/>
-      <c r="AT11" s="61"/>
-      <c r="AU11" s="61"/>
-      <c r="AV11" s="61"/>
-      <c r="AW11" s="61"/>
-      <c r="AX11" s="61"/>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="61"/>
-      <c r="BA11" s="61"/>
-      <c r="BB11" s="61"/>
-      <c r="BC11" s="61"/>
-      <c r="BD11" s="61"/>
-      <c r="BE11" s="61"/>
-      <c r="BF11" s="61"/>
-      <c r="BG11" s="61"/>
-      <c r="BH11" s="61"/>
-      <c r="BI11" s="61"/>
-      <c r="BJ11" s="61"/>
-      <c r="BK11" s="61"/>
-      <c r="BL11" s="61"/>
+      <c r="AI11" s="58"/>
+      <c r="AJ11" s="58"/>
+      <c r="AK11" s="106"/>
+      <c r="AL11" s="106"/>
+      <c r="AM11" s="106"/>
+      <c r="AN11" s="106"/>
+      <c r="AO11" s="106"/>
+      <c r="AP11" s="106"/>
+      <c r="AQ11" s="106"/>
+      <c r="AR11" s="106"/>
+      <c r="AS11" s="106"/>
+      <c r="AT11" s="106"/>
+      <c r="AU11" s="106"/>
+      <c r="AV11" s="106"/>
+      <c r="AW11" s="106"/>
+      <c r="AX11" s="106"/>
+      <c r="AY11" s="106"/>
+      <c r="AZ11" s="107"/>
+      <c r="BA11" s="106"/>
+      <c r="BB11" s="106"/>
+      <c r="BC11" s="106"/>
+      <c r="BD11" s="106"/>
+      <c r="BE11" s="106"/>
+      <c r="BF11" s="106"/>
+      <c r="BG11" s="106"/>
+      <c r="BH11" s="106"/>
+      <c r="BI11" s="106"/>
+      <c r="BJ11" s="106"/>
+      <c r="BK11" s="106"/>
+      <c r="BL11" s="106"/>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="61"/>
-      <c r="AA12" s="61"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="61"/>
-      <c r="AD12" s="61"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="61"/>
-      <c r="AG12" s="61"/>
-      <c r="AH12" s="61"/>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="61"/>
-      <c r="AK12" s="61"/>
-      <c r="AL12" s="61"/>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="61"/>
-      <c r="AO12" s="61"/>
-      <c r="AP12" s="61"/>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="61"/>
-      <c r="AS12" s="61"/>
-      <c r="AT12" s="61"/>
-      <c r="AU12" s="61"/>
-      <c r="AV12" s="61"/>
-      <c r="AW12" s="61"/>
-      <c r="AX12" s="61"/>
-      <c r="AY12" s="61"/>
-      <c r="AZ12" s="61"/>
-      <c r="BA12" s="61"/>
-      <c r="BB12" s="61"/>
-      <c r="BC12" s="61"/>
-      <c r="BD12" s="61"/>
-      <c r="BE12" s="61"/>
-      <c r="BF12" s="61"/>
-      <c r="BG12" s="61"/>
-      <c r="BH12" s="61"/>
-      <c r="BI12" s="61"/>
-      <c r="BJ12" s="61"/>
-      <c r="BK12" s="61"/>
-      <c r="BL12" s="61"/>
+      <c r="A12" s="89" t="s">
+        <v>837</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>750</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E12" s="58" t="s">
+        <v>691</v>
+      </c>
+      <c r="F12" s="89">
+        <v>1100</v>
+      </c>
+      <c r="G12" s="89" t="s">
+        <v>751</v>
+      </c>
+      <c r="H12" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I12" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="J12" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K12" s="58"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P12" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="58"/>
+      <c r="S12" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="U12" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>764</v>
+      </c>
+      <c r="X12" s="8" t="s">
+        <v>765</v>
+      </c>
+      <c r="Y12" s="8" t="s">
+        <v>766</v>
+      </c>
+      <c r="Z12" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA12" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB12" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC12" s="58"/>
+      <c r="AD12" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE12" s="58"/>
+      <c r="AF12" s="58"/>
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI12" s="58"/>
+      <c r="AJ12" s="89" t="s">
+        <v>772</v>
+      </c>
+      <c r="AK12" s="106"/>
+      <c r="AL12" s="106"/>
+      <c r="AM12" s="106"/>
+      <c r="AN12" s="106"/>
+      <c r="AO12" s="106"/>
+      <c r="AP12" s="106"/>
+      <c r="AQ12" s="106"/>
+      <c r="AR12" s="106"/>
+      <c r="AS12" s="106"/>
+      <c r="AT12" s="106"/>
+      <c r="AU12" s="106"/>
+      <c r="AV12" s="106"/>
+      <c r="AW12" s="106"/>
+      <c r="AX12" s="106"/>
+      <c r="AY12" s="106"/>
+      <c r="AZ12" s="107"/>
+      <c r="BA12" s="106"/>
+      <c r="BB12" s="106"/>
+      <c r="BC12" s="106"/>
+      <c r="BD12" s="106"/>
+      <c r="BE12" s="106"/>
+      <c r="BF12" s="106"/>
+      <c r="BG12" s="106"/>
+      <c r="BH12" s="106"/>
+      <c r="BI12" s="106"/>
+      <c r="BJ12" s="106"/>
+      <c r="BK12" s="106"/>
+      <c r="BL12" s="106"/>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="K13" s="61"/>
+      <c r="A13" s="89" t="s">
+        <v>838</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>774</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="E13" s="58" t="s">
+        <v>691</v>
+      </c>
+      <c r="F13" s="89">
+        <v>1100</v>
+      </c>
+      <c r="G13" s="89" t="s">
+        <v>775</v>
+      </c>
+      <c r="H13" s="58" t="s">
+        <v>236</v>
+      </c>
+      <c r="I13" s="89" t="s">
+        <v>752</v>
+      </c>
+      <c r="J13" s="89" t="s">
+        <v>753</v>
+      </c>
+      <c r="K13" s="58" t="s">
+        <v>839</v>
+      </c>
+      <c r="L13" s="58" t="s">
+        <v>840</v>
+      </c>
+      <c r="M13" s="58" t="s">
+        <v>841</v>
+      </c>
+      <c r="N13" s="58" t="s">
+        <v>842</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>758</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q13" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>843</v>
+      </c>
+      <c r="S13" s="8" t="s">
+        <v>760</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="U13" s="8" t="s">
+        <v>762</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>778</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="X13" s="8" t="s">
+        <v>780</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="Z13" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>768</v>
+      </c>
+      <c r="AB13" s="8" t="s">
+        <v>769</v>
+      </c>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE13" s="58"/>
+      <c r="AF13" s="58"/>
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58" t="s">
+        <v>771</v>
+      </c>
+      <c r="AI13" s="58"/>
+      <c r="AJ13" s="89" t="s">
+        <v>782</v>
+      </c>
+      <c r="AK13" s="106"/>
+      <c r="AL13" s="106"/>
+      <c r="AM13" s="106"/>
+      <c r="AN13" s="106"/>
+      <c r="AO13" s="106"/>
+      <c r="AP13" s="106"/>
+      <c r="AQ13" s="106"/>
+      <c r="AR13" s="106"/>
+      <c r="AS13" s="106"/>
+      <c r="AT13" s="106"/>
+      <c r="AU13" s="106"/>
+      <c r="AV13" s="106"/>
+      <c r="AW13" s="106"/>
+      <c r="AX13" s="106"/>
+      <c r="AY13" s="108"/>
+      <c r="AZ13" s="108"/>
+      <c r="BA13" s="108"/>
+      <c r="BB13" s="108"/>
+      <c r="BC13" s="108"/>
+      <c r="BD13" s="108"/>
+      <c r="BE13" s="108"/>
+      <c r="BF13" s="108"/>
+      <c r="BG13" s="108"/>
+      <c r="BH13" s="108"/>
+      <c r="BI13" s="108"/>
+      <c r="BJ13" s="108"/>
+      <c r="BK13" s="108"/>
+      <c r="BL13" s="108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2CAF14-9BD9-4B19-9F7F-5FEA064FAD19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFABC3E-39EF-4689-8DB5-5B6E7AE719E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" firstSheet="4" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PTY001_QuickPartyOnboarding" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="903">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="914">
   <si>
     <t>rowid</t>
   </si>
@@ -2744,6 +2744,39 @@
   </si>
   <si>
     <t xml:space="preserve">Update row 2 to </t>
+  </si>
+  <si>
+    <t>11-Mar-2020</t>
+  </si>
+  <si>
+    <t>Early Prepayment of $230,000AUD</t>
+  </si>
+  <si>
+    <t>157,000.00</t>
+  </si>
+  <si>
+    <t>230,000.00</t>
+  </si>
+  <si>
+    <t>1,173.25</t>
+  </si>
+  <si>
+    <t>231,173.25</t>
+  </si>
+  <si>
+    <t>157,428.00</t>
+  </si>
+  <si>
+    <t>140,311.82</t>
+  </si>
+  <si>
+    <t>Total_Prepayment_Amount</t>
+  </si>
+  <si>
+    <t>Primary_SG_Member</t>
+  </si>
+  <si>
+    <t>Commitment_Cycle_Frequency</t>
   </si>
 </sst>
 </file>
@@ -2756,7 +2789,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2861,6 +2894,18 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -3005,7 +3050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3270,9 +3315,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3327,6 +3369,34 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4309,8 +4379,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4323,10 +4393,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AX4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4343,16 +4413,17 @@
     <col min="11" max="11" width="27" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22" style="2" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" style="2" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="82" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
@@ -4393,28 +4464,31 @@
         <v>862</v>
       </c>
       <c r="N1" s="74" t="s">
+        <v>911</v>
+      </c>
+      <c r="O1" s="74" t="s">
         <v>645</v>
       </c>
-      <c r="O1" s="83" t="s">
+      <c r="P1" s="83" t="s">
         <v>592</v>
       </c>
-      <c r="P1" s="83" t="s">
+      <c r="Q1" s="83" t="s">
         <v>167</v>
       </c>
-      <c r="Q1" s="83" t="s">
+      <c r="R1" s="83" t="s">
         <v>863</v>
       </c>
-      <c r="R1" s="83" t="s">
+      <c r="S1" s="83" t="s">
         <v>864</v>
       </c>
-      <c r="S1" s="83" t="s">
+      <c r="T1" s="83" t="s">
         <v>865</v>
       </c>
-      <c r="T1" s="83" t="s">
+      <c r="U1" s="83" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="85" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" s="85" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
         <v>81</v>
       </c>
@@ -4455,27 +4529,29 @@
         <v>872</v>
       </c>
       <c r="N2" s="85" t="s">
+        <v>910</v>
+      </c>
+      <c r="O2" s="85" t="s">
         <v>873</v>
-      </c>
-      <c r="O2" s="84" t="s">
-        <v>426</v>
       </c>
       <c r="P2" s="84" t="s">
         <v>426</v>
       </c>
       <c r="Q2" s="84" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2" s="84" t="s">
         <v>874</v>
       </c>
-      <c r="R2" s="84" t="s">
+      <c r="S2" s="84" t="s">
         <v>875</v>
       </c>
-      <c r="S2" s="84" t="s">
+      <c r="T2" s="84" t="s">
         <v>876</v>
       </c>
-      <c r="T2" s="87" t="s">
+      <c r="U2" s="87" t="s">
         <v>877</v>
       </c>
-      <c r="U2" s="81"/>
       <c r="V2" s="81"/>
       <c r="W2" s="81"/>
       <c r="X2" s="81"/>
@@ -4505,16 +4581,17 @@
       <c r="AV2" s="81"/>
       <c r="AW2" s="81"/>
       <c r="AX2" s="81"/>
+      <c r="AY2" s="81"/>
     </row>
-    <row r="3" spans="1:50" s="93" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>681</v>
       </c>
       <c r="B3" s="88" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
       <c r="E3" s="80" t="s">
         <v>866</v>
       </c>
@@ -4527,46 +4604,105 @@
       <c r="H3" s="80" t="s">
         <v>868</v>
       </c>
-      <c r="I3" s="90">
-        <v>157000</v>
-      </c>
-      <c r="J3" s="91" t="s">
+      <c r="I3" s="86" t="s">
+        <v>905</v>
+      </c>
+      <c r="J3" s="90" t="s">
         <v>870</v>
       </c>
-      <c r="K3" s="91" t="s">
+      <c r="K3" s="90" t="s">
         <v>871</v>
       </c>
       <c r="L3" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="89">
+      <c r="M3" s="85">
         <v>428.64</v>
       </c>
-      <c r="N3" s="80" t="s">
+      <c r="N3" s="85" t="s">
+        <v>909</v>
+      </c>
+      <c r="O3" s="80" t="s">
         <v>873</v>
-      </c>
-      <c r="O3" s="88" t="s">
-        <v>426</v>
       </c>
       <c r="P3" s="88" t="s">
         <v>426</v>
       </c>
       <c r="Q3" s="88" t="s">
+        <v>426</v>
+      </c>
+      <c r="R3" s="88" t="s">
         <v>874</v>
       </c>
-      <c r="R3" s="19"/>
       <c r="S3" s="19"/>
       <c r="T3" s="19"/>
+      <c r="U3" s="19"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="S4" s="76" t="s">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A4" s="88" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="80" t="s">
+        <v>866</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>903</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>904</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>868</v>
+      </c>
+      <c r="I4" s="86" t="s">
+        <v>906</v>
+      </c>
+      <c r="J4" s="90" t="s">
+        <v>870</v>
+      </c>
+      <c r="K4" s="90" t="s">
+        <v>871</v>
+      </c>
+      <c r="L4" s="80" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="85" t="s">
+        <v>907</v>
+      </c>
+      <c r="N4" s="85" t="s">
+        <v>908</v>
+      </c>
+      <c r="O4" s="80" t="s">
+        <v>873</v>
+      </c>
+      <c r="P4" s="88" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q4" s="88" t="s">
+        <v>426</v>
+      </c>
+      <c r="R4" s="88" t="s">
+        <v>874</v>
+      </c>
+      <c r="S4" s="119"/>
+      <c r="T4" s="119"/>
+      <c r="U4" s="119"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="T5" s="76" t="s">
         <v>880</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="U5" s="77" t="s">
         <v>684</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -4579,8 +4715,8 @@
   </sheetPr>
   <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4782,7 +4918,7 @@
       <c r="S3" s="88" t="s">
         <v>876</v>
       </c>
-      <c r="T3" s="92" t="s">
+      <c r="T3" s="91" t="s">
         <v>899</v>
       </c>
       <c r="U3" s="80" t="s">
@@ -4799,13 +4935,12 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="R4" s="76" t="s">
+      <c r="S4" s="76" t="s">
         <v>902</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="T4" s="77" t="s">
         <v>878</v>
       </c>
-      <c r="T4" s="77"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5408,10 +5543,10 @@
       <c r="M2" s="42" t="s">
         <v>245</v>
       </c>
-      <c r="N2" s="92" t="s">
+      <c r="N2" s="91" t="s">
         <v>246</v>
       </c>
-      <c r="O2" s="92" t="s">
+      <c r="O2" s="91" t="s">
         <v>247</v>
       </c>
       <c r="P2" s="42" t="s">
@@ -6224,7 +6359,7 @@
       <c r="W2" s="88" t="s">
         <v>431</v>
       </c>
-      <c r="X2" s="92" t="s">
+      <c r="X2" s="91" t="s">
         <v>432</v>
       </c>
       <c r="Y2" s="27"/>
@@ -6624,10 +6759,10 @@
       <c r="H2" s="80" t="s">
         <v>270</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="91" t="s">
         <v>432</v>
       </c>
-      <c r="J2" s="92" t="s">
+      <c r="J2" s="91" t="s">
         <v>432</v>
       </c>
       <c r="K2" s="11" t="s">
@@ -6639,7 +6774,7 @@
       <c r="M2" s="88" t="s">
         <v>428</v>
       </c>
-      <c r="N2" s="92" t="s">
+      <c r="N2" s="91" t="s">
         <v>427</v>
       </c>
       <c r="O2" s="73" t="s">
@@ -7065,52 +7200,53 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AK3"/>
+  <dimension ref="A1:AL3"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AQ36" sqref="AQ36"/>
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="36.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="40.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="19.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="30.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="20.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="17.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="25" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -7141,89 +7277,92 @@
       <c r="J1" s="25" t="s">
         <v>587</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="25" t="s">
+        <v>913</v>
+      </c>
+      <c r="L1" s="26" t="s">
         <v>588</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>589</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>590</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="O1" s="26" t="s">
         <v>591</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="P1" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="Q1" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="S1" s="25" t="s">
         <v>593</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="T1" s="25" t="s">
         <v>594</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="U1" s="25" t="s">
         <v>595</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="V1" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="W1" s="25" t="s">
         <v>597</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="X1" s="25" t="s">
         <v>598</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>599</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>601</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>602</v>
       </c>
-      <c r="AB1" s="25" t="s">
+      <c r="AC1" s="25" t="s">
         <v>588</v>
       </c>
-      <c r="AC1" s="25" t="s">
+      <c r="AD1" s="25" t="s">
         <v>589</v>
       </c>
-      <c r="AD1" s="25" t="s">
+      <c r="AE1" s="25" t="s">
         <v>603</v>
       </c>
-      <c r="AE1" s="25" t="s">
+      <c r="AF1" s="25" t="s">
         <v>590</v>
       </c>
-      <c r="AF1" s="25" t="s">
+      <c r="AG1" s="25" t="s">
         <v>604</v>
       </c>
-      <c r="AG1" s="25" t="s">
+      <c r="AH1" s="25" t="s">
         <v>605</v>
       </c>
-      <c r="AH1" s="25" t="s">
+      <c r="AI1" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="AI1" s="25" t="s">
+      <c r="AJ1" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="AJ1" s="25" t="s">
+      <c r="AK1" s="25" t="s">
         <v>608</v>
       </c>
-      <c r="AK1" s="25" t="s">
+      <c r="AL1" s="25" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="2" spans="1:37" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" s="80" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>81</v>
       </c>
@@ -7254,47 +7393,45 @@
       <c r="J2" s="80" t="s">
         <v>614</v>
       </c>
-      <c r="K2" s="58">
+      <c r="K2" s="27"/>
+      <c r="L2" s="58">
         <v>0.3</v>
       </c>
-      <c r="L2" s="58">
+      <c r="M2" s="58">
         <v>1145071.71</v>
       </c>
-      <c r="M2" s="58">
+      <c r="N2" s="58">
         <v>365</v>
       </c>
-      <c r="N2" s="64">
+      <c r="O2" s="64">
         <v>875.27</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="P2" s="88" t="s">
         <v>238</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="Q2" s="88" t="s">
         <v>426</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="R2" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="R2" s="88" t="s">
+      <c r="S2" s="88" t="s">
         <v>615</v>
       </c>
-      <c r="S2" s="80" t="s">
+      <c r="T2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="U2" s="27" t="s">
         <v>616</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="V2" s="27" t="s">
         <v>617</v>
       </c>
-      <c r="V2" s="28" t="s">
+      <c r="W2" s="28" t="s">
         <v>618</v>
       </c>
-      <c r="W2" s="28" t="s">
+      <c r="X2" s="28" t="s">
         <v>619</v>
-      </c>
-      <c r="X2" s="18" t="s">
-        <v>451</v>
       </c>
       <c r="Y2" s="18" t="s">
         <v>451</v>
@@ -7305,38 +7442,41 @@
       <c r="AA2" s="18" t="s">
         <v>451</v>
       </c>
-      <c r="AB2" s="18">
+      <c r="AB2" s="18" t="s">
+        <v>451</v>
+      </c>
+      <c r="AC2" s="18">
         <v>1.4</v>
       </c>
-      <c r="AC2" s="18">
+      <c r="AD2" s="18">
         <v>95000000</v>
       </c>
-      <c r="AD2" s="18">
+      <c r="AE2" s="18">
         <v>28767.119999999999</v>
       </c>
-      <c r="AE2" s="18">
+      <c r="AF2" s="18">
         <v>365</v>
       </c>
-      <c r="AF2" s="27" t="s">
+      <c r="AG2" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="AG2" s="27" t="s">
+      <c r="AH2" s="27" t="s">
         <v>620</v>
       </c>
-      <c r="AH2" s="60">
+      <c r="AI2" s="60">
         <v>33.68000067669842</v>
       </c>
-      <c r="AI2" s="60">
+      <c r="AJ2" s="60">
         <v>28.986666144465609</v>
       </c>
-      <c r="AJ2" s="60">
+      <c r="AK2" s="60">
         <v>37.333333178835993</v>
       </c>
-      <c r="AK2" s="27" t="s">
+      <c r="AL2" s="27" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="M3" s="10" t="s">
         <v>622</v>
       </c>
@@ -7355,10 +7495,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7374,7 +7514,7 @@
     <col min="9" max="9" width="18.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25" style="2" bestFit="1" customWidth="1"/>
@@ -7385,7 +7525,7 @@
     <col min="20" max="20" width="18" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="89" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="89" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -7420,33 +7560,35 @@
         <v>629</v>
       </c>
       <c r="L1" s="13" t="s">
+        <v>912</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>630</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>631</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>632</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>633</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>634</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>635</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>636</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="13" t="s">
         <v>637</v>
       </c>
-      <c r="U1" s="13"/>
       <c r="V1" s="13"/>
       <c r="W1" s="13"/>
       <c r="X1" s="13"/>
@@ -7454,8 +7596,9 @@
       <c r="Z1" s="13"/>
       <c r="AA1" s="13"/>
       <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
     </row>
-    <row r="2" spans="1:28" s="89" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" s="89" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="s">
         <v>81</v>
       </c>
@@ -7489,34 +7632,34 @@
       <c r="K2" s="23" t="s">
         <v>428</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="N2" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>639</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="P2" s="88" t="s">
         <v>454</v>
       </c>
-      <c r="P2" s="88" t="s">
+      <c r="Q2" s="88" t="s">
         <v>452</v>
       </c>
-      <c r="Q2" s="88" t="s">
+      <c r="R2" s="88" t="s">
         <v>101</v>
-      </c>
-      <c r="R2" s="80" t="s">
-        <v>432</v>
       </c>
       <c r="S2" s="80" t="s">
         <v>432</v>
       </c>
-      <c r="T2" s="88" t="s">
+      <c r="T2" s="80" t="s">
+        <v>432</v>
+      </c>
+      <c r="U2" s="88" t="s">
         <v>640</v>
       </c>
-      <c r="U2" s="88"/>
       <c r="V2" s="88"/>
       <c r="W2" s="88"/>
       <c r="X2" s="88"/>
@@ -7524,8 +7667,9 @@
       <c r="Z2" s="88"/>
       <c r="AA2" s="88"/>
       <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N3" s="10" t="s">
         <v>641</v>
       </c>
@@ -7541,10 +7685,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AS5"/>
+  <dimension ref="A1:AW5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="AB1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7553,7 +7697,7 @@
     <col min="2" max="2" width="21.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="78" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
@@ -7582,19 +7726,20 @@
     <col min="31" max="31" width="19.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="31.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.7109375" style="117" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.7109375" style="117" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.28515625" style="117" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.28515625" style="117" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.5703125" style="117" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="15.42578125" style="117" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.42578125" style="118" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.7109375" style="118" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20" style="118" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.85546875" style="118" bestFit="1" customWidth="1"/>
+    <col min="45" max="49" width="9.140625" style="118"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -7694,16 +7839,24 @@
       <c r="AG1" s="13" t="s">
         <v>668</v>
       </c>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
+      <c r="AH1" s="110"/>
+      <c r="AI1" s="110"/>
+      <c r="AJ1" s="110"/>
+      <c r="AK1" s="110"/>
+      <c r="AL1" s="110"/>
+      <c r="AM1" s="110"/>
+      <c r="AN1" s="110"/>
+      <c r="AO1" s="111"/>
+      <c r="AP1" s="112"/>
+      <c r="AQ1" s="112"/>
+      <c r="AR1" s="112"/>
+      <c r="AS1" s="112"/>
+      <c r="AT1" s="112"/>
+      <c r="AU1" s="112"/>
+      <c r="AV1" s="112"/>
+      <c r="AW1" s="112"/>
     </row>
-    <row r="2" spans="1:45" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="88" t="s">
         <v>81</v>
       </c>
@@ -7797,20 +7950,24 @@
         <v>680</v>
       </c>
       <c r="AG2" s="18"/>
-      <c r="AH2" s="17"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
+      <c r="AH2" s="113"/>
+      <c r="AI2" s="114"/>
+      <c r="AJ2" s="114"/>
+      <c r="AK2" s="114"/>
+      <c r="AL2" s="114"/>
+      <c r="AM2" s="114"/>
+      <c r="AN2" s="114"/>
+      <c r="AO2" s="115"/>
+      <c r="AP2" s="115"/>
+      <c r="AQ2" s="115"/>
+      <c r="AR2" s="115"/>
+      <c r="AS2" s="115"/>
+      <c r="AT2" s="116"/>
+      <c r="AU2" s="116"/>
+      <c r="AV2" s="116"/>
+      <c r="AW2" s="116"/>
     </row>
-    <row r="3" spans="1:45" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="88" t="s">
         <v>681</v>
       </c>
@@ -7908,20 +8065,24 @@
         <v>690</v>
       </c>
       <c r="AG3" s="18"/>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
+      <c r="AH3" s="113"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="114"/>
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="115"/>
+      <c r="AP3" s="115"/>
+      <c r="AQ3" s="115"/>
+      <c r="AR3" s="115"/>
+      <c r="AS3" s="115"/>
+      <c r="AT3" s="116"/>
+      <c r="AU3" s="116"/>
+      <c r="AV3" s="116"/>
+      <c r="AW3" s="116"/>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" s="88" t="s">
         <v>443</v>
       </c>
@@ -7934,7 +8095,7 @@
       <c r="D4" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="78" t="s">
         <v>691</v>
       </c>
       <c r="F4" s="88" t="s">
@@ -7964,10 +8125,10 @@
       <c r="N4" s="88" t="s">
         <v>673</v>
       </c>
-      <c r="O4" s="92" t="s">
+      <c r="O4" s="108" t="s">
         <v>686</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="108" t="s">
         <v>694</v>
       </c>
       <c r="Q4" s="88" t="s">
@@ -8016,10 +8177,12 @@
       </c>
       <c r="AG4" s="18"/>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="J5" s="10" t="s">
         <v>516</v>
       </c>
+      <c r="O5" s="109"/>
+      <c r="P5" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8034,8 +8197,8 @@
   </sheetPr>
   <dimension ref="A1:BL13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8106,7 +8269,7 @@
     <col min="74" max="16384" width="9.140625" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="93" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="92" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -8300,7 +8463,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="2" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" s="92" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="89" t="s">
         <v>81</v>
       </c>
@@ -8399,46 +8562,46 @@
       <c r="AJ2" s="89" t="s">
         <v>772</v>
       </c>
-      <c r="AK2" s="96"/>
-      <c r="AL2" s="96"/>
-      <c r="AM2" s="96"/>
-      <c r="AN2" s="96"/>
-      <c r="AO2" s="96"/>
-      <c r="AP2" s="97"/>
-      <c r="AQ2" s="96"/>
-      <c r="AR2" s="96"/>
-      <c r="AS2" s="96"/>
-      <c r="AT2" s="98" t="s">
+      <c r="AK2" s="95"/>
+      <c r="AL2" s="95"/>
+      <c r="AM2" s="95"/>
+      <c r="AN2" s="95"/>
+      <c r="AO2" s="95"/>
+      <c r="AP2" s="96"/>
+      <c r="AQ2" s="95"/>
+      <c r="AR2" s="95"/>
+      <c r="AS2" s="95"/>
+      <c r="AT2" s="97" t="s">
         <v>671</v>
       </c>
-      <c r="AU2" s="99" t="s">
+      <c r="AU2" s="98" t="s">
         <v>508</v>
       </c>
-      <c r="AV2" s="96" t="s">
+      <c r="AV2" s="95" t="s">
         <v>773</v>
       </c>
-      <c r="AW2" s="98" t="s">
+      <c r="AW2" s="97" t="s">
         <v>614</v>
       </c>
-      <c r="AX2" s="96"/>
-      <c r="AY2" s="96" t="s">
+      <c r="AX2" s="95"/>
+      <c r="AY2" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="AZ2" s="96"/>
-      <c r="BA2" s="96"/>
-      <c r="BB2" s="96"/>
-      <c r="BC2" s="96"/>
-      <c r="BD2" s="96"/>
-      <c r="BE2" s="96"/>
-      <c r="BF2" s="96"/>
-      <c r="BG2" s="96"/>
-      <c r="BH2" s="96"/>
-      <c r="BI2" s="96"/>
-      <c r="BJ2" s="96"/>
-      <c r="BK2" s="96"/>
-      <c r="BL2" s="96"/>
+      <c r="AZ2" s="95"/>
+      <c r="BA2" s="95"/>
+      <c r="BB2" s="95"/>
+      <c r="BC2" s="95"/>
+      <c r="BD2" s="95"/>
+      <c r="BE2" s="95"/>
+      <c r="BF2" s="95"/>
+      <c r="BG2" s="95"/>
+      <c r="BH2" s="95"/>
+      <c r="BI2" s="95"/>
+      <c r="BJ2" s="95"/>
+      <c r="BK2" s="95"/>
+      <c r="BL2" s="95"/>
     </row>
-    <row r="3" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" s="92" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
         <v>681</v>
       </c>
@@ -8537,54 +8700,54 @@
       <c r="AJ3" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="AK3" s="96"/>
-      <c r="AL3" s="96"/>
-      <c r="AM3" s="96"/>
-      <c r="AN3" s="96"/>
-      <c r="AO3" s="96"/>
-      <c r="AP3" s="100">
+      <c r="AK3" s="95"/>
+      <c r="AL3" s="95"/>
+      <c r="AM3" s="95"/>
+      <c r="AN3" s="95"/>
+      <c r="AO3" s="95"/>
+      <c r="AP3" s="99">
         <v>9.9500000000000005E-3</v>
       </c>
-      <c r="AQ3" s="100">
+      <c r="AQ3" s="99">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="AR3" s="100">
+      <c r="AR3" s="99">
         <v>2.6450000000000001E-2</v>
       </c>
-      <c r="AS3" s="100" t="s">
+      <c r="AS3" s="99" t="s">
         <v>783</v>
       </c>
-      <c r="AT3" s="98" t="s">
+      <c r="AT3" s="97" t="s">
         <v>671</v>
       </c>
-      <c r="AU3" s="99" t="s">
+      <c r="AU3" s="98" t="s">
         <v>508</v>
       </c>
-      <c r="AV3" s="96" t="s">
+      <c r="AV3" s="95" t="s">
         <v>773</v>
       </c>
-      <c r="AW3" s="98" t="s">
+      <c r="AW3" s="97" t="s">
         <v>614</v>
       </c>
-      <c r="AX3" s="96"/>
-      <c r="AY3" s="96" t="s">
+      <c r="AX3" s="95"/>
+      <c r="AY3" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="AZ3" s="96"/>
-      <c r="BA3" s="96"/>
-      <c r="BB3" s="96"/>
-      <c r="BC3" s="96"/>
-      <c r="BD3" s="96"/>
-      <c r="BE3" s="96"/>
-      <c r="BF3" s="96"/>
-      <c r="BG3" s="96"/>
-      <c r="BH3" s="96"/>
-      <c r="BI3" s="96"/>
-      <c r="BJ3" s="96"/>
-      <c r="BK3" s="96"/>
-      <c r="BL3" s="96"/>
+      <c r="AZ3" s="95"/>
+      <c r="BA3" s="95"/>
+      <c r="BB3" s="95"/>
+      <c r="BC3" s="95"/>
+      <c r="BD3" s="95"/>
+      <c r="BE3" s="95"/>
+      <c r="BF3" s="95"/>
+      <c r="BG3" s="95"/>
+      <c r="BH3" s="95"/>
+      <c r="BI3" s="95"/>
+      <c r="BJ3" s="95"/>
+      <c r="BK3" s="95"/>
+      <c r="BL3" s="95"/>
     </row>
-    <row r="4" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" s="92" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>443</v>
       </c>
@@ -8683,50 +8846,50 @@
       <c r="AJ4" s="89" t="s">
         <v>795</v>
       </c>
-      <c r="AK4" s="96"/>
-      <c r="AL4" s="96" t="s">
+      <c r="AK4" s="95"/>
+      <c r="AL4" s="95" t="s">
         <v>445</v>
       </c>
-      <c r="AM4" s="101">
+      <c r="AM4" s="100">
         <v>1171049.45</v>
       </c>
-      <c r="AN4" s="102" t="s">
+      <c r="AN4" s="101" t="s">
         <v>463</v>
       </c>
-      <c r="AO4" s="103">
+      <c r="AO4" s="102">
         <v>885.51</v>
       </c>
-      <c r="AP4" s="103"/>
-      <c r="AQ4" s="96" t="s">
+      <c r="AP4" s="102"/>
+      <c r="AQ4" s="95" t="s">
         <v>445</v>
       </c>
-      <c r="AR4" s="104">
+      <c r="AR4" s="103">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AS4" s="103"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="96"/>
-      <c r="AY4" s="96" t="s">
+      <c r="AS4" s="102"/>
+      <c r="AT4" s="95"/>
+      <c r="AU4" s="95"/>
+      <c r="AV4" s="95"/>
+      <c r="AW4" s="95"/>
+      <c r="AX4" s="95"/>
+      <c r="AY4" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="96"/>
-      <c r="BF4" s="96"/>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="96"/>
+      <c r="AZ4" s="95"/>
+      <c r="BA4" s="95"/>
+      <c r="BB4" s="95"/>
+      <c r="BC4" s="95"/>
+      <c r="BD4" s="95"/>
+      <c r="BE4" s="95"/>
+      <c r="BF4" s="95"/>
+      <c r="BG4" s="95"/>
+      <c r="BH4" s="95"/>
+      <c r="BI4" s="95"/>
+      <c r="BJ4" s="95"/>
+      <c r="BK4" s="95"/>
+      <c r="BL4" s="95"/>
     </row>
-    <row r="5" spans="1:64" s="93" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" s="92" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>796</v>
       </c>
@@ -8825,54 +8988,54 @@
       <c r="AJ5" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="AK5" s="96"/>
-      <c r="AL5" s="96"/>
-      <c r="AM5" s="96"/>
-      <c r="AN5" s="96"/>
-      <c r="AO5" s="96"/>
-      <c r="AP5" s="100">
+      <c r="AK5" s="95"/>
+      <c r="AL5" s="95"/>
+      <c r="AM5" s="95"/>
+      <c r="AN5" s="95"/>
+      <c r="AO5" s="95"/>
+      <c r="AP5" s="99">
         <v>9.9500000000000005E-3</v>
       </c>
-      <c r="AQ5" s="100">
+      <c r="AQ5" s="99">
         <v>1.6500000000000001E-2</v>
       </c>
-      <c r="AR5" s="100">
+      <c r="AR5" s="99">
         <v>2.6450000000000001E-2</v>
       </c>
-      <c r="AS5" s="100" t="s">
+      <c r="AS5" s="99" t="s">
         <v>783</v>
       </c>
-      <c r="AT5" s="98" t="s">
+      <c r="AT5" s="97" t="s">
         <v>671</v>
       </c>
-      <c r="AU5" s="99" t="s">
+      <c r="AU5" s="98" t="s">
         <v>508</v>
       </c>
-      <c r="AV5" s="96" t="s">
+      <c r="AV5" s="95" t="s">
         <v>773</v>
       </c>
-      <c r="AW5" s="98" t="s">
+      <c r="AW5" s="97" t="s">
         <v>614</v>
       </c>
-      <c r="AX5" s="96"/>
-      <c r="AY5" s="96" t="s">
+      <c r="AX5" s="95"/>
+      <c r="AY5" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="AZ5" s="96"/>
-      <c r="BA5" s="96"/>
-      <c r="BB5" s="96"/>
-      <c r="BC5" s="96"/>
-      <c r="BD5" s="96"/>
-      <c r="BE5" s="96"/>
-      <c r="BF5" s="96"/>
-      <c r="BG5" s="96"/>
-      <c r="BH5" s="96"/>
-      <c r="BI5" s="96"/>
-      <c r="BJ5" s="96"/>
-      <c r="BK5" s="96"/>
-      <c r="BL5" s="96"/>
+      <c r="AZ5" s="95"/>
+      <c r="BA5" s="95"/>
+      <c r="BB5" s="95"/>
+      <c r="BC5" s="95"/>
+      <c r="BD5" s="95"/>
+      <c r="BE5" s="95"/>
+      <c r="BF5" s="95"/>
+      <c r="BG5" s="95"/>
+      <c r="BH5" s="95"/>
+      <c r="BI5" s="95"/>
+      <c r="BJ5" s="95"/>
+      <c r="BK5" s="95"/>
+      <c r="BL5" s="95"/>
     </row>
-    <row r="6" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" s="92" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
         <v>580</v>
       </c>
@@ -8971,46 +9134,46 @@
       <c r="AJ6" s="89" t="s">
         <v>772</v>
       </c>
-      <c r="AK6" s="96"/>
-      <c r="AL6" s="96"/>
-      <c r="AM6" s="96"/>
-      <c r="AN6" s="96"/>
-      <c r="AO6" s="96"/>
-      <c r="AP6" s="97"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="96"/>
-      <c r="AS6" s="96"/>
-      <c r="AT6" s="98" t="s">
+      <c r="AK6" s="95"/>
+      <c r="AL6" s="95"/>
+      <c r="AM6" s="95"/>
+      <c r="AN6" s="95"/>
+      <c r="AO6" s="95"/>
+      <c r="AP6" s="96"/>
+      <c r="AQ6" s="95"/>
+      <c r="AR6" s="95"/>
+      <c r="AS6" s="95"/>
+      <c r="AT6" s="97" t="s">
         <v>671</v>
       </c>
-      <c r="AU6" s="99" t="s">
+      <c r="AU6" s="98" t="s">
         <v>508</v>
       </c>
-      <c r="AV6" s="96" t="s">
+      <c r="AV6" s="95" t="s">
         <v>773</v>
       </c>
-      <c r="AW6" s="98" t="s">
+      <c r="AW6" s="97" t="s">
         <v>614</v>
       </c>
-      <c r="AX6" s="96"/>
-      <c r="AY6" s="96" t="s">
+      <c r="AX6" s="95"/>
+      <c r="AY6" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="AZ6" s="96"/>
-      <c r="BA6" s="96"/>
-      <c r="BB6" s="96"/>
-      <c r="BC6" s="96"/>
-      <c r="BD6" s="96"/>
-      <c r="BE6" s="96"/>
-      <c r="BF6" s="96"/>
-      <c r="BG6" s="96"/>
-      <c r="BH6" s="96"/>
-      <c r="BI6" s="96"/>
-      <c r="BJ6" s="96"/>
-      <c r="BK6" s="96"/>
-      <c r="BL6" s="96"/>
+      <c r="AZ6" s="95"/>
+      <c r="BA6" s="95"/>
+      <c r="BB6" s="95"/>
+      <c r="BC6" s="95"/>
+      <c r="BD6" s="95"/>
+      <c r="BE6" s="95"/>
+      <c r="BF6" s="95"/>
+      <c r="BG6" s="95"/>
+      <c r="BH6" s="95"/>
+      <c r="BI6" s="95"/>
+      <c r="BJ6" s="95"/>
+      <c r="BK6" s="95"/>
+      <c r="BL6" s="95"/>
     </row>
-    <row r="7" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" s="92" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
         <v>804</v>
       </c>
@@ -9109,46 +9272,46 @@
       <c r="AJ7" s="89" t="s">
         <v>795</v>
       </c>
-      <c r="AK7" s="96"/>
-      <c r="AL7" s="96" t="s">
+      <c r="AK7" s="95"/>
+      <c r="AL7" s="95" t="s">
         <v>445</v>
       </c>
-      <c r="AM7" s="101">
+      <c r="AM7" s="100">
         <v>1171049.45</v>
       </c>
-      <c r="AN7" s="102" t="s">
+      <c r="AN7" s="101" t="s">
         <v>463</v>
       </c>
-      <c r="AO7" s="103">
+      <c r="AO7" s="102">
         <v>885.51</v>
       </c>
-      <c r="AP7" s="103"/>
-      <c r="AQ7" s="96"/>
-      <c r="AR7" s="104"/>
-      <c r="AS7" s="103"/>
-      <c r="AT7" s="96"/>
-      <c r="AU7" s="96"/>
-      <c r="AV7" s="96"/>
-      <c r="AW7" s="96"/>
-      <c r="AX7" s="96"/>
-      <c r="AY7" s="96" t="s">
+      <c r="AP7" s="102"/>
+      <c r="AQ7" s="95"/>
+      <c r="AR7" s="103"/>
+      <c r="AS7" s="102"/>
+      <c r="AT7" s="95"/>
+      <c r="AU7" s="95"/>
+      <c r="AV7" s="95"/>
+      <c r="AW7" s="95"/>
+      <c r="AX7" s="95"/>
+      <c r="AY7" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="AZ7" s="96"/>
-      <c r="BA7" s="96"/>
-      <c r="BB7" s="96"/>
-      <c r="BC7" s="96"/>
-      <c r="BD7" s="96"/>
-      <c r="BE7" s="96"/>
-      <c r="BF7" s="96"/>
-      <c r="BG7" s="96"/>
-      <c r="BH7" s="96"/>
-      <c r="BI7" s="96"/>
-      <c r="BJ7" s="96"/>
-      <c r="BK7" s="96"/>
-      <c r="BL7" s="96"/>
+      <c r="AZ7" s="95"/>
+      <c r="BA7" s="95"/>
+      <c r="BB7" s="95"/>
+      <c r="BC7" s="95"/>
+      <c r="BD7" s="95"/>
+      <c r="BE7" s="95"/>
+      <c r="BF7" s="95"/>
+      <c r="BG7" s="95"/>
+      <c r="BH7" s="95"/>
+      <c r="BI7" s="95"/>
+      <c r="BJ7" s="95"/>
+      <c r="BK7" s="95"/>
+      <c r="BL7" s="95"/>
     </row>
-    <row r="8" spans="1:64" s="93" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" s="92" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="89" t="s">
         <v>811</v>
       </c>
@@ -9247,56 +9410,56 @@
       <c r="AJ8" s="89" t="s">
         <v>795</v>
       </c>
-      <c r="AK8" s="96"/>
-      <c r="AL8" s="96"/>
-      <c r="AM8" s="101"/>
-      <c r="AN8" s="102"/>
-      <c r="AO8" s="105">
+      <c r="AK8" s="95"/>
+      <c r="AL8" s="95"/>
+      <c r="AM8" s="100"/>
+      <c r="AN8" s="101"/>
+      <c r="AO8" s="104">
         <v>12</v>
       </c>
-      <c r="AP8" s="103" t="s">
+      <c r="AP8" s="102" t="s">
         <v>816</v>
       </c>
-      <c r="AQ8" s="96" t="s">
+      <c r="AQ8" s="95" t="s">
         <v>679</v>
       </c>
-      <c r="AR8" s="104" t="s">
+      <c r="AR8" s="103" t="s">
         <v>817</v>
       </c>
-      <c r="AS8" s="103" t="s">
+      <c r="AS8" s="102" t="s">
         <v>818</v>
       </c>
-      <c r="AT8" s="96" t="s">
+      <c r="AT8" s="95" t="s">
         <v>614</v>
       </c>
-      <c r="AU8" s="96" t="s">
+      <c r="AU8" s="95" t="s">
         <v>639</v>
       </c>
-      <c r="AV8" s="96" t="s">
+      <c r="AV8" s="95" t="s">
         <v>819</v>
       </c>
-      <c r="AW8" s="96" t="s">
+      <c r="AW8" s="95" t="s">
         <v>614</v>
       </c>
-      <c r="AX8" s="96" t="s">
+      <c r="AX8" s="95" t="s">
         <v>686</v>
       </c>
-      <c r="AY8" s="96" t="s">
+      <c r="AY8" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="AZ8" s="96"/>
-      <c r="BA8" s="96"/>
-      <c r="BB8" s="96"/>
-      <c r="BC8" s="96"/>
-      <c r="BD8" s="96"/>
-      <c r="BE8" s="96"/>
-      <c r="BF8" s="96"/>
-      <c r="BG8" s="96"/>
-      <c r="BH8" s="96"/>
-      <c r="BI8" s="96"/>
-      <c r="BJ8" s="96"/>
-      <c r="BK8" s="96"/>
-      <c r="BL8" s="96"/>
+      <c r="AZ8" s="95"/>
+      <c r="BA8" s="95"/>
+      <c r="BB8" s="95"/>
+      <c r="BC8" s="95"/>
+      <c r="BD8" s="95"/>
+      <c r="BE8" s="95"/>
+      <c r="BF8" s="95"/>
+      <c r="BG8" s="95"/>
+      <c r="BH8" s="95"/>
+      <c r="BI8" s="95"/>
+      <c r="BJ8" s="95"/>
+      <c r="BK8" s="95"/>
+      <c r="BL8" s="95"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" s="89" t="s">
@@ -9397,54 +9560,54 @@
       <c r="AJ9" s="89" t="s">
         <v>772</v>
       </c>
-      <c r="AK9" s="96"/>
-      <c r="AL9" s="96"/>
-      <c r="AM9" s="96"/>
-      <c r="AN9" s="96"/>
-      <c r="AO9" s="96"/>
-      <c r="AP9" s="97" t="s">
+      <c r="AK9" s="95"/>
+      <c r="AL9" s="95"/>
+      <c r="AM9" s="95"/>
+      <c r="AN9" s="95"/>
+      <c r="AO9" s="95"/>
+      <c r="AP9" s="96" t="s">
         <v>825</v>
       </c>
-      <c r="AQ9" s="96" t="s">
+      <c r="AQ9" s="95" t="s">
         <v>679</v>
       </c>
-      <c r="AR9" s="96" t="s">
+      <c r="AR9" s="95" t="s">
         <v>826</v>
       </c>
-      <c r="AS9" s="96" t="s">
+      <c r="AS9" s="95" t="s">
         <v>827</v>
       </c>
-      <c r="AT9" s="98" t="s">
+      <c r="AT9" s="97" t="s">
         <v>684</v>
       </c>
-      <c r="AU9" s="99" t="s">
+      <c r="AU9" s="98" t="s">
         <v>639</v>
       </c>
-      <c r="AV9" s="96" t="s">
+      <c r="AV9" s="95" t="s">
         <v>683</v>
       </c>
-      <c r="AW9" s="98" t="s">
+      <c r="AW9" s="97" t="s">
         <v>684</v>
       </c>
-      <c r="AX9" s="96" t="s">
+      <c r="AX9" s="95" t="s">
         <v>686</v>
       </c>
-      <c r="AY9" s="96" t="s">
+      <c r="AY9" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="AZ9" s="106"/>
-      <c r="BA9" s="106"/>
-      <c r="BB9" s="106"/>
-      <c r="BC9" s="106"/>
-      <c r="BD9" s="106"/>
-      <c r="BE9" s="106"/>
-      <c r="BF9" s="106"/>
-      <c r="BG9" s="106"/>
-      <c r="BH9" s="106"/>
-      <c r="BI9" s="106"/>
-      <c r="BJ9" s="106"/>
-      <c r="BK9" s="106"/>
-      <c r="BL9" s="106"/>
+      <c r="AZ9" s="105"/>
+      <c r="BA9" s="105"/>
+      <c r="BB9" s="105"/>
+      <c r="BC9" s="105"/>
+      <c r="BD9" s="105"/>
+      <c r="BE9" s="105"/>
+      <c r="BF9" s="105"/>
+      <c r="BG9" s="105"/>
+      <c r="BH9" s="105"/>
+      <c r="BI9" s="105"/>
+      <c r="BJ9" s="105"/>
+      <c r="BK9" s="105"/>
+      <c r="BL9" s="105"/>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" s="89" t="s">
@@ -9545,54 +9708,54 @@
       <c r="AJ10" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="AK10" s="96"/>
-      <c r="AL10" s="96"/>
-      <c r="AM10" s="96"/>
-      <c r="AN10" s="96"/>
-      <c r="AO10" s="96"/>
-      <c r="AP10" s="100" t="s">
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="95"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="95"/>
+      <c r="AO10" s="95"/>
+      <c r="AP10" s="99" t="s">
         <v>825</v>
       </c>
-      <c r="AQ10" s="100" t="s">
+      <c r="AQ10" s="99" t="s">
         <v>679</v>
       </c>
-      <c r="AR10" s="100" t="s">
+      <c r="AR10" s="99" t="s">
         <v>826</v>
       </c>
-      <c r="AS10" s="100" t="s">
+      <c r="AS10" s="99" t="s">
         <v>827</v>
       </c>
-      <c r="AT10" s="98" t="s">
+      <c r="AT10" s="97" t="s">
         <v>684</v>
       </c>
-      <c r="AU10" s="99" t="s">
+      <c r="AU10" s="98" t="s">
         <v>639</v>
       </c>
-      <c r="AV10" s="96" t="s">
+      <c r="AV10" s="95" t="s">
         <v>683</v>
       </c>
-      <c r="AW10" s="98" t="s">
+      <c r="AW10" s="97" t="s">
         <v>684</v>
       </c>
-      <c r="AX10" s="96" t="s">
+      <c r="AX10" s="95" t="s">
         <v>686</v>
       </c>
-      <c r="AY10" s="96" t="s">
+      <c r="AY10" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="AZ10" s="106"/>
-      <c r="BA10" s="106"/>
-      <c r="BB10" s="106"/>
-      <c r="BC10" s="106"/>
-      <c r="BD10" s="106"/>
-      <c r="BE10" s="106"/>
-      <c r="BF10" s="106"/>
-      <c r="BG10" s="106"/>
-      <c r="BH10" s="106"/>
-      <c r="BI10" s="106"/>
-      <c r="BJ10" s="106"/>
-      <c r="BK10" s="106"/>
-      <c r="BL10" s="106"/>
+      <c r="AZ10" s="105"/>
+      <c r="BA10" s="105"/>
+      <c r="BB10" s="105"/>
+      <c r="BC10" s="105"/>
+      <c r="BD10" s="105"/>
+      <c r="BE10" s="105"/>
+      <c r="BF10" s="105"/>
+      <c r="BG10" s="105"/>
+      <c r="BH10" s="105"/>
+      <c r="BI10" s="105"/>
+      <c r="BJ10" s="105"/>
+      <c r="BK10" s="105"/>
+      <c r="BL10" s="105"/>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" s="89" t="s">
@@ -9691,34 +9854,34 @@
       </c>
       <c r="AI11" s="58"/>
       <c r="AJ11" s="58"/>
-      <c r="AK11" s="106"/>
-      <c r="AL11" s="106"/>
-      <c r="AM11" s="106"/>
-      <c r="AN11" s="106"/>
-      <c r="AO11" s="106"/>
-      <c r="AP11" s="106"/>
-      <c r="AQ11" s="106"/>
-      <c r="AR11" s="106"/>
-      <c r="AS11" s="106"/>
-      <c r="AT11" s="106"/>
-      <c r="AU11" s="106"/>
-      <c r="AV11" s="106"/>
-      <c r="AW11" s="106"/>
-      <c r="AX11" s="106"/>
-      <c r="AY11" s="106"/>
-      <c r="AZ11" s="107"/>
-      <c r="BA11" s="106"/>
-      <c r="BB11" s="106"/>
-      <c r="BC11" s="106"/>
-      <c r="BD11" s="106"/>
-      <c r="BE11" s="106"/>
-      <c r="BF11" s="106"/>
-      <c r="BG11" s="106"/>
-      <c r="BH11" s="106"/>
-      <c r="BI11" s="106"/>
-      <c r="BJ11" s="106"/>
-      <c r="BK11" s="106"/>
-      <c r="BL11" s="106"/>
+      <c r="AK11" s="105"/>
+      <c r="AL11" s="105"/>
+      <c r="AM11" s="105"/>
+      <c r="AN11" s="105"/>
+      <c r="AO11" s="105"/>
+      <c r="AP11" s="105"/>
+      <c r="AQ11" s="105"/>
+      <c r="AR11" s="105"/>
+      <c r="AS11" s="105"/>
+      <c r="AT11" s="105"/>
+      <c r="AU11" s="105"/>
+      <c r="AV11" s="105"/>
+      <c r="AW11" s="105"/>
+      <c r="AX11" s="105"/>
+      <c r="AY11" s="105"/>
+      <c r="AZ11" s="106"/>
+      <c r="BA11" s="105"/>
+      <c r="BB11" s="105"/>
+      <c r="BC11" s="105"/>
+      <c r="BD11" s="105"/>
+      <c r="BE11" s="105"/>
+      <c r="BF11" s="105"/>
+      <c r="BG11" s="105"/>
+      <c r="BH11" s="105"/>
+      <c r="BI11" s="105"/>
+      <c r="BJ11" s="105"/>
+      <c r="BK11" s="105"/>
+      <c r="BL11" s="105"/>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" s="89" t="s">
@@ -9807,34 +9970,34 @@
       <c r="AJ12" s="89" t="s">
         <v>772</v>
       </c>
-      <c r="AK12" s="106"/>
-      <c r="AL12" s="106"/>
-      <c r="AM12" s="106"/>
-      <c r="AN12" s="106"/>
-      <c r="AO12" s="106"/>
-      <c r="AP12" s="106"/>
-      <c r="AQ12" s="106"/>
-      <c r="AR12" s="106"/>
-      <c r="AS12" s="106"/>
-      <c r="AT12" s="106"/>
-      <c r="AU12" s="106"/>
-      <c r="AV12" s="106"/>
-      <c r="AW12" s="106"/>
-      <c r="AX12" s="106"/>
-      <c r="AY12" s="106"/>
-      <c r="AZ12" s="107"/>
-      <c r="BA12" s="106"/>
-      <c r="BB12" s="106"/>
-      <c r="BC12" s="106"/>
-      <c r="BD12" s="106"/>
-      <c r="BE12" s="106"/>
-      <c r="BF12" s="106"/>
-      <c r="BG12" s="106"/>
-      <c r="BH12" s="106"/>
-      <c r="BI12" s="106"/>
-      <c r="BJ12" s="106"/>
-      <c r="BK12" s="106"/>
-      <c r="BL12" s="106"/>
+      <c r="AK12" s="105"/>
+      <c r="AL12" s="105"/>
+      <c r="AM12" s="105"/>
+      <c r="AN12" s="105"/>
+      <c r="AO12" s="105"/>
+      <c r="AP12" s="105"/>
+      <c r="AQ12" s="105"/>
+      <c r="AR12" s="105"/>
+      <c r="AS12" s="105"/>
+      <c r="AT12" s="105"/>
+      <c r="AU12" s="105"/>
+      <c r="AV12" s="105"/>
+      <c r="AW12" s="105"/>
+      <c r="AX12" s="105"/>
+      <c r="AY12" s="105"/>
+      <c r="AZ12" s="106"/>
+      <c r="BA12" s="105"/>
+      <c r="BB12" s="105"/>
+      <c r="BC12" s="105"/>
+      <c r="BD12" s="105"/>
+      <c r="BE12" s="105"/>
+      <c r="BF12" s="105"/>
+      <c r="BG12" s="105"/>
+      <c r="BH12" s="105"/>
+      <c r="BI12" s="105"/>
+      <c r="BJ12" s="105"/>
+      <c r="BK12" s="105"/>
+      <c r="BL12" s="105"/>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" s="89" t="s">
@@ -9935,34 +10098,34 @@
       <c r="AJ13" s="89" t="s">
         <v>782</v>
       </c>
-      <c r="AK13" s="106"/>
-      <c r="AL13" s="106"/>
-      <c r="AM13" s="106"/>
-      <c r="AN13" s="106"/>
-      <c r="AO13" s="106"/>
-      <c r="AP13" s="106"/>
-      <c r="AQ13" s="106"/>
-      <c r="AR13" s="106"/>
-      <c r="AS13" s="106"/>
-      <c r="AT13" s="106"/>
-      <c r="AU13" s="106"/>
-      <c r="AV13" s="106"/>
-      <c r="AW13" s="106"/>
-      <c r="AX13" s="106"/>
-      <c r="AY13" s="108"/>
-      <c r="AZ13" s="108"/>
-      <c r="BA13" s="108"/>
-      <c r="BB13" s="108"/>
-      <c r="BC13" s="108"/>
-      <c r="BD13" s="108"/>
-      <c r="BE13" s="108"/>
-      <c r="BF13" s="108"/>
-      <c r="BG13" s="108"/>
-      <c r="BH13" s="108"/>
-      <c r="BI13" s="108"/>
-      <c r="BJ13" s="108"/>
-      <c r="BK13" s="108"/>
-      <c r="BL13" s="108"/>
+      <c r="AK13" s="105"/>
+      <c r="AL13" s="105"/>
+      <c r="AM13" s="105"/>
+      <c r="AN13" s="105"/>
+      <c r="AO13" s="105"/>
+      <c r="AP13" s="105"/>
+      <c r="AQ13" s="105"/>
+      <c r="AR13" s="105"/>
+      <c r="AS13" s="105"/>
+      <c r="AT13" s="105"/>
+      <c r="AU13" s="105"/>
+      <c r="AV13" s="105"/>
+      <c r="AW13" s="105"/>
+      <c r="AX13" s="105"/>
+      <c r="AY13" s="107"/>
+      <c r="AZ13" s="107"/>
+      <c r="BA13" s="107"/>
+      <c r="BB13" s="107"/>
+      <c r="BC13" s="107"/>
+      <c r="BD13" s="107"/>
+      <c r="BE13" s="107"/>
+      <c r="BF13" s="107"/>
+      <c r="BG13" s="107"/>
+      <c r="BH13" s="107"/>
+      <c r="BI13" s="107"/>
+      <c r="BJ13" s="107"/>
+      <c r="BK13" s="107"/>
+      <c r="BL13" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A09D72-4309-4F51-BE1F-73D14472628C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4410BDBF-F018-4419-8C2E-E1EAE367518E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="938">
   <si>
     <t>rowid</t>
   </si>
@@ -1807,18 +1807,12 @@
     <t>Commitment_Cycle_Frequency</t>
   </si>
   <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>Balance_Amount</t>
   </si>
   <si>
     <t>Rate_Basis</t>
   </si>
   <si>
-    <t>Computed_CycleDue</t>
-  </si>
-  <si>
     <t>Remittance_Instruction</t>
   </si>
   <si>
@@ -2843,6 +2837,18 @@
   </si>
   <si>
     <t>885.30</t>
+  </si>
+  <si>
+    <t>1,158.22</t>
+  </si>
+  <si>
+    <t>01-Jul-2020</t>
+  </si>
+  <si>
+    <t>Projected_EOCAccrual</t>
+  </si>
+  <si>
+    <t>Projected_EOCDue</t>
   </si>
 </sst>
 </file>
@@ -2855,7 +2861,7 @@
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="0.00000%"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2969,6 +2975,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="19">
     <fill>
@@ -3075,7 +3087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3160,7 +3172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3337,9 +3349,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3536,15 +3545,6 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3570,6 +3570,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="18" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3896,80 +3899,80 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" style="108" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" style="108" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="25" max="27" width="16.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="28.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="23.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="40" max="44" width="5.5703125" style="108" customWidth="1"/>
-    <col min="45" max="45" width="14.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="17.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="17.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="12.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="18.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="13.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="20.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="18.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="19" style="108" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="7.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="16.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="23" style="108" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="24.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="20.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="22" style="108" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="15.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="19.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="18.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="71" max="74" width="23.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="18.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="17.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="22.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="21.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="24" style="108" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="20" style="108" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="17.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" style="107" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="107" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="16.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="28.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="23.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="40" max="44" width="5.5703125" style="107" customWidth="1"/>
+    <col min="45" max="45" width="14.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="17.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="12.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="18.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="13.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="20.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="18.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="19" style="107" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="7.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="23" style="107" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="24.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="20.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="22" style="107" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="15.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="10.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="71" max="74" width="23.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="18.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="17.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="22.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="21.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="24" style="107" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="20" style="107" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="17.140625" style="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:106" s="38" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4246,20 +4249,20 @@
       <c r="DA1" s="12"/>
       <c r="DB1" s="12"/>
     </row>
-    <row r="2" spans="1:106" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>85</v>
       </c>
       <c r="F2" s="54" t="s">
@@ -4271,7 +4274,7 @@
       <c r="H2" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="I2" s="67" t="s">
         <v>88</v>
       </c>
       <c r="J2" s="54" t="s">
@@ -4336,10 +4339,10 @@
       <c r="AG2" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="AH2" s="81" t="s">
+      <c r="AH2" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="AI2" s="81" t="s">
+      <c r="AI2" s="80" t="s">
         <v>90</v>
       </c>
       <c r="AJ2" s="28"/>
@@ -4390,29 +4393,29 @@
       <c r="CC2" s="17"/>
       <c r="CD2" s="17"/>
       <c r="CE2" s="17"/>
-      <c r="CF2" s="81"/>
-      <c r="CG2" s="81"/>
-      <c r="CH2" s="81"/>
-      <c r="CI2" s="81"/>
-      <c r="CJ2" s="81"/>
-      <c r="CK2" s="81"/>
-      <c r="CL2" s="81"/>
-      <c r="CM2" s="81"/>
-      <c r="CN2" s="81"/>
-      <c r="CO2" s="81"/>
-      <c r="CP2" s="81"/>
-      <c r="CQ2" s="81"/>
-      <c r="CR2" s="81"/>
-      <c r="CS2" s="81"/>
-      <c r="CT2" s="81"/>
-      <c r="CU2" s="81"/>
-      <c r="CV2" s="81"/>
-      <c r="CW2" s="81"/>
-      <c r="CX2" s="81"/>
-      <c r="CY2" s="81"/>
-      <c r="CZ2" s="81"/>
-      <c r="DA2" s="81"/>
-      <c r="DB2" s="81"/>
+      <c r="CF2" s="80"/>
+      <c r="CG2" s="80"/>
+      <c r="CH2" s="80"/>
+      <c r="CI2" s="80"/>
+      <c r="CJ2" s="80"/>
+      <c r="CK2" s="80"/>
+      <c r="CL2" s="80"/>
+      <c r="CM2" s="80"/>
+      <c r="CN2" s="80"/>
+      <c r="CO2" s="80"/>
+      <c r="CP2" s="80"/>
+      <c r="CQ2" s="80"/>
+      <c r="CR2" s="80"/>
+      <c r="CS2" s="80"/>
+      <c r="CT2" s="80"/>
+      <c r="CU2" s="80"/>
+      <c r="CV2" s="80"/>
+      <c r="CW2" s="80"/>
+      <c r="CX2" s="80"/>
+      <c r="CY2" s="80"/>
+      <c r="CZ2" s="80"/>
+      <c r="DA2" s="80"/>
+      <c r="DB2" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4433,265 +4436,265 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="121" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26" style="108" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="121" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="20.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="35" style="108" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="29.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.42578125" style="108" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="120" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" style="107" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="31.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12" style="120" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="20.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="35" style="107" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.42578125" style="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="61" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:28" s="60" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>333</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
+        <v>839</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>626</v>
+      </c>
+      <c r="G1" s="61" t="s">
+        <v>840</v>
+      </c>
+      <c r="H1" s="62" t="s">
+        <v>627</v>
+      </c>
+      <c r="I1" s="63" t="s">
         <v>841</v>
       </c>
-      <c r="E1" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="F1" s="62" t="s">
-        <v>628</v>
-      </c>
-      <c r="G1" s="62" t="s">
+      <c r="J1" s="63" t="s">
         <v>842</v>
       </c>
-      <c r="H1" s="63" t="s">
+      <c r="K1" s="63" t="s">
+        <v>843</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>844</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>845</v>
+      </c>
+      <c r="N1" s="60" t="s">
         <v>629</v>
       </c>
-      <c r="I1" s="64" t="s">
-        <v>843</v>
-      </c>
-      <c r="J1" s="64" t="s">
-        <v>844</v>
-      </c>
-      <c r="K1" s="64" t="s">
-        <v>845</v>
-      </c>
-      <c r="L1" s="61" t="s">
+      <c r="O1" s="60" t="s">
         <v>846</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="P1" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q1" s="60" t="s">
         <v>847</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="R1" s="68" t="s">
+        <v>848</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>849</v>
+      </c>
+      <c r="T1" s="60" t="s">
+        <v>850</v>
+      </c>
+      <c r="U1" s="60" t="s">
+        <v>851</v>
+      </c>
+      <c r="V1" s="60" t="s">
         <v>631</v>
       </c>
-      <c r="O1" s="61" t="s">
-        <v>848</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>641</v>
-      </c>
-      <c r="Q1" s="61" t="s">
-        <v>849</v>
-      </c>
-      <c r="R1" s="69" t="s">
-        <v>850</v>
-      </c>
-      <c r="S1" s="61" t="s">
-        <v>851</v>
-      </c>
-      <c r="T1" s="61" t="s">
-        <v>852</v>
-      </c>
-      <c r="U1" s="61" t="s">
-        <v>853</v>
-      </c>
-      <c r="V1" s="61" t="s">
-        <v>633</v>
-      </c>
-      <c r="W1" s="61" t="s">
-        <v>638</v>
+      <c r="W1" s="60" t="s">
+        <v>636</v>
       </c>
       <c r="X1" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y1" s="60" t="s">
+        <v>648</v>
+      </c>
+      <c r="Z1" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="AA1" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>651</v>
-      </c>
-      <c r="AA1" s="14" t="s">
-        <v>652</v>
-      </c>
-      <c r="AB1" s="14" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="81" t="s">
-        <v>783</v>
-      </c>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="80" t="s">
+        <v>781</v>
+      </c>
+      <c r="C2" s="80" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="65" t="s">
         <v>284</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="81" t="s">
-        <v>656</v>
-      </c>
-      <c r="G2" s="81">
+      <c r="F2" s="80" t="s">
+        <v>654</v>
+      </c>
+      <c r="G2" s="80">
         <v>60002071</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="114" t="s">
+        <v>852</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="80">
+        <v>100</v>
+      </c>
+      <c r="L2" s="65" t="s">
+        <v>853</v>
+      </c>
+      <c r="M2" s="65" t="s">
         <v>854</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="81">
-        <v>100</v>
-      </c>
-      <c r="L2" s="66" t="s">
-        <v>855</v>
-      </c>
-      <c r="M2" s="66" t="s">
-        <v>856</v>
-      </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="65" t="s">
         <v>434</v>
       </c>
       <c r="O2" s="51" t="s">
+        <v>657</v>
+      </c>
+      <c r="P2" s="80" t="s">
         <v>659</v>
-      </c>
-      <c r="P2" s="81" t="s">
-        <v>661</v>
       </c>
       <c r="Q2" s="51" t="s">
         <v>327</v>
       </c>
-      <c r="R2" s="125"/>
-      <c r="S2" s="126"/>
-      <c r="T2" s="126"/>
-      <c r="U2" s="126"/>
-      <c r="V2" s="126"/>
-      <c r="W2" s="126"/>
-      <c r="X2" s="126"/>
-      <c r="Y2" s="126"/>
-      <c r="Z2" s="126"/>
-      <c r="AA2" s="126"/>
-      <c r="AB2" s="126"/>
+      <c r="R2" s="124"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
     </row>
-    <row r="3" spans="1:28" s="123" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="65" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" s="123" t="s">
+    <row r="3" spans="1:28" s="122" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="64" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" s="122" t="s">
+        <v>855</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="F3" s="123"/>
+      <c r="G3" s="56" t="s">
+        <v>856</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="I3" s="114" t="s">
         <v>857</v>
       </c>
-      <c r="C3" s="81" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>284</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="F3" s="124"/>
-      <c r="G3" s="56" t="s">
+      <c r="J3" s="114" t="s">
         <v>858</v>
       </c>
-      <c r="H3" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" s="115" t="s">
-        <v>859</v>
-      </c>
-      <c r="J3" s="115" t="s">
-        <v>860</v>
-      </c>
-      <c r="K3" s="124"/>
-      <c r="L3" s="66" t="s">
-        <v>855</v>
-      </c>
-      <c r="M3" s="66" t="s">
-        <v>856</v>
-      </c>
-      <c r="N3" s="66" t="s">
+      <c r="K3" s="123"/>
+      <c r="L3" s="65" t="s">
+        <v>853</v>
+      </c>
+      <c r="M3" s="65" t="s">
+        <v>854</v>
+      </c>
+      <c r="N3" s="65" t="s">
         <v>434</v>
       </c>
       <c r="O3" s="51" t="s">
+        <v>657</v>
+      </c>
+      <c r="P3" s="80" t="s">
         <v>659</v>
       </c>
-      <c r="P3" s="81" t="s">
-        <v>661</v>
-      </c>
-      <c r="Q3" s="125"/>
+      <c r="Q3" s="124"/>
       <c r="R3" s="56" t="s">
         <v>256</v>
       </c>
-      <c r="S3" s="127" t="s">
+      <c r="S3" s="126" t="s">
+        <v>859</v>
+      </c>
+      <c r="T3" s="126" t="s">
+        <v>860</v>
+      </c>
+      <c r="U3" s="126" t="s">
         <v>861</v>
       </c>
-      <c r="T3" s="127" t="s">
+      <c r="V3" s="114" t="s">
+        <v>671</v>
+      </c>
+      <c r="W3" s="114" t="s">
         <v>862</v>
       </c>
-      <c r="U3" s="127" t="s">
+      <c r="X3" s="72" t="s">
+        <v>661</v>
+      </c>
+      <c r="Y3" s="72" t="s">
+        <v>662</v>
+      </c>
+      <c r="Z3" s="69" t="s">
         <v>863</v>
       </c>
-      <c r="V3" s="115" t="s">
-        <v>673</v>
-      </c>
-      <c r="W3" s="115" t="s">
+      <c r="AA3" s="69" t="s">
+        <v>664</v>
+      </c>
+      <c r="AB3" s="114" t="s">
         <v>864</v>
-      </c>
-      <c r="X3" s="73" t="s">
-        <v>663</v>
-      </c>
-      <c r="Y3" s="73" t="s">
-        <v>664</v>
-      </c>
-      <c r="Z3" s="70" t="s">
-        <v>865</v>
-      </c>
-      <c r="AA3" s="70" t="s">
-        <v>666</v>
-      </c>
-      <c r="AB3" s="115" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
+      <c r="C5" s="104"/>
+      <c r="D5" s="104"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4707,309 +4710,309 @@
   <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="28.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="23.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22" style="108" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.28515625" style="108" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="27" style="107" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22" style="107" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" style="107" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="75" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:51" s="74" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
-        <v>850</v>
-      </c>
-      <c r="D1" s="69" t="s">
+      <c r="C1" s="68" t="s">
+        <v>848</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>865</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>866</v>
+      </c>
+      <c r="G1" s="68" t="s">
         <v>867</v>
       </c>
-      <c r="E1" s="69" t="s">
-        <v>597</v>
-      </c>
-      <c r="F1" s="69" t="s">
+      <c r="H1" s="68" t="s">
         <v>868</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="I1" s="68" t="s">
+        <v>630</v>
+      </c>
+      <c r="J1" s="68" t="s">
         <v>869</v>
       </c>
-      <c r="H1" s="69" t="s">
+      <c r="K1" s="68" t="s">
         <v>870</v>
       </c>
-      <c r="I1" s="69" t="s">
-        <v>632</v>
-      </c>
-      <c r="J1" s="69" t="s">
+      <c r="L1" s="68" t="s">
         <v>871</v>
       </c>
-      <c r="K1" s="69" t="s">
+      <c r="M1" s="68" t="s">
         <v>872</v>
       </c>
-      <c r="L1" s="69" t="s">
+      <c r="N1" s="68" t="s">
         <v>873</v>
       </c>
-      <c r="M1" s="69" t="s">
+      <c r="O1" s="68" t="s">
+        <v>629</v>
+      </c>
+      <c r="P1" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="Q1" s="75" t="s">
+        <v>167</v>
+      </c>
+      <c r="R1" s="75" t="s">
         <v>874</v>
       </c>
-      <c r="N1" s="69" t="s">
+      <c r="S1" s="75" t="s">
         <v>875</v>
       </c>
-      <c r="O1" s="69" t="s">
-        <v>631</v>
-      </c>
-      <c r="P1" s="76" t="s">
-        <v>594</v>
-      </c>
-      <c r="Q1" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="R1" s="76" t="s">
+      <c r="T1" s="75" t="s">
         <v>876</v>
       </c>
-      <c r="S1" s="76" t="s">
+      <c r="U1" s="75" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="77" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="76" t="s">
         <v>877</v>
       </c>
-      <c r="T1" s="76" t="s">
+      <c r="C2" s="76" t="s">
+        <v>328</v>
+      </c>
+      <c r="D2" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="77" t="s">
         <v>878</v>
       </c>
-      <c r="U1" s="76" t="s">
-        <v>598</v>
-      </c>
+      <c r="F2" s="77" t="s">
+        <v>669</v>
+      </c>
+      <c r="G2" s="77" t="s">
+        <v>879</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>880</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>881</v>
+      </c>
+      <c r="J2" s="78" t="s">
+        <v>882</v>
+      </c>
+      <c r="K2" s="78" t="s">
+        <v>883</v>
+      </c>
+      <c r="L2" s="77" t="s">
+        <v>81</v>
+      </c>
+      <c r="M2" s="77" t="s">
+        <v>884</v>
+      </c>
+      <c r="N2" s="77" t="s">
+        <v>885</v>
+      </c>
+      <c r="O2" s="77" t="s">
+        <v>886</v>
+      </c>
+      <c r="P2" s="76" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q2" s="76" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2" s="76" t="s">
+        <v>887</v>
+      </c>
+      <c r="S2" s="76" t="s">
+        <v>888</v>
+      </c>
+      <c r="T2" s="76" t="s">
+        <v>889</v>
+      </c>
+      <c r="U2" s="79" t="s">
+        <v>890</v>
+      </c>
+      <c r="V2" s="73"/>
+      <c r="W2" s="73"/>
+      <c r="X2" s="73"/>
+      <c r="Y2" s="73"/>
+      <c r="Z2" s="73"/>
+      <c r="AA2" s="73"/>
+      <c r="AB2" s="73"/>
+      <c r="AC2" s="73"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
+      <c r="AI2" s="73"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="73"/>
+      <c r="AP2" s="73"/>
+      <c r="AQ2" s="73"/>
+      <c r="AR2" s="73"/>
+      <c r="AS2" s="73"/>
+      <c r="AT2" s="73"/>
+      <c r="AU2" s="73"/>
+      <c r="AV2" s="73"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
     </row>
-    <row r="2" spans="1:51" s="78" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="77" t="s">
+    <row r="3" spans="1:51" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>891</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="114" t="s">
+        <v>878</v>
+      </c>
+      <c r="F3" s="114" t="s">
+        <v>892</v>
+      </c>
+      <c r="G3" s="81" t="s">
+        <v>893</v>
+      </c>
+      <c r="H3" s="114" t="s">
+        <v>880</v>
+      </c>
+      <c r="I3" s="78" t="s">
+        <v>894</v>
+      </c>
+      <c r="J3" s="82" t="s">
+        <v>882</v>
+      </c>
+      <c r="K3" s="82" t="s">
+        <v>883</v>
+      </c>
+      <c r="L3" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="77" t="s">
-        <v>879</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>328</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>256</v>
-      </c>
-      <c r="E2" s="78" t="s">
-        <v>880</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>671</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>881</v>
-      </c>
-      <c r="H2" s="78" t="s">
-        <v>882</v>
-      </c>
-      <c r="I2" s="79" t="s">
-        <v>883</v>
-      </c>
-      <c r="J2" s="79" t="s">
-        <v>884</v>
-      </c>
-      <c r="K2" s="79" t="s">
-        <v>885</v>
-      </c>
-      <c r="L2" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="M2" s="78" t="s">
+      <c r="M3" s="77">
+        <v>428.64</v>
+      </c>
+      <c r="N3" s="77" t="s">
+        <v>895</v>
+      </c>
+      <c r="O3" s="114" t="s">
         <v>886</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="P3" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q3" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="R3" s="80" t="s">
         <v>887</v>
       </c>
-      <c r="O2" s="78" t="s">
-        <v>888</v>
-      </c>
-      <c r="P2" s="77" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q2" s="77" t="s">
-        <v>426</v>
-      </c>
-      <c r="R2" s="77" t="s">
-        <v>889</v>
-      </c>
-      <c r="S2" s="77" t="s">
-        <v>890</v>
-      </c>
-      <c r="T2" s="77" t="s">
-        <v>891</v>
-      </c>
-      <c r="U2" s="80" t="s">
-        <v>892</v>
-      </c>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="74"/>
-      <c r="AD2" s="74"/>
-      <c r="AE2" s="74"/>
-      <c r="AF2" s="74"/>
-      <c r="AG2" s="74"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="74"/>
-      <c r="AK2" s="74"/>
-      <c r="AL2" s="74"/>
-      <c r="AM2" s="74"/>
-      <c r="AN2" s="74"/>
-      <c r="AO2" s="74"/>
-      <c r="AP2" s="74"/>
-      <c r="AQ2" s="74"/>
-      <c r="AR2" s="74"/>
-      <c r="AS2" s="74"/>
-      <c r="AT2" s="74"/>
-      <c r="AU2" s="74"/>
-      <c r="AV2" s="74"/>
-      <c r="AW2" s="74"/>
-      <c r="AX2" s="74"/>
-      <c r="AY2" s="74"/>
-    </row>
-    <row r="3" spans="1:51" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>893</v>
-      </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="115" t="s">
-        <v>880</v>
-      </c>
-      <c r="F3" s="115" t="s">
-        <v>894</v>
-      </c>
-      <c r="G3" s="82" t="s">
-        <v>895</v>
-      </c>
-      <c r="H3" s="115" t="s">
-        <v>882</v>
-      </c>
-      <c r="I3" s="79" t="s">
-        <v>896</v>
-      </c>
-      <c r="J3" s="83" t="s">
-        <v>884</v>
-      </c>
-      <c r="K3" s="83" t="s">
-        <v>885</v>
-      </c>
-      <c r="L3" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="M3" s="78">
-        <v>428.64</v>
-      </c>
-      <c r="N3" s="78" t="s">
-        <v>897</v>
-      </c>
-      <c r="O3" s="115" t="s">
-        <v>888</v>
-      </c>
-      <c r="P3" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q3" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="R3" s="81" t="s">
-        <v>889</v>
-      </c>
-      <c r="S3" s="122"/>
-      <c r="T3" s="122"/>
-      <c r="U3" s="122"/>
+      <c r="S3" s="121"/>
+      <c r="T3" s="121"/>
+      <c r="U3" s="121"/>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
+        <v>896</v>
+      </c>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="114" t="s">
+        <v>878</v>
+      </c>
+      <c r="F4" s="114" t="s">
+        <v>897</v>
+      </c>
+      <c r="G4" s="81" t="s">
         <v>898</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="115" t="s">
+      <c r="H4" s="114" t="s">
         <v>880</v>
       </c>
-      <c r="F4" s="115" t="s">
+      <c r="I4" s="78" t="s">
         <v>899</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="J4" s="82" t="s">
+        <v>882</v>
+      </c>
+      <c r="K4" s="82" t="s">
+        <v>883</v>
+      </c>
+      <c r="L4" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" s="77" t="s">
         <v>900</v>
       </c>
-      <c r="H4" s="115" t="s">
-        <v>882</v>
-      </c>
-      <c r="I4" s="79" t="s">
+      <c r="N4" s="77" t="s">
         <v>901</v>
       </c>
-      <c r="J4" s="83" t="s">
-        <v>884</v>
-      </c>
-      <c r="K4" s="83" t="s">
-        <v>885</v>
-      </c>
-      <c r="L4" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="78" t="s">
-        <v>902</v>
-      </c>
-      <c r="N4" s="78" t="s">
-        <v>903</v>
-      </c>
-      <c r="O4" s="115" t="s">
-        <v>888</v>
-      </c>
-      <c r="P4" s="81" t="s">
+      <c r="O4" s="114" t="s">
+        <v>886</v>
+      </c>
+      <c r="P4" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="Q4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="R4" s="81" t="s">
-        <v>889</v>
-      </c>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
+      <c r="R4" s="80" t="s">
+        <v>887</v>
+      </c>
+      <c r="S4" s="121"/>
+      <c r="T4" s="121"/>
+      <c r="U4" s="121"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="T5" s="71" t="s">
-        <v>904</v>
-      </c>
-      <c r="U5" s="72" t="s">
-        <v>671</v>
+      <c r="T5" s="70" t="s">
+        <v>902</v>
+      </c>
+      <c r="U5" s="71" t="s">
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -5025,39 +5028,39 @@
   </sheetPr>
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W14" sqref="W14"/>
+    <sheetView topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="121" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="25.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="52.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25" style="108" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="24.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="52.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25" style="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="66" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -5065,276 +5068,276 @@
         <v>1</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>903</v>
+      </c>
+      <c r="D1" s="116" t="s">
+        <v>692</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>626</v>
+      </c>
+      <c r="F1" s="118" t="s">
+        <v>904</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>722</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>905</v>
       </c>
-      <c r="D1" s="117" t="s">
-        <v>694</v>
-      </c>
-      <c r="E1" s="62" t="s">
-        <v>628</v>
-      </c>
-      <c r="F1" s="119" t="s">
+      <c r="I1" s="19" t="s">
         <v>906</v>
       </c>
-      <c r="G1" s="19" t="s">
-        <v>724</v>
-      </c>
-      <c r="H1" s="19" t="s">
+      <c r="J1" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>641</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>642</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="N1" s="14" t="s">
         <v>908</v>
       </c>
-      <c r="J1" s="69" t="s">
-        <v>107</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>643</v>
-      </c>
-      <c r="L1" s="14" t="s">
+      <c r="O1" s="14" t="s">
+        <v>909</v>
+      </c>
+      <c r="P1" s="75" t="s">
+        <v>910</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="R1" s="75" t="s">
+        <v>875</v>
+      </c>
+      <c r="S1" s="75" t="s">
+        <v>876</v>
+      </c>
+      <c r="T1" s="75" t="s">
+        <v>596</v>
+      </c>
+      <c r="U1" s="24" t="s">
+        <v>912</v>
+      </c>
+      <c r="V1" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="M1" s="14" t="s">
-        <v>909</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>910</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>911</v>
-      </c>
-      <c r="P1" s="76" t="s">
-        <v>912</v>
-      </c>
-      <c r="Q1" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="R1" s="76" t="s">
-        <v>877</v>
-      </c>
-      <c r="S1" s="76" t="s">
-        <v>878</v>
-      </c>
-      <c r="T1" s="76" t="s">
-        <v>598</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>914</v>
-      </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="14" t="s">
+        <v>645</v>
+      </c>
+      <c r="X1" s="14" t="s">
         <v>646</v>
-      </c>
-      <c r="W1" s="14" t="s">
-        <v>647</v>
-      </c>
-      <c r="X1" s="14" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="81" t="s">
-        <v>800</v>
-      </c>
-      <c r="C2" s="68" t="s">
+      <c r="B2" s="80" t="s">
+        <v>798</v>
+      </c>
+      <c r="C2" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="D2" s="118" t="s">
-        <v>915</v>
-      </c>
-      <c r="E2" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="F2" s="120" t="s">
+      <c r="D2" s="117" t="s">
+        <v>913</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="F2" s="119" t="s">
         <v>575</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="67" t="s">
         <v>269</v>
       </c>
       <c r="H2" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="I2" s="115" t="s">
-        <v>916</v>
-      </c>
-      <c r="J2" s="115" t="s">
-        <v>917</v>
+      <c r="I2" s="114" t="s">
+        <v>914</v>
+      </c>
+      <c r="J2" s="114" t="s">
+        <v>915</v>
       </c>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
-      <c r="M2" s="73" t="s">
-        <v>918</v>
+      <c r="M2" s="72" t="s">
+        <v>916</v>
       </c>
       <c r="N2" s="27"/>
       <c r="O2" s="27"/>
     </row>
     <row r="3" spans="1:24" s="26" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>821</v>
-      </c>
-      <c r="C3" s="68" t="s">
+      <c r="A3" s="114" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>819</v>
+      </c>
+      <c r="C3" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="D3" s="118" t="s">
-        <v>915</v>
-      </c>
-      <c r="E3" s="68" t="s">
-        <v>784</v>
-      </c>
-      <c r="F3" s="120" t="s">
+      <c r="D3" s="117" t="s">
+        <v>913</v>
+      </c>
+      <c r="E3" s="67" t="s">
+        <v>782</v>
+      </c>
+      <c r="F3" s="119" t="s">
         <v>575</v>
       </c>
-      <c r="G3" s="68" t="s">
+      <c r="G3" s="67" t="s">
         <v>269</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="I3" s="115" t="s">
+      <c r="I3" s="114" t="s">
+        <v>917</v>
+      </c>
+      <c r="J3" s="114" t="s">
+        <v>915</v>
+      </c>
+      <c r="K3" s="80" t="s">
+        <v>918</v>
+      </c>
+      <c r="L3" s="80" t="s">
         <v>919</v>
       </c>
-      <c r="J3" s="115" t="s">
+      <c r="M3" s="72" t="s">
+        <v>916</v>
+      </c>
+      <c r="N3" s="114" t="s">
+        <v>892</v>
+      </c>
+      <c r="O3" s="114" t="s">
+        <v>892</v>
+      </c>
+      <c r="P3" s="114" t="s">
         <v>917</v>
       </c>
-      <c r="K3" s="81" t="s">
+      <c r="Q3" s="114" t="s">
         <v>920</v>
       </c>
-      <c r="L3" s="81" t="s">
+      <c r="R3" s="80" t="s">
+        <v>888</v>
+      </c>
+      <c r="S3" s="80" t="s">
+        <v>889</v>
+      </c>
+      <c r="T3" s="83" t="s">
         <v>921</v>
       </c>
-      <c r="M3" s="73" t="s">
-        <v>918</v>
-      </c>
-      <c r="N3" s="115" t="s">
-        <v>894</v>
-      </c>
-      <c r="O3" s="115" t="s">
-        <v>894</v>
-      </c>
-      <c r="P3" s="115" t="s">
-        <v>919</v>
-      </c>
-      <c r="Q3" s="115" t="s">
+      <c r="U3" s="114" t="s">
         <v>922</v>
       </c>
-      <c r="R3" s="81" t="s">
-        <v>890</v>
-      </c>
-      <c r="S3" s="81" t="s">
-        <v>891</v>
-      </c>
-      <c r="T3" s="84" t="s">
+      <c r="V3" s="114" t="s">
         <v>923</v>
       </c>
-      <c r="U3" s="115" t="s">
-        <v>924</v>
-      </c>
-      <c r="V3" s="115" t="s">
-        <v>925</v>
-      </c>
-      <c r="W3" s="115" t="s">
-        <v>925</v>
-      </c>
-      <c r="X3" s="115" t="s">
-        <v>925</v>
+      <c r="W3" s="114" t="s">
+        <v>923</v>
+      </c>
+      <c r="X3" s="114" t="s">
+        <v>923</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="81" t="s">
-        <v>835</v>
-      </c>
-      <c r="C4" s="68" t="s">
+      <c r="B4" s="80" t="s">
+        <v>833</v>
+      </c>
+      <c r="C4" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="118" t="s">
-        <v>915</v>
+      <c r="D4" s="117" t="s">
+        <v>913</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>784</v>
-      </c>
-      <c r="F4" s="120" t="s">
+        <v>782</v>
+      </c>
+      <c r="F4" s="119" t="s">
         <v>575</v>
       </c>
-      <c r="G4" s="68" t="s">
+      <c r="G4" s="67" t="s">
         <v>269</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>427</v>
       </c>
-      <c r="I4" s="115" t="s">
-        <v>926</v>
-      </c>
-      <c r="J4" s="115" t="s">
-        <v>917</v>
+      <c r="I4" s="114" t="s">
+        <v>924</v>
+      </c>
+      <c r="J4" s="114" t="s">
+        <v>915</v>
       </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
-      <c r="M4" s="73" t="s">
-        <v>918</v>
-      </c>
-      <c r="N4" s="115" t="s">
-        <v>899</v>
-      </c>
-      <c r="O4" s="115" t="s">
-        <v>899</v>
-      </c>
-      <c r="P4" s="115" t="s">
+      <c r="M4" s="72" t="s">
+        <v>916</v>
+      </c>
+      <c r="N4" s="114" t="s">
+        <v>897</v>
+      </c>
+      <c r="O4" s="114" t="s">
+        <v>897</v>
+      </c>
+      <c r="P4" s="114" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q4" s="114" t="s">
+        <v>925</v>
+      </c>
+      <c r="R4" s="80" t="s">
+        <v>888</v>
+      </c>
+      <c r="S4" s="80" t="s">
+        <v>889</v>
+      </c>
+      <c r="T4" s="83" t="s">
         <v>926</v>
       </c>
-      <c r="Q4" s="115" t="s">
+      <c r="U4" s="114" t="s">
         <v>927</v>
       </c>
-      <c r="R4" s="81" t="s">
-        <v>890</v>
-      </c>
-      <c r="S4" s="81" t="s">
-        <v>891</v>
-      </c>
-      <c r="T4" s="84" t="s">
+      <c r="V4" s="114" t="s">
         <v>928</v>
       </c>
-      <c r="U4" s="115" t="s">
-        <v>929</v>
-      </c>
-      <c r="V4" s="115" t="s">
-        <v>930</v>
-      </c>
-      <c r="W4" s="115" t="s">
-        <v>930</v>
-      </c>
-      <c r="X4" s="115" t="s">
-        <v>930</v>
+      <c r="W4" s="114" t="s">
+        <v>928</v>
+      </c>
+      <c r="X4" s="114" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="S6" s="71" t="s">
-        <v>931</v>
-      </c>
-      <c r="T6" s="72" t="s">
-        <v>894</v>
+      <c r="S6" s="70" t="s">
+        <v>929</v>
+      </c>
+      <c r="T6" s="71" t="s">
+        <v>892</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="S7" s="71" t="s">
-        <v>932</v>
-      </c>
-      <c r="T7" s="72" t="s">
-        <v>899</v>
+      <c r="S7" s="70" t="s">
+        <v>930</v>
+      </c>
+      <c r="T7" s="71" t="s">
+        <v>897</v>
       </c>
     </row>
     <row r="20" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q20" s="116"/>
+      <c r="Q20" s="115"/>
     </row>
     <row r="22" spans="17:17" x14ac:dyDescent="0.25">
-      <c r="Q22" s="116"/>
+      <c r="Q22" s="115"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5355,139 +5358,139 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.140625" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29" style="108" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="24" style="108" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="23.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="32.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="47.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="48.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="47" style="108" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="48" style="108" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="48.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="49.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="43" style="108" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="41.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="35.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="43.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="44.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="41" style="108" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="42.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="42.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="18.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="15.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="13.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="18" style="108" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="14.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="23" style="108" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="16" style="108" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="24.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="26.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="29.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="54.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="36.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19" style="108" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="36.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="28" style="108" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="22.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="25" style="108" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="29.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="35.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="23.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="30.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="36.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="38.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="32.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="39.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="40.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="35.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="40" style="108" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="33.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="41.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="42.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="39.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="19.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="19.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="35.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="40.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="40.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="34.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="39.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="45.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="49.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="36.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="12.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="24" style="108" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="19.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="20.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="25.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="96" max="96" width="20.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="26.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="20.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="25.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="20.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="22.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="102" max="103" width="22.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="29.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="21.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="19" style="108" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="16.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="21.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="12.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="110" max="110" width="16.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="21.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="19" style="108" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="20.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="19" style="108" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="29.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="20" style="108" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="29.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="20.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="120" max="120" width="31.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="29.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="122" max="122" width="28.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="123" max="123" width="26.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="26.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="125" max="125" width="23.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="126" max="126" width="21.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="24.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="128" max="128" width="22.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="129" max="129" width="35.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="35.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="131" max="131" width="32.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="22.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="37.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="33.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.28515625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29" style="107" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="24" style="107" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="23.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="32.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="47.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="48.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="47" style="107" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="48" style="107" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="48.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="49.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="43" style="107" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="41.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="35.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="43.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="44.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="41" style="107" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="42.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="42.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="15.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="13.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="18" style="107" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="23" style="107" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="16" style="107" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="24.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="26.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="29.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="54.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="36.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19" style="107" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="36.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="28" style="107" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="22.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="25" style="107" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="29.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="35.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="23.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="30.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="36.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="38.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="32.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="39.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="40.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="35.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="40" style="107" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="33.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="41.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="42.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="39.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="19.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="19.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="35.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="40.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="40.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="34.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="39.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="45.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="49.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="36.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="12.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="24" style="107" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="19.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="20.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="25.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="20.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="26.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="20.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="25.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="20.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="22.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="22.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="29.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="21.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="19" style="107" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="16.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="21.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="12.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="16.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="21.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19" style="107" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="20.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="19" style="107" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="29.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20" style="107" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="29.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="20.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="31.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="29.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="28.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="26.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="26.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="23.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="21.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="24.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="22.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="35.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="35.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="32.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="22.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="37.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="33.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.28515625" style="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:135" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5898,10 +5901,10 @@
       </c>
     </row>
     <row r="2" spans="1:135" s="51" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="39" t="s">
@@ -5937,10 +5940,10 @@
       <c r="M2" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="83" t="s">
         <v>246</v>
       </c>
       <c r="P2" s="40" t="s">
@@ -5949,7 +5952,7 @@
       <c r="Q2" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="R2" s="81" t="s">
+      <c r="R2" s="80" t="s">
         <v>249</v>
       </c>
       <c r="S2" s="41" t="s">
@@ -6033,29 +6036,29 @@
       <c r="AS2" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68" t="s">
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="AV2" s="68" t="s">
+      <c r="AV2" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="AW2" s="68" t="s">
+      <c r="AW2" s="67" t="s">
         <v>90</v>
       </c>
       <c r="AX2" s="45" t="s">
         <v>272</v>
       </c>
-      <c r="AY2" s="68" t="s">
+      <c r="AY2" s="67" t="s">
         <v>273</v>
       </c>
       <c r="AZ2" s="40" t="s">
         <v>274</v>
       </c>
-      <c r="BA2" s="68" t="s">
+      <c r="BA2" s="67" t="s">
         <v>275</v>
       </c>
-      <c r="BB2" s="68" t="s">
+      <c r="BB2" s="67" t="s">
         <v>276</v>
       </c>
       <c r="BC2" s="46" t="s">
@@ -6064,22 +6067,22 @@
       <c r="BD2" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="BE2" s="68" t="s">
+      <c r="BE2" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="BF2" s="68" t="s">
+      <c r="BF2" s="67" t="s">
         <v>280</v>
       </c>
-      <c r="BG2" s="68" t="s">
+      <c r="BG2" s="67" t="s">
         <v>281</v>
       </c>
-      <c r="BH2" s="68" t="s">
+      <c r="BH2" s="67" t="s">
         <v>279</v>
       </c>
-      <c r="BI2" s="68" t="s">
+      <c r="BI2" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="BJ2" s="68" t="s">
+      <c r="BJ2" s="67" t="s">
         <v>283</v>
       </c>
       <c r="BK2" s="40" t="s">
@@ -6088,10 +6091,10 @@
       <c r="BL2" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="BM2" s="68" t="s">
+      <c r="BM2" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="BN2" s="68" t="s">
+      <c r="BN2" s="67" t="s">
         <v>285</v>
       </c>
       <c r="BO2" s="27" t="s">
@@ -6320,95 +6323,95 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23" style="108" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="17.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="19.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25" style="108" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="24.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="41.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="42.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="44.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="36.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="35.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="47.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="40.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="26.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="40.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="31.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26" style="108" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="26.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="16.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="34.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="28.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="17.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="15.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="20.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="9.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16" style="108" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="21.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="18.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="36.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="18.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="27.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="22.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="19" style="108" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="26.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="24" style="108" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="28.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="26.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="24" style="108" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="19.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="24" style="108" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="21.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="36.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="29.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="24.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="24.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="21.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="83" max="83" width="26" style="108" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="22" style="108" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="20.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="30.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="31.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="17" style="108" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="28.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="32.85546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22" style="107" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="23" style="107" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="19.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="19.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25" style="107" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="24.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="41.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="42.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="44.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="36.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="35.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="47.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="40.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="40.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26" style="107" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="26.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="34.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="28.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="17.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="15.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="20.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="9.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16" style="107" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="21.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="18.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="36.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="18.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="27.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="22.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="19" style="107" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="26.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="24" style="107" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="28.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="26.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="24" style="107" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="24" style="107" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="21.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="36.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="29.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="24.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="24.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="21.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="26" style="107" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="22" style="107" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="20.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="30.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="31.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="17" style="107" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="28.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="32.85546875" style="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:90" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6684,49 +6687,49 @@
       </c>
     </row>
     <row r="2" spans="1:90" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>418</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>419</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="80" t="s">
         <v>420</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>421</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="80" t="s">
         <v>422</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="80" t="s">
         <v>423</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="80" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="80" t="s">
         <v>244</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="80" t="s">
         <v>328</v>
       </c>
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="80" t="s">
         <v>249</v>
       </c>
-      <c r="M2" s="115" t="s">
+      <c r="M2" s="114" t="s">
         <v>424</v>
       </c>
-      <c r="N2" s="115" t="s">
+      <c r="N2" s="114" t="s">
         <v>425</v>
       </c>
-      <c r="O2" s="81" t="s">
+      <c r="O2" s="80" t="s">
         <v>426</v>
       </c>
       <c r="P2" s="33" t="s">
@@ -6747,84 +6750,84 @@
       <c r="U2" s="33" t="s">
         <v>426</v>
       </c>
-      <c r="V2" s="81" t="s">
+      <c r="V2" s="80" t="s">
         <v>430</v>
       </c>
-      <c r="W2" s="81" t="s">
+      <c r="W2" s="80" t="s">
         <v>431</v>
       </c>
-      <c r="X2" s="84" t="s">
+      <c r="X2" s="83" t="s">
         <v>432</v>
       </c>
       <c r="Y2" s="26"/>
       <c r="Z2" s="26"/>
       <c r="AA2" s="34"/>
-      <c r="AB2" s="81" t="s">
+      <c r="AB2" s="80" t="s">
         <v>240</v>
       </c>
-      <c r="AC2" s="81" t="s">
+      <c r="AC2" s="80" t="s">
         <v>276</v>
       </c>
-      <c r="AD2" s="81" t="s">
+      <c r="AD2" s="80" t="s">
         <v>239</v>
       </c>
-      <c r="AE2" s="81" t="s">
+      <c r="AE2" s="80" t="s">
         <v>433</v>
       </c>
-      <c r="AF2" s="81" t="s">
+      <c r="AF2" s="80" t="s">
         <v>434</v>
       </c>
-      <c r="AG2" s="81" t="s">
+      <c r="AG2" s="80" t="s">
         <v>435</v>
       </c>
-      <c r="AH2" s="81" t="s">
+      <c r="AH2" s="80" t="s">
         <v>435</v>
       </c>
-      <c r="AI2" s="115" t="s">
+      <c r="AI2" s="114" t="s">
         <v>436</v>
       </c>
-      <c r="AJ2" s="115" t="s">
+      <c r="AJ2" s="114" t="s">
         <v>437</v>
       </c>
-      <c r="AK2" s="115" t="s">
+      <c r="AK2" s="114" t="s">
         <v>438</v>
       </c>
-      <c r="AL2" s="115" t="s">
+      <c r="AL2" s="114" t="s">
         <v>438</v>
       </c>
-      <c r="AM2" s="115" t="s">
+      <c r="AM2" s="114" t="s">
         <v>439</v>
       </c>
-      <c r="AN2" s="115" t="s">
+      <c r="AN2" s="114" t="s">
         <v>440</v>
       </c>
-      <c r="AO2" s="115" t="s">
+      <c r="AO2" s="114" t="s">
         <v>441</v>
       </c>
-      <c r="AP2" s="115" t="s">
+      <c r="AP2" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="AQ2" s="115" t="s">
+      <c r="AQ2" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="AR2" s="115" t="s">
+      <c r="AR2" s="114" t="s">
         <v>442</v>
       </c>
-      <c r="AS2" s="115" t="s">
+      <c r="AS2" s="114" t="s">
         <v>443</v>
       </c>
-      <c r="AT2" s="115" t="s">
+      <c r="AT2" s="114" t="s">
         <v>444</v>
       </c>
       <c r="AU2" s="26"/>
       <c r="AV2" s="26"/>
-      <c r="AW2" s="115" t="s">
+      <c r="AW2" s="114" t="s">
         <v>445</v>
       </c>
-      <c r="AX2" s="115" t="s">
+      <c r="AX2" s="114" t="s">
         <v>440</v>
       </c>
-      <c r="AY2" s="115" t="s">
+      <c r="AY2" s="114" t="s">
         <v>438</v>
       </c>
       <c r="AZ2" s="17" t="s">
@@ -6963,41 +6966,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="32.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="25.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25" style="108" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="28" style="108" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="26.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="26.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="27.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="15.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="20.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="33.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="41" max="42" width="16.85546875" style="108" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="36.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" style="107" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="25.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25" style="107" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="28" style="107" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="26.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="26.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="27.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="15.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="20.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="33.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="16.85546875" style="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7129,34 +7132,34 @@
       </c>
     </row>
     <row r="2" spans="1:50" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>505</v>
       </c>
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="114" t="s">
         <v>506</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="80" t="s">
         <v>421</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="115" t="s">
+      <c r="F2" s="114" t="s">
         <v>507</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="67" t="s">
         <v>508</v>
       </c>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="114" t="s">
         <v>269</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="114" t="s">
         <v>432</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="J2" s="114" t="s">
         <v>432</v>
       </c>
       <c r="K2" s="10" t="s">
@@ -7165,40 +7168,40 @@
       <c r="L2" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="80" t="s">
         <v>428</v>
       </c>
-      <c r="N2" s="84" t="s">
+      <c r="N2" s="83" t="s">
         <v>427</v>
       </c>
-      <c r="O2" s="68" t="s">
+      <c r="O2" s="67" t="s">
         <v>284</v>
       </c>
-      <c r="P2" s="68" t="s">
+      <c r="P2" s="67" t="s">
         <v>510</v>
       </c>
-      <c r="Q2" s="115" t="s">
+      <c r="Q2" s="114" t="s">
         <v>511</v>
       </c>
-      <c r="R2" s="115" t="s">
+      <c r="R2" s="114" t="s">
         <v>510</v>
       </c>
-      <c r="S2" s="115" t="s">
+      <c r="S2" s="114" t="s">
         <v>512</v>
       </c>
-      <c r="T2" s="115" t="s">
+      <c r="T2" s="114" t="s">
         <v>281</v>
       </c>
-      <c r="U2" s="81" t="s">
+      <c r="U2" s="80" t="s">
         <v>237</v>
       </c>
-      <c r="V2" s="115" t="s">
+      <c r="V2" s="114" t="s">
         <v>248</v>
       </c>
-      <c r="W2" s="115" t="s">
+      <c r="W2" s="114" t="s">
         <v>513</v>
       </c>
-      <c r="X2" s="115" t="s">
+      <c r="X2" s="114" t="s">
         <v>510</v>
       </c>
       <c r="Y2" s="29" t="s">
@@ -7291,44 +7294,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="26.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="22.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="22.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="31.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="21.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19" style="108" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="23.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="15.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="26" style="108" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="22.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.140625" style="108" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27" style="107" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="26.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="22.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="21.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19" style="107" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="23.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="15.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="26" style="107" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="22.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.140625" style="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42" s="12" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7459,107 +7462,107 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:42" s="81" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>505</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>423</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="80" t="s">
         <v>556</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="80" t="s">
         <v>557</v>
       </c>
-      <c r="F2" s="81" t="s">
+      <c r="F2" s="80" t="s">
         <v>445</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="80" t="s">
         <v>463</v>
       </c>
-      <c r="H2" s="81" t="s">
+      <c r="H2" s="80" t="s">
         <v>558</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="80" t="s">
         <v>559</v>
       </c>
-      <c r="J2" s="81" t="s">
+      <c r="J2" s="80" t="s">
         <v>560</v>
       </c>
-      <c r="K2" s="81" t="s">
+      <c r="K2" s="80" t="s">
         <v>561</v>
       </c>
-      <c r="L2" s="115" t="s">
+      <c r="L2" s="114" t="s">
         <v>562</v>
       </c>
-      <c r="M2" s="115" t="s">
+      <c r="M2" s="114" t="s">
         <v>563</v>
       </c>
-      <c r="N2" s="115" t="s">
+      <c r="N2" s="114" t="s">
         <v>328</v>
       </c>
-      <c r="O2" s="115" t="s">
+      <c r="O2" s="114" t="s">
         <v>564</v>
       </c>
-      <c r="P2" s="115" t="s">
+      <c r="P2" s="114" t="s">
         <v>565</v>
       </c>
-      <c r="Q2" s="115" t="s">
+      <c r="Q2" s="114" t="s">
         <v>566</v>
       </c>
-      <c r="R2" s="115" t="s">
+      <c r="R2" s="114" t="s">
         <v>567</v>
       </c>
-      <c r="S2" s="115" t="s">
+      <c r="S2" s="114" t="s">
         <v>568</v>
       </c>
-      <c r="T2" s="115" t="s">
+      <c r="T2" s="114" t="s">
         <v>569</v>
       </c>
-      <c r="U2" s="68" t="s">
+      <c r="U2" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="V2" s="115" t="s">
+      <c r="V2" s="114" t="s">
         <v>571</v>
       </c>
-      <c r="W2" s="115" t="s">
+      <c r="W2" s="114" t="s">
         <v>572</v>
       </c>
-      <c r="X2" s="115" t="s">
+      <c r="X2" s="114" t="s">
         <v>573</v>
       </c>
-      <c r="Y2" s="115" t="s">
+      <c r="Y2" s="114" t="s">
         <v>256</v>
       </c>
-      <c r="Z2" s="115">
+      <c r="Z2" s="114">
         <v>50</v>
       </c>
-      <c r="AA2" s="82" t="s">
+      <c r="AA2" s="81" t="s">
         <v>574</v>
       </c>
-      <c r="AB2" s="68" t="s">
+      <c r="AB2" s="67" t="s">
         <v>434</v>
       </c>
-      <c r="AC2" s="68" t="s">
+      <c r="AC2" s="67" t="s">
         <v>463</v>
       </c>
-      <c r="AD2" s="68">
+      <c r="AD2" s="67">
         <v>1.65</v>
       </c>
-      <c r="AE2" s="68" t="s">
+      <c r="AE2" s="67" t="s">
         <v>570</v>
       </c>
-      <c r="AF2" s="68" t="s">
+      <c r="AF2" s="67" t="s">
         <v>575</v>
       </c>
-      <c r="AG2" s="68" t="s">
+      <c r="AG2" s="67" t="s">
         <v>576</v>
       </c>
-      <c r="AH2" s="68" t="s">
+      <c r="AH2" s="67" t="s">
         <v>577</v>
       </c>
       <c r="AI2" s="27" t="s">
@@ -7594,53 +7597,50 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AN4"/>
+  <dimension ref="A1:AL4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="29.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31" style="108" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="36.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.140625" style="108" customWidth="1"/>
-    <col min="16" max="16" width="20.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="40.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" style="140" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.140625" style="140" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="20.42578125" style="140" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.7109375" style="140" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="31.7109375" style="140" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.28515625" style="140" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.28515625" style="140" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.140625" style="140" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.7109375" style="140" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.28515625" style="140" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.28515625" style="140" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" style="140" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.28515625" style="140" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18.42578125" style="140" bestFit="1" customWidth="1"/>
-    <col min="37" max="38" width="17.28515625" style="140" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="10.5703125" style="140" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31" style="107" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31" style="107" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="23.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="40.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="40.5703125" style="136" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.140625" style="136" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="20.42578125" style="136" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="30.7109375" style="136" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.7109375" style="136" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="30.28515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.28515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.140625" style="136" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.7109375" style="136" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.28515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" style="136" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.28515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.42578125" style="136" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="17.28515625" style="136" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" style="136" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="24" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
@@ -7656,244 +7656,264 @@
       <c r="E1" s="25" t="s">
         <v>335</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="25" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="H1" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="I1" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="J1" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="K1" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="L1" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="M1" s="24" t="s">
+        <v>931</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="O1" s="24" t="s">
+        <v>936</v>
+      </c>
+      <c r="P1" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="Q1" s="24" t="s">
+        <v>592</v>
+      </c>
+      <c r="R1" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="S1" s="24" t="s">
+        <v>593</v>
+      </c>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="131"/>
+      <c r="AB1" s="130"/>
+      <c r="AC1" s="130"/>
+      <c r="AD1" s="130"/>
+      <c r="AE1" s="130"/>
+      <c r="AF1" s="130"/>
+      <c r="AG1" s="130"/>
+      <c r="AH1" s="130"/>
+      <c r="AI1" s="130"/>
+      <c r="AJ1" s="130"/>
+      <c r="AK1" s="130"/>
+      <c r="AL1" s="128"/>
+    </row>
+    <row r="2" spans="1:38" s="114" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="114" t="s">
+        <v>445</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="127" t="s">
+        <v>598</v>
+      </c>
+      <c r="H2" s="127" t="s">
+        <v>599</v>
+      </c>
+      <c r="I2" s="127" t="s">
+        <v>600</v>
+      </c>
+      <c r="J2" s="127" t="s">
+        <v>601</v>
+      </c>
+      <c r="K2" s="127" t="s">
+        <v>602</v>
+      </c>
+      <c r="L2" s="137"/>
+      <c r="M2" s="127" t="s">
         <v>933</v>
       </c>
-      <c r="M1" s="24" t="s">
-        <v>596</v>
-      </c>
-      <c r="N1" s="25" t="s">
-        <v>590</v>
-      </c>
-      <c r="O1" s="25" t="s">
-        <v>591</v>
-      </c>
-      <c r="P1" s="25" t="s">
-        <v>592</v>
-      </c>
-      <c r="Q1" s="25" t="s">
-        <v>593</v>
-      </c>
-      <c r="R1" s="25" t="s">
-        <v>337</v>
-      </c>
-      <c r="S1" s="24" t="s">
-        <v>594</v>
-      </c>
-      <c r="T1" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="U1" s="24" t="s">
-        <v>595</v>
-      </c>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="135"/>
-      <c r="AA1" s="135"/>
-      <c r="AB1" s="135"/>
-      <c r="AC1" s="135"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="132"/>
+      <c r="N2" s="114" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" s="127" t="s">
+        <v>933</v>
+      </c>
+      <c r="P2" s="127" t="s">
+        <v>933</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2" s="114" t="s">
+        <v>426</v>
+      </c>
+      <c r="S2" s="80" t="s">
+        <v>603</v>
+      </c>
+      <c r="T2" s="132"/>
+      <c r="U2" s="132"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="134"/>
+      <c r="AB2" s="134"/>
+      <c r="AC2" s="134"/>
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="132"/>
+      <c r="AG2" s="132"/>
+      <c r="AH2" s="135"/>
+      <c r="AI2" s="135"/>
+      <c r="AJ2" s="135"/>
+      <c r="AK2" s="132"/>
+      <c r="AL2" s="129"/>
     </row>
-    <row r="2" spans="1:40" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="C2" s="81" t="s">
+    <row r="3" spans="1:38" s="114" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="114" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>597</v>
+      </c>
+      <c r="C3" s="80" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="115" t="s">
+      <c r="D3" s="114" t="s">
         <v>445</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E3" s="80" t="s">
         <v>423</v>
       </c>
-      <c r="F2" s="115" t="s">
-        <v>600</v>
-      </c>
-      <c r="G2" s="115" t="s">
-        <v>601</v>
-      </c>
-      <c r="H2" s="115" t="s">
-        <v>602</v>
-      </c>
-      <c r="I2" s="115" t="s">
+      <c r="F3" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="127" t="s">
+        <v>605</v>
+      </c>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="127" t="s">
+        <v>932</v>
+      </c>
+      <c r="N3" s="114" t="s">
+        <v>604</v>
+      </c>
+      <c r="O3" s="127" t="s">
+        <v>932</v>
+      </c>
+      <c r="P3" s="127" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q3" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="R3" s="114" t="s">
+        <v>426</v>
+      </c>
+      <c r="S3" s="80" t="s">
         <v>603</v>
       </c>
-      <c r="J2" s="115" t="s">
-        <v>604</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="128" t="s">
+      <c r="T3" s="132"/>
+      <c r="U3" s="132"/>
+      <c r="V3" s="133"/>
+      <c r="W3" s="133"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="134"/>
+      <c r="AE3" s="134"/>
+      <c r="AF3" s="132"/>
+      <c r="AG3" s="132"/>
+      <c r="AH3" s="135"/>
+      <c r="AI3" s="135"/>
+      <c r="AJ3" s="135"/>
+      <c r="AK3" s="132"/>
+      <c r="AL3" s="129"/>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="B4" s="80" t="s">
+        <v>597</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="114" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="127" t="s">
         <v>935</v>
       </c>
-      <c r="M2" s="115" t="s">
-        <v>81</v>
-      </c>
-      <c r="N2" s="129">
-        <v>0.3</v>
-      </c>
-      <c r="O2" s="129">
-        <v>1145071.71</v>
-      </c>
-      <c r="P2" s="129">
-        <v>365</v>
-      </c>
-      <c r="Q2" s="130">
-        <v>875.27</v>
-      </c>
-      <c r="R2" s="131" t="s">
-        <v>237</v>
-      </c>
-      <c r="S2" s="81" t="s">
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="127" t="s">
+        <v>934</v>
+      </c>
+      <c r="N4" s="114" t="s">
+        <v>443</v>
+      </c>
+      <c r="O4" s="127" t="s">
+        <v>934</v>
+      </c>
+      <c r="P4" s="127" t="s">
+        <v>934</v>
+      </c>
+      <c r="Q4" s="80" t="s">
         <v>426</v>
       </c>
-      <c r="T2" s="115" t="s">
+      <c r="R4" s="114" t="s">
         <v>426</v>
       </c>
-      <c r="U2" s="81" t="s">
-        <v>605</v>
-      </c>
-      <c r="V2" s="136"/>
-      <c r="W2" s="136"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="138"/>
-      <c r="AE2" s="138"/>
-      <c r="AF2" s="138"/>
-      <c r="AG2" s="138"/>
-      <c r="AH2" s="136"/>
-      <c r="AI2" s="136"/>
-      <c r="AJ2" s="139"/>
-      <c r="AK2" s="139"/>
-      <c r="AL2" s="139"/>
-      <c r="AM2" s="136"/>
-      <c r="AN2" s="133"/>
-    </row>
-    <row r="3" spans="1:40" s="115" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="115" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" s="81" t="s">
-        <v>599</v>
-      </c>
-      <c r="C3" s="81" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="115" t="s">
-        <v>445</v>
-      </c>
-      <c r="E3" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="F3" s="115" t="s">
-        <v>607</v>
-      </c>
-      <c r="G3" s="115" t="s">
-        <v>601</v>
-      </c>
-      <c r="H3" s="115" t="s">
-        <v>607</v>
-      </c>
-      <c r="I3" s="115" t="s">
+      <c r="S4" s="80" t="s">
         <v>603</v>
       </c>
-      <c r="J3" s="115" t="s">
-        <v>604</v>
-      </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="128" t="s">
-        <v>934</v>
-      </c>
-      <c r="M3" s="115" t="s">
-        <v>606</v>
-      </c>
-      <c r="N3" s="129">
-        <v>0.3</v>
-      </c>
-      <c r="O3" s="129">
-        <v>1548820.42</v>
-      </c>
-      <c r="P3" s="129">
-        <v>365</v>
-      </c>
-      <c r="Q3" s="130">
-        <v>12.73</v>
-      </c>
-      <c r="R3" s="131" t="s">
-        <v>237</v>
-      </c>
-      <c r="S3" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="T3" s="115" t="s">
-        <v>426</v>
-      </c>
-      <c r="U3" s="81" t="s">
-        <v>605</v>
-      </c>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
-      <c r="AD3" s="138"/>
-      <c r="AE3" s="138"/>
-      <c r="AF3" s="138"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="139"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="133"/>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
-      <c r="N4"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="60"/>
+      <c r="AK4" s="136"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -7912,29 +7932,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.140625" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="108" customWidth="1"/>
-    <col min="12" max="12" width="24" style="108" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="34.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="108" customWidth="1"/>
-    <col min="20" max="20" width="18" style="108" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="107" customWidth="1"/>
+    <col min="12" max="12" width="24" style="107" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="34.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="107" customWidth="1"/>
+    <col min="20" max="20" width="18" style="107" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="82" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="81" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -7948,55 +7968,55 @@
         <v>335</v>
       </c>
       <c r="E1" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>608</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>609</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>611</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>612</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>614</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>615</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>616</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>617</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>618</v>
       </c>
       <c r="P1" s="12" t="s">
         <v>152</v>
       </c>
       <c r="Q1" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>619</v>
       </c>
-      <c r="R1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>620</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="U1" s="12" t="s">
         <v>621</v>
-      </c>
-      <c r="T1" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="U1" s="12" t="s">
-        <v>623</v>
       </c>
       <c r="V1" s="12"/>
       <c r="W1" s="12"/>
@@ -8007,17 +8027,17 @@
       <c r="AB1" s="12"/>
       <c r="AC1" s="12"/>
     </row>
-    <row r="2" spans="1:29" s="82" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+    <row r="2" spans="1:29" s="81" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>505</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="80" t="s">
         <v>421</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="80" t="s">
         <v>423</v>
       </c>
       <c r="E2" s="21" t="s">
@@ -8030,7 +8050,7 @@
         <v>239</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I2" s="21" t="s">
         <v>307</v>
@@ -8049,38 +8069,38 @@
         <v>432</v>
       </c>
       <c r="O2" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="P2" s="81" t="s">
+        <v>623</v>
+      </c>
+      <c r="P2" s="80" t="s">
         <v>454</v>
       </c>
-      <c r="Q2" s="81" t="s">
+      <c r="Q2" s="80" t="s">
         <v>452</v>
       </c>
-      <c r="R2" s="81" t="s">
+      <c r="R2" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="S2" s="115" t="s">
+      <c r="S2" s="114" t="s">
         <v>432</v>
       </c>
-      <c r="T2" s="115" t="s">
+      <c r="T2" s="114" t="s">
         <v>432</v>
       </c>
-      <c r="U2" s="81" t="s">
-        <v>626</v>
-      </c>
-      <c r="V2" s="81"/>
-      <c r="W2" s="81"/>
-      <c r="X2" s="81"/>
-      <c r="Y2" s="81"/>
-      <c r="Z2" s="81"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="81"/>
-      <c r="AC2" s="81"/>
+      <c r="U2" s="80" t="s">
+        <v>624</v>
+      </c>
+      <c r="V2" s="80"/>
+      <c r="W2" s="80"/>
+      <c r="X2" s="80"/>
+      <c r="Y2" s="80"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+      <c r="AB2" s="80"/>
+      <c r="AC2" s="80"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="N3" s="9" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
@@ -8102,50 +8122,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="121" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21" style="108" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.140625" style="108" customWidth="1"/>
-    <col min="19" max="19" width="20" style="108" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="34.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="79.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="26.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="27.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="25" style="108" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="20.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="31.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="29.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="19.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="21.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="30.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="31.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="30.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="31.28515625" style="108" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.5703125" style="108" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="15.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="22.42578125" style="108" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.7109375" style="108" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="20" style="108" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="21.85546875" style="108" bestFit="1" customWidth="1"/>
-    <col min="45" max="49" width="9.140625" style="108" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="120" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21" style="107" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.140625" style="107" customWidth="1"/>
+    <col min="19" max="19" width="20" style="107" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="34.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="79.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="26.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="26.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="27.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25" style="107" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="29.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="19.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="21.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="30.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="30.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="31.28515625" style="107" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.5703125" style="107" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="15.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="22.42578125" style="107" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.7109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20" style="107" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="21.85546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="45" max="49" width="9.140625" style="107" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -8162,427 +8182,427 @@
         <v>335</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>628</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>633</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>634</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>635</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>637</v>
-      </c>
-      <c r="O1" s="12" t="s">
-        <v>638</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>639</v>
       </c>
       <c r="Q1" s="14" t="s">
         <v>167</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="S1" s="14" t="s">
+        <v>638</v>
+      </c>
+      <c r="T1" s="14" t="s">
+        <v>639</v>
+      </c>
+      <c r="U1" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>641</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>643</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>644</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>645</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>646</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>647</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>649</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AE1" s="14" t="s">
         <v>650</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AF1" s="14" t="s">
         <v>651</v>
       </c>
-      <c r="AE1" s="14" t="s">
+      <c r="AG1" s="12" t="s">
         <v>652</v>
       </c>
-      <c r="AF1" s="14" t="s">
-        <v>653</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>654</v>
-      </c>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="101"/>
-      <c r="AK1" s="101"/>
-      <c r="AL1" s="101"/>
-      <c r="AM1" s="101"/>
-      <c r="AN1" s="101"/>
-      <c r="AO1" s="102"/>
-      <c r="AP1" s="103"/>
-      <c r="AQ1" s="103"/>
-      <c r="AR1" s="103"/>
-      <c r="AS1" s="103"/>
-      <c r="AT1" s="103"/>
-      <c r="AU1" s="103"/>
-      <c r="AV1" s="103"/>
-      <c r="AW1" s="103"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="100"/>
+      <c r="AJ1" s="100"/>
+      <c r="AK1" s="100"/>
+      <c r="AL1" s="100"/>
+      <c r="AM1" s="100"/>
+      <c r="AN1" s="100"/>
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="102"/>
+      <c r="AQ1" s="102"/>
+      <c r="AR1" s="102"/>
+      <c r="AS1" s="102"/>
+      <c r="AT1" s="102"/>
+      <c r="AU1" s="102"/>
+      <c r="AV1" s="102"/>
+      <c r="AW1" s="102"/>
     </row>
     <row r="2" spans="1:49" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
+        <v>653</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="E2" s="80" t="s">
+        <v>654</v>
+      </c>
+      <c r="F2" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="H2" s="80" t="s">
+        <v>434</v>
+      </c>
+      <c r="I2" s="67" t="s">
         <v>655</v>
       </c>
-      <c r="C2" s="81" t="s">
-        <v>421</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="E2" s="81" t="s">
+      <c r="J2" s="114" t="s">
         <v>656</v>
       </c>
-      <c r="F2" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="H2" s="81" t="s">
-        <v>434</v>
-      </c>
-      <c r="I2" s="68" t="s">
+      <c r="K2" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="L2" s="80" t="s">
         <v>657</v>
       </c>
-      <c r="J2" s="115" t="s">
+      <c r="M2" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="N2" s="80" t="s">
         <v>658</v>
       </c>
-      <c r="K2" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="L2" s="81" t="s">
+      <c r="O2" s="114" t="s">
+        <v>602</v>
+      </c>
+      <c r="P2" s="114" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="R2" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="S2" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="T2" s="80" t="s">
         <v>659</v>
       </c>
-      <c r="M2" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="N2" s="81" t="s">
+      <c r="U2" s="80" t="s">
         <v>660</v>
-      </c>
-      <c r="O2" s="115" t="s">
-        <v>604</v>
-      </c>
-      <c r="P2" s="115" t="s">
-        <v>604</v>
-      </c>
-      <c r="Q2" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="R2" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="S2" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="T2" s="81" t="s">
-        <v>661</v>
-      </c>
-      <c r="U2" s="81" t="s">
-        <v>662</v>
       </c>
       <c r="V2" s="16"/>
       <c r="W2" s="16"/>
-      <c r="X2" s="68" t="s">
-        <v>657</v>
-      </c>
-      <c r="Y2" s="68" t="s">
-        <v>657</v>
-      </c>
-      <c r="Z2" s="68" t="s">
-        <v>657</v>
-      </c>
-      <c r="AA2" s="68" t="s">
-        <v>657</v>
-      </c>
-      <c r="AB2" s="73" t="s">
+      <c r="X2" s="67" t="s">
+        <v>655</v>
+      </c>
+      <c r="Y2" s="67" t="s">
+        <v>655</v>
+      </c>
+      <c r="Z2" s="67" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA2" s="67" t="s">
+        <v>655</v>
+      </c>
+      <c r="AB2" s="72" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC2" s="72" t="s">
+        <v>662</v>
+      </c>
+      <c r="AD2" s="69" t="s">
         <v>663</v>
       </c>
-      <c r="AC2" s="73" t="s">
+      <c r="AE2" s="69" t="s">
         <v>664</v>
       </c>
-      <c r="AD2" s="70" t="s">
+      <c r="AF2" s="69" t="s">
         <v>665</v>
       </c>
-      <c r="AE2" s="70" t="s">
-        <v>666</v>
-      </c>
-      <c r="AF2" s="70" t="s">
-        <v>667</v>
-      </c>
       <c r="AG2" s="17"/>
-      <c r="AH2" s="104"/>
-      <c r="AI2" s="105"/>
-      <c r="AJ2" s="105"/>
-      <c r="AK2" s="105"/>
-      <c r="AL2" s="105"/>
-      <c r="AM2" s="105"/>
-      <c r="AN2" s="105"/>
-      <c r="AO2" s="106"/>
-      <c r="AP2" s="106"/>
-      <c r="AQ2" s="106"/>
-      <c r="AR2" s="106"/>
-      <c r="AS2" s="106"/>
-      <c r="AT2" s="107"/>
-      <c r="AU2" s="107"/>
-      <c r="AV2" s="107"/>
-      <c r="AW2" s="107"/>
+      <c r="AH2" s="103"/>
+      <c r="AI2" s="104"/>
+      <c r="AJ2" s="104"/>
+      <c r="AK2" s="104"/>
+      <c r="AL2" s="104"/>
+      <c r="AM2" s="104"/>
+      <c r="AN2" s="104"/>
+      <c r="AO2" s="105"/>
+      <c r="AP2" s="105"/>
+      <c r="AQ2" s="105"/>
+      <c r="AR2" s="105"/>
+      <c r="AS2" s="105"/>
+      <c r="AT2" s="106"/>
+      <c r="AU2" s="106"/>
+      <c r="AV2" s="106"/>
+      <c r="AW2" s="106"/>
     </row>
     <row r="3" spans="1:49" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" s="81" t="s">
+      <c r="A3" s="80" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" s="80" t="s">
+        <v>666</v>
+      </c>
+      <c r="C3" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="D3" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="80" t="s">
+        <v>667</v>
+      </c>
+      <c r="F3" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="G3" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" s="80" t="s">
+        <v>434</v>
+      </c>
+      <c r="I3" s="67" t="s">
         <v>668</v>
       </c>
-      <c r="C3" s="81" t="s">
-        <v>421</v>
-      </c>
-      <c r="D3" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="E3" s="81" t="s">
+      <c r="J3" s="114" t="s">
         <v>669</v>
       </c>
-      <c r="F3" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="G3" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="H3" s="81" t="s">
-        <v>434</v>
-      </c>
-      <c r="I3" s="68" t="s">
+      <c r="K3" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="L3" s="80" t="s">
         <v>670</v>
       </c>
-      <c r="J3" s="115" t="s">
+      <c r="M3" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="N3" s="80" t="s">
+        <v>658</v>
+      </c>
+      <c r="O3" s="114" t="s">
         <v>671</v>
       </c>
-      <c r="K3" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="L3" s="81" t="s">
+      <c r="P3" s="114" t="s">
+        <v>671</v>
+      </c>
+      <c r="Q3" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="R3" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="S3" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="T3" s="80" t="s">
+        <v>659</v>
+      </c>
+      <c r="U3" s="80" t="s">
+        <v>660</v>
+      </c>
+      <c r="V3" s="80" t="s">
         <v>672</v>
       </c>
-      <c r="M3" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="N3" s="81" t="s">
-        <v>660</v>
-      </c>
-      <c r="O3" s="115" t="s">
+      <c r="W3" s="80" t="s">
         <v>673</v>
       </c>
-      <c r="P3" s="115" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q3" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="R3" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="S3" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="T3" s="81" t="s">
+      <c r="X3" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="Y3" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="Z3" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA3" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB3" s="72" t="s">
         <v>661</v>
       </c>
-      <c r="U3" s="81" t="s">
-        <v>662</v>
-      </c>
-      <c r="V3" s="81" t="s">
+      <c r="AC3" s="80" t="s">
+        <v>670</v>
+      </c>
+      <c r="AD3" s="114" t="s">
         <v>674</v>
       </c>
-      <c r="W3" s="81" t="s">
+      <c r="AE3" s="69" t="s">
+        <v>664</v>
+      </c>
+      <c r="AF3" s="114" t="s">
         <v>675</v>
       </c>
-      <c r="X3" s="68" t="s">
-        <v>670</v>
-      </c>
-      <c r="Y3" s="68" t="s">
-        <v>670</v>
-      </c>
-      <c r="Z3" s="68" t="s">
-        <v>670</v>
-      </c>
-      <c r="AA3" s="68" t="s">
-        <v>670</v>
-      </c>
-      <c r="AB3" s="73" t="s">
-        <v>663</v>
-      </c>
-      <c r="AC3" s="81" t="s">
-        <v>672</v>
-      </c>
-      <c r="AD3" s="115" t="s">
-        <v>676</v>
-      </c>
-      <c r="AE3" s="70" t="s">
-        <v>666</v>
-      </c>
-      <c r="AF3" s="115" t="s">
-        <v>677</v>
-      </c>
       <c r="AG3" s="17"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="105"/>
-      <c r="AJ3" s="105"/>
-      <c r="AK3" s="105"/>
-      <c r="AL3" s="105"/>
-      <c r="AM3" s="105"/>
-      <c r="AN3" s="105"/>
-      <c r="AO3" s="106"/>
-      <c r="AP3" s="106"/>
-      <c r="AQ3" s="106"/>
-      <c r="AR3" s="106"/>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="107"/>
-      <c r="AU3" s="107"/>
-      <c r="AV3" s="107"/>
-      <c r="AW3" s="107"/>
+      <c r="AH3" s="103"/>
+      <c r="AI3" s="104"/>
+      <c r="AJ3" s="104"/>
+      <c r="AK3" s="104"/>
+      <c r="AL3" s="104"/>
+      <c r="AM3" s="104"/>
+      <c r="AN3" s="104"/>
+      <c r="AO3" s="105"/>
+      <c r="AP3" s="105"/>
+      <c r="AQ3" s="105"/>
+      <c r="AR3" s="105"/>
+      <c r="AS3" s="105"/>
+      <c r="AT3" s="106"/>
+      <c r="AU3" s="106"/>
+      <c r="AV3" s="106"/>
+      <c r="AW3" s="106"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="80" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
+        <v>676</v>
+      </c>
+      <c r="C4" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="D4" s="80" t="s">
+        <v>423</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>677</v>
+      </c>
+      <c r="F4" s="80" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" s="80" t="s">
+        <v>284</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>434</v>
+      </c>
+      <c r="I4" s="67" t="s">
         <v>678</v>
       </c>
-      <c r="C4" s="81" t="s">
-        <v>421</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>423</v>
-      </c>
-      <c r="E4" s="56" t="s">
+      <c r="J4" s="114" t="s">
         <v>679</v>
       </c>
-      <c r="F4" s="81" t="s">
-        <v>237</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>284</v>
-      </c>
-      <c r="H4" s="81" t="s">
-        <v>434</v>
-      </c>
-      <c r="I4" s="68" t="s">
+      <c r="K4" s="10" t="s">
+        <v>623</v>
+      </c>
+      <c r="L4" s="80" t="s">
+        <v>670</v>
+      </c>
+      <c r="M4" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="N4" s="80" t="s">
+        <v>658</v>
+      </c>
+      <c r="O4" s="99" t="s">
+        <v>671</v>
+      </c>
+      <c r="P4" s="99" t="s">
         <v>680</v>
       </c>
-      <c r="J4" s="115" t="s">
-        <v>681</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>625</v>
-      </c>
-      <c r="L4" s="81" t="s">
-        <v>672</v>
-      </c>
-      <c r="M4" s="81" t="s">
+      <c r="Q4" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="R4" s="80" t="s">
+        <v>426</v>
+      </c>
+      <c r="S4" s="80" t="s">
         <v>327</v>
       </c>
-      <c r="N4" s="81" t="s">
+      <c r="T4" s="80" t="s">
+        <v>659</v>
+      </c>
+      <c r="U4" s="80" t="s">
         <v>660</v>
-      </c>
-      <c r="O4" s="100" t="s">
-        <v>673</v>
-      </c>
-      <c r="P4" s="100" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q4" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="R4" s="81" t="s">
-        <v>426</v>
-      </c>
-      <c r="S4" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="T4" s="81" t="s">
-        <v>661</v>
-      </c>
-      <c r="U4" s="81" t="s">
-        <v>662</v>
       </c>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
-      <c r="X4" s="68" t="s">
-        <v>680</v>
-      </c>
-      <c r="Y4" s="68" t="s">
-        <v>680</v>
-      </c>
-      <c r="Z4" s="68" t="s">
-        <v>680</v>
-      </c>
-      <c r="AA4" s="68" t="s">
-        <v>680</v>
-      </c>
-      <c r="AB4" s="73" t="s">
-        <v>663</v>
-      </c>
-      <c r="AC4" s="81" t="s">
-        <v>672</v>
-      </c>
-      <c r="AD4" s="70" t="s">
-        <v>683</v>
-      </c>
-      <c r="AE4" s="70" t="s">
-        <v>666</v>
-      </c>
-      <c r="AF4" s="115" t="s">
-        <v>684</v>
+      <c r="X4" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="Y4" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="Z4" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="AA4" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="AB4" s="72" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC4" s="80" t="s">
+        <v>670</v>
+      </c>
+      <c r="AD4" s="69" t="s">
+        <v>681</v>
+      </c>
+      <c r="AE4" s="69" t="s">
+        <v>664</v>
+      </c>
+      <c r="AF4" s="114" t="s">
+        <v>682</v>
       </c>
       <c r="AG4" s="17"/>
     </row>
@@ -8610,73 +8630,73 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" style="121" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" style="121" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="121" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="121" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="121" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="121" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44" style="121" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20" style="121" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" style="121" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.5703125" style="121" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="22.140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" style="121" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="30.42578125" style="121" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="22.140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23" style="121" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39" style="121" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="65.28515625" style="121" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14" style="121" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20" style="121" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.5703125" style="121" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.42578125" style="121" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="66.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="23.42578125" style="121" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" style="121" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16" style="121" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="17" style="121" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="16.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="13.85546875" style="121" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="31.85546875" style="121" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="28.5703125" style="121" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.42578125" style="121" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="16.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.28515625" style="121" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.28515625" style="121" customWidth="1"/>
-    <col min="42" max="42" width="15.42578125" style="121" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="16.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="16.140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16" style="121" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="19" style="121" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21" style="121" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="20.140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="26.5703125" style="121" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="19.85546875" style="121" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="9.7109375" style="121" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="30.85546875" style="121" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="30.28515625" style="121" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.42578125" style="121" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="36.140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.85546875" style="121" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="18" style="121" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="14.5703125" style="121" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="17.85546875" style="121" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.28515625" style="121" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="17.140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="14.140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="17.140625" style="121" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10" style="121" bestFit="1" customWidth="1"/>
-    <col min="65" max="78" width="9.140625" style="121" customWidth="1"/>
-    <col min="79" max="16384" width="9.140625" style="121"/>
+    <col min="1" max="1" width="6.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="120" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="120" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="120" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44" style="120" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" style="120" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" style="120" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="22.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.42578125" style="120" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.42578125" style="120" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="22.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23" style="120" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39" style="120" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="65.28515625" style="120" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14" style="120" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20" style="120" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.42578125" style="120" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="66.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="23.42578125" style="120" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="16" style="120" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="17" style="120" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="16.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="13.85546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="31.85546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="28.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.42578125" style="120" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="16.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.28515625" style="120" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.28515625" style="120" customWidth="1"/>
+    <col min="42" max="42" width="15.42578125" style="120" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="16.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="16.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16" style="120" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="19" style="120" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21" style="120" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="26.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="19.85546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9.7109375" style="120" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="30.85546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="30.28515625" style="120" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="30.42578125" style="120" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="36.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.85546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="18" style="120" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="14.5703125" style="120" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.85546875" style="120" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.28515625" style="120" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="17.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="17.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10" style="120" bestFit="1" customWidth="1"/>
+    <col min="65" max="78" width="9.140625" style="120" customWidth="1"/>
+    <col min="79" max="16384" width="9.140625" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="85" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="84" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8690,192 +8710,192 @@
         <v>335</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>685</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>688</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>689</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>690</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>691</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="3" t="s">
         <v>694</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>695</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AE1" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AF1" s="58" t="s">
         <v>709</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="AF1" s="58" t="s">
+      <c r="AH1" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AI1" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>713</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="6" t="s">
         <v>714</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>716</v>
       </c>
       <c r="AL1" s="6" t="s">
         <v>583</v>
       </c>
       <c r="AM1" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>591</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>592</v>
-      </c>
       <c r="AO1" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
         <v>717</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>718</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>719</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="AV1" s="3" t="s">
         <v>720</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="AT1" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="AU1" s="3" t="s">
-        <v>634</v>
-      </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="AY1" s="3" t="s">
         <v>722</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="AX1" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BA1" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>725</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="3" t="s">
         <v>726</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BD1" s="2" t="s">
         <v>727</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BE1" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="BK1" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>737</v>
-      </c>
     </row>
-    <row r="2" spans="1:64" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82" t="s">
+    <row r="2" spans="1:64" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="82" t="s">
-        <v>655</v>
+      <c r="B2" s="81" t="s">
+        <v>653</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>421</v>
@@ -8883,137 +8903,137 @@
       <c r="D2" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E2" s="109" t="s">
-        <v>656</v>
-      </c>
-      <c r="F2" s="82">
+      <c r="E2" s="108" t="s">
+        <v>654</v>
+      </c>
+      <c r="F2" s="81">
         <v>1100</v>
       </c>
-      <c r="G2" s="82" t="s">
-        <v>738</v>
+      <c r="G2" s="81" t="s">
+        <v>736</v>
       </c>
       <c r="H2" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J2" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="K2" s="81" t="s">
         <v>739</v>
       </c>
-      <c r="J2" s="82" t="s">
+      <c r="L2" s="81" t="s">
         <v>740</v>
       </c>
-      <c r="K2" s="82" t="s">
+      <c r="M2" s="81" t="s">
         <v>741</v>
       </c>
-      <c r="L2" s="82" t="s">
+      <c r="N2" s="81" t="s">
         <v>742</v>
       </c>
-      <c r="M2" s="82" t="s">
+      <c r="O2" s="7" t="s">
         <v>743</v>
-      </c>
-      <c r="N2" s="82" t="s">
-        <v>744</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>745</v>
       </c>
       <c r="P2" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q2" s="82" t="s">
+      <c r="Q2" s="81" t="s">
+        <v>744</v>
+      </c>
+      <c r="R2" s="81" t="s">
+        <v>744</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="R2" s="82" t="s">
-        <v>746</v>
-      </c>
-      <c r="S2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="W2" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="X2" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="Y2" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="Z2" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="AA2" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="Z2" s="7" t="s">
+      <c r="AB2" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="AA2" s="7" t="s">
+      <c r="AC2" s="81"/>
+      <c r="AD2" s="7" t="s">
         <v>755</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="7" t="s">
-        <v>757</v>
       </c>
       <c r="AE2" s="7"/>
       <c r="AF2" s="59"/>
-      <c r="AG2" s="82"/>
+      <c r="AG2" s="81"/>
       <c r="AH2" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI2" s="81"/>
+      <c r="AJ2" s="81" t="s">
+        <v>757</v>
+      </c>
+      <c r="AK2" s="86"/>
+      <c r="AL2" s="86"/>
+      <c r="AM2" s="86"/>
+      <c r="AN2" s="86"/>
+      <c r="AO2" s="86"/>
+      <c r="AP2" s="87"/>
+      <c r="AQ2" s="86"/>
+      <c r="AR2" s="86"/>
+      <c r="AS2" s="86"/>
+      <c r="AT2" s="88" t="s">
+        <v>656</v>
+      </c>
+      <c r="AU2" s="89" t="s">
         <v>758</v>
       </c>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82" t="s">
+      <c r="AV2" s="86" t="s">
         <v>759</v>
       </c>
-      <c r="AK2" s="87"/>
-      <c r="AL2" s="87"/>
-      <c r="AM2" s="87"/>
-      <c r="AN2" s="87"/>
-      <c r="AO2" s="87"/>
-      <c r="AP2" s="88"/>
-      <c r="AQ2" s="87"/>
-      <c r="AR2" s="87"/>
-      <c r="AS2" s="87"/>
-      <c r="AT2" s="89" t="s">
-        <v>658</v>
-      </c>
-      <c r="AU2" s="90" t="s">
-        <v>760</v>
-      </c>
-      <c r="AV2" s="87" t="s">
-        <v>761</v>
-      </c>
-      <c r="AW2" s="89" t="s">
+      <c r="AW2" s="88" t="s">
+        <v>602</v>
+      </c>
+      <c r="AX2" s="86"/>
+      <c r="AY2" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="86"/>
+      <c r="BB2" s="86"/>
+      <c r="BC2" s="86"/>
+      <c r="BD2" s="86"/>
+      <c r="BE2" s="86"/>
+      <c r="BF2" s="86"/>
+      <c r="BG2" s="86"/>
+      <c r="BH2" s="86"/>
+      <c r="BI2" s="86"/>
+      <c r="BJ2" s="86"/>
+      <c r="BK2" s="86"/>
+      <c r="BL2" s="86"/>
+    </row>
+    <row r="3" spans="1:64" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
         <v>604</v>
       </c>
-      <c r="AX2" s="87"/>
-      <c r="AY2" s="87" t="s">
-        <v>269</v>
-      </c>
-      <c r="AZ2" s="87"/>
-      <c r="BA2" s="87"/>
-      <c r="BB2" s="87"/>
-      <c r="BC2" s="87"/>
-      <c r="BD2" s="87"/>
-      <c r="BE2" s="87"/>
-      <c r="BF2" s="87"/>
-      <c r="BG2" s="87"/>
-      <c r="BH2" s="87"/>
-      <c r="BI2" s="87"/>
-      <c r="BJ2" s="87"/>
-      <c r="BK2" s="87"/>
-      <c r="BL2" s="87"/>
-    </row>
-    <row r="3" spans="1:64" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" s="82" t="s">
-        <v>655</v>
+      <c r="B3" s="81" t="s">
+        <v>653</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>421</v>
@@ -9021,145 +9041,145 @@
       <c r="D3" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E3" s="109" t="s">
-        <v>656</v>
-      </c>
-      <c r="F3" s="82">
+      <c r="E3" s="108" t="s">
+        <v>654</v>
+      </c>
+      <c r="F3" s="81">
         <v>1100</v>
       </c>
-      <c r="G3" s="82" t="s">
-        <v>762</v>
+      <c r="G3" s="81" t="s">
+        <v>760</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I3" s="82" t="s">
+      <c r="I3" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J3" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="K3" s="81" t="s">
         <v>739</v>
       </c>
-      <c r="J3" s="82" t="s">
-        <v>740</v>
-      </c>
-      <c r="K3" s="82" t="s">
+      <c r="L3" s="81" t="s">
+        <v>761</v>
+      </c>
+      <c r="M3" s="81" t="s">
         <v>741</v>
       </c>
-      <c r="L3" s="82" t="s">
-        <v>763</v>
-      </c>
-      <c r="M3" s="82" t="s">
+      <c r="N3" s="81" t="s">
+        <v>742</v>
+      </c>
+      <c r="O3" s="7" t="s">
         <v>743</v>
-      </c>
-      <c r="N3" s="82" t="s">
-        <v>744</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>745</v>
       </c>
       <c r="P3" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q3" s="82" t="s">
+      <c r="Q3" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="R3" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="W3" s="7" t="s">
         <v>764</v>
       </c>
-      <c r="R3" s="82" t="s">
-        <v>764</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>747</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="V3" s="7" t="s">
+      <c r="X3" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="Y3" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="Y3" s="7" t="s">
-        <v>768</v>
-      </c>
       <c r="Z3" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB3" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AC3" s="81"/>
+      <c r="AD3" s="7" t="s">
         <v>755</v>
-      </c>
-      <c r="AB3" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="AC3" s="82"/>
-      <c r="AD3" s="7" t="s">
-        <v>757</v>
       </c>
       <c r="AE3" s="7"/>
       <c r="AF3" s="59"/>
-      <c r="AG3" s="82"/>
+      <c r="AG3" s="81"/>
       <c r="AH3" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI3" s="81"/>
+      <c r="AJ3" s="81" t="s">
+        <v>767</v>
+      </c>
+      <c r="AK3" s="86"/>
+      <c r="AL3" s="86"/>
+      <c r="AM3" s="86"/>
+      <c r="AN3" s="86"/>
+      <c r="AO3" s="86"/>
+      <c r="AP3" s="90">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="AQ3" s="90">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="AR3" s="90">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="AS3" s="90" t="s">
+        <v>768</v>
+      </c>
+      <c r="AT3" s="88" t="s">
+        <v>656</v>
+      </c>
+      <c r="AU3" s="89" t="s">
         <v>758</v>
       </c>
-      <c r="AI3" s="82"/>
-      <c r="AJ3" s="82" t="s">
-        <v>769</v>
-      </c>
-      <c r="AK3" s="87"/>
-      <c r="AL3" s="87"/>
-      <c r="AM3" s="87"/>
-      <c r="AN3" s="87"/>
-      <c r="AO3" s="87"/>
-      <c r="AP3" s="91">
-        <v>9.9500000000000005E-3</v>
-      </c>
-      <c r="AQ3" s="91">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="AR3" s="91">
-        <v>2.6450000000000001E-2</v>
-      </c>
-      <c r="AS3" s="91" t="s">
-        <v>770</v>
-      </c>
-      <c r="AT3" s="89" t="s">
-        <v>658</v>
-      </c>
-      <c r="AU3" s="90" t="s">
-        <v>760</v>
-      </c>
-      <c r="AV3" s="87" t="s">
-        <v>761</v>
-      </c>
-      <c r="AW3" s="89" t="s">
-        <v>604</v>
-      </c>
-      <c r="AX3" s="87"/>
-      <c r="AY3" s="87" t="s">
+      <c r="AV3" s="86" t="s">
+        <v>759</v>
+      </c>
+      <c r="AW3" s="88" t="s">
+        <v>602</v>
+      </c>
+      <c r="AX3" s="86"/>
+      <c r="AY3" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="AZ3" s="87"/>
-      <c r="BA3" s="87"/>
-      <c r="BB3" s="87"/>
-      <c r="BC3" s="87"/>
-      <c r="BD3" s="87"/>
-      <c r="BE3" s="87"/>
-      <c r="BF3" s="87"/>
-      <c r="BG3" s="87"/>
-      <c r="BH3" s="87"/>
-      <c r="BI3" s="87"/>
-      <c r="BJ3" s="87"/>
-      <c r="BK3" s="87"/>
-      <c r="BL3" s="87"/>
+      <c r="AZ3" s="86"/>
+      <c r="BA3" s="86"/>
+      <c r="BB3" s="86"/>
+      <c r="BC3" s="86"/>
+      <c r="BD3" s="86"/>
+      <c r="BE3" s="86"/>
+      <c r="BF3" s="86"/>
+      <c r="BG3" s="86"/>
+      <c r="BH3" s="86"/>
+      <c r="BI3" s="86"/>
+      <c r="BJ3" s="86"/>
+      <c r="BK3" s="86"/>
+      <c r="BL3" s="86"/>
     </row>
-    <row r="4" spans="1:64" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+    <row r="4" spans="1:64" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
         <v>443</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>599</v>
+      <c r="B4" s="81" t="s">
+        <v>597</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>421</v>
@@ -9167,141 +9187,141 @@
       <c r="D4" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E4" s="109" t="s">
-        <v>656</v>
-      </c>
-      <c r="F4" s="82">
+      <c r="E4" s="108" t="s">
+        <v>654</v>
+      </c>
+      <c r="F4" s="81">
         <v>1100</v>
       </c>
-      <c r="G4" s="82" t="s">
-        <v>771</v>
+      <c r="G4" s="81" t="s">
+        <v>769</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I4" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>740</v>
-      </c>
-      <c r="K4" s="82" t="s">
+      <c r="I4" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J4" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="K4" s="81" t="s">
+        <v>770</v>
+      </c>
+      <c r="L4" s="81" t="s">
+        <v>771</v>
+      </c>
+      <c r="M4" s="81" t="s">
         <v>772</v>
       </c>
-      <c r="L4" s="82" t="s">
+      <c r="N4" s="81" t="s">
         <v>773</v>
       </c>
-      <c r="M4" s="82" t="s">
-        <v>774</v>
-      </c>
-      <c r="N4" s="82" t="s">
-        <v>775</v>
-      </c>
       <c r="O4" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q4" s="82" t="s">
-        <v>764</v>
-      </c>
-      <c r="R4" s="82" t="s">
-        <v>764</v>
+      <c r="Q4" s="81" t="s">
+        <v>762</v>
+      </c>
+      <c r="R4" s="81" t="s">
+        <v>762</v>
       </c>
       <c r="S4" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U4" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T4" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="U4" s="7" t="s">
-        <v>749</v>
-      </c>
       <c r="V4" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="X4" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="Y4" s="7" t="s">
         <v>777</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="Z4" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB4" s="7" t="s">
         <v>778</v>
-      </c>
-      <c r="Y4" s="7" t="s">
-        <v>779</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>754</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>780</v>
       </c>
       <c r="AC4" s="7"/>
       <c r="AD4" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AE4" s="7"/>
       <c r="AF4" s="59"/>
-      <c r="AG4" s="82"/>
+      <c r="AG4" s="81"/>
       <c r="AH4" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="AI4" s="82"/>
-      <c r="AJ4" s="82" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI4" s="81"/>
+      <c r="AJ4" s="81" t="s">
+        <v>779</v>
+      </c>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="86" t="s">
+        <v>445</v>
+      </c>
+      <c r="AM4" s="91">
+        <v>1171049.45</v>
+      </c>
+      <c r="AN4" s="92" t="s">
+        <v>463</v>
+      </c>
+      <c r="AO4" s="93">
+        <v>885.51</v>
+      </c>
+      <c r="AP4" s="93"/>
+      <c r="AQ4" s="86" t="s">
+        <v>445</v>
+      </c>
+      <c r="AR4" s="94">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="86"/>
+      <c r="AU4" s="86"/>
+      <c r="AV4" s="86"/>
+      <c r="AW4" s="86"/>
+      <c r="AX4" s="86"/>
+      <c r="AY4" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="AZ4" s="86"/>
+      <c r="BA4" s="86"/>
+      <c r="BB4" s="86"/>
+      <c r="BC4" s="86"/>
+      <c r="BD4" s="86"/>
+      <c r="BE4" s="86"/>
+      <c r="BF4" s="86"/>
+      <c r="BG4" s="86"/>
+      <c r="BH4" s="86"/>
+      <c r="BI4" s="86"/>
+      <c r="BJ4" s="86"/>
+      <c r="BK4" s="86"/>
+      <c r="BL4" s="86"/>
+    </row>
+    <row r="5" spans="1:64" s="84" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81" t="s">
+        <v>780</v>
+      </c>
+      <c r="B5" s="81" t="s">
         <v>781</v>
-      </c>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87" t="s">
-        <v>445</v>
-      </c>
-      <c r="AM4" s="92">
-        <v>1171049.45</v>
-      </c>
-      <c r="AN4" s="93" t="s">
-        <v>463</v>
-      </c>
-      <c r="AO4" s="94">
-        <v>885.51</v>
-      </c>
-      <c r="AP4" s="94"/>
-      <c r="AQ4" s="87" t="s">
-        <v>445</v>
-      </c>
-      <c r="AR4" s="95">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AS4" s="94"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="87"/>
-      <c r="AY4" s="87" t="s">
-        <v>269</v>
-      </c>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="87"/>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
-      <c r="BL4" s="87"/>
-    </row>
-    <row r="5" spans="1:64" s="85" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
-        <v>782</v>
-      </c>
-      <c r="B5" s="82" t="s">
-        <v>783</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>421</v>
@@ -9309,145 +9329,145 @@
       <c r="D5" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E5" s="110" t="s">
-        <v>784</v>
-      </c>
-      <c r="F5" s="82">
+      <c r="E5" s="109" t="s">
+        <v>782</v>
+      </c>
+      <c r="F5" s="81">
         <v>1100</v>
       </c>
-      <c r="G5" s="82" t="s">
-        <v>785</v>
+      <c r="G5" s="81" t="s">
+        <v>783</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I5" s="82" t="s">
+      <c r="I5" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J5" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="K5" s="81" t="s">
         <v>739</v>
       </c>
-      <c r="J5" s="82" t="s">
-        <v>740</v>
-      </c>
-      <c r="K5" s="82" t="s">
+      <c r="L5" s="81" t="s">
+        <v>784</v>
+      </c>
+      <c r="M5" s="81" t="s">
         <v>741</v>
       </c>
-      <c r="L5" s="82" t="s">
-        <v>786</v>
-      </c>
-      <c r="M5" s="82" t="s">
+      <c r="N5" s="81" t="s">
+        <v>742</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>743</v>
-      </c>
-      <c r="N5" s="82" t="s">
-        <v>744</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>745</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q5" s="82" t="s">
-        <v>787</v>
-      </c>
-      <c r="R5" s="82" t="s">
-        <v>787</v>
+      <c r="Q5" s="81" t="s">
+        <v>785</v>
+      </c>
+      <c r="R5" s="81" t="s">
+        <v>785</v>
       </c>
       <c r="S5" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U5" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="U5" s="7" t="s">
-        <v>749</v>
-      </c>
       <c r="V5" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="X5" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="Y5" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="X5" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>768</v>
-      </c>
       <c r="Z5" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB5" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="AA5" s="7" t="s">
+      <c r="AC5" s="81"/>
+      <c r="AD5" s="7" t="s">
         <v>755</v>
-      </c>
-      <c r="AB5" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="7" t="s">
-        <v>757</v>
       </c>
       <c r="AE5" s="7"/>
       <c r="AF5" s="59"/>
-      <c r="AG5" s="82"/>
+      <c r="AG5" s="81"/>
       <c r="AH5" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI5" s="81"/>
+      <c r="AJ5" s="81" t="s">
+        <v>767</v>
+      </c>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
+      <c r="AO5" s="86"/>
+      <c r="AP5" s="90">
+        <v>9.9500000000000005E-3</v>
+      </c>
+      <c r="AQ5" s="90">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="AR5" s="90">
+        <v>2.6450000000000001E-2</v>
+      </c>
+      <c r="AS5" s="90" t="s">
+        <v>768</v>
+      </c>
+      <c r="AT5" s="88" t="s">
+        <v>656</v>
+      </c>
+      <c r="AU5" s="89" t="s">
         <v>758</v>
       </c>
-      <c r="AI5" s="82"/>
-      <c r="AJ5" s="82" t="s">
-        <v>769</v>
-      </c>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="91">
-        <v>9.9500000000000005E-3</v>
-      </c>
-      <c r="AQ5" s="91">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="AR5" s="91">
-        <v>2.6450000000000001E-2</v>
-      </c>
-      <c r="AS5" s="91" t="s">
-        <v>770</v>
-      </c>
-      <c r="AT5" s="89" t="s">
-        <v>658</v>
-      </c>
-      <c r="AU5" s="90" t="s">
-        <v>760</v>
-      </c>
-      <c r="AV5" s="87" t="s">
-        <v>761</v>
-      </c>
-      <c r="AW5" s="89" t="s">
-        <v>604</v>
-      </c>
-      <c r="AX5" s="87"/>
-      <c r="AY5" s="87" t="s">
+      <c r="AV5" s="86" t="s">
+        <v>759</v>
+      </c>
+      <c r="AW5" s="88" t="s">
+        <v>602</v>
+      </c>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="AZ5" s="87"/>
-      <c r="BA5" s="87"/>
-      <c r="BB5" s="87"/>
-      <c r="BC5" s="87"/>
-      <c r="BD5" s="87"/>
-      <c r="BE5" s="87"/>
-      <c r="BF5" s="87"/>
-      <c r="BG5" s="87"/>
-      <c r="BH5" s="87"/>
-      <c r="BI5" s="87"/>
-      <c r="BJ5" s="87"/>
-      <c r="BK5" s="87"/>
-      <c r="BL5" s="87"/>
+      <c r="AZ5" s="86"/>
+      <c r="BA5" s="86"/>
+      <c r="BB5" s="86"/>
+      <c r="BC5" s="86"/>
+      <c r="BD5" s="86"/>
+      <c r="BE5" s="86"/>
+      <c r="BF5" s="86"/>
+      <c r="BG5" s="86"/>
+      <c r="BH5" s="86"/>
+      <c r="BI5" s="86"/>
+      <c r="BJ5" s="86"/>
+      <c r="BK5" s="86"/>
+      <c r="BL5" s="86"/>
     </row>
-    <row r="6" spans="1:64" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+    <row r="6" spans="1:64" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="81" t="s">
         <v>581</v>
       </c>
-      <c r="B6" s="82" t="s">
-        <v>783</v>
+      <c r="B6" s="81" t="s">
+        <v>781</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>421</v>
@@ -9455,137 +9475,137 @@
       <c r="D6" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E6" s="110" t="s">
-        <v>784</v>
-      </c>
-      <c r="F6" s="82">
+      <c r="E6" s="109" t="s">
+        <v>782</v>
+      </c>
+      <c r="F6" s="81">
         <v>1100</v>
       </c>
-      <c r="G6" s="82" t="s">
-        <v>788</v>
+      <c r="G6" s="81" t="s">
+        <v>786</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I6" s="82" t="s">
+      <c r="I6" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J6" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="K6" s="81" t="s">
         <v>739</v>
       </c>
-      <c r="J6" s="82" t="s">
-        <v>740</v>
-      </c>
-      <c r="K6" s="82" t="s">
+      <c r="L6" s="81" t="s">
+        <v>787</v>
+      </c>
+      <c r="M6" s="81" t="s">
         <v>741</v>
       </c>
-      <c r="L6" s="82" t="s">
-        <v>789</v>
-      </c>
-      <c r="M6" s="82" t="s">
+      <c r="N6" s="81" t="s">
+        <v>742</v>
+      </c>
+      <c r="O6" s="7" t="s">
         <v>743</v>
-      </c>
-      <c r="N6" s="82" t="s">
-        <v>744</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>745</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q6" s="82" t="s">
-        <v>790</v>
-      </c>
-      <c r="R6" s="82" t="s">
-        <v>790</v>
+      <c r="Q6" s="81" t="s">
+        <v>788</v>
+      </c>
+      <c r="R6" s="81" t="s">
+        <v>788</v>
       </c>
       <c r="S6" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="V6" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="W6" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="X6" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="Y6" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="Z6" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="Y6" s="7" t="s">
+      <c r="AA6" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="Z6" s="7" t="s">
+      <c r="AB6" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="AA6" s="7" t="s">
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="7" t="s">
         <v>755</v>
-      </c>
-      <c r="AB6" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="AC6" s="82"/>
-      <c r="AD6" s="7" t="s">
-        <v>757</v>
       </c>
       <c r="AE6" s="7"/>
       <c r="AF6" s="59"/>
-      <c r="AG6" s="82"/>
+      <c r="AG6" s="81"/>
       <c r="AH6" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI6" s="81"/>
+      <c r="AJ6" s="81" t="s">
+        <v>757</v>
+      </c>
+      <c r="AK6" s="86"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="86"/>
+      <c r="AO6" s="86"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="86"/>
+      <c r="AR6" s="86"/>
+      <c r="AS6" s="86"/>
+      <c r="AT6" s="88" t="s">
+        <v>656</v>
+      </c>
+      <c r="AU6" s="89" t="s">
         <v>758</v>
       </c>
-      <c r="AI6" s="82"/>
-      <c r="AJ6" s="82" t="s">
+      <c r="AV6" s="86" t="s">
         <v>759</v>
       </c>
-      <c r="AK6" s="87"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="87"/>
-      <c r="AP6" s="88"/>
-      <c r="AQ6" s="87"/>
-      <c r="AR6" s="87"/>
-      <c r="AS6" s="87"/>
-      <c r="AT6" s="89" t="s">
-        <v>658</v>
-      </c>
-      <c r="AU6" s="90" t="s">
-        <v>760</v>
-      </c>
-      <c r="AV6" s="87" t="s">
-        <v>761</v>
-      </c>
-      <c r="AW6" s="89" t="s">
-        <v>604</v>
-      </c>
-      <c r="AX6" s="87"/>
-      <c r="AY6" s="87" t="s">
+      <c r="AW6" s="88" t="s">
+        <v>602</v>
+      </c>
+      <c r="AX6" s="86"/>
+      <c r="AY6" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="AZ6" s="87"/>
-      <c r="BA6" s="87"/>
-      <c r="BB6" s="87"/>
-      <c r="BC6" s="87"/>
-      <c r="BD6" s="87"/>
-      <c r="BE6" s="87"/>
-      <c r="BF6" s="87"/>
-      <c r="BG6" s="87"/>
-      <c r="BH6" s="87"/>
-      <c r="BI6" s="87"/>
-      <c r="BJ6" s="87"/>
-      <c r="BK6" s="87"/>
-      <c r="BL6" s="87"/>
+      <c r="AZ6" s="86"/>
+      <c r="BA6" s="86"/>
+      <c r="BB6" s="86"/>
+      <c r="BC6" s="86"/>
+      <c r="BD6" s="86"/>
+      <c r="BE6" s="86"/>
+      <c r="BF6" s="86"/>
+      <c r="BG6" s="86"/>
+      <c r="BH6" s="86"/>
+      <c r="BI6" s="86"/>
+      <c r="BJ6" s="86"/>
+      <c r="BK6" s="86"/>
+      <c r="BL6" s="86"/>
     </row>
-    <row r="7" spans="1:64" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
-        <v>791</v>
-      </c>
-      <c r="B7" s="82" t="s">
-        <v>792</v>
+    <row r="7" spans="1:64" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="81" t="s">
+        <v>789</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>790</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>421</v>
@@ -9593,137 +9613,137 @@
       <c r="D7" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E7" s="110" t="s">
-        <v>784</v>
-      </c>
-      <c r="F7" s="82">
+      <c r="E7" s="109" t="s">
+        <v>782</v>
+      </c>
+      <c r="F7" s="81">
         <v>1100</v>
       </c>
-      <c r="G7" s="82" t="s">
-        <v>793</v>
+      <c r="G7" s="81" t="s">
+        <v>791</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I7" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="J7" s="82" t="s">
-        <v>740</v>
-      </c>
-      <c r="K7" s="82" t="s">
+      <c r="I7" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J7" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="K7" s="81" t="s">
+        <v>792</v>
+      </c>
+      <c r="L7" s="81" t="s">
+        <v>793</v>
+      </c>
+      <c r="M7" s="81" t="s">
         <v>794</v>
       </c>
-      <c r="L7" s="82" t="s">
+      <c r="N7" s="81" t="s">
         <v>795</v>
       </c>
-      <c r="M7" s="82" t="s">
-        <v>796</v>
-      </c>
-      <c r="N7" s="82" t="s">
-        <v>797</v>
-      </c>
       <c r="O7" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q7" s="82" t="s">
-        <v>798</v>
-      </c>
-      <c r="R7" s="82" t="s">
-        <v>798</v>
+      <c r="Q7" s="81" t="s">
+        <v>796</v>
+      </c>
+      <c r="R7" s="81" t="s">
+        <v>796</v>
       </c>
       <c r="S7" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T7" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U7" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="U7" s="7" t="s">
-        <v>749</v>
-      </c>
       <c r="V7" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="W7" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="X7" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="W7" s="7" t="s">
+      <c r="Y7" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="X7" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="Y7" s="7" t="s">
-        <v>768</v>
-      </c>
       <c r="Z7" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA7" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB7" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="AA7" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB7" s="7" t="s">
-        <v>756</v>
       </c>
       <c r="AC7" s="7"/>
       <c r="AD7" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AE7" s="7"/>
       <c r="AF7" s="59"/>
-      <c r="AG7" s="82"/>
+      <c r="AG7" s="81"/>
       <c r="AH7" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="AI7" s="82"/>
-      <c r="AJ7" s="82" t="s">
-        <v>781</v>
-      </c>
-      <c r="AK7" s="87"/>
-      <c r="AL7" s="87" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI7" s="81"/>
+      <c r="AJ7" s="81" t="s">
+        <v>779</v>
+      </c>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="AM7" s="92">
+      <c r="AM7" s="91">
         <v>1171049.45</v>
       </c>
-      <c r="AN7" s="93" t="s">
+      <c r="AN7" s="92" t="s">
         <v>463</v>
       </c>
-      <c r="AO7" s="94">
+      <c r="AO7" s="93">
         <v>885.51</v>
       </c>
-      <c r="AP7" s="94"/>
-      <c r="AQ7" s="87"/>
-      <c r="AR7" s="95"/>
-      <c r="AS7" s="94"/>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="87"/>
-      <c r="AV7" s="87"/>
-      <c r="AW7" s="87"/>
-      <c r="AX7" s="87"/>
-      <c r="AY7" s="87" t="s">
+      <c r="AP7" s="93"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="94"/>
+      <c r="AS7" s="93"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="86"/>
+      <c r="AX7" s="86"/>
+      <c r="AY7" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="AZ7" s="87"/>
-      <c r="BA7" s="87"/>
-      <c r="BB7" s="87"/>
-      <c r="BC7" s="87"/>
-      <c r="BD7" s="87"/>
-      <c r="BE7" s="87"/>
-      <c r="BF7" s="87"/>
-      <c r="BG7" s="87"/>
-      <c r="BH7" s="87"/>
-      <c r="BI7" s="87"/>
-      <c r="BJ7" s="87"/>
-      <c r="BK7" s="87"/>
-      <c r="BL7" s="87"/>
+      <c r="AZ7" s="86"/>
+      <c r="BA7" s="86"/>
+      <c r="BB7" s="86"/>
+      <c r="BC7" s="86"/>
+      <c r="BD7" s="86"/>
+      <c r="BE7" s="86"/>
+      <c r="BF7" s="86"/>
+      <c r="BG7" s="86"/>
+      <c r="BH7" s="86"/>
+      <c r="BI7" s="86"/>
+      <c r="BJ7" s="86"/>
+      <c r="BK7" s="86"/>
+      <c r="BL7" s="86"/>
     </row>
-    <row r="8" spans="1:64" s="85" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
-        <v>799</v>
-      </c>
-      <c r="B8" s="82" t="s">
-        <v>800</v>
+    <row r="8" spans="1:64" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="81" t="s">
+        <v>797</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>798</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>421</v>
@@ -9731,149 +9751,149 @@
       <c r="D8" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E8" s="110" t="s">
-        <v>784</v>
-      </c>
-      <c r="F8" s="82">
+      <c r="E8" s="109" t="s">
+        <v>782</v>
+      </c>
+      <c r="F8" s="81">
         <v>1100</v>
       </c>
-      <c r="G8" s="82" t="s">
-        <v>801</v>
+      <c r="G8" s="81" t="s">
+        <v>799</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I8" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="J8" s="82" t="s">
-        <v>740</v>
-      </c>
-      <c r="K8" s="82" t="s">
-        <v>802</v>
-      </c>
-      <c r="L8" s="82" t="s">
-        <v>803</v>
-      </c>
-      <c r="M8" s="82" t="s">
-        <v>796</v>
-      </c>
-      <c r="N8" s="82" t="s">
-        <v>797</v>
+      <c r="I8" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J8" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="K8" s="81" t="s">
+        <v>800</v>
+      </c>
+      <c r="L8" s="81" t="s">
+        <v>801</v>
+      </c>
+      <c r="M8" s="81" t="s">
+        <v>794</v>
+      </c>
+      <c r="N8" s="81" t="s">
+        <v>795</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q8" s="82" t="s">
-        <v>804</v>
-      </c>
-      <c r="R8" s="82" t="s">
-        <v>804</v>
+      <c r="Q8" s="81" t="s">
+        <v>802</v>
+      </c>
+      <c r="R8" s="81" t="s">
+        <v>802</v>
       </c>
       <c r="S8" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U8" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T8" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="U8" s="7" t="s">
-        <v>749</v>
-      </c>
       <c r="V8" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="W8" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="X8" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="W8" s="7" t="s">
+      <c r="Y8" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="X8" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="Y8" s="7" t="s">
-        <v>768</v>
-      </c>
       <c r="Z8" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA8" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB8" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="AA8" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB8" s="7" t="s">
-        <v>756</v>
       </c>
       <c r="AC8" s="7"/>
       <c r="AD8" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AE8" s="7"/>
       <c r="AF8" s="59"/>
-      <c r="AG8" s="82"/>
+      <c r="AG8" s="81"/>
       <c r="AH8" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="AI8" s="82"/>
-      <c r="AJ8" s="82" t="s">
-        <v>781</v>
-      </c>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="92"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="96">
+        <v>756</v>
+      </c>
+      <c r="AI8" s="81"/>
+      <c r="AJ8" s="81" t="s">
+        <v>779</v>
+      </c>
+      <c r="AK8" s="86"/>
+      <c r="AL8" s="86"/>
+      <c r="AM8" s="91"/>
+      <c r="AN8" s="92"/>
+      <c r="AO8" s="95">
         <v>12</v>
       </c>
-      <c r="AP8" s="94" t="s">
+      <c r="AP8" s="93" t="s">
+        <v>803</v>
+      </c>
+      <c r="AQ8" s="86" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR8" s="94" t="s">
+        <v>804</v>
+      </c>
+      <c r="AS8" s="93" t="s">
         <v>805</v>
       </c>
-      <c r="AQ8" s="87" t="s">
-        <v>666</v>
-      </c>
-      <c r="AR8" s="95" t="s">
+      <c r="AT8" s="86" t="s">
+        <v>602</v>
+      </c>
+      <c r="AU8" s="86" t="s">
+        <v>623</v>
+      </c>
+      <c r="AV8" s="86" t="s">
         <v>806</v>
       </c>
-      <c r="AS8" s="94" t="s">
-        <v>807</v>
-      </c>
-      <c r="AT8" s="87" t="s">
-        <v>604</v>
-      </c>
-      <c r="AU8" s="87" t="s">
-        <v>625</v>
-      </c>
-      <c r="AV8" s="87" t="s">
-        <v>808</v>
-      </c>
-      <c r="AW8" s="87" t="s">
-        <v>604</v>
-      </c>
-      <c r="AX8" s="87" t="s">
-        <v>673</v>
-      </c>
-      <c r="AY8" s="87" t="s">
+      <c r="AW8" s="86" t="s">
+        <v>602</v>
+      </c>
+      <c r="AX8" s="86" t="s">
+        <v>671</v>
+      </c>
+      <c r="AY8" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="AZ8" s="87"/>
-      <c r="BA8" s="87"/>
-      <c r="BB8" s="87"/>
-      <c r="BC8" s="87"/>
-      <c r="BD8" s="87"/>
-      <c r="BE8" s="87"/>
-      <c r="BF8" s="87"/>
-      <c r="BG8" s="87"/>
-      <c r="BH8" s="87"/>
-      <c r="BI8" s="87"/>
-      <c r="BJ8" s="87"/>
-      <c r="BK8" s="87"/>
-      <c r="BL8" s="87"/>
+      <c r="AZ8" s="86"/>
+      <c r="BA8" s="86"/>
+      <c r="BB8" s="86"/>
+      <c r="BC8" s="86"/>
+      <c r="BD8" s="86"/>
+      <c r="BE8" s="86"/>
+      <c r="BF8" s="86"/>
+      <c r="BG8" s="86"/>
+      <c r="BH8" s="86"/>
+      <c r="BI8" s="86"/>
+      <c r="BJ8" s="86"/>
+      <c r="BK8" s="86"/>
+      <c r="BL8" s="86"/>
     </row>
     <row r="9" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
-        <v>809</v>
-      </c>
-      <c r="B9" s="82" t="s">
-        <v>668</v>
+      <c r="A9" s="81" t="s">
+        <v>807</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>666</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>421</v>
@@ -9881,147 +9901,147 @@
       <c r="D9" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E9" s="111" t="s">
-        <v>669</v>
-      </c>
-      <c r="F9" s="82">
+      <c r="E9" s="110" t="s">
+        <v>667</v>
+      </c>
+      <c r="F9" s="81">
         <v>1100</v>
       </c>
-      <c r="G9" s="82" t="s">
-        <v>738</v>
+      <c r="G9" s="81" t="s">
+        <v>736</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I9" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="J9" s="82" t="s">
-        <v>740</v>
-      </c>
-      <c r="K9" s="82" t="s">
-        <v>802</v>
-      </c>
-      <c r="L9" s="82" t="s">
+      <c r="I9" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J9" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="K9" s="81" t="s">
+        <v>800</v>
+      </c>
+      <c r="L9" s="81" t="s">
+        <v>808</v>
+      </c>
+      <c r="M9" s="81" t="s">
+        <v>809</v>
+      </c>
+      <c r="N9" s="81" t="s">
         <v>810</v>
       </c>
-      <c r="M9" s="82" t="s">
-        <v>811</v>
-      </c>
-      <c r="N9" s="82" t="s">
-        <v>812</v>
-      </c>
       <c r="O9" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q9" s="82" t="s">
-        <v>813</v>
-      </c>
-      <c r="R9" s="82" t="s">
-        <v>813</v>
+      <c r="Q9" s="81" t="s">
+        <v>811</v>
+      </c>
+      <c r="R9" s="81" t="s">
+        <v>811</v>
       </c>
       <c r="S9" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U9" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="V9" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="W9" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="X9" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="W9" s="7" t="s">
+      <c r="Y9" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="Z9" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="Y9" s="7" t="s">
+      <c r="AA9" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="Z9" s="7" t="s">
+      <c r="AB9" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="AA9" s="7" t="s">
+      <c r="AC9" s="81"/>
+      <c r="AD9" s="7" t="s">
         <v>755</v>
-      </c>
-      <c r="AB9" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="AC9" s="82"/>
-      <c r="AD9" s="7" t="s">
-        <v>757</v>
       </c>
       <c r="AE9" s="7"/>
       <c r="AF9" s="59"/>
-      <c r="AG9" s="82"/>
+      <c r="AG9" s="81"/>
       <c r="AH9" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="AI9" s="82"/>
-      <c r="AJ9" s="82" t="s">
-        <v>759</v>
-      </c>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="87"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="88" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI9" s="81"/>
+      <c r="AJ9" s="81" t="s">
+        <v>757</v>
+      </c>
+      <c r="AK9" s="86"/>
+      <c r="AL9" s="86"/>
+      <c r="AM9" s="86"/>
+      <c r="AN9" s="86"/>
+      <c r="AO9" s="86"/>
+      <c r="AP9" s="87" t="s">
+        <v>812</v>
+      </c>
+      <c r="AQ9" s="86" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR9" s="86" t="s">
+        <v>813</v>
+      </c>
+      <c r="AS9" s="86" t="s">
         <v>814</v>
       </c>
-      <c r="AQ9" s="87" t="s">
-        <v>666</v>
-      </c>
-      <c r="AR9" s="87" t="s">
-        <v>815</v>
-      </c>
-      <c r="AS9" s="87" t="s">
-        <v>816</v>
-      </c>
-      <c r="AT9" s="89" t="s">
+      <c r="AT9" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="AU9" s="89" t="s">
+        <v>623</v>
+      </c>
+      <c r="AV9" s="86" t="s">
+        <v>668</v>
+      </c>
+      <c r="AW9" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="AX9" s="86" t="s">
         <v>671</v>
       </c>
-      <c r="AU9" s="90" t="s">
-        <v>625</v>
-      </c>
-      <c r="AV9" s="87" t="s">
-        <v>670</v>
-      </c>
-      <c r="AW9" s="89" t="s">
-        <v>671</v>
-      </c>
-      <c r="AX9" s="87" t="s">
-        <v>673</v>
-      </c>
-      <c r="AY9" s="87" t="s">
+      <c r="AY9" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="AZ9" s="97"/>
-      <c r="BA9" s="97"/>
-      <c r="BB9" s="97"/>
-      <c r="BC9" s="97"/>
-      <c r="BD9" s="97"/>
-      <c r="BE9" s="97"/>
-      <c r="BF9" s="97"/>
-      <c r="BG9" s="97"/>
-      <c r="BH9" s="97"/>
-      <c r="BI9" s="97"/>
-      <c r="BJ9" s="97"/>
-      <c r="BK9" s="97"/>
-      <c r="BL9" s="97"/>
+      <c r="AZ9" s="96"/>
+      <c r="BA9" s="96"/>
+      <c r="BB9" s="96"/>
+      <c r="BC9" s="96"/>
+      <c r="BD9" s="96"/>
+      <c r="BE9" s="96"/>
+      <c r="BF9" s="96"/>
+      <c r="BG9" s="96"/>
+      <c r="BH9" s="96"/>
+      <c r="BI9" s="96"/>
+      <c r="BJ9" s="96"/>
+      <c r="BK9" s="96"/>
+      <c r="BL9" s="96"/>
     </row>
     <row r="10" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A10" s="82" t="s">
-        <v>817</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>668</v>
+      <c r="A10" s="81" t="s">
+        <v>815</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>666</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>421</v>
@@ -10029,147 +10049,147 @@
       <c r="D10" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E10" s="111" t="s">
-        <v>669</v>
-      </c>
-      <c r="F10" s="82">
+      <c r="E10" s="110" t="s">
+        <v>667</v>
+      </c>
+      <c r="F10" s="81">
         <v>1100</v>
       </c>
-      <c r="G10" s="82" t="s">
-        <v>762</v>
+      <c r="G10" s="81" t="s">
+        <v>760</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="I10" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="J10" s="82" t="s">
-        <v>740</v>
-      </c>
-      <c r="K10" s="82" t="s">
-        <v>818</v>
-      </c>
-      <c r="L10" s="82" t="s">
-        <v>819</v>
-      </c>
-      <c r="M10" s="82" t="s">
-        <v>811</v>
-      </c>
-      <c r="N10" s="82" t="s">
-        <v>812</v>
+      <c r="I10" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J10" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="K10" s="81" t="s">
+        <v>816</v>
+      </c>
+      <c r="L10" s="81" t="s">
+        <v>817</v>
+      </c>
+      <c r="M10" s="81" t="s">
+        <v>809</v>
+      </c>
+      <c r="N10" s="81" t="s">
+        <v>810</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="Q10" s="82" t="s">
-        <v>820</v>
-      </c>
-      <c r="R10" s="82" t="s">
-        <v>820</v>
+      <c r="Q10" s="81" t="s">
+        <v>818</v>
+      </c>
+      <c r="R10" s="81" t="s">
+        <v>818</v>
       </c>
       <c r="S10" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U10" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T10" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="U10" s="7" t="s">
-        <v>749</v>
-      </c>
       <c r="V10" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="X10" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="W10" s="7" t="s">
+      <c r="Y10" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="X10" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>768</v>
-      </c>
       <c r="Z10" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA10" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB10" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="AA10" s="7" t="s">
+      <c r="AC10" s="81"/>
+      <c r="AD10" s="7" t="s">
         <v>755</v>
-      </c>
-      <c r="AB10" s="7" t="s">
-        <v>756</v>
-      </c>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="7" t="s">
-        <v>757</v>
       </c>
       <c r="AE10" s="7"/>
       <c r="AF10" s="59"/>
-      <c r="AG10" s="82"/>
+      <c r="AG10" s="81"/>
       <c r="AH10" s="7" t="s">
-        <v>758</v>
-      </c>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82" t="s">
-        <v>769</v>
-      </c>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="91" t="s">
+        <v>756</v>
+      </c>
+      <c r="AI10" s="81"/>
+      <c r="AJ10" s="81" t="s">
+        <v>767</v>
+      </c>
+      <c r="AK10" s="86"/>
+      <c r="AL10" s="86"/>
+      <c r="AM10" s="86"/>
+      <c r="AN10" s="86"/>
+      <c r="AO10" s="86"/>
+      <c r="AP10" s="90" t="s">
+        <v>812</v>
+      </c>
+      <c r="AQ10" s="90" t="s">
+        <v>664</v>
+      </c>
+      <c r="AR10" s="90" t="s">
+        <v>813</v>
+      </c>
+      <c r="AS10" s="90" t="s">
         <v>814</v>
       </c>
-      <c r="AQ10" s="91" t="s">
-        <v>666</v>
-      </c>
-      <c r="AR10" s="91" t="s">
-        <v>815</v>
-      </c>
-      <c r="AS10" s="91" t="s">
-        <v>816</v>
-      </c>
-      <c r="AT10" s="89" t="s">
+      <c r="AT10" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="AU10" s="89" t="s">
+        <v>623</v>
+      </c>
+      <c r="AV10" s="86" t="s">
+        <v>668</v>
+      </c>
+      <c r="AW10" s="88" t="s">
+        <v>669</v>
+      </c>
+      <c r="AX10" s="86" t="s">
         <v>671</v>
       </c>
-      <c r="AU10" s="90" t="s">
-        <v>625</v>
-      </c>
-      <c r="AV10" s="87" t="s">
-        <v>670</v>
-      </c>
-      <c r="AW10" s="89" t="s">
-        <v>671</v>
-      </c>
-      <c r="AX10" s="87" t="s">
-        <v>673</v>
-      </c>
-      <c r="AY10" s="87" t="s">
+      <c r="AY10" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="AZ10" s="97"/>
-      <c r="BA10" s="97"/>
-      <c r="BB10" s="97"/>
-      <c r="BC10" s="97"/>
-      <c r="BD10" s="97"/>
-      <c r="BE10" s="97"/>
-      <c r="BF10" s="97"/>
-      <c r="BG10" s="97"/>
-      <c r="BH10" s="97"/>
-      <c r="BI10" s="97"/>
-      <c r="BJ10" s="97"/>
-      <c r="BK10" s="97"/>
-      <c r="BL10" s="97"/>
+      <c r="AZ10" s="96"/>
+      <c r="BA10" s="96"/>
+      <c r="BB10" s="96"/>
+      <c r="BC10" s="96"/>
+      <c r="BD10" s="96"/>
+      <c r="BE10" s="96"/>
+      <c r="BF10" s="96"/>
+      <c r="BG10" s="96"/>
+      <c r="BH10" s="96"/>
+      <c r="BI10" s="96"/>
+      <c r="BJ10" s="96"/>
+      <c r="BK10" s="96"/>
+      <c r="BL10" s="96"/>
     </row>
     <row r="11" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="81" t="s">
         <v>439</v>
       </c>
-      <c r="B11" s="82" t="s">
-        <v>821</v>
+      <c r="B11" s="81" t="s">
+        <v>819</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>421</v>
@@ -10177,125 +10197,125 @@
       <c r="D11" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E11" s="110" t="s">
-        <v>784</v>
-      </c>
-      <c r="F11" s="82">
+      <c r="E11" s="109" t="s">
+        <v>782</v>
+      </c>
+      <c r="F11" s="81">
         <v>1100</v>
       </c>
-      <c r="G11" s="82" t="s">
-        <v>801</v>
+      <c r="G11" s="81" t="s">
+        <v>799</v>
       </c>
       <c r="H11" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="I11" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="J11" s="82" t="s">
-        <v>740</v>
-      </c>
-      <c r="K11" s="82" t="s">
+      <c r="I11" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J11" s="81" t="s">
+        <v>738</v>
+      </c>
+      <c r="K11" s="81" t="s">
+        <v>820</v>
+      </c>
+      <c r="L11" s="56" t="s">
+        <v>821</v>
+      </c>
+      <c r="M11" s="56" t="s">
         <v>822</v>
       </c>
-      <c r="L11" s="56" t="s">
+      <c r="N11" s="56" t="s">
         <v>823</v>
       </c>
-      <c r="M11" s="56" t="s">
-        <v>824</v>
-      </c>
-      <c r="N11" s="56" t="s">
-        <v>825</v>
-      </c>
       <c r="O11" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>253</v>
       </c>
       <c r="Q11" s="56" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="R11" s="56" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="S11" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T11" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U11" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T11" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>749</v>
-      </c>
       <c r="V11" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="W11" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="X11" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="Y11" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="X11" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>768</v>
-      </c>
       <c r="Z11" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA11" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB11" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="AA11" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB11" s="7" t="s">
-        <v>756</v>
       </c>
       <c r="AC11" s="7"/>
       <c r="AD11" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AE11" s="56"/>
       <c r="AF11" s="56"/>
       <c r="AG11" s="56"/>
       <c r="AH11" s="56" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AI11" s="56"/>
-      <c r="AJ11" s="113"/>
-      <c r="AK11" s="97"/>
-      <c r="AL11" s="97"/>
-      <c r="AM11" s="97"/>
-      <c r="AN11" s="97"/>
-      <c r="AO11" s="97"/>
-      <c r="AP11" s="97"/>
-      <c r="AQ11" s="97"/>
-      <c r="AR11" s="97"/>
-      <c r="AS11" s="97"/>
-      <c r="AT11" s="97"/>
-      <c r="AU11" s="97"/>
-      <c r="AV11" s="97"/>
-      <c r="AW11" s="97"/>
-      <c r="AX11" s="97"/>
-      <c r="AY11" s="97"/>
-      <c r="AZ11" s="98"/>
-      <c r="BA11" s="97"/>
-      <c r="BB11" s="97"/>
-      <c r="BC11" s="97"/>
-      <c r="BD11" s="97"/>
-      <c r="BE11" s="97"/>
-      <c r="BF11" s="97"/>
-      <c r="BG11" s="97"/>
-      <c r="BH11" s="97"/>
-      <c r="BI11" s="97"/>
-      <c r="BJ11" s="97"/>
-      <c r="BK11" s="97"/>
-      <c r="BL11" s="97"/>
+      <c r="AJ11" s="112"/>
+      <c r="AK11" s="96"/>
+      <c r="AL11" s="96"/>
+      <c r="AM11" s="96"/>
+      <c r="AN11" s="96"/>
+      <c r="AO11" s="96"/>
+      <c r="AP11" s="96"/>
+      <c r="AQ11" s="96"/>
+      <c r="AR11" s="96"/>
+      <c r="AS11" s="96"/>
+      <c r="AT11" s="96"/>
+      <c r="AU11" s="96"/>
+      <c r="AV11" s="96"/>
+      <c r="AW11" s="96"/>
+      <c r="AX11" s="96"/>
+      <c r="AY11" s="96"/>
+      <c r="AZ11" s="97"/>
+      <c r="BA11" s="96"/>
+      <c r="BB11" s="96"/>
+      <c r="BC11" s="96"/>
+      <c r="BD11" s="96"/>
+      <c r="BE11" s="96"/>
+      <c r="BF11" s="96"/>
+      <c r="BG11" s="96"/>
+      <c r="BH11" s="96"/>
+      <c r="BI11" s="96"/>
+      <c r="BJ11" s="96"/>
+      <c r="BK11" s="96"/>
+      <c r="BL11" s="96"/>
     </row>
     <row r="12" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A12" s="82" t="s">
-        <v>827</v>
-      </c>
-      <c r="B12" s="82" t="s">
-        <v>678</v>
+      <c r="A12" s="81" t="s">
+        <v>825</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>676</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>421</v>
@@ -10303,30 +10323,30 @@
       <c r="D12" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E12" s="112" t="s">
-        <v>679</v>
-      </c>
-      <c r="F12" s="82">
+      <c r="E12" s="111" t="s">
+        <v>677</v>
+      </c>
+      <c r="F12" s="81">
         <v>1100</v>
       </c>
-      <c r="G12" s="82" t="s">
-        <v>738</v>
+      <c r="G12" s="81" t="s">
+        <v>736</v>
       </c>
       <c r="H12" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="I12" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="J12" s="82" t="s">
-        <v>740</v>
+      <c r="I12" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J12" s="81" t="s">
+        <v>738</v>
       </c>
       <c r="K12" s="56"/>
       <c r="L12" s="56"/>
       <c r="M12" s="56"/>
       <c r="N12" s="56"/>
       <c r="O12" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>253</v>
@@ -10334,84 +10354,84 @@
       <c r="Q12" s="56"/>
       <c r="R12" s="56"/>
       <c r="S12" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T12" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U12" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="V12" s="7" t="s">
         <v>748</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="W12" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="X12" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="W12" s="7" t="s">
+      <c r="Y12" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="X12" s="7" t="s">
+      <c r="Z12" s="7" t="s">
         <v>752</v>
       </c>
-      <c r="Y12" s="7" t="s">
+      <c r="AA12" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="Z12" s="7" t="s">
+      <c r="AB12" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="AA12" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB12" s="7" t="s">
-        <v>756</v>
       </c>
       <c r="AC12" s="56"/>
       <c r="AD12" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AE12" s="56"/>
       <c r="AF12" s="56"/>
       <c r="AG12" s="56"/>
       <c r="AH12" s="56" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AI12" s="56"/>
-      <c r="AJ12" s="82" t="s">
-        <v>759</v>
-      </c>
-      <c r="AK12" s="97"/>
-      <c r="AL12" s="97"/>
-      <c r="AM12" s="97"/>
-      <c r="AN12" s="97"/>
-      <c r="AO12" s="97"/>
-      <c r="AP12" s="97"/>
-      <c r="AQ12" s="97"/>
-      <c r="AR12" s="97"/>
-      <c r="AS12" s="97"/>
-      <c r="AT12" s="97"/>
-      <c r="AU12" s="97"/>
-      <c r="AV12" s="97"/>
-      <c r="AW12" s="97"/>
-      <c r="AX12" s="97"/>
-      <c r="AY12" s="97"/>
-      <c r="AZ12" s="98"/>
-      <c r="BA12" s="97"/>
-      <c r="BB12" s="97"/>
-      <c r="BC12" s="97"/>
-      <c r="BD12" s="97"/>
-      <c r="BE12" s="97"/>
-      <c r="BF12" s="97"/>
-      <c r="BG12" s="97"/>
-      <c r="BH12" s="97"/>
-      <c r="BI12" s="97"/>
-      <c r="BJ12" s="97"/>
-      <c r="BK12" s="97"/>
-      <c r="BL12" s="97"/>
+      <c r="AJ12" s="81" t="s">
+        <v>757</v>
+      </c>
+      <c r="AK12" s="96"/>
+      <c r="AL12" s="96"/>
+      <c r="AM12" s="96"/>
+      <c r="AN12" s="96"/>
+      <c r="AO12" s="96"/>
+      <c r="AP12" s="96"/>
+      <c r="AQ12" s="96"/>
+      <c r="AR12" s="96"/>
+      <c r="AS12" s="96"/>
+      <c r="AT12" s="96"/>
+      <c r="AU12" s="96"/>
+      <c r="AV12" s="96"/>
+      <c r="AW12" s="96"/>
+      <c r="AX12" s="96"/>
+      <c r="AY12" s="96"/>
+      <c r="AZ12" s="97"/>
+      <c r="BA12" s="96"/>
+      <c r="BB12" s="96"/>
+      <c r="BC12" s="96"/>
+      <c r="BD12" s="96"/>
+      <c r="BE12" s="96"/>
+      <c r="BF12" s="96"/>
+      <c r="BG12" s="96"/>
+      <c r="BH12" s="96"/>
+      <c r="BI12" s="96"/>
+      <c r="BJ12" s="96"/>
+      <c r="BK12" s="96"/>
+      <c r="BL12" s="96"/>
     </row>
     <row r="13" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A13" s="82" t="s">
-        <v>828</v>
-      </c>
-      <c r="B13" s="82" t="s">
-        <v>678</v>
+      <c r="A13" s="81" t="s">
+        <v>826</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>676</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>421</v>
@@ -10419,127 +10439,127 @@
       <c r="D13" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E13" s="112" t="s">
-        <v>679</v>
-      </c>
-      <c r="F13" s="82">
+      <c r="E13" s="111" t="s">
+        <v>677</v>
+      </c>
+      <c r="F13" s="81">
         <v>1100</v>
       </c>
-      <c r="G13" s="82" t="s">
-        <v>762</v>
+      <c r="G13" s="81" t="s">
+        <v>760</v>
       </c>
       <c r="H13" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="I13" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="J13" s="82" t="s">
-        <v>740</v>
+      <c r="I13" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J13" s="81" t="s">
+        <v>738</v>
       </c>
       <c r="K13" s="56" t="s">
+        <v>827</v>
+      </c>
+      <c r="L13" s="56" t="s">
+        <v>828</v>
+      </c>
+      <c r="M13" s="56" t="s">
         <v>829</v>
       </c>
-      <c r="L13" s="56" t="s">
+      <c r="N13" s="56" t="s">
         <v>830</v>
       </c>
-      <c r="M13" s="56" t="s">
-        <v>831</v>
-      </c>
-      <c r="N13" s="56" t="s">
-        <v>832</v>
-      </c>
       <c r="O13" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>253</v>
       </c>
       <c r="Q13" s="56" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="R13" s="56" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="S13" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U13" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T13" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="U13" s="7" t="s">
-        <v>749</v>
-      </c>
       <c r="V13" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="W13" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="X13" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="W13" s="7" t="s">
+      <c r="Y13" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="X13" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="Y13" s="7" t="s">
-        <v>768</v>
-      </c>
       <c r="Z13" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA13" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB13" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="AA13" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB13" s="7" t="s">
-        <v>756</v>
       </c>
       <c r="AC13" s="56"/>
       <c r="AD13" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AE13" s="56"/>
       <c r="AF13" s="56"/>
       <c r="AG13" s="56"/>
       <c r="AH13" s="56" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AI13" s="56"/>
-      <c r="AJ13" s="82" t="s">
-        <v>769</v>
-      </c>
-      <c r="AK13" s="114"/>
-      <c r="AL13" s="114"/>
-      <c r="AM13" s="114"/>
-      <c r="AN13" s="114"/>
-      <c r="AO13" s="114"/>
-      <c r="AP13" s="114"/>
-      <c r="AQ13" s="114"/>
-      <c r="AR13" s="114"/>
-      <c r="AS13" s="114"/>
-      <c r="AT13" s="114"/>
-      <c r="AU13" s="114"/>
-      <c r="AV13" s="97"/>
-      <c r="AW13" s="97"/>
-      <c r="AX13" s="97"/>
-      <c r="AY13" s="97"/>
-      <c r="AZ13" s="97"/>
-      <c r="BA13" s="97"/>
-      <c r="BB13" s="97"/>
-      <c r="BC13" s="97"/>
-      <c r="BD13" s="97"/>
-      <c r="BE13" s="97"/>
-      <c r="BF13" s="97"/>
-      <c r="BG13" s="97"/>
-      <c r="BH13" s="97"/>
-      <c r="BI13" s="97"/>
-      <c r="BJ13" s="97"/>
-      <c r="BK13" s="97"/>
-      <c r="BL13" s="99"/>
+      <c r="AJ13" s="81" t="s">
+        <v>767</v>
+      </c>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="113"/>
+      <c r="AM13" s="113"/>
+      <c r="AN13" s="113"/>
+      <c r="AO13" s="113"/>
+      <c r="AP13" s="113"/>
+      <c r="AQ13" s="113"/>
+      <c r="AR13" s="113"/>
+      <c r="AS13" s="113"/>
+      <c r="AT13" s="113"/>
+      <c r="AU13" s="113"/>
+      <c r="AV13" s="96"/>
+      <c r="AW13" s="96"/>
+      <c r="AX13" s="96"/>
+      <c r="AY13" s="96"/>
+      <c r="AZ13" s="96"/>
+      <c r="BA13" s="96"/>
+      <c r="BB13" s="96"/>
+      <c r="BC13" s="96"/>
+      <c r="BD13" s="96"/>
+      <c r="BE13" s="96"/>
+      <c r="BF13" s="96"/>
+      <c r="BG13" s="96"/>
+      <c r="BH13" s="96"/>
+      <c r="BI13" s="96"/>
+      <c r="BJ13" s="96"/>
+      <c r="BK13" s="96"/>
+      <c r="BL13" s="98"/>
     </row>
     <row r="14" spans="1:64" x14ac:dyDescent="0.25">
-      <c r="A14" s="82" t="s">
-        <v>834</v>
-      </c>
-      <c r="B14" s="82" t="s">
-        <v>835</v>
+      <c r="A14" s="81" t="s">
+        <v>832</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>833</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>421</v>
@@ -10547,90 +10567,90 @@
       <c r="D14" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="E14" s="110" t="s">
-        <v>784</v>
-      </c>
-      <c r="F14" s="82">
+      <c r="E14" s="109" t="s">
+        <v>782</v>
+      </c>
+      <c r="F14" s="81">
         <v>1100</v>
       </c>
-      <c r="G14" s="82" t="s">
-        <v>801</v>
+      <c r="G14" s="81" t="s">
+        <v>799</v>
       </c>
       <c r="H14" s="56" t="s">
         <v>235</v>
       </c>
-      <c r="I14" s="82" t="s">
-        <v>739</v>
-      </c>
-      <c r="J14" s="82" t="s">
-        <v>740</v>
+      <c r="I14" s="81" t="s">
+        <v>737</v>
+      </c>
+      <c r="J14" s="81" t="s">
+        <v>738</v>
       </c>
       <c r="K14" s="56" t="s">
+        <v>834</v>
+      </c>
+      <c r="L14" s="56" t="s">
+        <v>835</v>
+      </c>
+      <c r="M14" s="56" t="s">
         <v>836</v>
       </c>
-      <c r="L14" s="56" t="s">
+      <c r="N14" s="56" t="s">
         <v>837</v>
       </c>
-      <c r="M14" s="56" t="s">
-        <v>838</v>
-      </c>
-      <c r="N14" s="56" t="s">
-        <v>839</v>
-      </c>
       <c r="O14" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>253</v>
       </c>
       <c r="Q14" s="56" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="R14" s="56" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="S14" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="T14" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="U14" s="7" t="s">
         <v>747</v>
       </c>
-      <c r="T14" s="7" t="s">
-        <v>748</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>749</v>
-      </c>
       <c r="V14" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="W14" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="X14" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="W14" s="7" t="s">
+      <c r="Y14" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="X14" s="7" t="s">
-        <v>767</v>
-      </c>
-      <c r="Y14" s="7" t="s">
-        <v>768</v>
-      </c>
       <c r="Z14" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="AA14" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB14" s="7" t="s">
         <v>754</v>
-      </c>
-      <c r="AA14" s="7" t="s">
-        <v>755</v>
-      </c>
-      <c r="AB14" s="7" t="s">
-        <v>756</v>
       </c>
       <c r="AC14" s="56"/>
       <c r="AD14" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="AE14" s="56"/>
       <c r="AF14" s="56"/>
       <c r="AG14" s="56"/>
       <c r="AH14" s="56" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="AI14" s="56"/>
-      <c r="AJ14" s="113"/>
+      <c r="AJ14" s="112"/>
       <c r="AK14" s="56"/>
       <c r="AL14" s="56"/>
       <c r="AM14" s="56"/>

--- a/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
+++ b/DataSet/NewUATDeals_DataSet/Deal_PIM_Future_BILAT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Evergreen\fms_cba\DataSet\NewUATDeals_DataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76A09D72-4309-4F51-BE1F-73D14472628C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7E883E-259E-4C66-A55D-C2DE99FEA327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="905" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="937">
   <si>
     <t>rowid</t>
   </si>
@@ -2843,6 +2843,9 @@
   </si>
   <si>
     <t>885.30</t>
+  </si>
+  <si>
+    <t>Expected_PaidToDate</t>
   </si>
 </sst>
 </file>
@@ -7596,8 +7599,8 @@
   </sheetPr>
   <dimension ref="A1:AN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7704,7 +7707,9 @@
       <c r="U1" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="V1" s="134"/>
+      <c r="V1" s="24" t="s">
+        <v>936</v>
+      </c>
       <c r="W1" s="134"/>
       <c r="X1" s="134"/>
       <c r="Y1" s="134"/>
@@ -7786,7 +7791,9 @@
       <c r="U2" s="81" t="s">
         <v>605</v>
       </c>
-      <c r="V2" s="136"/>
+      <c r="V2" s="128" t="s">
+        <v>770</v>
+      </c>
       <c r="W2" s="136"/>
       <c r="X2" s="137"/>
       <c r="Y2" s="137"/>
@@ -7868,7 +7875,9 @@
       <c r="U3" s="81" t="s">
         <v>605</v>
       </c>
-      <c r="V3" s="136"/>
+      <c r="V3" s="128" t="s">
+        <v>770</v>
+      </c>
       <c r="W3" s="136"/>
       <c r="X3" s="137"/>
       <c r="Y3" s="137"/>
